--- a/PrecificarEquipamentos_Duda.xlsx
+++ b/PrecificarEquipamentos_Duda.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26516"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://oceanpact.sharepoint.com/sites/Projetoinventrio/Documentos Compartilhados/General/INVENTÁRIO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://oceanpact-my.sharepoint.com/personal/william_silva_oceanpact_com/Documents/Documentos/GitHub/Inventario_PowerBI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1087" documentId="8_{72529B7D-A18F-4E0A-9CAE-0F418ECF5B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB8551A7-1C26-4570-9EC6-B0E27E9C72D0}"/>
+  <xr:revisionPtr revIDLastSave="1093" documentId="8_{72529B7D-A18F-4E0A-9CAE-0F418ECF5B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DE5AB63-0184-42DB-A814-C340A1F792AA}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2964" yWindow="2964" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Duda" sheetId="1" r:id="rId1"/>
@@ -44,41 +44,41 @@
   <commentList>
     <comment ref="M109" authorId="0" shapeId="0" xr:uid="{9B39A4C3-88EB-4E72-B6CE-44FFDA3D7AAA}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
     Confirmar amanhã</t>
       </text>
     </comment>
     <comment ref="M110" authorId="1" shapeId="0" xr:uid="{50C4091B-4129-43C8-B8AF-A76D2B356C49}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
     Inoperante</t>
       </text>
     </comment>
     <comment ref="M130" authorId="2" shapeId="0" xr:uid="{481D60E5-DC93-4F5B-95A7-B615FADBFA37}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
     Inoperante</t>
       </text>
     </comment>
     <comment ref="H140" authorId="3" shapeId="0" xr:uid="{133877F9-B89D-4F9F-A48D-A9FE089DC91C}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
     Tem 3, mas todas estão ruins</t>
       </text>
     </comment>
     <comment ref="H141" authorId="4" shapeId="0" xr:uid="{E8FEC7E3-B860-4E63-83C5-C5874548E571}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
     Tem 3, mas todas estão ruins</t>
       </text>
     </comment>
@@ -2050,7 +2050,7 @@
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3711,13 +3711,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
@@ -3736,6 +3729,13 @@
       <fill>
         <patternFill patternType="none"/>
       </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3950,20 +3950,20 @@
     <v>5</v>
     <v>5.5297000000000001</v>
     <v>4.6896000000000004</v>
-    <v>4.9762000000000004</v>
-    <v>4.9352</v>
+    <v>4.9926000000000004</v>
+    <v>4.9424999999999999</v>
     <v>USD</v>
-    <v>4.9714</v>
-    <v>45070.757997685185</v>
+    <v>4.9619</v>
+    <v>45071.55537037037</v>
     <v>BRL</v>
     <v>US Dollar/Brazilian Real FX Spot Rate</v>
-    <v>4.9714</v>
-    <v>4.9469000000000003</v>
+    <v>4.9610000000000003</v>
+    <v>4.9873000000000003</v>
     <v>USDBRL</v>
     <v>Par de Moedas</v>
     <v>USD/BRL</v>
-    <v>-2.4500000000000001E-2</v>
-    <v>-4.9280000000000001E-3</v>
+    <v>2.5399999999999999E-2</v>
+    <v>5.1190000000000003E-3</v>
   </rv>
   <rv s="1">
     <v>0</v>
@@ -4188,7 +4188,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{487EB123-9A0E-4DE6-AC09-2D80046E6087}" name="Tabela1" displayName="Tabela1" ref="A1:I281" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{487EB123-9A0E-4DE6-AC09-2D80046E6087}" name="Tabela1" displayName="Tabela1" ref="A1:I281" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <autoFilter ref="A1:I281" xr:uid="{487EB123-9A0E-4DE6-AC09-2D80046E6087}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{3DB87A71-FCE0-4F2B-8162-CE1B89AB53E9}" name="FIRME?" dataDxfId="8"/>
@@ -4206,7 +4206,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4525,24 +4525,24 @@
   <dimension ref="A1:XFB282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E246" sqref="E246"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.28515625" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" style="8" customWidth="1"/>
-    <col min="6" max="7" width="24.85546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="58.33203125" customWidth="1"/>
+    <col min="3" max="3" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" style="8" customWidth="1"/>
+    <col min="6" max="7" width="24.88671875" style="7" customWidth="1"/>
     <col min="8" max="8" width="19" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="172.5703125" customWidth="1"/>
-    <col min="10" max="12" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="172.5546875" customWidth="1"/>
+    <col min="10" max="12" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21.6" thickBot="1">
+    <row r="1" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1">
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>10</v>
       </c>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="F2" s="22">
         <f>E2*K2</f>
-        <v>204653.25300000003</v>
+        <v>206324.60100000002</v>
       </c>
       <c r="G2" s="22"/>
       <c r="H2" s="11">
@@ -4607,14 +4607,14 @@
       </c>
       <c r="K2" s="2" cm="1">
         <f t="array" ref="K2">_FV(J2,"Preço",TRUE)</f>
-        <v>4.9469000000000003</v>
+        <v>4.9873000000000003</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:13" ht="15" thickBot="1">
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
@@ -4632,7 +4632,7 @@
       </c>
       <c r="F3" s="22">
         <f>E3*K2</f>
-        <v>204653.25300000003</v>
+        <v>206324.60100000002</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="11">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
@@ -4665,7 +4665,7 @@
       </c>
       <c r="F4" s="22">
         <f>E4*K2</f>
-        <v>204653.25300000003</v>
+        <v>206324.60100000002</v>
       </c>
       <c r="G4" s="22"/>
       <c r="H4" s="11">
@@ -4674,7 +4674,7 @@
       <c r="I4" s="12"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>19</v>
       </c>
@@ -4693,7 +4693,7 @@
       </c>
       <c r="F5" s="22">
         <f>K2*E5</f>
-        <v>129984.74440000001</v>
+        <v>131046.2948</v>
       </c>
       <c r="G5" s="22"/>
       <c r="H5" s="11">
@@ -4707,7 +4707,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>19</v>
       </c>
@@ -4726,7 +4726,7 @@
       </c>
       <c r="F6" s="22">
         <f>K2*E6</f>
-        <v>154719.2444</v>
+        <v>155982.7948</v>
       </c>
       <c r="G6" s="22"/>
       <c r="H6" s="10">
@@ -4740,7 +4740,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>19</v>
       </c>
@@ -4758,7 +4758,7 @@
       </c>
       <c r="F7" s="22">
         <f>K2*E7</f>
-        <v>139878.54440000001</v>
+        <v>141020.89480000001</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="10">
@@ -4772,7 +4772,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
@@ -4790,7 +4790,7 @@
       </c>
       <c r="F8" s="22">
         <f>K2*E8</f>
-        <v>267206.20987199998</v>
+        <v>269388.41102400003</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="11">
@@ -4804,7 +4804,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
@@ -4822,7 +4822,7 @@
       </c>
       <c r="F9" s="22">
         <f>K2*E9</f>
-        <v>100669.41500000001</v>
+        <v>101491.55500000001</v>
       </c>
       <c r="G9" s="22"/>
       <c r="H9" s="10">
@@ -4836,7 +4836,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
@@ -4854,7 +4854,7 @@
       </c>
       <c r="F10" s="22">
         <f>K2*E10</f>
-        <v>160361.23331899999</v>
+        <v>161670.860323</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="10">
@@ -4868,7 +4868,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -4886,7 +4886,7 @@
       </c>
       <c r="F11" s="22">
         <f>K2*E11</f>
-        <v>380777.73370000004</v>
+        <v>383887.44290000002</v>
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="10">
@@ -4900,7 +4900,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>19</v>
       </c>
@@ -4918,7 +4918,7 @@
       </c>
       <c r="F12" s="22">
         <f>K2*E12</f>
-        <v>118725.6</v>
+        <v>119695.20000000001</v>
       </c>
       <c r="G12" s="22"/>
       <c r="H12" s="10">
@@ -4932,7 +4932,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
@@ -4950,7 +4950,7 @@
       </c>
       <c r="F13" s="22">
         <f>K2*E13</f>
-        <v>167289.31730000002</v>
+        <v>168655.52410000001</v>
       </c>
       <c r="G13" s="22"/>
       <c r="H13" s="10">
@@ -4965,7 +4965,7 @@
       <c r="K13" s="106"/>
       <c r="L13" s="106"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
@@ -4983,7 +4983,7 @@
       </c>
       <c r="F14" s="22">
         <f>K2*E14</f>
-        <v>167289.31730000002</v>
+        <v>168655.52410000001</v>
       </c>
       <c r="G14" s="22"/>
       <c r="H14" s="10">
@@ -4998,7 +4998,7 @@
       <c r="K14" s="106"/>
       <c r="L14" s="106"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="10" t="s">
         <v>43</v>
@@ -5014,7 +5014,7 @@
       </c>
       <c r="F15" s="22">
         <f>K2*E15</f>
-        <v>1166.528489</v>
+        <v>1176.0552130000001</v>
       </c>
       <c r="G15" s="22"/>
       <c r="H15" s="10">
@@ -5028,7 +5028,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="10" t="s">
         <v>46</v>
@@ -5044,7 +5044,7 @@
       </c>
       <c r="F16" s="22">
         <f>K2*E16</f>
-        <v>34380.955000000002</v>
+        <v>34661.735000000001</v>
       </c>
       <c r="G16" s="22"/>
       <c r="H16" s="10">
@@ -5058,7 +5058,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="10" t="s">
         <v>46</v>
@@ -5074,7 +5074,7 @@
       </c>
       <c r="F17" s="22">
         <f>K2*E17</f>
-        <v>25352.862500000003</v>
+        <v>25559.912500000002</v>
       </c>
       <c r="G17" s="22"/>
       <c r="H17" s="10">
@@ -5088,7 +5088,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="10" t="s">
         <v>46</v>
@@ -5104,7 +5104,7 @@
       </c>
       <c r="F18" s="22">
         <f>K2*E18</f>
-        <v>34380.955000000002</v>
+        <v>34661.735000000001</v>
       </c>
       <c r="G18" s="22"/>
       <c r="H18" s="10">
@@ -5118,7 +5118,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1">
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>10</v>
       </c>
@@ -5136,7 +5136,7 @@
       </c>
       <c r="F19" s="22">
         <f>K2*E19</f>
-        <v>2147.3503519999999</v>
+        <v>2164.8871840000002</v>
       </c>
       <c r="G19" s="22"/>
       <c r="H19" s="10">
@@ -5150,7 +5150,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>10</v>
       </c>
@@ -5168,7 +5168,7 @@
       </c>
       <c r="F20" s="22">
         <f>K2*E20</f>
-        <v>2147.3503519999999</v>
+        <v>2164.8871840000002</v>
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="10">
@@ -5182,7 +5182,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>10</v>
       </c>
@@ -5200,7 +5200,7 @@
       </c>
       <c r="F21" s="22">
         <f>K2*E21</f>
-        <v>2147.3503519999999</v>
+        <v>2164.8871840000002</v>
       </c>
       <c r="G21" s="22"/>
       <c r="H21" s="11">
@@ -5214,7 +5214,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>10</v>
       </c>
@@ -5232,7 +5232,7 @@
       </c>
       <c r="F22" s="22">
         <f>K2*E22</f>
-        <v>2147.3503519999999</v>
+        <v>2164.8871840000002</v>
       </c>
       <c r="G22" s="22"/>
       <c r="H22" s="10">
@@ -5246,7 +5246,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="10" t="s">
         <v>60</v>
@@ -5262,7 +5262,7 @@
       </c>
       <c r="F23" s="22">
         <f>K2*E23</f>
-        <v>9893.8000000000011</v>
+        <v>9974.6</v>
       </c>
       <c r="G23" s="22"/>
       <c r="H23" s="10">
@@ -5276,7 +5276,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="10" t="s">
         <v>60</v>
@@ -5292,7 +5292,7 @@
       </c>
       <c r="F24" s="22">
         <f>K2*E24</f>
-        <v>9893.8000000000011</v>
+        <v>9974.6</v>
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="10">
@@ -5306,7 +5306,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1">
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="10" t="s">
         <v>60</v>
@@ -5322,7 +5322,7 @@
       </c>
       <c r="F25" s="22">
         <f>K2*E25</f>
-        <v>9893.8000000000011</v>
+        <v>9974.6</v>
       </c>
       <c r="G25" s="22"/>
       <c r="H25" s="10">
@@ -5336,7 +5336,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="10" t="s">
         <v>60</v>
@@ -5352,7 +5352,7 @@
       </c>
       <c r="F26" s="22">
         <f>K2*E26</f>
-        <v>4843.0151000000005</v>
+        <v>4882.5667000000003</v>
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="10">
@@ -5366,7 +5366,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>10</v>
       </c>
@@ -5384,7 +5384,7 @@
       </c>
       <c r="F27" s="22">
         <f>K2*E27</f>
-        <v>75288.355169999995</v>
+        <v>75903.214890000003</v>
       </c>
       <c r="G27" s="22"/>
       <c r="H27" s="11">
@@ -5398,7 +5398,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="14.45" customHeight="1">
+    <row r="28" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>10</v>
       </c>
@@ -5416,7 +5416,7 @@
       </c>
       <c r="F28" s="22">
         <f>K2*E28</f>
-        <v>54415.9</v>
+        <v>54860.3</v>
       </c>
       <c r="G28" s="22"/>
       <c r="H28" s="10">
@@ -5431,7 +5431,7 @@
       <c r="K28" s="106"/>
       <c r="L28" s="106"/>
     </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1">
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>10</v>
       </c>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="F29" s="22">
         <f>K2*E29</f>
-        <v>54415.9</v>
+        <v>54860.3</v>
       </c>
       <c r="G29" s="22"/>
       <c r="H29" s="11">
@@ -5464,7 +5464,7 @@
       <c r="K29" s="106"/>
       <c r="L29" s="106"/>
     </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1">
+    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>19</v>
       </c>
@@ -5482,7 +5482,7 @@
       </c>
       <c r="F30" s="22">
         <f>K$2*E30</f>
-        <v>89044.200000000012</v>
+        <v>89771.400000000009</v>
       </c>
       <c r="G30" s="22"/>
       <c r="H30" s="10">
@@ -5495,7 +5495,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>19</v>
       </c>
@@ -5513,7 +5513,7 @@
       </c>
       <c r="F31" s="22">
         <f>K2*E31</f>
-        <v>24734.5</v>
+        <v>24936.5</v>
       </c>
       <c r="G31" s="22"/>
       <c r="H31" s="11">
@@ -5526,7 +5526,7 @@
       <c r="K31" s="106"/>
       <c r="L31" s="106"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>19</v>
       </c>
@@ -5544,7 +5544,7 @@
       </c>
       <c r="F32" s="22">
         <f>K2*E32</f>
-        <v>3284.7416000000003</v>
+        <v>3311.5672000000004</v>
       </c>
       <c r="G32" s="22"/>
       <c r="H32" s="10">
@@ -5558,7 +5558,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>19</v>
       </c>
@@ -5576,7 +5576,7 @@
       </c>
       <c r="F33" s="22">
         <f>K2*E33</f>
-        <v>3284.7416000000003</v>
+        <v>3311.5672000000004</v>
       </c>
       <c r="G33" s="22"/>
       <c r="H33" s="11">
@@ -5590,7 +5590,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>19</v>
       </c>
@@ -5608,7 +5608,7 @@
       </c>
       <c r="F34" s="22">
         <f>K2*E34</f>
-        <v>3284.7416000000003</v>
+        <v>3311.5672000000004</v>
       </c>
       <c r="G34" s="22"/>
       <c r="H34" s="10">
@@ -5622,7 +5622,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>19</v>
       </c>
@@ -5640,7 +5640,7 @@
       </c>
       <c r="F35" s="22">
         <f>K2*E35</f>
-        <v>3284.7416000000003</v>
+        <v>3311.5672000000004</v>
       </c>
       <c r="G35" s="22"/>
       <c r="H35" s="10">
@@ -5654,7 +5654,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
       <c r="B36" s="10" t="s">
         <v>86</v>
@@ -5670,7 +5670,7 @@
       </c>
       <c r="F36" s="22">
         <f>K2*E36</f>
-        <v>24991.738800000003</v>
+        <v>25195.839600000003</v>
       </c>
       <c r="G36" s="22"/>
       <c r="H36" s="10">
@@ -5684,7 +5684,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
       <c r="B37" s="10" t="s">
         <v>86</v>
@@ -5700,7 +5700,7 @@
       </c>
       <c r="F37" s="22">
         <f>K2*E37</f>
-        <v>61836.250000000007</v>
+        <v>62341.25</v>
       </c>
       <c r="G37" s="22"/>
       <c r="H37" s="10">
@@ -5714,7 +5714,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
       <c r="B38" s="10" t="s">
         <v>86</v>
@@ -5730,7 +5730,7 @@
       </c>
       <c r="F38" s="22">
         <f>K2*E38</f>
-        <v>24991.738800000003</v>
+        <v>25195.839600000003</v>
       </c>
       <c r="G38" s="22"/>
       <c r="H38" s="10">
@@ -5744,7 +5744,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
       <c r="B39" s="10" t="s">
         <v>86</v>
@@ -5760,7 +5760,7 @@
       </c>
       <c r="F39" s="22">
         <f>K2*E39</f>
-        <v>24991.738800000003</v>
+        <v>25195.839600000003</v>
       </c>
       <c r="G39" s="22"/>
       <c r="H39" s="10">
@@ -5774,7 +5774,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="9"/>
       <c r="B40" s="10" t="s">
         <v>86</v>
@@ -5790,7 +5790,7 @@
       </c>
       <c r="F40" s="22">
         <f>K2*E40</f>
-        <v>17314.150000000001</v>
+        <v>17455.55</v>
       </c>
       <c r="G40" s="22"/>
       <c r="H40" s="10">
@@ -5804,7 +5804,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>19</v>
       </c>
@@ -5822,7 +5822,7 @@
       </c>
       <c r="F41" s="22">
         <f>K2*E41</f>
-        <v>22261.050000000003</v>
+        <v>22442.850000000002</v>
       </c>
       <c r="G41" s="22"/>
       <c r="H41" s="10">
@@ -5836,7 +5836,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
       <c r="B42" s="10" t="s">
         <v>86</v>
@@ -5852,7 +5852,7 @@
       </c>
       <c r="F42" s="22">
         <f>K2*E42</f>
-        <v>4803.4399000000003</v>
+        <v>4842.6683000000003</v>
       </c>
       <c r="G42" s="22"/>
       <c r="H42" s="10">
@@ -5866,7 +5866,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
       <c r="B43" s="10" t="s">
         <v>86</v>
@@ -5882,7 +5882,7 @@
       </c>
       <c r="F43" s="22">
         <f>K2*E43</f>
-        <v>31242.938454000003</v>
+        <v>31498.091118</v>
       </c>
       <c r="G43" s="22"/>
       <c r="H43" s="10">
@@ -5896,7 +5896,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>19</v>
       </c>
@@ -5914,7 +5914,7 @@
       </c>
       <c r="F44" s="22">
         <f>K2*E44</f>
-        <v>15493.6908</v>
+        <v>15620.223600000001</v>
       </c>
       <c r="G44" s="22"/>
       <c r="H44" s="10">
@@ -5928,7 +5928,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>10</v>
       </c>
@@ -5946,7 +5946,7 @@
       </c>
       <c r="F45" s="22">
         <f>K2*E45</f>
-        <v>31858.036000000004</v>
+        <v>32118.212000000003</v>
       </c>
       <c r="G45" s="22"/>
       <c r="H45" s="10">
@@ -5960,7 +5960,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>10</v>
       </c>
@@ -5978,7 +5978,7 @@
       </c>
       <c r="F46" s="22">
         <f>K2*E46</f>
-        <v>45832.929561999998</v>
+        <v>46207.234753999997</v>
       </c>
       <c r="G46" s="22"/>
       <c r="H46" s="10">
@@ -5992,7 +5992,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>19</v>
       </c>
@@ -6010,7 +6010,7 @@
       </c>
       <c r="F47" s="22">
         <f>K$2*E47</f>
-        <v>395752</v>
+        <v>398984</v>
       </c>
       <c r="G47" s="22"/>
       <c r="H47" s="10">
@@ -6021,7 +6021,7 @@
       </c>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>19</v>
       </c>
@@ -6039,7 +6039,7 @@
       </c>
       <c r="F48" s="22">
         <f>K$2*E48</f>
-        <v>262185.7</v>
+        <v>264326.90000000002</v>
       </c>
       <c r="G48" s="22"/>
       <c r="H48" s="10">
@@ -6050,7 +6050,7 @@
       </c>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>10</v>
       </c>
@@ -6068,7 +6068,7 @@
       </c>
       <c r="F49" s="22">
         <f>K2*E49</f>
-        <v>286722.32400000002</v>
+        <v>289063.908</v>
       </c>
       <c r="G49" s="22"/>
       <c r="H49" s="10">
@@ -6082,7 +6082,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>10</v>
       </c>
@@ -6100,7 +6100,7 @@
       </c>
       <c r="F50" s="22">
         <f>K2*E50</f>
-        <v>24412.951500000003</v>
+        <v>24612.325500000003</v>
       </c>
       <c r="G50" s="22"/>
       <c r="H50" s="10">
@@ -6114,7 +6114,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>10</v>
       </c>
@@ -6132,7 +6132,7 @@
       </c>
       <c r="F51" s="22">
         <f>K2*E51</f>
-        <v>520211.05710000003</v>
+        <v>524459.48070000007</v>
       </c>
       <c r="G51" s="22"/>
       <c r="H51" s="10">
@@ -6146,7 +6146,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
       <c r="B52" s="10" t="s">
         <v>132</v>
@@ -6162,7 +6162,7 @@
       </c>
       <c r="F52" s="22">
         <f>K2*E52</f>
-        <v>11130.525000000001</v>
+        <v>11221.425000000001</v>
       </c>
       <c r="G52" s="22"/>
       <c r="H52" s="10">
@@ -6176,7 +6176,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
       <c r="B53" s="10" t="s">
         <v>132</v>
@@ -6192,7 +6192,7 @@
       </c>
       <c r="F53" s="22">
         <f>K2*E53</f>
-        <v>16596.8495</v>
+        <v>16732.391500000002</v>
       </c>
       <c r="G53" s="22"/>
       <c r="H53" s="10">
@@ -6206,7 +6206,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
       <c r="B54" s="10" t="s">
         <v>132</v>
@@ -6222,7 +6222,7 @@
       </c>
       <c r="F54" s="22">
         <f>K2*E54</f>
-        <v>14741.762000000001</v>
+        <v>14862.154</v>
       </c>
       <c r="G54" s="22"/>
       <c r="H54" s="10">
@@ -6236,7 +6236,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="9"/>
       <c r="B55" s="10" t="s">
         <v>137</v>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="F55" s="22">
         <f>K2*E55</f>
-        <v>2707.4878389999999</v>
+        <v>2729.5991629999999</v>
       </c>
       <c r="G55" s="22"/>
       <c r="H55" s="10">
@@ -6266,7 +6266,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="9"/>
       <c r="B56" s="10" t="s">
         <v>137</v>
@@ -6282,7 +6282,7 @@
       </c>
       <c r="F56" s="22">
         <f>K2*E56</f>
-        <v>4729.7805590000007</v>
+        <v>4768.4074030000002</v>
       </c>
       <c r="G56" s="22"/>
       <c r="H56" s="10">
@@ -6296,7 +6296,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="9"/>
       <c r="B57" s="10" t="s">
         <v>137</v>
@@ -6312,7 +6312,7 @@
       </c>
       <c r="F57" s="22">
         <f>K2*E57</f>
-        <v>7420.1026550000006</v>
+        <v>7480.7006350000011</v>
       </c>
       <c r="G57" s="22"/>
       <c r="H57" s="10">
@@ -6326,7 +6326,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="9"/>
       <c r="B58" s="10" t="s">
         <v>137</v>
@@ -6342,7 +6342,7 @@
       </c>
       <c r="F58" s="22">
         <f>K2*E58</f>
-        <v>2775.7055900000005</v>
+        <v>2798.3740300000004</v>
       </c>
       <c r="G58" s="22"/>
       <c r="H58" s="10">
@@ -6356,7 +6356,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
       <c r="B59" s="10" t="s">
         <v>137</v>
@@ -6372,7 +6372,7 @@
       </c>
       <c r="F59" s="22">
         <f>K2*E59</f>
-        <v>3993.4839630000001</v>
+        <v>4026.097671</v>
       </c>
       <c r="G59" s="22"/>
       <c r="H59" s="10">
@@ -6386,7 +6386,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="9"/>
       <c r="B60" s="10" t="s">
         <v>148</v>
@@ -6402,7 +6402,7 @@
       </c>
       <c r="F60" s="22">
         <f>K2*E60</f>
-        <v>2359.6713</v>
+        <v>2378.9421000000002</v>
       </c>
       <c r="G60" s="22"/>
       <c r="H60" s="10">
@@ -6416,7 +6416,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="9"/>
       <c r="B61" s="10" t="s">
         <v>152</v>
@@ -6432,7 +6432,7 @@
       </c>
       <c r="F61" s="22">
         <f>K2*E61</f>
-        <v>29952.341713000005</v>
+        <v>30196.954421000002</v>
       </c>
       <c r="G61" s="22"/>
       <c r="H61" s="10">
@@ -6446,7 +6446,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="9"/>
       <c r="B62" s="10" t="s">
         <v>152</v>
@@ -6462,7 +6462,7 @@
       </c>
       <c r="F62" s="22">
         <f>K2*E62</f>
-        <v>29952.341713000005</v>
+        <v>30196.954421000002</v>
       </c>
       <c r="G62" s="22"/>
       <c r="H62" s="10">
@@ -6476,7 +6476,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="9"/>
       <c r="B63" s="10" t="s">
         <v>157</v>
@@ -6492,7 +6492,7 @@
       </c>
       <c r="F63" s="22">
         <f>K2*E63</f>
-        <v>97790.319200000013</v>
+        <v>98588.946400000001</v>
       </c>
       <c r="G63" s="22"/>
       <c r="H63" s="10">
@@ -6506,7 +6506,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="9"/>
       <c r="B64" s="10" t="s">
         <v>161</v>
@@ -6522,7 +6522,7 @@
       </c>
       <c r="F64" s="22">
         <f>K2*E64</f>
-        <v>816238.5</v>
+        <v>822904.5</v>
       </c>
       <c r="G64" s="22"/>
       <c r="H64" s="10">
@@ -6536,7 +6536,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="9"/>
       <c r="B65" s="10" t="s">
         <v>164</v>
@@ -6562,7 +6562,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="9"/>
       <c r="B66" s="10" t="s">
         <v>166</v>
@@ -6578,7 +6578,7 @@
       </c>
       <c r="F66" s="22">
         <f>K2*E66</f>
-        <v>42864.888500000001</v>
+        <v>43214.9545</v>
       </c>
       <c r="G66" s="22"/>
       <c r="H66" s="10">
@@ -6592,7 +6592,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="9"/>
       <c r="B67" s="10" t="s">
         <v>166</v>
@@ -6608,7 +6608,7 @@
       </c>
       <c r="F67" s="22">
         <f>K2*E67</f>
-        <v>44225.87962800001</v>
+        <v>44587.060476000006</v>
       </c>
       <c r="G67" s="22"/>
       <c r="H67" s="10">
@@ -6622,7 +6622,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="9"/>
       <c r="B68" s="10" t="s">
         <v>166</v>
@@ -6638,7 +6638,7 @@
       </c>
       <c r="F68" s="22">
         <f>K2*E68</f>
-        <v>44225.87962800001</v>
+        <v>44587.060476000006</v>
       </c>
       <c r="G68" s="22"/>
       <c r="H68" s="10">
@@ -6652,7 +6652,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="9"/>
       <c r="B69" s="10" t="s">
         <v>166</v>
@@ -6668,7 +6668,7 @@
       </c>
       <c r="F69" s="22">
         <f>K2*E69</f>
-        <v>44225.87962800001</v>
+        <v>44587.060476000006</v>
       </c>
       <c r="G69" s="22"/>
       <c r="H69" s="10">
@@ -6682,7 +6682,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="9"/>
       <c r="B70" s="10" t="s">
         <v>166</v>
@@ -6698,7 +6698,7 @@
       </c>
       <c r="F70" s="22">
         <f>K2*E70</f>
-        <v>123969.31400000001</v>
+        <v>124981.73800000001</v>
       </c>
       <c r="G70" s="22"/>
       <c r="H70" s="10">
@@ -6712,7 +6712,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>19</v>
       </c>
@@ -6730,7 +6730,7 @@
       </c>
       <c r="F71" s="22">
         <f>K2*E71</f>
-        <v>127382.675</v>
+        <v>128422.97500000001</v>
       </c>
       <c r="G71" s="22"/>
       <c r="H71" s="10">
@@ -6744,7 +6744,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>19</v>
       </c>
@@ -6762,7 +6762,7 @@
       </c>
       <c r="F72" s="22">
         <f>K2*E72</f>
-        <v>128297.8515</v>
+        <v>129345.62550000001</v>
       </c>
       <c r="G72" s="22"/>
       <c r="H72" s="10">
@@ -6776,7 +6776,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>19</v>
       </c>
@@ -6794,7 +6794,7 @@
       </c>
       <c r="F73" s="22">
         <f>K2*E73</f>
-        <v>107842.42000000001</v>
+        <v>108723.14</v>
       </c>
       <c r="G73" s="22"/>
       <c r="H73" s="10">
@@ -6808,7 +6808,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
         <v>10</v>
       </c>
@@ -6826,7 +6826,7 @@
       </c>
       <c r="F74" s="22">
         <f>K2*E74</f>
-        <v>50977.804500000006</v>
+        <v>51394.126500000006</v>
       </c>
       <c r="G74" s="22"/>
       <c r="H74" s="11">
@@ -6840,7 +6840,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
         <v>19</v>
       </c>
@@ -6858,7 +6858,7 @@
       </c>
       <c r="F75" s="22">
         <f>K2*E75</f>
-        <v>293252.23200000002</v>
+        <v>295647.14400000003</v>
       </c>
       <c r="G75" s="22"/>
       <c r="H75" s="10">
@@ -6872,7 +6872,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="9"/>
       <c r="B76" s="10" t="s">
         <v>166</v>
@@ -6888,7 +6888,7 @@
       </c>
       <c r="F76" s="22">
         <f>K2*E76</f>
-        <v>107154.8009</v>
+        <v>108029.90530000001</v>
       </c>
       <c r="G76" s="22"/>
       <c r="H76" s="10">
@@ -6902,7 +6902,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="9"/>
       <c r="B77" s="10" t="s">
         <v>184</v>
@@ -6918,7 +6918,7 @@
       </c>
       <c r="F77" s="22">
         <f>K2*E77</f>
-        <v>496.37194600000004</v>
+        <v>500.42568200000005</v>
       </c>
       <c r="G77" s="22"/>
       <c r="H77" s="10">
@@ -6932,7 +6932,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="9"/>
       <c r="B78" s="10" t="s">
         <v>188</v>
@@ -6958,7 +6958,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="9"/>
       <c r="B79" s="10" t="s">
         <v>191</v>
@@ -6974,7 +6974,7 @@
       </c>
       <c r="F79" s="22">
         <f>K2*E79</f>
-        <v>126416.34755400001</v>
+        <v>127448.75581800001</v>
       </c>
       <c r="G79" s="22"/>
       <c r="H79" s="10">
@@ -6988,7 +6988,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="9"/>
       <c r="B80" s="10" t="s">
         <v>195</v>
@@ -7004,7 +7004,7 @@
       </c>
       <c r="F80" s="22">
         <f>K2*E80</f>
-        <v>8273.3439670000007</v>
+        <v>8340.9101390000014</v>
       </c>
       <c r="G80" s="22"/>
       <c r="H80" s="10">
@@ -7018,7 +7018,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="9"/>
       <c r="B81" s="10" t="s">
         <v>199</v>
@@ -7034,7 +7034,7 @@
       </c>
       <c r="F81" s="22">
         <f>K2*E81</f>
-        <v>300771.52</v>
+        <v>303227.84000000003</v>
       </c>
       <c r="G81" s="22"/>
       <c r="H81" s="10">
@@ -7048,7 +7048,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="9"/>
       <c r="B82" s="10" t="s">
         <v>203</v>
@@ -7064,7 +7064,7 @@
       </c>
       <c r="F82" s="22">
         <f>K2*E82</f>
-        <v>41801.305</v>
+        <v>42142.685000000005</v>
       </c>
       <c r="G82" s="22"/>
       <c r="H82" s="10">
@@ -7078,7 +7078,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="9"/>
       <c r="B83" s="10" t="s">
         <v>203</v>
@@ -7094,7 +7094,7 @@
       </c>
       <c r="F83" s="22">
         <f>K2*E83</f>
-        <v>41801.305</v>
+        <v>42142.685000000005</v>
       </c>
       <c r="G83" s="22"/>
       <c r="H83" s="10">
@@ -7108,7 +7108,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="9"/>
       <c r="B84" s="10" t="s">
         <v>208</v>
@@ -7124,7 +7124,7 @@
       </c>
       <c r="F84" s="22">
         <f>K2*E84</f>
-        <v>1405.3648209999999</v>
+        <v>1416.8420570000001</v>
       </c>
       <c r="G84" s="22"/>
       <c r="H84" s="10">
@@ -7138,7 +7138,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="9"/>
       <c r="B85" s="10" t="s">
         <v>208</v>
@@ -7154,7 +7154,7 @@
       </c>
       <c r="F85" s="22">
         <f>K2*E85</f>
-        <v>1103.1092310000001</v>
+        <v>1112.1180270000002</v>
       </c>
       <c r="G85" s="22"/>
       <c r="H85" s="10">
@@ -7168,7 +7168,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="9"/>
       <c r="B86" s="10" t="s">
         <v>212</v>
@@ -7184,7 +7184,7 @@
       </c>
       <c r="F86" s="22">
         <f>K2*E86</f>
-        <v>1282.8795769999999</v>
+        <v>1293.356509</v>
       </c>
       <c r="G86" s="22"/>
       <c r="H86" s="10">
@@ -7198,7 +7198,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="9"/>
       <c r="B87" s="10" t="s">
         <v>214</v>
@@ -7214,7 +7214,7 @@
       </c>
       <c r="F87" s="22">
         <f>K2*E87</f>
-        <v>600.60312899999997</v>
+        <v>605.50809300000003</v>
       </c>
       <c r="G87" s="22"/>
       <c r="H87" s="10">
@@ -7228,7 +7228,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
         <v>19</v>
       </c>
@@ -7246,7 +7246,7 @@
       </c>
       <c r="F88" s="22">
         <f>K2*E88</f>
-        <v>39688.681885999998</v>
+        <v>40012.808662000003</v>
       </c>
       <c r="G88" s="22"/>
       <c r="H88" s="10">
@@ -7260,7 +7260,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
         <v>19</v>
       </c>
@@ -7278,7 +7278,7 @@
       </c>
       <c r="F89" s="22">
         <f>K2*E89</f>
-        <v>39688.681885999998</v>
+        <v>40012.808662000003</v>
       </c>
       <c r="G89" s="22"/>
       <c r="H89" s="10">
@@ -7292,7 +7292,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
         <v>19</v>
       </c>
@@ -7310,7 +7310,7 @@
       </c>
       <c r="F90" s="22">
         <f>K2*E90</f>
-        <v>39688.681885999998</v>
+        <v>40012.808662000003</v>
       </c>
       <c r="G90" s="22"/>
       <c r="H90" s="11">
@@ -7324,7 +7324,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
         <v>19</v>
       </c>
@@ -7342,7 +7342,7 @@
       </c>
       <c r="F91" s="22">
         <f>K2*E91</f>
-        <v>16052.690500000001</v>
+        <v>16183.788500000001</v>
       </c>
       <c r="G91" s="22"/>
       <c r="H91" s="11">
@@ -7356,7 +7356,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
         <v>19</v>
       </c>
@@ -7374,7 +7374,7 @@
       </c>
       <c r="F92" s="22">
         <f>K2*E92</f>
-        <v>16052.690500000001</v>
+        <v>16183.788500000001</v>
       </c>
       <c r="G92" s="22"/>
       <c r="H92" s="10">
@@ -7388,7 +7388,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="9"/>
       <c r="B93" s="10" t="s">
         <v>226</v>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="F93" s="22">
         <f>K2*E93</f>
-        <v>69256.600000000006</v>
+        <v>69822.2</v>
       </c>
       <c r="G93" s="22"/>
       <c r="H93" s="10">
@@ -7418,7 +7418,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="9"/>
       <c r="B94" s="10" t="s">
         <v>230</v>
@@ -7434,7 +7434,7 @@
       </c>
       <c r="F94" s="22">
         <f>K2*E94</f>
-        <v>8657.0750000000007</v>
+        <v>8727.7749999999996</v>
       </c>
       <c r="G94" s="22"/>
       <c r="H94" s="10">
@@ -7448,7 +7448,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
         <v>19</v>
       </c>
@@ -7466,7 +7466,7 @@
       </c>
       <c r="F95" s="22">
         <f>K2*E95</f>
-        <v>1298163.1729570003</v>
+        <v>1308764.9219690003</v>
       </c>
       <c r="G95" s="22"/>
       <c r="H95" s="10">
@@ -7480,7 +7480,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>10</v>
       </c>
@@ -7498,7 +7498,7 @@
       </c>
       <c r="F96" s="22">
         <f>K2*E96</f>
-        <v>24437.686000000002</v>
+        <v>24637.262000000002</v>
       </c>
       <c r="G96" s="22"/>
       <c r="H96" s="10">
@@ -7512,7 +7512,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>10</v>
       </c>
@@ -7530,7 +7530,7 @@
       </c>
       <c r="F97" s="22">
         <f>K2*E97</f>
-        <v>64309.700000000004</v>
+        <v>64834.9</v>
       </c>
       <c r="G97" s="22"/>
       <c r="H97" s="10">
@@ -7544,7 +7544,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
         <v>10</v>
       </c>
@@ -7562,7 +7562,7 @@
       </c>
       <c r="F98" s="22">
         <f>K2*E98</f>
-        <v>64309.700000000004</v>
+        <v>64834.9</v>
       </c>
       <c r="G98" s="22"/>
       <c r="H98" s="10">
@@ -7576,7 +7576,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
         <v>10</v>
       </c>
@@ -7601,7 +7601,7 @@
       <c r="I99" s="12"/>
       <c r="J99" s="1"/>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
         <v>10</v>
       </c>
@@ -7619,7 +7619,7 @@
       </c>
       <c r="F100" s="22">
         <f>K2*E100</f>
-        <v>24437.686000000002</v>
+        <v>24637.262000000002</v>
       </c>
       <c r="G100" s="22"/>
       <c r="H100" s="10">
@@ -7633,7 +7633,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
         <v>19</v>
       </c>
@@ -7651,7 +7651,7 @@
       </c>
       <c r="F101" s="22">
         <f>K2*E101</f>
-        <v>183282.64500000002</v>
+        <v>184779.465</v>
       </c>
       <c r="G101" s="22"/>
       <c r="H101" s="11">
@@ -7665,7 +7665,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
         <v>19</v>
       </c>
@@ -7683,7 +7683,7 @@
       </c>
       <c r="F102" s="22">
         <f>K2*E102</f>
-        <v>163890.79700000002</v>
+        <v>165229.24900000001</v>
       </c>
       <c r="G102" s="22"/>
       <c r="H102" s="11">
@@ -7697,7 +7697,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="9"/>
       <c r="B103" s="10" t="s">
         <v>253</v>
@@ -7713,7 +7713,7 @@
       </c>
       <c r="F103" s="22">
         <f>K2*E103</f>
-        <v>39575.200000000004</v>
+        <v>39898.400000000001</v>
       </c>
       <c r="G103" s="22"/>
       <c r="H103" s="10">
@@ -7727,7 +7727,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" s="9"/>
       <c r="B104" s="10" t="s">
         <v>257</v>
@@ -7743,7 +7743,7 @@
       </c>
       <c r="F104" s="22">
         <f>K2*E104</f>
-        <v>88302.165000000008</v>
+        <v>89023.305000000008</v>
       </c>
       <c r="G104" s="22"/>
       <c r="H104" s="10">
@@ -7757,7 +7757,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
         <v>10</v>
       </c>
@@ -7784,7 +7784,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
         <v>10</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
         <v>10</v>
       </c>
@@ -7838,7 +7838,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="15" thickBot="1">
+    <row r="108" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="9" t="s">
         <v>10</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="15" thickBot="1">
+    <row r="109" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="29"/>
       <c r="B109" s="44" t="s">
         <v>265</v>
@@ -7890,7 +7890,7 @@
       <c r="I109" s="26"/>
       <c r="J109" s="1"/>
     </row>
-    <row r="110" spans="1:13" ht="15" thickBot="1">
+    <row r="110" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="29"/>
       <c r="B110" s="41" t="s">
         <v>267</v>
@@ -7913,7 +7913,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="15" thickBot="1">
+    <row r="111" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="29"/>
       <c r="B111" s="41" t="s">
         <v>269</v>
@@ -7936,7 +7936,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="15" thickBot="1">
+    <row r="112" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="29"/>
       <c r="B112" s="41" t="s">
         <v>270</v>
@@ -7959,7 +7959,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="15" thickBot="1">
+    <row r="113" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="29"/>
       <c r="B113" s="50" t="s">
         <v>271</v>
@@ -7979,7 +7979,7 @@
       <c r="I113" s="26"/>
       <c r="J113" s="1"/>
     </row>
-    <row r="114" spans="1:10" ht="15" thickBot="1">
+    <row r="114" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="29"/>
       <c r="B114" s="50" t="s">
         <v>274</v>
@@ -7999,7 +7999,7 @@
       <c r="I114" s="26"/>
       <c r="J114" s="1"/>
     </row>
-    <row r="115" spans="1:10" ht="15" thickBot="1">
+    <row r="115" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="29"/>
       <c r="B115" s="53" t="s">
         <v>275</v>
@@ -8019,7 +8019,7 @@
       <c r="I115" s="26"/>
       <c r="J115" s="1"/>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
         <v>19</v>
       </c>
@@ -8037,7 +8037,7 @@
       </c>
       <c r="F116" s="22">
         <f>K2*E116</f>
-        <v>54910.590000000004</v>
+        <v>55359.030000000006</v>
       </c>
       <c r="G116" s="22"/>
       <c r="H116" s="43">
@@ -8051,7 +8051,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
         <v>19</v>
       </c>
@@ -8069,7 +8069,7 @@
       </c>
       <c r="F117" s="22">
         <f>K2*E117</f>
-        <v>70122.30750000001</v>
+        <v>70694.977500000008</v>
       </c>
       <c r="G117" s="22"/>
       <c r="H117" s="11">
@@ -8083,7 +8083,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
         <v>19</v>
       </c>
@@ -8101,7 +8101,7 @@
       </c>
       <c r="F118" s="22">
         <f>K2*E118</f>
-        <v>17314.150000000001</v>
+        <v>17455.55</v>
       </c>
       <c r="G118" s="22"/>
       <c r="H118" s="10">
@@ -8115,7 +8115,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="9" t="s">
         <v>19</v>
       </c>
@@ -8133,7 +8133,7 @@
       </c>
       <c r="F119" s="22">
         <f>K2*E119</f>
-        <v>17314.150000000001</v>
+        <v>17455.55</v>
       </c>
       <c r="G119" s="22"/>
       <c r="H119" s="11">
@@ -8147,7 +8147,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="9" t="s">
         <v>19</v>
       </c>
@@ -8165,7 +8165,7 @@
       </c>
       <c r="F120" s="22">
         <f>K2*E120</f>
-        <v>31829.739732000002</v>
+        <v>32089.684644000001</v>
       </c>
       <c r="G120" s="22"/>
       <c r="H120" s="10">
@@ -8179,7 +8179,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
         <v>19</v>
       </c>
@@ -8197,7 +8197,7 @@
       </c>
       <c r="F121" s="22">
         <f>K2*E121</f>
-        <v>28197.33</v>
+        <v>28427.61</v>
       </c>
       <c r="G121" s="22"/>
       <c r="H121" s="10">
@@ -8211,7 +8211,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="9" t="s">
         <v>19</v>
       </c>
@@ -8229,7 +8229,7 @@
       </c>
       <c r="F122" s="22">
         <f>K2*E122</f>
-        <v>3120.0098300000004</v>
+        <v>3145.4901100000002</v>
       </c>
       <c r="G122" s="22"/>
       <c r="H122" s="10">
@@ -8243,7 +8243,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="9" t="s">
         <v>19</v>
       </c>
@@ -8261,7 +8261,7 @@
       </c>
       <c r="F123" s="22">
         <f>K$2*E123</f>
-        <v>89928.458375000002</v>
+        <v>90662.879874999999</v>
       </c>
       <c r="G123" s="22"/>
       <c r="H123" s="10">
@@ -8272,7 +8272,7 @@
       </c>
       <c r="J123" s="1"/>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
         <v>19</v>
       </c>
@@ -8290,7 +8290,7 @@
       </c>
       <c r="F124" s="22">
         <f>K$2*E124</f>
-        <v>74203.5</v>
+        <v>74809.5</v>
       </c>
       <c r="G124" s="22"/>
       <c r="H124" s="10">
@@ -8301,7 +8301,7 @@
       </c>
       <c r="J124" s="1"/>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="9"/>
       <c r="B125" s="10" t="s">
         <v>301</v>
@@ -8317,7 +8317,7 @@
       </c>
       <c r="F125" s="22">
         <f>K2*E125</f>
-        <v>5580.3010759999997</v>
+        <v>5625.8738920000005</v>
       </c>
       <c r="G125" s="22"/>
       <c r="H125" s="10">
@@ -8331,7 +8331,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="9"/>
       <c r="B126" s="10" t="s">
         <v>305</v>
@@ -8347,7 +8347,7 @@
       </c>
       <c r="F126" s="22">
         <f>K2*E126</f>
-        <v>330823.9375</v>
+        <v>333525.6875</v>
       </c>
       <c r="G126" s="22"/>
       <c r="H126" s="10">
@@ -8361,7 +8361,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="9"/>
       <c r="B127" s="10" t="s">
         <v>308</v>
@@ -8377,7 +8377,7 @@
       </c>
       <c r="F127" s="22">
         <f>K2*E127</f>
-        <v>470774.01407400006</v>
+        <v>474618.69865800004</v>
       </c>
       <c r="G127" s="22"/>
       <c r="H127" s="10">
@@ -8391,7 +8391,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="9"/>
       <c r="B128" s="10" t="s">
         <v>311</v>
@@ -8417,7 +8417,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
         <v>19</v>
       </c>
@@ -8435,7 +8435,7 @@
       </c>
       <c r="F129" s="22">
         <f>K2*E129</f>
-        <v>34380.955000000002</v>
+        <v>34661.735000000001</v>
       </c>
       <c r="G129" s="22"/>
       <c r="H129" s="10">
@@ -8452,7 +8452,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" s="9"/>
       <c r="B130" s="10" t="s">
         <v>313</v>
@@ -8468,7 +8468,7 @@
       </c>
       <c r="F130" s="22">
         <f>K2*E130</f>
-        <v>42716.481500000002</v>
+        <v>43065.335500000001</v>
       </c>
       <c r="G130" s="22"/>
       <c r="H130" s="10">
@@ -8485,7 +8485,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" s="9"/>
       <c r="B131" s="10" t="s">
         <v>319</v>
@@ -8508,7 +8508,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" s="9"/>
       <c r="B132" s="10" t="s">
         <v>320</v>
@@ -8524,7 +8524,7 @@
       </c>
       <c r="F132" s="22">
         <f>K2*E132</f>
-        <v>4793.5461000000005</v>
+        <v>4832.6937000000007</v>
       </c>
       <c r="G132" s="22"/>
       <c r="H132" s="10">
@@ -8538,7 +8538,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" s="9"/>
       <c r="B133" s="10" t="s">
         <v>320</v>
@@ -8565,7 +8565,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" s="9"/>
       <c r="B134" s="10" t="s">
         <v>320</v>
@@ -8581,7 +8581,7 @@
       </c>
       <c r="F134" s="22">
         <f>K2*E134</f>
-        <v>16210.991300000002</v>
+        <v>16343.382100000001</v>
       </c>
       <c r="G134" s="22"/>
       <c r="H134" s="10">
@@ -8595,7 +8595,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="15" thickBot="1">
+    <row r="135" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="9" t="s">
         <v>19</v>
       </c>
@@ -8613,7 +8613,7 @@
       </c>
       <c r="F135" s="22">
         <f>K2*E135</f>
-        <v>38875.460995000001</v>
+        <v>39192.946415000006</v>
       </c>
       <c r="G135" s="22"/>
       <c r="H135" s="16">
@@ -8627,7 +8627,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="15" thickBot="1">
+    <row r="136" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="29"/>
       <c r="B136" s="59" t="s">
         <v>330</v>
@@ -8647,7 +8647,7 @@
       <c r="I136" s="26"/>
       <c r="J136" s="1"/>
     </row>
-    <row r="137" spans="1:13" ht="15" thickBot="1">
+    <row r="137" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="29"/>
       <c r="B137" s="62" t="s">
         <v>332</v>
@@ -8667,7 +8667,7 @@
       <c r="I137" s="26"/>
       <c r="J137" s="1"/>
     </row>
-    <row r="138" spans="1:13" ht="15" thickBot="1">
+    <row r="138" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="29"/>
       <c r="B138" s="62" t="s">
         <v>333</v>
@@ -8687,7 +8687,7 @@
       <c r="I138" s="26"/>
       <c r="J138" s="1"/>
     </row>
-    <row r="139" spans="1:13" ht="15" thickBot="1">
+    <row r="139" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="29"/>
       <c r="B139" s="65" t="s">
         <v>334</v>
@@ -8707,7 +8707,7 @@
       <c r="I139" s="26"/>
       <c r="J139" s="1"/>
     </row>
-    <row r="140" spans="1:13" ht="15" thickBot="1">
+    <row r="140" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="29"/>
       <c r="B140" s="68" t="s">
         <v>335</v>
@@ -8723,7 +8723,7 @@
       </c>
       <c r="F140" s="22">
         <f>K2*E140</f>
-        <v>1810565.4000000001</v>
+        <v>1825351.8</v>
       </c>
       <c r="G140" s="22"/>
       <c r="H140" s="79">
@@ -8740,7 +8740,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="15" thickBot="1">
+    <row r="141" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="29"/>
       <c r="B141" s="68" t="s">
         <v>338</v>
@@ -8763,7 +8763,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="15" thickBot="1">
+    <row r="142" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="29"/>
       <c r="B142" s="68" t="s">
         <v>339</v>
@@ -8786,7 +8786,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="15" thickBot="1">
+    <row r="143" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="29"/>
       <c r="B143" s="68" t="s">
         <v>340</v>
@@ -8809,7 +8809,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="15" thickBot="1">
+    <row r="144" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="29" t="s">
         <v>10</v>
       </c>
@@ -8827,7 +8827,7 @@
       </c>
       <c r="F144" s="22">
         <f>K2*E144</f>
-        <v>1810565.4000000001</v>
+        <v>1825351.8</v>
       </c>
       <c r="G144" s="22"/>
       <c r="H144" s="79">
@@ -8844,7 +8844,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="15" thickBot="1">
+    <row r="145" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="29"/>
       <c r="B145" s="71" t="s">
         <v>344</v>
@@ -8867,7 +8867,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="15" thickBot="1">
+    <row r="146" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="29"/>
       <c r="B146" s="68" t="s">
         <v>345</v>
@@ -8890,7 +8890,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="15" thickBot="1">
+    <row r="147" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="29"/>
       <c r="B147" s="74" t="s">
         <v>346</v>
@@ -8913,7 +8913,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" s="9"/>
       <c r="B148" s="28" t="s">
         <v>347</v>
@@ -8929,7 +8929,7 @@
       </c>
       <c r="F148" s="22">
         <f>K2*E148</f>
-        <v>3784.0322169999999</v>
+        <v>3814.9353889999998</v>
       </c>
       <c r="G148" s="22"/>
       <c r="H148" s="28">
@@ -8943,7 +8943,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" s="9"/>
       <c r="B149" s="10" t="s">
         <v>351</v>
@@ -8959,7 +8959,7 @@
       </c>
       <c r="F149" s="22">
         <f>K2*E149</f>
-        <v>231.119168</v>
+        <v>233.00665600000002</v>
       </c>
       <c r="G149" s="22"/>
       <c r="H149" s="10">
@@ -8973,7 +8973,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" s="9"/>
       <c r="B150" s="10" t="s">
         <v>355</v>
@@ -8989,7 +8989,7 @@
       </c>
       <c r="F150" s="22">
         <f>K2*E150</f>
-        <v>124196.32724100001</v>
+        <v>125210.605197</v>
       </c>
       <c r="G150" s="22"/>
       <c r="H150" s="10">
@@ -9003,7 +9003,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" s="9"/>
       <c r="B151" s="10" t="s">
         <v>358</v>
@@ -9019,7 +9019,7 @@
       </c>
       <c r="F151" s="22">
         <f>K2*E151</f>
-        <v>2611.9632000000001</v>
+        <v>2633.2944000000002</v>
       </c>
       <c r="G151" s="22"/>
       <c r="H151" s="10">
@@ -9033,7 +9033,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" s="9"/>
       <c r="B152" s="10" t="s">
         <v>362</v>
@@ -9049,7 +9049,7 @@
       </c>
       <c r="F152" s="22">
         <f>K2*E152</f>
-        <v>113006.98360000001</v>
+        <v>113929.8812</v>
       </c>
       <c r="G152" s="22"/>
       <c r="H152" s="10">
@@ -9063,7 +9063,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="16.899999999999999" customHeight="1" thickBot="1">
+    <row r="153" spans="1:13" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="15"/>
       <c r="B153" s="16" t="s">
         <v>362</v>
@@ -9079,7 +9079,7 @@
       </c>
       <c r="F153" s="22">
         <f>K2*E153</f>
-        <v>132004.06898000001</v>
+        <v>133082.11066000001</v>
       </c>
       <c r="G153" s="22"/>
       <c r="H153" s="16">
@@ -9093,7 +9093,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="15" thickBot="1">
+    <row r="154" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="30" t="s">
         <v>19</v>
       </c>
@@ -9111,7 +9111,7 @@
       </c>
       <c r="F154" s="22">
         <f>K2*E154</f>
-        <v>1488358.9623</v>
+        <v>1500513.9891000001</v>
       </c>
       <c r="G154" s="22"/>
       <c r="H154" s="99">
@@ -9128,7 +9128,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="15" thickBot="1">
+    <row r="155" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="31"/>
       <c r="B155" s="79" t="s">
         <v>368</v>
@@ -9151,7 +9151,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="15" thickBot="1">
+    <row r="156" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="31"/>
       <c r="B156" s="80" t="s">
         <v>369</v>
@@ -9174,7 +9174,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="15" thickBot="1">
+    <row r="157" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="31"/>
       <c r="B157" s="80" t="s">
         <v>370</v>
@@ -9197,7 +9197,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="15" thickBot="1">
+    <row r="158" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="31"/>
       <c r="B158" s="80" t="s">
         <v>371</v>
@@ -9220,7 +9220,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="15" thickBot="1">
+    <row r="159" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="32"/>
       <c r="B159" s="83" t="s">
         <v>372</v>
@@ -9243,7 +9243,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" s="27"/>
       <c r="B160" s="28" t="s">
         <v>373</v>
@@ -9259,7 +9259,7 @@
       </c>
       <c r="F160" s="22">
         <f>K2*E160</f>
-        <v>399025.36372999998</v>
+        <v>402284.09641</v>
       </c>
       <c r="G160" s="22"/>
       <c r="H160" s="28">
@@ -9273,7 +9273,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="9"/>
       <c r="B161" s="10" t="s">
         <v>377</v>
@@ -9289,7 +9289,7 @@
       </c>
       <c r="F161" s="22">
         <f>K2*E161</f>
-        <v>9092.4022000000004</v>
+        <v>9166.6574000000001</v>
       </c>
       <c r="G161" s="22"/>
       <c r="H161" s="10">
@@ -9303,7 +9303,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="9"/>
       <c r="B162" s="10" t="s">
         <v>381</v>
@@ -9319,7 +9319,7 @@
       </c>
       <c r="F162" s="22">
         <f>K2*E162</f>
-        <v>25995.959500000001</v>
+        <v>26208.261500000001</v>
       </c>
       <c r="G162" s="22"/>
       <c r="H162" s="10">
@@ -9333,7 +9333,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="9"/>
       <c r="B163" s="10" t="s">
         <v>383</v>
@@ -9349,7 +9349,7 @@
       </c>
       <c r="F163" s="22">
         <f>K2*E163</f>
-        <v>816.23850000000004</v>
+        <v>822.9045000000001</v>
       </c>
       <c r="G163" s="22"/>
       <c r="H163" s="10">
@@ -9363,7 +9363,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="9"/>
       <c r="B164" s="10" t="s">
         <v>387</v>
@@ -9389,7 +9389,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="9"/>
       <c r="B165" s="10" t="s">
         <v>390</v>
@@ -9405,7 +9405,7 @@
       </c>
       <c r="F165" s="22">
         <f>K2*E165</f>
-        <v>2621.857</v>
+        <v>2643.2690000000002</v>
       </c>
       <c r="G165" s="22"/>
       <c r="H165" s="10">
@@ -9419,7 +9419,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="9"/>
       <c r="B166" s="10" t="s">
         <v>392</v>
@@ -9435,7 +9435,7 @@
       </c>
       <c r="F166" s="22">
         <f>K2*E166</f>
-        <v>203812.28</v>
+        <v>205476.76</v>
       </c>
       <c r="G166" s="22"/>
       <c r="H166" s="10">
@@ -9449,7 +9449,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="9" t="s">
         <v>10</v>
       </c>
@@ -9467,7 +9467,7 @@
       </c>
       <c r="F167" s="22">
         <f t="shared" ref="F167:F168" si="0">K$2*E167</f>
-        <v>415539.60000000003</v>
+        <v>418933.2</v>
       </c>
       <c r="G167" s="22"/>
       <c r="H167" s="10">
@@ -9476,7 +9476,7 @@
       <c r="I167" s="12"/>
       <c r="J167" s="1"/>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="9" t="s">
         <v>10</v>
       </c>
@@ -9494,7 +9494,7 @@
       </c>
       <c r="F168" s="22">
         <f t="shared" si="0"/>
-        <v>415539.60000000003</v>
+        <v>418933.2</v>
       </c>
       <c r="G168" s="22"/>
       <c r="H168" s="10">
@@ -9503,7 +9503,7 @@
       <c r="I168" s="12"/>
       <c r="J168" s="1"/>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="9" t="s">
         <v>10</v>
       </c>
@@ -9521,7 +9521,7 @@
       </c>
       <c r="F169" s="22">
         <f>K$2*E169</f>
-        <v>415539.60000000003</v>
+        <v>418933.2</v>
       </c>
       <c r="G169" s="22"/>
       <c r="H169" s="10">
@@ -9535,7 +9535,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="9"/>
       <c r="B170" s="10" t="s">
         <v>404</v>
@@ -9551,7 +9551,7 @@
       </c>
       <c r="F170" s="22">
         <f>K2*E170</f>
-        <v>12317.781000000001</v>
+        <v>12418.377</v>
       </c>
       <c r="G170" s="22"/>
       <c r="H170" s="10">
@@ -9565,7 +9565,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="9" t="s">
         <v>10</v>
       </c>
@@ -9583,7 +9583,7 @@
       </c>
       <c r="F171" s="22">
         <f>K2*E171</f>
-        <v>273266.75599999999</v>
+        <v>275498.45199999999</v>
       </c>
       <c r="G171" s="22"/>
       <c r="H171" s="11">
@@ -9597,7 +9597,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="9"/>
       <c r="B172" s="10" t="s">
         <v>411</v>
@@ -9613,7 +9613,7 @@
       </c>
       <c r="F172" s="22">
         <f>K2*E172</f>
-        <v>63097.709500000004</v>
+        <v>63613.011500000001</v>
       </c>
       <c r="G172" s="22"/>
       <c r="H172" s="10">
@@ -9627,7 +9627,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="9" t="s">
         <v>19</v>
       </c>
@@ -9645,7 +9645,7 @@
       </c>
       <c r="F173" s="22">
         <f>K2*E173</f>
-        <v>28345.737000000001</v>
+        <v>28577.229000000003</v>
       </c>
       <c r="G173" s="22"/>
       <c r="H173" s="11">
@@ -9659,7 +9659,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="9" t="s">
         <v>19</v>
       </c>
@@ -9677,7 +9677,7 @@
       </c>
       <c r="F174" s="22">
         <f>K2*E174</f>
-        <v>37126.484499999999</v>
+        <v>37429.686500000003</v>
       </c>
       <c r="G174" s="22"/>
       <c r="H174" s="10">
@@ -9689,7 +9689,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="9" t="s">
         <v>19</v>
       </c>
@@ -9707,7 +9707,7 @@
       </c>
       <c r="F175" s="22">
         <f>K2*E175</f>
-        <v>20282.29</v>
+        <v>20447.93</v>
       </c>
       <c r="G175" s="22"/>
       <c r="H175" s="10">
@@ -9721,7 +9721,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="9" t="s">
         <v>19</v>
       </c>
@@ -9739,7 +9739,7 @@
       </c>
       <c r="F176" s="22">
         <f>K2*E176</f>
-        <v>30101.886500000001</v>
+        <v>30347.720500000003</v>
       </c>
       <c r="G176" s="22"/>
       <c r="H176" s="10">
@@ -9753,7 +9753,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="9" t="s">
         <v>19</v>
       </c>
@@ -9771,7 +9771,7 @@
       </c>
       <c r="F177" s="22">
         <f>K2*E177</f>
-        <v>31091.266500000002</v>
+        <v>31345.180500000002</v>
       </c>
       <c r="G177" s="22"/>
       <c r="H177" s="10">
@@ -9785,7 +9785,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="9"/>
       <c r="B178" s="10" t="s">
         <v>425</v>
@@ -9801,7 +9801,7 @@
       </c>
       <c r="F178" s="22">
         <f>K2*E178</f>
-        <v>8854.9510000000009</v>
+        <v>8927.2669999999998</v>
       </c>
       <c r="G178" s="22"/>
       <c r="H178" s="10">
@@ -9815,7 +9815,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="9"/>
       <c r="B179" s="10" t="s">
         <v>427</v>
@@ -9831,7 +9831,7 @@
       </c>
       <c r="F179" s="22">
         <f>K2*E179</f>
-        <v>20133.883000000002</v>
+        <v>20298.311000000002</v>
       </c>
       <c r="G179" s="22"/>
       <c r="H179" s="10">
@@ -9845,7 +9845,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="9"/>
       <c r="B180" s="10" t="s">
         <v>430</v>
@@ -9871,7 +9871,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:10">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="9" t="s">
         <v>19</v>
       </c>
@@ -9889,7 +9889,7 @@
       </c>
       <c r="F181" s="22">
         <f>K2*E181</f>
-        <v>26465.915000000001</v>
+        <v>26682.055</v>
       </c>
       <c r="G181" s="22"/>
       <c r="H181" s="11">
@@ -9903,7 +9903,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="9" t="s">
         <v>19</v>
       </c>
@@ -9921,7 +9921,7 @@
       </c>
       <c r="F182" s="22">
         <f>K2*E182</f>
-        <v>12660.897984000001</v>
+        <v>12764.296128000002</v>
       </c>
       <c r="G182" s="22"/>
       <c r="H182" s="11">
@@ -9935,7 +9935,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="9"/>
       <c r="B183" s="10" t="s">
         <v>437</v>
@@ -9951,7 +9951,7 @@
       </c>
       <c r="F183" s="22">
         <f>K2*E183</f>
-        <v>1681.9460000000001</v>
+        <v>1695.682</v>
       </c>
       <c r="G183" s="22"/>
       <c r="H183" s="10">
@@ -9965,7 +9965,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="9"/>
       <c r="B184" s="10" t="s">
         <v>441</v>
@@ -9981,7 +9981,7 @@
       </c>
       <c r="F184" s="22">
         <f>K2*E184</f>
-        <v>13831.730276</v>
+        <v>13944.690292000001</v>
       </c>
       <c r="G184" s="22"/>
       <c r="H184" s="10">
@@ -9995,7 +9995,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="9" t="s">
         <v>19</v>
       </c>
@@ -10013,7 +10013,7 @@
       </c>
       <c r="F185" s="22">
         <f>K2*E185</f>
-        <v>18080.9195</v>
+        <v>18228.5815</v>
       </c>
       <c r="G185" s="22"/>
       <c r="H185" s="10">
@@ -10027,7 +10027,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="9" t="s">
         <v>19</v>
       </c>
@@ -10045,7 +10045,7 @@
       </c>
       <c r="F186" s="22">
         <f>K2*E186</f>
-        <v>22279.254592000001</v>
+        <v>22461.203264000003</v>
       </c>
       <c r="G186" s="22"/>
       <c r="H186" s="10">
@@ -10059,7 +10059,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="9" t="s">
         <v>19</v>
       </c>
@@ -10077,7 +10077,7 @@
       </c>
       <c r="F187" s="22">
         <f>K2*E187</f>
-        <v>4031.7235000000001</v>
+        <v>4064.6495000000004</v>
       </c>
       <c r="G187" s="22"/>
       <c r="H187" s="10">
@@ -10091,7 +10091,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="9"/>
       <c r="B188" s="10" t="s">
         <v>447</v>
@@ -10107,7 +10107,7 @@
       </c>
       <c r="F188" s="22">
         <f>K2*E188</f>
-        <v>14797.266218000001</v>
+        <v>14918.111505999999</v>
       </c>
       <c r="G188" s="22"/>
       <c r="H188" s="10">
@@ -10121,7 +10121,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="9"/>
       <c r="B189" s="10" t="s">
         <v>451</v>
@@ -10137,7 +10137,7 @@
       </c>
       <c r="F189" s="22">
         <f>K2*E189</f>
-        <v>11971.498000000001</v>
+        <v>12069.266000000001</v>
       </c>
       <c r="G189" s="22"/>
       <c r="H189" s="10">
@@ -10151,7 +10151,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:10">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="9"/>
       <c r="B190" s="10" t="s">
         <v>451</v>
@@ -10167,7 +10167,7 @@
       </c>
       <c r="F190" s="22">
         <f>K2*E190</f>
-        <v>18451.937000000002</v>
+        <v>18602.629000000001</v>
       </c>
       <c r="G190" s="22"/>
       <c r="H190" s="10">
@@ -10181,7 +10181,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:10">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" s="9"/>
       <c r="B191" s="10" t="s">
         <v>451</v>
@@ -10197,7 +10197,7 @@
       </c>
       <c r="F191" s="22">
         <f>K2*E191</f>
-        <v>36557.591</v>
+        <v>36856.147000000004</v>
       </c>
       <c r="G191" s="22"/>
       <c r="H191" s="10">
@@ -10211,7 +10211,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:10">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="9"/>
       <c r="B192" s="86" t="s">
         <v>455</v>
@@ -10241,7 +10241,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:16 16378:16382">
+    <row r="193" spans="1:16 16378:16382" x14ac:dyDescent="0.3">
       <c r="A193" s="9"/>
       <c r="B193" s="10" t="s">
         <v>459</v>
@@ -10267,7 +10267,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:16 16378:16382">
+    <row r="194" spans="1:16 16378:16382" x14ac:dyDescent="0.3">
       <c r="A194" s="9"/>
       <c r="B194" s="10" t="s">
         <v>461</v>
@@ -10283,7 +10283,7 @@
       </c>
       <c r="F194" s="22">
         <f>K2*E194</f>
-        <v>37126.484499999999</v>
+        <v>37429.686500000003</v>
       </c>
       <c r="G194" s="22"/>
       <c r="H194" s="10">
@@ -10297,7 +10297,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:16 16378:16382">
+    <row r="195" spans="1:16 16378:16382" x14ac:dyDescent="0.3">
       <c r="A195" s="9"/>
       <c r="B195" s="10" t="s">
         <v>464</v>
@@ -10313,7 +10313,7 @@
       </c>
       <c r="F195" s="22">
         <f>K2*E195</f>
-        <v>47119.222500000003</v>
+        <v>47504.032500000001</v>
       </c>
       <c r="G195" s="22"/>
       <c r="H195" s="10">
@@ -10327,7 +10327,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:16 16378:16382" ht="15" thickBot="1">
+    <row r="196" spans="1:16 16378:16382" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="9" t="s">
         <v>10</v>
       </c>
@@ -10345,7 +10345,7 @@
       </c>
       <c r="F196" s="22">
         <f>K2*E196</f>
-        <v>194917.75380000001</v>
+        <v>196509.59460000001</v>
       </c>
       <c r="G196" s="22"/>
       <c r="H196" s="10">
@@ -10359,7 +10359,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:16 16378:16382" ht="15" thickBot="1">
+    <row r="197" spans="1:16 16378:16382" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="29" t="s">
         <v>10</v>
       </c>
@@ -10377,7 +10377,7 @@
       </c>
       <c r="F197" s="22">
         <f>K2*E197</f>
-        <v>238687.92500000002</v>
+        <v>240637.22500000001</v>
       </c>
       <c r="G197" s="22"/>
       <c r="H197" s="79">
@@ -10391,7 +10391,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:16 16378:16382" ht="15" thickBot="1">
+    <row r="198" spans="1:16 16378:16382" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="29"/>
       <c r="B198" s="89" t="s">
         <v>469</v>
@@ -10411,7 +10411,7 @@
       <c r="I198" s="26"/>
       <c r="J198" s="1"/>
     </row>
-    <row r="199" spans="1:16 16378:16382" ht="15" thickBot="1">
+    <row r="199" spans="1:16 16378:16382" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="29"/>
       <c r="B199" s="71" t="s">
         <v>470</v>
@@ -10431,7 +10431,7 @@
       <c r="I199" s="26"/>
       <c r="J199" s="1"/>
     </row>
-    <row r="200" spans="1:16 16378:16382" ht="15" thickBot="1">
+    <row r="200" spans="1:16 16378:16382" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="29"/>
       <c r="B200" s="94" t="s">
         <v>472</v>
@@ -10454,7 +10454,7 @@
       <c r="XFA200" s="38"/>
       <c r="XFB200" s="39"/>
     </row>
-    <row r="201" spans="1:16 16378:16382" ht="15" thickBot="1">
+    <row r="201" spans="1:16 16378:16382" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="9" t="s">
         <v>10</v>
       </c>
@@ -10472,7 +10472,7 @@
       </c>
       <c r="F201" s="22">
         <f>K2*E201</f>
-        <v>151152.5295</v>
+        <v>152386.9515</v>
       </c>
       <c r="G201" s="22"/>
       <c r="H201" s="69">
@@ -10486,7 +10486,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:16 16378:16382" ht="15" thickBot="1">
+    <row r="202" spans="1:16 16378:16382" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="9"/>
       <c r="B202" s="69" t="s">
         <v>472</v>
@@ -10506,7 +10506,7 @@
       <c r="I202" s="12"/>
       <c r="J202" s="1"/>
     </row>
-    <row r="203" spans="1:16 16378:16382" ht="15" thickBot="1">
+    <row r="203" spans="1:16 16378:16382" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="29"/>
       <c r="B203" s="68" t="s">
         <v>475</v>
@@ -10526,7 +10526,7 @@
       <c r="I203" s="26"/>
       <c r="J203" s="1"/>
     </row>
-    <row r="204" spans="1:16 16378:16382" ht="15" thickBot="1">
+    <row r="204" spans="1:16 16378:16382" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="29"/>
       <c r="B204" s="68" t="s">
         <v>476</v>
@@ -10546,7 +10546,7 @@
       <c r="I204" s="26"/>
       <c r="J204" s="1"/>
     </row>
-    <row r="205" spans="1:16 16378:16382">
+    <row r="205" spans="1:16 16378:16382" x14ac:dyDescent="0.3">
       <c r="A205" s="9"/>
       <c r="B205" s="28" t="s">
         <v>477</v>
@@ -10562,7 +10562,7 @@
       </c>
       <c r="F205" s="22">
         <f>K2*E205</f>
-        <v>3759.6440000000002</v>
+        <v>3790.3480000000004</v>
       </c>
       <c r="G205" s="22"/>
       <c r="H205" s="28">
@@ -10576,7 +10576,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:16 16378:16382">
+    <row r="206" spans="1:16 16378:16382" x14ac:dyDescent="0.3">
       <c r="A206" s="9"/>
       <c r="B206" s="10" t="s">
         <v>481</v>
@@ -10592,7 +10592,7 @@
       </c>
       <c r="F206" s="22">
         <f>K2*E206</f>
-        <v>6307.2975000000006</v>
+        <v>6358.8075000000008</v>
       </c>
       <c r="G206" s="22"/>
       <c r="H206" s="10">
@@ -10606,7 +10606,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:16 16378:16382">
+    <row r="207" spans="1:16 16378:16382" x14ac:dyDescent="0.3">
       <c r="A207" s="9"/>
       <c r="B207" s="10" t="s">
         <v>485</v>
@@ -10632,7 +10632,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:16 16378:16382">
+    <row r="208" spans="1:16 16378:16382" x14ac:dyDescent="0.3">
       <c r="A208" s="9"/>
       <c r="B208" s="10" t="s">
         <v>487</v>
@@ -10648,7 +10648,7 @@
       </c>
       <c r="F208" s="22">
         <f>K2*E208</f>
-        <v>32154.850000000002</v>
+        <v>32417.45</v>
       </c>
       <c r="G208" s="22"/>
       <c r="H208" s="10">
@@ -10663,7 +10663,7 @@
       </c>
       <c r="P208" s="58"/>
     </row>
-    <row r="209" spans="1:10" ht="15" thickBot="1">
+    <row r="209" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="9" t="s">
         <v>10</v>
       </c>
@@ -10681,7 +10681,7 @@
       </c>
       <c r="F209" s="22">
         <f>K2*E209</f>
-        <v>400698.9</v>
+        <v>403971.30000000005</v>
       </c>
       <c r="G209" s="22"/>
       <c r="H209" s="16">
@@ -10695,7 +10695,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="15" thickBot="1">
+    <row r="210" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="29" t="s">
         <v>10</v>
       </c>
@@ -10713,7 +10713,7 @@
       </c>
       <c r="F210" s="22">
         <f>K2*E210</f>
-        <v>348066.75320200005</v>
+        <v>350909.320634</v>
       </c>
       <c r="G210" s="22"/>
       <c r="H210" s="89">
@@ -10727,7 +10727,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="15" thickBot="1">
+    <row r="211" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="29"/>
       <c r="B211" s="79" t="s">
         <v>496</v>
@@ -10747,7 +10747,7 @@
       <c r="I211" s="26"/>
       <c r="J211" s="1"/>
     </row>
-    <row r="212" spans="1:10" ht="15" thickBot="1">
+    <row r="212" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="29"/>
       <c r="B212" s="95" t="s">
         <v>497</v>
@@ -10767,7 +10767,7 @@
       <c r="I212" s="26"/>
       <c r="J212" s="1"/>
     </row>
-    <row r="213" spans="1:10">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" s="9" t="s">
         <v>10</v>
       </c>
@@ -10785,7 +10785,7 @@
       </c>
       <c r="F213" s="22">
         <f>K2*E213</f>
-        <v>335577.90840000001</v>
+        <v>338318.4828</v>
       </c>
       <c r="G213" s="22"/>
       <c r="H213" s="28">
@@ -10799,7 +10799,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:10">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" s="9" t="s">
         <v>10</v>
       </c>
@@ -10817,7 +10817,7 @@
       </c>
       <c r="F214" s="22">
         <f>K2*E214</f>
-        <v>257980.83500000002</v>
+        <v>260087.69500000001</v>
       </c>
       <c r="G214" s="22"/>
       <c r="H214" s="10">
@@ -10831,7 +10831,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:10">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" s="9"/>
       <c r="B215" s="10" t="s">
         <v>503</v>
@@ -10851,7 +10851,7 @@
       <c r="I215" s="12"/>
       <c r="J215" s="1"/>
     </row>
-    <row r="216" spans="1:10">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" s="9"/>
       <c r="B216" s="10" t="s">
         <v>504</v>
@@ -10871,7 +10871,7 @@
       <c r="I216" s="12"/>
       <c r="J216" s="1"/>
     </row>
-    <row r="217" spans="1:10">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" s="9"/>
       <c r="B217" s="10" t="s">
         <v>505</v>
@@ -10887,7 +10887,7 @@
       </c>
       <c r="F217" s="22">
         <f>K2*E217</f>
-        <v>5021.1035000000002</v>
+        <v>5062.1095000000005</v>
       </c>
       <c r="G217" s="22"/>
       <c r="H217" s="10">
@@ -10901,7 +10901,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:10">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" s="9"/>
       <c r="B218" s="10" t="s">
         <v>505</v>
@@ -10917,7 +10917,7 @@
       </c>
       <c r="F218" s="22">
         <f>K2*E218</f>
-        <v>5021.1035000000002</v>
+        <v>5062.1095000000005</v>
       </c>
       <c r="G218" s="22"/>
       <c r="H218" s="10">
@@ -10931,7 +10931,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:10">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" s="9"/>
       <c r="B219" s="10" t="s">
         <v>509</v>
@@ -10957,7 +10957,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:10">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" s="9"/>
       <c r="B220" s="10" t="s">
         <v>512</v>
@@ -10973,7 +10973,7 @@
       </c>
       <c r="F220" s="22">
         <f>K2*E220</f>
-        <v>29434.055</v>
+        <v>29674.435000000001</v>
       </c>
       <c r="G220" s="22"/>
       <c r="H220" s="10">
@@ -10987,7 +10987,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:10">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" s="9" t="s">
         <v>10</v>
       </c>
@@ -11005,7 +11005,7 @@
       </c>
       <c r="F221" s="22">
         <f>K2*E221</f>
-        <v>20282.29</v>
+        <v>20447.93</v>
       </c>
       <c r="G221" s="22"/>
       <c r="H221" s="10">
@@ -11019,7 +11019,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:10">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" s="9" t="s">
         <v>19</v>
       </c>
@@ -11037,7 +11037,7 @@
       </c>
       <c r="F222" s="22">
         <f>K2*E222</f>
-        <v>9339.7471999999998</v>
+        <v>9416.0223999999998</v>
       </c>
       <c r="G222" s="22"/>
       <c r="H222" s="11">
@@ -11051,7 +11051,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:10">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" s="9" t="s">
         <v>19</v>
       </c>
@@ -11069,7 +11069,7 @@
       </c>
       <c r="F223" s="22">
         <f>K2*E223</f>
-        <v>3977.3076000000001</v>
+        <v>4009.7892000000002</v>
       </c>
       <c r="G223" s="22"/>
       <c r="H223" s="11">
@@ -11083,7 +11083,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:10">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" s="9" t="s">
         <v>19</v>
       </c>
@@ -11101,7 +11101,7 @@
       </c>
       <c r="F224" s="22">
         <f>K2*E224</f>
-        <v>911.31791800000008</v>
+        <v>918.7604060000001</v>
       </c>
       <c r="G224" s="22"/>
       <c r="H224" s="10">
@@ -11115,7 +11115,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:10">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" s="9"/>
       <c r="B225" s="10" t="s">
         <v>526</v>
@@ -11131,7 +11131,7 @@
       </c>
       <c r="F225" s="22">
         <f>K2*E225</f>
-        <v>28395.206000000002</v>
+        <v>28627.102000000003</v>
       </c>
       <c r="G225" s="22"/>
       <c r="H225" s="10">
@@ -11145,7 +11145,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:10">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" s="9"/>
       <c r="B226" s="10" t="s">
         <v>528</v>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="F226" s="22">
         <f>K2*E226</f>
-        <v>48850.637500000004</v>
+        <v>49249.587500000001</v>
       </c>
       <c r="G226" s="22"/>
       <c r="H226" s="10">
@@ -11175,7 +11175,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:10">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" s="9"/>
       <c r="B227" s="10" t="s">
         <v>530</v>
@@ -11191,7 +11191,7 @@
       </c>
       <c r="F227" s="22">
         <f>K2*E227</f>
-        <v>137375.16565500002</v>
+        <v>138497.071635</v>
       </c>
       <c r="G227" s="22"/>
       <c r="H227" s="10">
@@ -11205,7 +11205,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:10">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" s="9"/>
       <c r="B228" s="10" t="s">
         <v>530</v>
@@ -11233,7 +11233,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:10">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" s="9"/>
       <c r="B229" s="10" t="s">
         <v>535</v>
@@ -11249,7 +11249,7 @@
       </c>
       <c r="F229" s="22">
         <f>K2*E229</f>
-        <v>85099.096718999994</v>
+        <v>85794.078122999999</v>
       </c>
       <c r="G229" s="22"/>
       <c r="H229" s="10">
@@ -11263,7 +11263,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:10">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" s="9"/>
       <c r="B230" s="10" t="s">
         <v>539</v>
@@ -11279,7 +11279,7 @@
       </c>
       <c r="F230" s="22">
         <f>K2*E230</f>
-        <v>137370.46610000002</v>
+        <v>138492.33370000002</v>
       </c>
       <c r="G230" s="22"/>
       <c r="H230" s="10">
@@ -11293,7 +11293,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:10">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" s="9"/>
       <c r="B231" s="10" t="s">
         <v>542</v>
@@ -11309,7 +11309,7 @@
       </c>
       <c r="F231" s="22">
         <f>K2*E231</f>
-        <v>5345.3727950000002</v>
+        <v>5389.0270149999997</v>
       </c>
       <c r="G231" s="22"/>
       <c r="H231" s="10">
@@ -11323,7 +11323,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:10">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" s="9"/>
       <c r="B232" s="10" t="s">
         <v>544</v>
@@ -11339,7 +11339,7 @@
       </c>
       <c r="F232" s="22">
         <f>K2*E232</f>
-        <v>634.43992500000002</v>
+        <v>639.62122499999998</v>
       </c>
       <c r="G232" s="22"/>
       <c r="H232" s="10">
@@ -11353,7 +11353,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:10">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" s="9"/>
       <c r="B233" s="10" t="s">
         <v>544</v>
@@ -11381,7 +11381,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:10">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" s="9"/>
       <c r="B234" s="10" t="s">
         <v>548</v>
@@ -11404,7 +11404,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:10">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" s="9"/>
       <c r="B235" s="10" t="s">
         <v>550</v>
@@ -11430,7 +11430,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:10">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" s="9" t="s">
         <v>10</v>
       </c>
@@ -11455,7 +11455,7 @@
       <c r="I236" s="12"/>
       <c r="J236" s="1"/>
     </row>
-    <row r="237" spans="1:10">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" s="9"/>
       <c r="B237" s="105" t="s">
         <v>86</v>
@@ -11478,7 +11478,7 @@
       <c r="I237" s="12"/>
       <c r="J237" s="1"/>
     </row>
-    <row r="238" spans="1:10">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" s="9"/>
       <c r="B238" s="105" t="s">
         <v>553</v>
@@ -11499,7 +11499,7 @@
       <c r="I238" s="12"/>
       <c r="J238" s="1"/>
     </row>
-    <row r="239" spans="1:10">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" s="9"/>
       <c r="B239" s="105" t="s">
         <v>555</v>
@@ -11522,7 +11522,7 @@
       <c r="I239" s="12"/>
       <c r="J239" s="1"/>
     </row>
-    <row r="240" spans="1:10">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" s="9"/>
       <c r="B240" s="105" t="s">
         <v>555</v>
@@ -11545,7 +11545,7 @@
       <c r="I240" s="12"/>
       <c r="J240" s="1"/>
     </row>
-    <row r="241" spans="1:10">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" s="9"/>
       <c r="B241" s="105" t="s">
         <v>558</v>
@@ -11568,7 +11568,7 @@
       <c r="I241" s="12"/>
       <c r="J241" s="1"/>
     </row>
-    <row r="242" spans="1:10">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" s="9"/>
       <c r="B242" s="105" t="s">
         <v>559</v>
@@ -11591,7 +11591,7 @@
       <c r="I242" s="12"/>
       <c r="J242" s="1"/>
     </row>
-    <row r="243" spans="1:10">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" s="9"/>
       <c r="B243" s="105" t="s">
         <v>559</v>
@@ -11614,7 +11614,7 @@
       <c r="I243" s="12"/>
       <c r="J243" s="1"/>
     </row>
-    <row r="244" spans="1:10">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" s="9"/>
       <c r="B244" s="105" t="s">
         <v>530</v>
@@ -11638,7 +11638,7 @@
       <c r="I244" s="12"/>
       <c r="J244" s="1"/>
     </row>
-    <row r="245" spans="1:10">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" s="9" t="s">
         <v>19</v>
       </c>
@@ -11662,7 +11662,7 @@
       <c r="I245" s="12"/>
       <c r="J245" s="1"/>
     </row>
-    <row r="246" spans="1:10">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" s="9" t="s">
         <v>19</v>
       </c>
@@ -11686,7 +11686,7 @@
       <c r="I246" s="12"/>
       <c r="J246" s="1"/>
     </row>
-    <row r="247" spans="1:10">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" s="9" t="s">
         <v>10</v>
       </c>
@@ -11710,7 +11710,7 @@
       <c r="I247" s="12"/>
       <c r="J247" s="1"/>
     </row>
-    <row r="248" spans="1:10">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" s="9" t="s">
         <v>10</v>
       </c>
@@ -11734,7 +11734,7 @@
       <c r="I248" s="12"/>
       <c r="J248" s="1"/>
     </row>
-    <row r="249" spans="1:10">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" s="9" t="s">
         <v>19</v>
       </c>
@@ -11758,7 +11758,7 @@
       <c r="I249" s="12"/>
       <c r="J249" s="1"/>
     </row>
-    <row r="250" spans="1:10">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" s="9" t="s">
         <v>19</v>
       </c>
@@ -11782,7 +11782,7 @@
       <c r="I250" s="12"/>
       <c r="J250" s="1"/>
     </row>
-    <row r="251" spans="1:10">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" s="9" t="s">
         <v>19</v>
       </c>
@@ -11806,7 +11806,7 @@
       <c r="I251" s="12"/>
       <c r="J251" s="1"/>
     </row>
-    <row r="252" spans="1:10">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" s="9" t="s">
         <v>19</v>
       </c>
@@ -11830,7 +11830,7 @@
       <c r="I252" s="12"/>
       <c r="J252" s="1"/>
     </row>
-    <row r="253" spans="1:10">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" s="9" t="s">
         <v>19</v>
       </c>
@@ -11854,7 +11854,7 @@
       <c r="I253" s="12"/>
       <c r="J253" s="1"/>
     </row>
-    <row r="254" spans="1:10">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" s="9" t="s">
         <v>19</v>
       </c>
@@ -11878,7 +11878,7 @@
       <c r="I254" s="12"/>
       <c r="J254" s="1"/>
     </row>
-    <row r="255" spans="1:10">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" s="9" t="s">
         <v>19</v>
       </c>
@@ -11902,7 +11902,7 @@
       <c r="I255" s="12"/>
       <c r="J255" s="1"/>
     </row>
-    <row r="256" spans="1:10">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" s="9" t="s">
         <v>19</v>
       </c>
@@ -11926,7 +11926,7 @@
       <c r="I256" s="12"/>
       <c r="J256" s="1"/>
     </row>
-    <row r="257" spans="1:10">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" s="15" t="s">
         <v>19</v>
       </c>
@@ -11950,7 +11950,7 @@
       <c r="I257" s="12"/>
       <c r="J257" s="1"/>
     </row>
-    <row r="258" spans="1:10">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" s="15" t="s">
         <v>19</v>
       </c>
@@ -11968,7 +11968,7 @@
       </c>
       <c r="F258" s="22">
         <f>E258*K$2</f>
-        <v>69395.113200000007</v>
+        <v>69961.844400000002</v>
       </c>
       <c r="G258" s="22"/>
       <c r="H258" s="16">
@@ -11977,7 +11977,7 @@
       <c r="I258" s="12"/>
       <c r="J258" s="1"/>
     </row>
-    <row r="259" spans="1:10">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" s="15"/>
       <c r="B259" s="10" t="s">
         <v>586</v>
@@ -11997,7 +11997,7 @@
       <c r="I259" s="12"/>
       <c r="J259" s="1"/>
     </row>
-    <row r="260" spans="1:10">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" s="15" t="s">
         <v>19</v>
       </c>
@@ -12021,7 +12021,7 @@
       <c r="I260" s="12"/>
       <c r="J260" s="1"/>
     </row>
-    <row r="261" spans="1:10">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" s="15"/>
       <c r="B261" s="10" t="s">
         <v>592</v>
@@ -12041,7 +12041,7 @@
       <c r="I261" s="12"/>
       <c r="J261" s="1"/>
     </row>
-    <row r="262" spans="1:10">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" s="15"/>
       <c r="B262" s="10" t="s">
         <v>595</v>
@@ -12061,7 +12061,7 @@
       <c r="I262" s="12"/>
       <c r="J262" s="1"/>
     </row>
-    <row r="263" spans="1:10">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" s="15"/>
       <c r="B263" s="10" t="s">
         <v>597</v>
@@ -12081,7 +12081,7 @@
       <c r="I263" s="12"/>
       <c r="J263" s="1"/>
     </row>
-    <row r="264" spans="1:10">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" s="15"/>
       <c r="B264" s="10" t="s">
         <v>599</v>
@@ -12101,7 +12101,7 @@
       <c r="I264" s="12"/>
       <c r="J264" s="1"/>
     </row>
-    <row r="265" spans="1:10">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" s="15"/>
       <c r="B265" s="10" t="s">
         <v>601</v>
@@ -12121,7 +12121,7 @@
       <c r="I265" s="12"/>
       <c r="J265" s="1"/>
     </row>
-    <row r="266" spans="1:10">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" s="15"/>
       <c r="B266" s="10" t="s">
         <v>603</v>
@@ -12141,7 +12141,7 @@
       <c r="I266" s="12"/>
       <c r="J266" s="1"/>
     </row>
-    <row r="267" spans="1:10">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" s="15"/>
       <c r="B267" s="10" t="s">
         <v>606</v>
@@ -12161,7 +12161,7 @@
       <c r="I267" s="12"/>
       <c r="J267" s="1"/>
     </row>
-    <row r="268" spans="1:10">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" s="15" t="s">
         <v>19</v>
       </c>
@@ -12185,7 +12185,7 @@
       <c r="I268" s="12"/>
       <c r="J268" s="1"/>
     </row>
-    <row r="269" spans="1:10">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" s="9" t="s">
         <v>19</v>
       </c>
@@ -12211,7 +12211,7 @@
       </c>
       <c r="J269" s="1"/>
     </row>
-    <row r="270" spans="1:10">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" s="9" t="s">
         <v>19</v>
       </c>
@@ -12231,7 +12231,7 @@
       <c r="I270" s="12"/>
       <c r="J270" s="1"/>
     </row>
-    <row r="271" spans="1:10">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" s="9" t="s">
         <v>19</v>
       </c>
@@ -12251,7 +12251,7 @@
       <c r="I271" s="12"/>
       <c r="J271" s="1"/>
     </row>
-    <row r="272" spans="1:10">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" s="9" t="s">
         <v>19</v>
       </c>
@@ -12271,7 +12271,7 @@
       <c r="I272" s="12"/>
       <c r="J272" s="1"/>
     </row>
-    <row r="273" spans="1:10">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="9"/>
       <c r="B273" s="10" t="s">
         <v>617</v>
@@ -12291,7 +12291,7 @@
       <c r="I273" s="12"/>
       <c r="J273" s="1"/>
     </row>
-    <row r="274" spans="1:10">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="9"/>
       <c r="B274" s="10" t="s">
         <v>620</v>
@@ -12311,7 +12311,7 @@
       <c r="I274" s="12"/>
       <c r="J274" s="1"/>
     </row>
-    <row r="275" spans="1:10">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="9"/>
       <c r="B275" s="10" t="s">
         <v>623</v>
@@ -12331,7 +12331,7 @@
       <c r="I275" s="12"/>
       <c r="J275" s="1"/>
     </row>
-    <row r="276" spans="1:10">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="9"/>
       <c r="B276" s="10" t="s">
         <v>626</v>
@@ -12351,7 +12351,7 @@
       <c r="I276" s="12"/>
       <c r="J276" s="1"/>
     </row>
-    <row r="277" spans="1:10">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" s="9"/>
       <c r="B277" s="10" t="s">
         <v>628</v>
@@ -12371,7 +12371,7 @@
       <c r="I277" s="12"/>
       <c r="J277" s="1"/>
     </row>
-    <row r="278" spans="1:10">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" s="9"/>
       <c r="B278" s="10" t="s">
         <v>630</v>
@@ -12391,7 +12391,7 @@
       <c r="I278" s="12"/>
       <c r="J278" s="1"/>
     </row>
-    <row r="279" spans="1:10">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" s="9"/>
       <c r="B279" s="10" t="s">
         <v>632</v>
@@ -12411,7 +12411,7 @@
       <c r="I279" s="12"/>
       <c r="J279" s="1"/>
     </row>
-    <row r="280" spans="1:10">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" s="9"/>
       <c r="B280" s="10" t="s">
         <v>634</v>
@@ -12433,7 +12433,7 @@
       </c>
       <c r="J280" s="1"/>
     </row>
-    <row r="281" spans="1:10">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="15"/>
       <c r="B281" s="16" t="s">
         <v>636</v>
@@ -12455,7 +12455,7 @@
       </c>
       <c r="J281" s="1"/>
     </row>
-    <row r="282" spans="1:10">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H282"/>
     </row>
   </sheetData>
@@ -12657,13 +12657,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A39A6148-E43A-4965-9F4A-36C6D678ED00}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A39A6148-E43A-4965-9F4A-36C6D678ED00}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A72F3A-2E1B-4504-BDC9-0E7BD16E0A51}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A72F3A-2E1B-4504-BDC9-0E7BD16E0A51}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E087F51-19FF-4963-A285-7904E9E27340}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E087F51-19FF-4963-A285-7904E9E27340}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5fcf6e91-9d2c-4fbe-b73e-6e1cc1240b3e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/PrecificarEquipamentos_Duda.xlsx
+++ b/PrecificarEquipamentos_Duda.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://oceanpact-my.sharepoint.com/personal/william_silva_oceanpact_com/Documents/Documentos/GitHub/Inventario_PowerBI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1093" documentId="8_{72529B7D-A18F-4E0A-9CAE-0F418ECF5B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DE5AB63-0184-42DB-A814-C340A1F792AA}"/>
+  <xr:revisionPtr revIDLastSave="1118" documentId="8_{72529B7D-A18F-4E0A-9CAE-0F418ECF5B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1A46B3A-483C-4F58-B97E-7394C848ADA1}"/>
   <bookViews>
-    <workbookView xWindow="2964" yWindow="2964" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Duda" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Planilha1!$A$1:$H$155</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -124,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="672">
   <si>
     <t>FIRME?</t>
   </si>
@@ -2039,18 +2043,121 @@
   </si>
   <si>
     <t>Dimensão(MM) 1650/4500 Ton(2t)</t>
+  </si>
+  <si>
+    <t>Unidade de Negócio</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>METOCEANORGAFIA</t>
+  </si>
+  <si>
+    <t>CORRENTÔMETRO</t>
+  </si>
+  <si>
+    <t>METEOROLOGIA</t>
+  </si>
+  <si>
+    <t>Sistema de Posicionamento</t>
+  </si>
+  <si>
+    <t>BEACON OCEANOGRÁFICO</t>
+  </si>
+  <si>
+    <t>Oceanografia Geológica/Geotecnia</t>
+  </si>
+  <si>
+    <t>CTD</t>
+  </si>
+  <si>
+    <t>GRAVADOR ACÚSTICO</t>
+  </si>
+  <si>
+    <t>Oceanografia Biológica</t>
+  </si>
+  <si>
+    <t>PAM</t>
+  </si>
+  <si>
+    <t>Geofísica</t>
+  </si>
+  <si>
+    <t>USBL - SISTEMA RANGER 2</t>
+  </si>
+  <si>
+    <t>RANGER 2</t>
+  </si>
+  <si>
+    <t>USBL - SISTEMA RANGER 1</t>
+  </si>
+  <si>
+    <t>RANGER 1</t>
+  </si>
+  <si>
+    <t>USBL - SISTEMA 352P</t>
+  </si>
+  <si>
+    <t>351P/352P</t>
+  </si>
+  <si>
+    <t>Liberador Acústico</t>
+  </si>
+  <si>
+    <t>MARÉGRAFO</t>
+  </si>
+  <si>
+    <t>MBES</t>
+  </si>
+  <si>
+    <t>SENSORES</t>
+  </si>
+  <si>
+    <t>SUB BOTTOM PROFILE CHIRP3</t>
+  </si>
+  <si>
+    <t>SUB BOTTOM PROFILE 3260</t>
+  </si>
+  <si>
+    <t>T-BAR</t>
+  </si>
+  <si>
+    <t>HYDROBIOS</t>
+  </si>
+  <si>
+    <t>Carga</t>
+  </si>
+  <si>
+    <t>GUINCHOS</t>
+  </si>
+  <si>
+    <t>MARKEY</t>
+  </si>
+  <si>
+    <t>Guincho Hidráulico/2,5t</t>
+  </si>
+  <si>
+    <t>Guincho Hidráulico/5t</t>
+  </si>
+  <si>
+    <t>Guincho Hidráulico/3t</t>
+  </si>
+  <si>
+    <t>Quantidade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2133,8 +2240,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2213,8 +2349,68 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF375623"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6E0B4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="60">
+  <borders count="64">
     <border>
       <left/>
       <right/>
@@ -3015,13 +3211,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3324,7 +3558,110 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3334,6 +3671,46 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3772,46 +4149,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -3950,20 +4287,20 @@
     <v>5</v>
     <v>5.5297000000000001</v>
     <v>4.6896000000000004</v>
-    <v>4.9926000000000004</v>
+    <v>5.0438000000000001</v>
     <v>4.9424999999999999</v>
     <v>USD</v>
     <v>4.9619</v>
-    <v>45071.55537037037</v>
+    <v>45071.787499999999</v>
     <v>BRL</v>
     <v>US Dollar/Brazilian Real FX Spot Rate</v>
     <v>4.9610000000000003</v>
-    <v>4.9873000000000003</v>
+    <v>5.0244999999999997</v>
     <v>USDBRL</v>
     <v>Par de Moedas</v>
     <v>USD/BRL</v>
-    <v>2.5399999999999999E-2</v>
-    <v>5.1190000000000003E-3</v>
+    <v>6.2600000000000003E-2</v>
+    <v>1.2616E-2</v>
   </rv>
   <rv s="1">
     <v>0</v>
@@ -4188,18 +4525,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{487EB123-9A0E-4DE6-AC09-2D80046E6087}" name="Tabela1" displayName="Tabela1" ref="A1:I281" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{487EB123-9A0E-4DE6-AC09-2D80046E6087}" name="Tabela1" displayName="Tabela1" ref="A1:I281" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <autoFilter ref="A1:I281" xr:uid="{487EB123-9A0E-4DE6-AC09-2D80046E6087}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{3DB87A71-FCE0-4F2B-8162-CE1B89AB53E9}" name="FIRME?" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{EE4B3566-6BF5-45B0-A0D3-63D6CA95561B}" name="EQUIPAMENTO " dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{7146908F-C6DD-47C3-951F-4895D5E1C4A0}" name="MODELO " dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{880FBB44-335E-4073-B114-3F0CA9EC1F7A}" name="FABRICANTE " dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{F2F7C6C6-7824-410C-876B-D18A963127EA}" name="Valor unitário U$" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{11D8FA79-BAD9-45AD-BBBD-5FCC99B8D9DB}" name="Valor unitário R$" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{80AC1A47-0CC5-4B97-9A95-4775E1D907CD}" name="PREÇO - DUDA" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{B26035F9-D6EE-4312-A3AE-A33E3DFB4B04}" name="QTD" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{954C0132-8434-418B-B70E-15D2E4310BDD}" name="Considerações" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{3DB87A71-FCE0-4F2B-8162-CE1B89AB53E9}" name="FIRME?" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{EE4B3566-6BF5-45B0-A0D3-63D6CA95561B}" name="EQUIPAMENTO " dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{7146908F-C6DD-47C3-951F-4895D5E1C4A0}" name="MODELO " dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{880FBB44-335E-4073-B114-3F0CA9EC1F7A}" name="FABRICANTE " dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{F2F7C6C6-7824-410C-876B-D18A963127EA}" name="Valor unitário U$" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{11D8FA79-BAD9-45AD-BBBD-5FCC99B8D9DB}" name="Valor unitário R$" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{80AC1A47-0CC5-4B97-9A95-4775E1D907CD}" name="PREÇO - DUDA" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{B26035F9-D6EE-4312-A3AE-A33E3DFB4B04}" name="QTD" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{954C0132-8434-418B-B70E-15D2E4310BDD}" name="Considerações" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4524,8 +4861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFB282"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E246" sqref="E246"/>
     </sheetView>
   </sheetViews>
@@ -4593,7 +4930,7 @@
       </c>
       <c r="F2" s="22">
         <f>E2*K2</f>
-        <v>206324.60100000002</v>
+        <v>207863.565</v>
       </c>
       <c r="G2" s="22"/>
       <c r="H2" s="11">
@@ -4607,7 +4944,7 @@
       </c>
       <c r="K2" s="2" cm="1">
         <f t="array" ref="K2">_FV(J2,"Preço",TRUE)</f>
-        <v>4.9873000000000003</v>
+        <v>5.0244999999999997</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>15</v>
@@ -4632,7 +4969,7 @@
       </c>
       <c r="F3" s="22">
         <f>E3*K2</f>
-        <v>206324.60100000002</v>
+        <v>207863.565</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="11">
@@ -4665,7 +5002,7 @@
       </c>
       <c r="F4" s="22">
         <f>E4*K2</f>
-        <v>206324.60100000002</v>
+        <v>207863.565</v>
       </c>
       <c r="G4" s="22"/>
       <c r="H4" s="11">
@@ -4693,7 +5030,7 @@
       </c>
       <c r="F5" s="22">
         <f>K2*E5</f>
-        <v>131046.2948</v>
+        <v>132023.76199999999</v>
       </c>
       <c r="G5" s="22"/>
       <c r="H5" s="11">
@@ -4726,7 +5063,7 @@
       </c>
       <c r="F6" s="22">
         <f>K2*E6</f>
-        <v>155982.7948</v>
+        <v>157146.26199999999</v>
       </c>
       <c r="G6" s="22"/>
       <c r="H6" s="10">
@@ -4758,7 +5095,7 @@
       </c>
       <c r="F7" s="22">
         <f>K2*E7</f>
-        <v>141020.89480000001</v>
+        <v>142072.76199999999</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="10">
@@ -4790,7 +5127,7 @@
       </c>
       <c r="F8" s="22">
         <f>K2*E8</f>
-        <v>269388.41102400003</v>
+        <v>271397.76455999998</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="11">
@@ -4822,7 +5159,7 @@
       </c>
       <c r="F9" s="22">
         <f>K2*E9</f>
-        <v>101491.55500000001</v>
+        <v>102248.575</v>
       </c>
       <c r="G9" s="22"/>
       <c r="H9" s="10">
@@ -4854,7 +5191,7 @@
       </c>
       <c r="F10" s="22">
         <f>K2*E10</f>
-        <v>161670.860323</v>
+        <v>162876.75449499997</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="10">
@@ -4886,7 +5223,7 @@
       </c>
       <c r="F11" s="22">
         <f>K2*E11</f>
-        <v>383887.44290000002</v>
+        <v>386750.83849999995</v>
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="10">
@@ -4918,7 +5255,7 @@
       </c>
       <c r="F12" s="22">
         <f>K2*E12</f>
-        <v>119695.20000000001</v>
+        <v>120588</v>
       </c>
       <c r="G12" s="22"/>
       <c r="H12" s="10">
@@ -4950,7 +5287,7 @@
       </c>
       <c r="F13" s="22">
         <f>K2*E13</f>
-        <v>168655.52410000001</v>
+        <v>169913.5165</v>
       </c>
       <c r="G13" s="22"/>
       <c r="H13" s="10">
@@ -4959,11 +5296,11 @@
       <c r="I13" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="106" t="s">
+      <c r="J13" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="K13" s="106"/>
-      <c r="L13" s="106"/>
+      <c r="K13" s="133"/>
+      <c r="L13" s="133"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
@@ -4983,7 +5320,7 @@
       </c>
       <c r="F14" s="22">
         <f>K2*E14</f>
-        <v>168655.52410000001</v>
+        <v>169913.5165</v>
       </c>
       <c r="G14" s="22"/>
       <c r="H14" s="10">
@@ -4992,11 +5329,11 @@
       <c r="I14" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="106" t="s">
+      <c r="J14" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="106"/>
-      <c r="L14" s="106"/>
+      <c r="K14" s="133"/>
+      <c r="L14" s="133"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
@@ -5014,7 +5351,7 @@
       </c>
       <c r="F15" s="22">
         <f>K2*E15</f>
-        <v>1176.0552130000001</v>
+        <v>1184.8273449999999</v>
       </c>
       <c r="G15" s="22"/>
       <c r="H15" s="10">
@@ -5044,7 +5381,7 @@
       </c>
       <c r="F16" s="22">
         <f>K2*E16</f>
-        <v>34661.735000000001</v>
+        <v>34920.275000000001</v>
       </c>
       <c r="G16" s="22"/>
       <c r="H16" s="10">
@@ -5074,7 +5411,7 @@
       </c>
       <c r="F17" s="22">
         <f>K2*E17</f>
-        <v>25559.912500000002</v>
+        <v>25750.5625</v>
       </c>
       <c r="G17" s="22"/>
       <c r="H17" s="10">
@@ -5104,7 +5441,7 @@
       </c>
       <c r="F18" s="22">
         <f>K2*E18</f>
-        <v>34661.735000000001</v>
+        <v>34920.275000000001</v>
       </c>
       <c r="G18" s="22"/>
       <c r="H18" s="10">
@@ -5136,7 +5473,7 @@
       </c>
       <c r="F19" s="22">
         <f>K2*E19</f>
-        <v>2164.8871840000002</v>
+        <v>2181.03496</v>
       </c>
       <c r="G19" s="22"/>
       <c r="H19" s="10">
@@ -5168,7 +5505,7 @@
       </c>
       <c r="F20" s="22">
         <f>K2*E20</f>
-        <v>2164.8871840000002</v>
+        <v>2181.03496</v>
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="10">
@@ -5200,7 +5537,7 @@
       </c>
       <c r="F21" s="22">
         <f>K2*E21</f>
-        <v>2164.8871840000002</v>
+        <v>2181.03496</v>
       </c>
       <c r="G21" s="22"/>
       <c r="H21" s="11">
@@ -5232,7 +5569,7 @@
       </c>
       <c r="F22" s="22">
         <f>K2*E22</f>
-        <v>2164.8871840000002</v>
+        <v>2181.03496</v>
       </c>
       <c r="G22" s="22"/>
       <c r="H22" s="10">
@@ -5262,7 +5599,7 @@
       </c>
       <c r="F23" s="22">
         <f>K2*E23</f>
-        <v>9974.6</v>
+        <v>10049</v>
       </c>
       <c r="G23" s="22"/>
       <c r="H23" s="10">
@@ -5292,7 +5629,7 @@
       </c>
       <c r="F24" s="22">
         <f>K2*E24</f>
-        <v>9974.6</v>
+        <v>10049</v>
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="10">
@@ -5322,7 +5659,7 @@
       </c>
       <c r="F25" s="22">
         <f>K2*E25</f>
-        <v>9974.6</v>
+        <v>10049</v>
       </c>
       <c r="G25" s="22"/>
       <c r="H25" s="10">
@@ -5352,7 +5689,7 @@
       </c>
       <c r="F26" s="22">
         <f>K2*E26</f>
-        <v>4882.5667000000003</v>
+        <v>4918.9854999999998</v>
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="10">
@@ -5384,7 +5721,7 @@
       </c>
       <c r="F27" s="22">
         <f>K2*E27</f>
-        <v>75903.214890000003</v>
+        <v>76469.372849999985</v>
       </c>
       <c r="G27" s="22"/>
       <c r="H27" s="11">
@@ -5416,7 +5753,7 @@
       </c>
       <c r="F28" s="22">
         <f>K2*E28</f>
-        <v>54860.3</v>
+        <v>55269.5</v>
       </c>
       <c r="G28" s="22"/>
       <c r="H28" s="10">
@@ -5425,11 +5762,11 @@
       <c r="I28" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="J28" s="106" t="s">
+      <c r="J28" s="133" t="s">
         <v>74</v>
       </c>
-      <c r="K28" s="106"/>
-      <c r="L28" s="106"/>
+      <c r="K28" s="133"/>
+      <c r="L28" s="133"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
@@ -5449,7 +5786,7 @@
       </c>
       <c r="F29" s="22">
         <f>K2*E29</f>
-        <v>54860.3</v>
+        <v>55269.5</v>
       </c>
       <c r="G29" s="22"/>
       <c r="H29" s="11">
@@ -5458,11 +5795,11 @@
       <c r="I29" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J29" s="106" t="s">
+      <c r="J29" s="133" t="s">
         <v>74</v>
       </c>
-      <c r="K29" s="106"/>
-      <c r="L29" s="106"/>
+      <c r="K29" s="133"/>
+      <c r="L29" s="133"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
@@ -5482,7 +5819,7 @@
       </c>
       <c r="F30" s="22">
         <f>K$2*E30</f>
-        <v>89771.400000000009</v>
+        <v>90441</v>
       </c>
       <c r="G30" s="22"/>
       <c r="H30" s="10">
@@ -5513,18 +5850,18 @@
       </c>
       <c r="F31" s="22">
         <f>K2*E31</f>
-        <v>24936.5</v>
+        <v>25122.5</v>
       </c>
       <c r="G31" s="22"/>
       <c r="H31" s="11">
         <v>4</v>
       </c>
       <c r="I31" s="103"/>
-      <c r="J31" s="106" t="s">
+      <c r="J31" s="133" t="s">
         <v>74</v>
       </c>
-      <c r="K31" s="106"/>
-      <c r="L31" s="106"/>
+      <c r="K31" s="133"/>
+      <c r="L31" s="133"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
@@ -5544,7 +5881,7 @@
       </c>
       <c r="F32" s="22">
         <f>K2*E32</f>
-        <v>3311.5672000000004</v>
+        <v>3336.268</v>
       </c>
       <c r="G32" s="22"/>
       <c r="H32" s="10">
@@ -5576,7 +5913,7 @@
       </c>
       <c r="F33" s="22">
         <f>K2*E33</f>
-        <v>3311.5672000000004</v>
+        <v>3336.268</v>
       </c>
       <c r="G33" s="22"/>
       <c r="H33" s="11">
@@ -5608,7 +5945,7 @@
       </c>
       <c r="F34" s="22">
         <f>K2*E34</f>
-        <v>3311.5672000000004</v>
+        <v>3336.268</v>
       </c>
       <c r="G34" s="22"/>
       <c r="H34" s="10">
@@ -5640,7 +5977,7 @@
       </c>
       <c r="F35" s="22">
         <f>K2*E35</f>
-        <v>3311.5672000000004</v>
+        <v>3336.268</v>
       </c>
       <c r="G35" s="22"/>
       <c r="H35" s="10">
@@ -5670,7 +6007,7 @@
       </c>
       <c r="F36" s="22">
         <f>K2*E36</f>
-        <v>25195.839600000003</v>
+        <v>25383.773999999998</v>
       </c>
       <c r="G36" s="22"/>
       <c r="H36" s="10">
@@ -5700,7 +6037,7 @@
       </c>
       <c r="F37" s="22">
         <f>K2*E37</f>
-        <v>62341.25</v>
+        <v>62806.25</v>
       </c>
       <c r="G37" s="22"/>
       <c r="H37" s="10">
@@ -5730,7 +6067,7 @@
       </c>
       <c r="F38" s="22">
         <f>K2*E38</f>
-        <v>25195.839600000003</v>
+        <v>25383.773999999998</v>
       </c>
       <c r="G38" s="22"/>
       <c r="H38" s="10">
@@ -5760,7 +6097,7 @@
       </c>
       <c r="F39" s="22">
         <f>K2*E39</f>
-        <v>25195.839600000003</v>
+        <v>25383.773999999998</v>
       </c>
       <c r="G39" s="22"/>
       <c r="H39" s="10">
@@ -5790,7 +6127,7 @@
       </c>
       <c r="F40" s="22">
         <f>K2*E40</f>
-        <v>17455.55</v>
+        <v>17585.75</v>
       </c>
       <c r="G40" s="22"/>
       <c r="H40" s="10">
@@ -5822,7 +6159,7 @@
       </c>
       <c r="F41" s="22">
         <f>K2*E41</f>
-        <v>22442.850000000002</v>
+        <v>22610.25</v>
       </c>
       <c r="G41" s="22"/>
       <c r="H41" s="10">
@@ -5852,7 +6189,7 @@
       </c>
       <c r="F42" s="22">
         <f>K2*E42</f>
-        <v>4842.6683000000003</v>
+        <v>4878.7894999999999</v>
       </c>
       <c r="G42" s="22"/>
       <c r="H42" s="10">
@@ -5882,7 +6219,7 @@
       </c>
       <c r="F43" s="22">
         <f>K2*E43</f>
-        <v>31498.091118</v>
+        <v>31733.033669999997</v>
       </c>
       <c r="G43" s="22"/>
       <c r="H43" s="10">
@@ -5914,7 +6251,7 @@
       </c>
       <c r="F44" s="22">
         <f>K2*E44</f>
-        <v>15620.223600000001</v>
+        <v>15736.733999999999</v>
       </c>
       <c r="G44" s="22"/>
       <c r="H44" s="10">
@@ -5946,7 +6283,7 @@
       </c>
       <c r="F45" s="22">
         <f>K2*E45</f>
-        <v>32118.212000000003</v>
+        <v>32357.78</v>
       </c>
       <c r="G45" s="22"/>
       <c r="H45" s="10">
@@ -5978,7 +6315,7 @@
       </c>
       <c r="F46" s="22">
         <f>K2*E46</f>
-        <v>46207.234753999997</v>
+        <v>46551.892009999996</v>
       </c>
       <c r="G46" s="22"/>
       <c r="H46" s="10">
@@ -6010,7 +6347,7 @@
       </c>
       <c r="F47" s="22">
         <f>K$2*E47</f>
-        <v>398984</v>
+        <v>401960</v>
       </c>
       <c r="G47" s="22"/>
       <c r="H47" s="10">
@@ -6039,7 +6376,7 @@
       </c>
       <c r="F48" s="22">
         <f>K$2*E48</f>
-        <v>264326.90000000002</v>
+        <v>266298.5</v>
       </c>
       <c r="G48" s="22"/>
       <c r="H48" s="10">
@@ -6068,7 +6405,7 @@
       </c>
       <c r="F49" s="22">
         <f>K2*E49</f>
-        <v>289063.908</v>
+        <v>291220.01999999996</v>
       </c>
       <c r="G49" s="22"/>
       <c r="H49" s="10">
@@ -6100,7 +6437,7 @@
       </c>
       <c r="F50" s="22">
         <f>K2*E50</f>
-        <v>24612.325500000003</v>
+        <v>24795.907499999998</v>
       </c>
       <c r="G50" s="22"/>
       <c r="H50" s="10">
@@ -6132,7 +6469,7 @@
       </c>
       <c r="F51" s="22">
         <f>K2*E51</f>
-        <v>524459.48070000007</v>
+        <v>528371.39549999998</v>
       </c>
       <c r="G51" s="22"/>
       <c r="H51" s="10">
@@ -6162,7 +6499,7 @@
       </c>
       <c r="F52" s="22">
         <f>K2*E52</f>
-        <v>11221.425000000001</v>
+        <v>11305.125</v>
       </c>
       <c r="G52" s="22"/>
       <c r="H52" s="10">
@@ -6192,7 +6529,7 @@
       </c>
       <c r="F53" s="22">
         <f>K2*E53</f>
-        <v>16732.391500000002</v>
+        <v>16857.197499999998</v>
       </c>
       <c r="G53" s="22"/>
       <c r="H53" s="10">
@@ -6222,7 +6559,7 @@
       </c>
       <c r="F54" s="22">
         <f>K2*E54</f>
-        <v>14862.154</v>
+        <v>14973.009999999998</v>
       </c>
       <c r="G54" s="22"/>
       <c r="H54" s="10">
@@ -6252,7 +6589,7 @@
       </c>
       <c r="F55" s="22">
         <f>K2*E55</f>
-        <v>2729.5991629999999</v>
+        <v>2749.9590949999997</v>
       </c>
       <c r="G55" s="22"/>
       <c r="H55" s="10">
@@ -6282,7 +6619,7 @@
       </c>
       <c r="F56" s="22">
         <f>K2*E56</f>
-        <v>4768.4074030000002</v>
+        <v>4803.9746949999999</v>
       </c>
       <c r="G56" s="22"/>
       <c r="H56" s="10">
@@ -6312,7 +6649,7 @@
       </c>
       <c r="F57" s="22">
         <f>K2*E57</f>
-        <v>7480.7006350000011</v>
+        <v>7536.498775</v>
       </c>
       <c r="G57" s="22"/>
       <c r="H57" s="10">
@@ -6342,7 +6679,7 @@
       </c>
       <c r="F58" s="22">
         <f>K2*E58</f>
-        <v>2798.3740300000004</v>
+        <v>2819.2469500000002</v>
       </c>
       <c r="G58" s="22"/>
       <c r="H58" s="10">
@@ -6372,7 +6709,7 @@
       </c>
       <c r="F59" s="22">
         <f>K2*E59</f>
-        <v>4026.097671</v>
+        <v>4056.1281149999995</v>
       </c>
       <c r="G59" s="22"/>
       <c r="H59" s="10">
@@ -6402,7 +6739,7 @@
       </c>
       <c r="F60" s="22">
         <f>K2*E60</f>
-        <v>2378.9421000000002</v>
+        <v>2396.6864999999998</v>
       </c>
       <c r="G60" s="22"/>
       <c r="H60" s="10">
@@ -6432,7 +6769,7 @@
       </c>
       <c r="F61" s="22">
         <f>K2*E61</f>
-        <v>30196.954421000002</v>
+        <v>30422.191865000001</v>
       </c>
       <c r="G61" s="22"/>
       <c r="H61" s="10">
@@ -6462,7 +6799,7 @@
       </c>
       <c r="F62" s="22">
         <f>K2*E62</f>
-        <v>30196.954421000002</v>
+        <v>30422.191865000001</v>
       </c>
       <c r="G62" s="22"/>
       <c r="H62" s="10">
@@ -6492,7 +6829,7 @@
       </c>
       <c r="F63" s="22">
         <f>K2*E63</f>
-        <v>98588.946400000001</v>
+        <v>99324.315999999992</v>
       </c>
       <c r="G63" s="22"/>
       <c r="H63" s="10">
@@ -6522,7 +6859,7 @@
       </c>
       <c r="F64" s="22">
         <f>K2*E64</f>
-        <v>822904.5</v>
+        <v>829042.5</v>
       </c>
       <c r="G64" s="22"/>
       <c r="H64" s="10">
@@ -6578,7 +6915,7 @@
       </c>
       <c r="F66" s="22">
         <f>K2*E66</f>
-        <v>43214.9545</v>
+        <v>43537.292499999996</v>
       </c>
       <c r="G66" s="22"/>
       <c r="H66" s="10">
@@ -6608,7 +6945,7 @@
       </c>
       <c r="F67" s="22">
         <f>K2*E67</f>
-        <v>44587.060476000006</v>
+        <v>44919.632940000003</v>
       </c>
       <c r="G67" s="22"/>
       <c r="H67" s="10">
@@ -6638,7 +6975,7 @@
       </c>
       <c r="F68" s="22">
         <f>K2*E68</f>
-        <v>44587.060476000006</v>
+        <v>44919.632940000003</v>
       </c>
       <c r="G68" s="22"/>
       <c r="H68" s="10">
@@ -6668,7 +7005,7 @@
       </c>
       <c r="F69" s="22">
         <f>K2*E69</f>
-        <v>44587.060476000006</v>
+        <v>44919.632940000003</v>
       </c>
       <c r="G69" s="22"/>
       <c r="H69" s="10">
@@ -6698,7 +7035,7 @@
       </c>
       <c r="F70" s="22">
         <f>K2*E70</f>
-        <v>124981.73800000001</v>
+        <v>125913.96999999999</v>
       </c>
       <c r="G70" s="22"/>
       <c r="H70" s="10">
@@ -6730,7 +7067,7 @@
       </c>
       <c r="F71" s="22">
         <f>K2*E71</f>
-        <v>128422.97500000001</v>
+        <v>129380.875</v>
       </c>
       <c r="G71" s="22"/>
       <c r="H71" s="10">
@@ -6762,7 +7099,7 @@
       </c>
       <c r="F72" s="22">
         <f>K2*E72</f>
-        <v>129345.62550000001</v>
+        <v>130310.40749999999</v>
       </c>
       <c r="G72" s="22"/>
       <c r="H72" s="10">
@@ -6794,7 +7131,7 @@
       </c>
       <c r="F73" s="22">
         <f>K2*E73</f>
-        <v>108723.14</v>
+        <v>109534.09999999999</v>
       </c>
       <c r="G73" s="22"/>
       <c r="H73" s="10">
@@ -6826,7 +7163,7 @@
       </c>
       <c r="F74" s="22">
         <f>K2*E74</f>
-        <v>51394.126500000006</v>
+        <v>51777.472499999996</v>
       </c>
       <c r="G74" s="22"/>
       <c r="H74" s="11">
@@ -6858,7 +7195,7 @@
       </c>
       <c r="F75" s="22">
         <f>K2*E75</f>
-        <v>295647.14400000003</v>
+        <v>297852.36</v>
       </c>
       <c r="G75" s="22"/>
       <c r="H75" s="10">
@@ -6888,7 +7225,7 @@
       </c>
       <c r="F76" s="22">
         <f>K2*E76</f>
-        <v>108029.90530000001</v>
+        <v>108835.6945</v>
       </c>
       <c r="G76" s="22"/>
       <c r="H76" s="10">
@@ -6918,7 +7255,7 @@
       </c>
       <c r="F77" s="22">
         <f>K2*E77</f>
-        <v>500.42568200000005</v>
+        <v>504.15832999999998</v>
       </c>
       <c r="G77" s="22"/>
       <c r="H77" s="10">
@@ -6974,7 +7311,7 @@
       </c>
       <c r="F79" s="22">
         <f>K2*E79</f>
-        <v>127448.75581800001</v>
+        <v>128399.38916999999</v>
       </c>
       <c r="G79" s="22"/>
       <c r="H79" s="10">
@@ -7004,7 +7341,7 @@
       </c>
       <c r="F80" s="22">
         <f>K2*E80</f>
-        <v>8340.9101390000014</v>
+        <v>8403.124534999999</v>
       </c>
       <c r="G80" s="22"/>
       <c r="H80" s="10">
@@ -7034,7 +7371,7 @@
       </c>
       <c r="F81" s="22">
         <f>K2*E81</f>
-        <v>303227.84000000003</v>
+        <v>305489.59999999998</v>
       </c>
       <c r="G81" s="22"/>
       <c r="H81" s="10">
@@ -7064,7 +7401,7 @@
       </c>
       <c r="F82" s="22">
         <f>K2*E82</f>
-        <v>42142.685000000005</v>
+        <v>42457.025000000001</v>
       </c>
       <c r="G82" s="22"/>
       <c r="H82" s="10">
@@ -7094,7 +7431,7 @@
       </c>
       <c r="F83" s="22">
         <f>K2*E83</f>
-        <v>42142.685000000005</v>
+        <v>42457.025000000001</v>
       </c>
       <c r="G83" s="22"/>
       <c r="H83" s="10">
@@ -7124,7 +7461,7 @@
       </c>
       <c r="F84" s="22">
         <f>K2*E84</f>
-        <v>1416.8420570000001</v>
+        <v>1427.4102049999999</v>
       </c>
       <c r="G84" s="22"/>
       <c r="H84" s="10">
@@ -7154,7 +7491,7 @@
       </c>
       <c r="F85" s="22">
         <f>K2*E85</f>
-        <v>1112.1180270000002</v>
+        <v>1120.4132549999999</v>
       </c>
       <c r="G85" s="22"/>
       <c r="H85" s="10">
@@ -7184,7 +7521,7 @@
       </c>
       <c r="F86" s="22">
         <f>K2*E86</f>
-        <v>1293.356509</v>
+        <v>1303.0035849999999</v>
       </c>
       <c r="G86" s="22"/>
       <c r="H86" s="10">
@@ -7214,7 +7551,7 @@
       </c>
       <c r="F87" s="22">
         <f>K2*E87</f>
-        <v>605.50809300000003</v>
+        <v>610.02454499999999</v>
       </c>
       <c r="G87" s="22"/>
       <c r="H87" s="10">
@@ -7246,7 +7583,7 @@
       </c>
       <c r="F88" s="22">
         <f>K2*E88</f>
-        <v>40012.808662000003</v>
+        <v>40311.262029999998</v>
       </c>
       <c r="G88" s="22"/>
       <c r="H88" s="10">
@@ -7278,7 +7615,7 @@
       </c>
       <c r="F89" s="22">
         <f>K2*E89</f>
-        <v>40012.808662000003</v>
+        <v>40311.262029999998</v>
       </c>
       <c r="G89" s="22"/>
       <c r="H89" s="10">
@@ -7310,7 +7647,7 @@
       </c>
       <c r="F90" s="22">
         <f>K2*E90</f>
-        <v>40012.808662000003</v>
+        <v>40311.262029999998</v>
       </c>
       <c r="G90" s="22"/>
       <c r="H90" s="11">
@@ -7342,7 +7679,7 @@
       </c>
       <c r="F91" s="22">
         <f>K2*E91</f>
-        <v>16183.788500000001</v>
+        <v>16304.502499999999</v>
       </c>
       <c r="G91" s="22"/>
       <c r="H91" s="11">
@@ -7374,7 +7711,7 @@
       </c>
       <c r="F92" s="22">
         <f>K2*E92</f>
-        <v>16183.788500000001</v>
+        <v>16304.502499999999</v>
       </c>
       <c r="G92" s="22"/>
       <c r="H92" s="10">
@@ -7404,7 +7741,7 @@
       </c>
       <c r="F93" s="22">
         <f>K2*E93</f>
-        <v>69822.2</v>
+        <v>70343</v>
       </c>
       <c r="G93" s="22"/>
       <c r="H93" s="10">
@@ -7434,7 +7771,7 @@
       </c>
       <c r="F94" s="22">
         <f>K2*E94</f>
-        <v>8727.7749999999996</v>
+        <v>8792.875</v>
       </c>
       <c r="G94" s="22"/>
       <c r="H94" s="10">
@@ -7466,7 +7803,7 @@
       </c>
       <c r="F95" s="22">
         <f>K2*E95</f>
-        <v>1308764.9219690003</v>
+        <v>1318526.928485</v>
       </c>
       <c r="G95" s="22"/>
       <c r="H95" s="10">
@@ -7498,7 +7835,7 @@
       </c>
       <c r="F96" s="22">
         <f>K2*E96</f>
-        <v>24637.262000000002</v>
+        <v>24821.03</v>
       </c>
       <c r="G96" s="22"/>
       <c r="H96" s="10">
@@ -7530,7 +7867,7 @@
       </c>
       <c r="F97" s="22">
         <f>K2*E97</f>
-        <v>64834.9</v>
+        <v>65318.5</v>
       </c>
       <c r="G97" s="22"/>
       <c r="H97" s="10">
@@ -7562,7 +7899,7 @@
       </c>
       <c r="F98" s="22">
         <f>K2*E98</f>
-        <v>64834.9</v>
+        <v>65318.5</v>
       </c>
       <c r="G98" s="22"/>
       <c r="H98" s="10">
@@ -7619,7 +7956,7 @@
       </c>
       <c r="F100" s="22">
         <f>K2*E100</f>
-        <v>24637.262000000002</v>
+        <v>24821.03</v>
       </c>
       <c r="G100" s="22"/>
       <c r="H100" s="10">
@@ -7651,7 +7988,7 @@
       </c>
       <c r="F101" s="22">
         <f>K2*E101</f>
-        <v>184779.465</v>
+        <v>186157.72499999998</v>
       </c>
       <c r="G101" s="22"/>
       <c r="H101" s="11">
@@ -7683,7 +8020,7 @@
       </c>
       <c r="F102" s="22">
         <f>K2*E102</f>
-        <v>165229.24900000001</v>
+        <v>166461.685</v>
       </c>
       <c r="G102" s="22"/>
       <c r="H102" s="11">
@@ -7713,7 +8050,7 @@
       </c>
       <c r="F103" s="22">
         <f>K2*E103</f>
-        <v>39898.400000000001</v>
+        <v>40196</v>
       </c>
       <c r="G103" s="22"/>
       <c r="H103" s="10">
@@ -7743,7 +8080,7 @@
       </c>
       <c r="F104" s="22">
         <f>K2*E104</f>
-        <v>89023.305000000008</v>
+        <v>89687.324999999997</v>
       </c>
       <c r="G104" s="22"/>
       <c r="H104" s="10">
@@ -8037,7 +8374,7 @@
       </c>
       <c r="F116" s="22">
         <f>K2*E116</f>
-        <v>55359.030000000006</v>
+        <v>55771.95</v>
       </c>
       <c r="G116" s="22"/>
       <c r="H116" s="43">
@@ -8069,7 +8406,7 @@
       </c>
       <c r="F117" s="22">
         <f>K2*E117</f>
-        <v>70694.977500000008</v>
+        <v>71222.287499999991</v>
       </c>
       <c r="G117" s="22"/>
       <c r="H117" s="11">
@@ -8101,7 +8438,7 @@
       </c>
       <c r="F118" s="22">
         <f>K2*E118</f>
-        <v>17455.55</v>
+        <v>17585.75</v>
       </c>
       <c r="G118" s="22"/>
       <c r="H118" s="10">
@@ -8133,7 +8470,7 @@
       </c>
       <c r="F119" s="22">
         <f>K2*E119</f>
-        <v>17455.55</v>
+        <v>17585.75</v>
       </c>
       <c r="G119" s="22"/>
       <c r="H119" s="11">
@@ -8165,7 +8502,7 @@
       </c>
       <c r="F120" s="22">
         <f>K2*E120</f>
-        <v>32089.684644000001</v>
+        <v>32329.039859999997</v>
       </c>
       <c r="G120" s="22"/>
       <c r="H120" s="10">
@@ -8197,7 +8534,7 @@
       </c>
       <c r="F121" s="22">
         <f>K2*E121</f>
-        <v>28427.61</v>
+        <v>28639.649999999998</v>
       </c>
       <c r="G121" s="22"/>
       <c r="H121" s="10">
@@ -8229,7 +8566,7 @@
       </c>
       <c r="F122" s="22">
         <f>K2*E122</f>
-        <v>3145.4901100000002</v>
+        <v>3168.9521500000001</v>
       </c>
       <c r="G122" s="22"/>
       <c r="H122" s="10">
@@ -8261,7 +8598,7 @@
       </c>
       <c r="F123" s="22">
         <f>K$2*E123</f>
-        <v>90662.879874999999</v>
+        <v>91339.12937499999</v>
       </c>
       <c r="G123" s="22"/>
       <c r="H123" s="10">
@@ -8290,7 +8627,7 @@
       </c>
       <c r="F124" s="22">
         <f>K$2*E124</f>
-        <v>74809.5</v>
+        <v>75367.5</v>
       </c>
       <c r="G124" s="22"/>
       <c r="H124" s="10">
@@ -8317,7 +8654,7 @@
       </c>
       <c r="F125" s="22">
         <f>K2*E125</f>
-        <v>5625.8738920000005</v>
+        <v>5667.8369799999991</v>
       </c>
       <c r="G125" s="22"/>
       <c r="H125" s="10">
@@ -8347,7 +8684,7 @@
       </c>
       <c r="F126" s="22">
         <f>K2*E126</f>
-        <v>333525.6875</v>
+        <v>336013.4375</v>
       </c>
       <c r="G126" s="22"/>
       <c r="H126" s="10">
@@ -8377,7 +8714,7 @@
       </c>
       <c r="F127" s="22">
         <f>K2*E127</f>
-        <v>474618.69865800004</v>
+        <v>478158.85376999999</v>
       </c>
       <c r="G127" s="22"/>
       <c r="H127" s="10">
@@ -8435,7 +8772,7 @@
       </c>
       <c r="F129" s="22">
         <f>K2*E129</f>
-        <v>34661.735000000001</v>
+        <v>34920.275000000001</v>
       </c>
       <c r="G129" s="22"/>
       <c r="H129" s="10">
@@ -8468,7 +8805,7 @@
       </c>
       <c r="F130" s="22">
         <f>K2*E130</f>
-        <v>43065.335500000001</v>
+        <v>43386.557499999995</v>
       </c>
       <c r="G130" s="22"/>
       <c r="H130" s="10">
@@ -8524,7 +8861,7 @@
       </c>
       <c r="F132" s="22">
         <f>K2*E132</f>
-        <v>4832.6937000000007</v>
+        <v>4868.7404999999999</v>
       </c>
       <c r="G132" s="22"/>
       <c r="H132" s="10">
@@ -8581,7 +8918,7 @@
       </c>
       <c r="F134" s="22">
         <f>K2*E134</f>
-        <v>16343.382100000001</v>
+        <v>16465.286499999998</v>
       </c>
       <c r="G134" s="22"/>
       <c r="H134" s="10">
@@ -8613,7 +8950,7 @@
       </c>
       <c r="F135" s="22">
         <f>K2*E135</f>
-        <v>39192.946415000006</v>
+        <v>39485.284475</v>
       </c>
       <c r="G135" s="22"/>
       <c r="H135" s="16">
@@ -8723,7 +9060,7 @@
       </c>
       <c r="F140" s="22">
         <f>K2*E140</f>
-        <v>1825351.8</v>
+        <v>1838967</v>
       </c>
       <c r="G140" s="22"/>
       <c r="H140" s="79">
@@ -8827,7 +9164,7 @@
       </c>
       <c r="F144" s="22">
         <f>K2*E144</f>
-        <v>1825351.8</v>
+        <v>1838967</v>
       </c>
       <c r="G144" s="22"/>
       <c r="H144" s="79">
@@ -8929,7 +9266,7 @@
       </c>
       <c r="F148" s="22">
         <f>K2*E148</f>
-        <v>3814.9353889999998</v>
+        <v>3843.3907849999996</v>
       </c>
       <c r="G148" s="22"/>
       <c r="H148" s="28">
@@ -8959,7 +9296,7 @@
       </c>
       <c r="F149" s="22">
         <f>K2*E149</f>
-        <v>233.00665600000002</v>
+        <v>234.74463999999998</v>
       </c>
       <c r="G149" s="22"/>
       <c r="H149" s="10">
@@ -8989,7 +9326,7 @@
       </c>
       <c r="F150" s="22">
         <f>K2*E150</f>
-        <v>125210.605197</v>
+        <v>126144.54430499999</v>
       </c>
       <c r="G150" s="22"/>
       <c r="H150" s="10">
@@ -9019,7 +9356,7 @@
       </c>
       <c r="F151" s="22">
         <f>K2*E151</f>
-        <v>2633.2944000000002</v>
+        <v>2652.9359999999997</v>
       </c>
       <c r="G151" s="22"/>
       <c r="H151" s="10">
@@ -9049,7 +9386,7 @@
       </c>
       <c r="F152" s="22">
         <f>K2*E152</f>
-        <v>113929.8812</v>
+        <v>114779.678</v>
       </c>
       <c r="G152" s="22"/>
       <c r="H152" s="10">
@@ -9079,7 +9416,7 @@
       </c>
       <c r="F153" s="22">
         <f>K2*E153</f>
-        <v>133082.11066000001</v>
+        <v>134074.7629</v>
       </c>
       <c r="G153" s="22"/>
       <c r="H153" s="16">
@@ -9111,7 +9448,7 @@
       </c>
       <c r="F154" s="22">
         <f>K2*E154</f>
-        <v>1500513.9891000001</v>
+        <v>1511706.2415</v>
       </c>
       <c r="G154" s="22"/>
       <c r="H154" s="99">
@@ -9259,7 +9596,7 @@
       </c>
       <c r="F160" s="22">
         <f>K2*E160</f>
-        <v>402284.09641</v>
+        <v>405284.71164999995</v>
       </c>
       <c r="G160" s="22"/>
       <c r="H160" s="28">
@@ -9289,7 +9626,7 @@
       </c>
       <c r="F161" s="22">
         <f>K2*E161</f>
-        <v>9166.6574000000001</v>
+        <v>9235.030999999999</v>
       </c>
       <c r="G161" s="22"/>
       <c r="H161" s="10">
@@ -9319,7 +9656,7 @@
       </c>
       <c r="F162" s="22">
         <f>K2*E162</f>
-        <v>26208.261500000001</v>
+        <v>26403.747499999998</v>
       </c>
       <c r="G162" s="22"/>
       <c r="H162" s="10">
@@ -9349,7 +9686,7 @@
       </c>
       <c r="F163" s="22">
         <f>K2*E163</f>
-        <v>822.9045000000001</v>
+        <v>829.0424999999999</v>
       </c>
       <c r="G163" s="22"/>
       <c r="H163" s="10">
@@ -9405,7 +9742,7 @@
       </c>
       <c r="F165" s="22">
         <f>K2*E165</f>
-        <v>2643.2690000000002</v>
+        <v>2662.9849999999997</v>
       </c>
       <c r="G165" s="22"/>
       <c r="H165" s="10">
@@ -9435,7 +9772,7 @@
       </c>
       <c r="F166" s="22">
         <f>K2*E166</f>
-        <v>205476.76</v>
+        <v>207009.4</v>
       </c>
       <c r="G166" s="22"/>
       <c r="H166" s="10">
@@ -9467,7 +9804,7 @@
       </c>
       <c r="F167" s="22">
         <f t="shared" ref="F167:F168" si="0">K$2*E167</f>
-        <v>418933.2</v>
+        <v>422058</v>
       </c>
       <c r="G167" s="22"/>
       <c r="H167" s="10">
@@ -9494,7 +9831,7 @@
       </c>
       <c r="F168" s="22">
         <f t="shared" si="0"/>
-        <v>418933.2</v>
+        <v>422058</v>
       </c>
       <c r="G168" s="22"/>
       <c r="H168" s="10">
@@ -9521,7 +9858,7 @@
       </c>
       <c r="F169" s="22">
         <f>K$2*E169</f>
-        <v>418933.2</v>
+        <v>422058</v>
       </c>
       <c r="G169" s="22"/>
       <c r="H169" s="10">
@@ -9551,7 +9888,7 @@
       </c>
       <c r="F170" s="22">
         <f>K2*E170</f>
-        <v>12418.377</v>
+        <v>12511.004999999999</v>
       </c>
       <c r="G170" s="22"/>
       <c r="H170" s="10">
@@ -9583,7 +9920,7 @@
       </c>
       <c r="F171" s="22">
         <f>K2*E171</f>
-        <v>275498.45199999999</v>
+        <v>277553.38</v>
       </c>
       <c r="G171" s="22"/>
       <c r="H171" s="11">
@@ -9613,7 +9950,7 @@
       </c>
       <c r="F172" s="22">
         <f>K2*E172</f>
-        <v>63613.011500000001</v>
+        <v>64087.497499999998</v>
       </c>
       <c r="G172" s="22"/>
       <c r="H172" s="10">
@@ -9645,7 +9982,7 @@
       </c>
       <c r="F173" s="22">
         <f>K2*E173</f>
-        <v>28577.229000000003</v>
+        <v>28790.384999999998</v>
       </c>
       <c r="G173" s="22"/>
       <c r="H173" s="11">
@@ -9677,7 +10014,7 @@
       </c>
       <c r="F174" s="22">
         <f>K2*E174</f>
-        <v>37429.686500000003</v>
+        <v>37708.872499999998</v>
       </c>
       <c r="G174" s="22"/>
       <c r="H174" s="10">
@@ -9707,7 +10044,7 @@
       </c>
       <c r="F175" s="22">
         <f>K2*E175</f>
-        <v>20447.93</v>
+        <v>20600.45</v>
       </c>
       <c r="G175" s="22"/>
       <c r="H175" s="10">
@@ -9739,7 +10076,7 @@
       </c>
       <c r="F176" s="22">
         <f>K2*E176</f>
-        <v>30347.720500000003</v>
+        <v>30574.082499999997</v>
       </c>
       <c r="G176" s="22"/>
       <c r="H176" s="10">
@@ -9771,7 +10108,7 @@
       </c>
       <c r="F177" s="22">
         <f>K2*E177</f>
-        <v>31345.180500000002</v>
+        <v>31578.982499999998</v>
       </c>
       <c r="G177" s="22"/>
       <c r="H177" s="10">
@@ -9801,7 +10138,7 @@
       </c>
       <c r="F178" s="22">
         <f>K2*E178</f>
-        <v>8927.2669999999998</v>
+        <v>8993.8549999999996</v>
       </c>
       <c r="G178" s="22"/>
       <c r="H178" s="10">
@@ -9831,7 +10168,7 @@
       </c>
       <c r="F179" s="22">
         <f>K2*E179</f>
-        <v>20298.311000000002</v>
+        <v>20449.715</v>
       </c>
       <c r="G179" s="22"/>
       <c r="H179" s="10">
@@ -9889,7 +10226,7 @@
       </c>
       <c r="F181" s="22">
         <f>K2*E181</f>
-        <v>26682.055</v>
+        <v>26881.074999999997</v>
       </c>
       <c r="G181" s="22"/>
       <c r="H181" s="11">
@@ -9921,7 +10258,7 @@
       </c>
       <c r="F182" s="22">
         <f>K2*E182</f>
-        <v>12764.296128000002</v>
+        <v>12859.50432</v>
       </c>
       <c r="G182" s="22"/>
       <c r="H182" s="11">
@@ -9951,7 +10288,7 @@
       </c>
       <c r="F183" s="22">
         <f>K2*E183</f>
-        <v>1695.682</v>
+        <v>1708.33</v>
       </c>
       <c r="G183" s="22"/>
       <c r="H183" s="10">
@@ -9981,7 +10318,7 @@
       </c>
       <c r="F184" s="22">
         <f>K2*E184</f>
-        <v>13944.690292000001</v>
+        <v>14048.702979999998</v>
       </c>
       <c r="G184" s="22"/>
       <c r="H184" s="10">
@@ -10013,7 +10350,7 @@
       </c>
       <c r="F185" s="22">
         <f>K2*E185</f>
-        <v>18228.5815</v>
+        <v>18364.547500000001</v>
       </c>
       <c r="G185" s="22"/>
       <c r="H185" s="10">
@@ -10045,7 +10382,7 @@
       </c>
       <c r="F186" s="22">
         <f>K2*E186</f>
-        <v>22461.203264000003</v>
+        <v>22628.740160000001</v>
       </c>
       <c r="G186" s="22"/>
       <c r="H186" s="10">
@@ -10077,7 +10414,7 @@
       </c>
       <c r="F187" s="22">
         <f>K2*E187</f>
-        <v>4064.6495000000004</v>
+        <v>4094.9674999999997</v>
       </c>
       <c r="G187" s="22"/>
       <c r="H187" s="10">
@@ -10107,7 +10444,7 @@
       </c>
       <c r="F188" s="22">
         <f>K2*E188</f>
-        <v>14918.111505999999</v>
+        <v>15029.384889999998</v>
       </c>
       <c r="G188" s="22"/>
       <c r="H188" s="10">
@@ -10137,7 +10474,7 @@
       </c>
       <c r="F189" s="22">
         <f>K2*E189</f>
-        <v>12069.266000000001</v>
+        <v>12159.289999999999</v>
       </c>
       <c r="G189" s="22"/>
       <c r="H189" s="10">
@@ -10167,7 +10504,7 @@
       </c>
       <c r="F190" s="22">
         <f>K2*E190</f>
-        <v>18602.629000000001</v>
+        <v>18741.384999999998</v>
       </c>
       <c r="G190" s="22"/>
       <c r="H190" s="10">
@@ -10197,7 +10534,7 @@
       </c>
       <c r="F191" s="22">
         <f>K2*E191</f>
-        <v>36856.147000000004</v>
+        <v>37131.055</v>
       </c>
       <c r="G191" s="22"/>
       <c r="H191" s="10">
@@ -10283,7 +10620,7 @@
       </c>
       <c r="F194" s="22">
         <f>K2*E194</f>
-        <v>37429.686500000003</v>
+        <v>37708.872499999998</v>
       </c>
       <c r="G194" s="22"/>
       <c r="H194" s="10">
@@ -10313,7 +10650,7 @@
       </c>
       <c r="F195" s="22">
         <f>K2*E195</f>
-        <v>47504.032500000001</v>
+        <v>47858.362499999996</v>
       </c>
       <c r="G195" s="22"/>
       <c r="H195" s="10">
@@ -10345,7 +10682,7 @@
       </c>
       <c r="F196" s="22">
         <f>K2*E196</f>
-        <v>196509.59460000001</v>
+        <v>197975.34899999999</v>
       </c>
       <c r="G196" s="22"/>
       <c r="H196" s="10">
@@ -10377,7 +10714,7 @@
       </c>
       <c r="F197" s="22">
         <f>K2*E197</f>
-        <v>240637.22500000001</v>
+        <v>242432.125</v>
       </c>
       <c r="G197" s="22"/>
       <c r="H197" s="79">
@@ -10472,7 +10809,7 @@
       </c>
       <c r="F201" s="22">
         <f>K2*E201</f>
-        <v>152386.9515</v>
+        <v>153523.5975</v>
       </c>
       <c r="G201" s="22"/>
       <c r="H201" s="69">
@@ -10562,7 +10899,7 @@
       </c>
       <c r="F205" s="22">
         <f>K2*E205</f>
-        <v>3790.3480000000004</v>
+        <v>3818.62</v>
       </c>
       <c r="G205" s="22"/>
       <c r="H205" s="28">
@@ -10592,7 +10929,7 @@
       </c>
       <c r="F206" s="22">
         <f>K2*E206</f>
-        <v>6358.8075000000008</v>
+        <v>6406.2374999999993</v>
       </c>
       <c r="G206" s="22"/>
       <c r="H206" s="10">
@@ -10648,7 +10985,7 @@
       </c>
       <c r="F208" s="22">
         <f>K2*E208</f>
-        <v>32417.45</v>
+        <v>32659.25</v>
       </c>
       <c r="G208" s="22"/>
       <c r="H208" s="10">
@@ -10681,7 +11018,7 @@
       </c>
       <c r="F209" s="22">
         <f>K2*E209</f>
-        <v>403971.30000000005</v>
+        <v>406984.5</v>
       </c>
       <c r="G209" s="22"/>
       <c r="H209" s="16">
@@ -10713,7 +11050,7 @@
       </c>
       <c r="F210" s="22">
         <f>K2*E210</f>
-        <v>350909.320634</v>
+        <v>353526.73420999997</v>
       </c>
       <c r="G210" s="22"/>
       <c r="H210" s="89">
@@ -10785,7 +11122,7 @@
       </c>
       <c r="F213" s="22">
         <f>K2*E213</f>
-        <v>338318.4828</v>
+        <v>340841.98199999996</v>
       </c>
       <c r="G213" s="22"/>
       <c r="H213" s="28">
@@ -10817,7 +11154,7 @@
       </c>
       <c r="F214" s="22">
         <f>K2*E214</f>
-        <v>260087.69500000001</v>
+        <v>262027.67499999999</v>
       </c>
       <c r="G214" s="22"/>
       <c r="H214" s="10">
@@ -10887,7 +11224,7 @@
       </c>
       <c r="F217" s="22">
         <f>K2*E217</f>
-        <v>5062.1095000000005</v>
+        <v>5099.8674999999994</v>
       </c>
       <c r="G217" s="22"/>
       <c r="H217" s="10">
@@ -10917,7 +11254,7 @@
       </c>
       <c r="F218" s="22">
         <f>K2*E218</f>
-        <v>5062.1095000000005</v>
+        <v>5099.8674999999994</v>
       </c>
       <c r="G218" s="22"/>
       <c r="H218" s="10">
@@ -10973,7 +11310,7 @@
       </c>
       <c r="F220" s="22">
         <f>K2*E220</f>
-        <v>29674.435000000001</v>
+        <v>29895.774999999998</v>
       </c>
       <c r="G220" s="22"/>
       <c r="H220" s="10">
@@ -11005,7 +11342,7 @@
       </c>
       <c r="F221" s="22">
         <f>K2*E221</f>
-        <v>20447.93</v>
+        <v>20600.45</v>
       </c>
       <c r="G221" s="22"/>
       <c r="H221" s="10">
@@ -11037,7 +11374,7 @@
       </c>
       <c r="F222" s="22">
         <f>K2*E222</f>
-        <v>9416.0223999999998</v>
+        <v>9486.2559999999994</v>
       </c>
       <c r="G222" s="22"/>
       <c r="H222" s="11">
@@ -11069,7 +11406,7 @@
       </c>
       <c r="F223" s="22">
         <f>K2*E223</f>
-        <v>4009.7892000000002</v>
+        <v>4039.6979999999999</v>
       </c>
       <c r="G223" s="22"/>
       <c r="H223" s="11">
@@ -11101,7 +11438,7 @@
       </c>
       <c r="F224" s="22">
         <f>K2*E224</f>
-        <v>918.7604060000001</v>
+        <v>925.61338999999998</v>
       </c>
       <c r="G224" s="22"/>
       <c r="H224" s="10">
@@ -11131,7 +11468,7 @@
       </c>
       <c r="F225" s="22">
         <f>K2*E225</f>
-        <v>28627.102000000003</v>
+        <v>28840.629999999997</v>
       </c>
       <c r="G225" s="22"/>
       <c r="H225" s="10">
@@ -11161,7 +11498,7 @@
       </c>
       <c r="F226" s="22">
         <f>K2*E226</f>
-        <v>49249.587500000001</v>
+        <v>49616.9375</v>
       </c>
       <c r="G226" s="22"/>
       <c r="H226" s="10">
@@ -11191,7 +11528,7 @@
       </c>
       <c r="F227" s="22">
         <f>K2*E227</f>
-        <v>138497.071635</v>
+        <v>139530.11377500001</v>
       </c>
       <c r="G227" s="22"/>
       <c r="H227" s="10">
@@ -11249,7 +11586,7 @@
       </c>
       <c r="F229" s="22">
         <f>K2*E229</f>
-        <v>85794.078122999999</v>
+        <v>86434.011494999984</v>
       </c>
       <c r="G229" s="22"/>
       <c r="H229" s="10">
@@ -11279,7 +11616,7 @@
       </c>
       <c r="F230" s="22">
         <f>K2*E230</f>
-        <v>138492.33370000002</v>
+        <v>139525.34049999999</v>
       </c>
       <c r="G230" s="22"/>
       <c r="H230" s="10">
@@ -11309,7 +11646,7 @@
       </c>
       <c r="F231" s="22">
         <f>K2*E231</f>
-        <v>5389.0270149999997</v>
+        <v>5429.2234749999998</v>
       </c>
       <c r="G231" s="22"/>
       <c r="H231" s="10">
@@ -11339,7 +11676,7 @@
       </c>
       <c r="F232" s="22">
         <f>K2*E232</f>
-        <v>639.62122499999998</v>
+        <v>644.39212499999996</v>
       </c>
       <c r="G232" s="22"/>
       <c r="H232" s="10">
@@ -11968,7 +12305,7 @@
       </c>
       <c r="F258" s="22">
         <f>E258*K$2</f>
-        <v>69961.844400000002</v>
+        <v>70483.686000000002</v>
       </c>
       <c r="G258" s="22"/>
       <c r="H258" s="16">
@@ -12468,18 +12805,18 @@
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="A2:A281">
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="NÃO">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="NÃO">
       <formula>NOT(ISERROR(SEARCH("NÃO",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="SIM">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="SIM">
       <formula>NOT(ISERROR(SEARCH("SIM",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="XEX200">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="NÃO">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="NÃO">
       <formula>NOT(ISERROR(SEARCH("NÃO",XEX200)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="SIM">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="SIM">
       <formula>NOT(ISERROR(SEARCH("SIM",XEX200)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12509,22 +12846,3964 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4110CD6-7245-495B-812C-AC530ED546E9}">
+  <dimension ref="A1:H155"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7:K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="106" t="s">
+        <v>638</v>
+      </c>
+      <c r="C1" s="107" t="s">
+        <v>639</v>
+      </c>
+      <c r="D1" s="108" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="108" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="108" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="109" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="108" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="110" t="s">
+        <v>640</v>
+      </c>
+      <c r="C2" s="110" t="s">
+        <v>641</v>
+      </c>
+      <c r="D2" s="111" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="111" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="111" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="112">
+        <v>207826.33</v>
+      </c>
+      <c r="H2" s="113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="114" t="s">
+        <v>640</v>
+      </c>
+      <c r="C3" s="114" t="s">
+        <v>641</v>
+      </c>
+      <c r="D3" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="115" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="112">
+        <v>271349.15000000002</v>
+      </c>
+      <c r="H3" s="116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="110" t="s">
+        <v>640</v>
+      </c>
+      <c r="C4" s="110" t="s">
+        <v>641</v>
+      </c>
+      <c r="D4" s="111" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="111" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="111" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="112">
+        <v>795904.02</v>
+      </c>
+      <c r="H4" s="113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="114" t="s">
+        <v>640</v>
+      </c>
+      <c r="C5" s="114" t="s">
+        <v>641</v>
+      </c>
+      <c r="D5" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="115" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="115" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="112">
+        <v>132000.10999999999</v>
+      </c>
+      <c r="H5" s="116">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="110" t="s">
+        <v>640</v>
+      </c>
+      <c r="C6" s="110" t="s">
+        <v>641</v>
+      </c>
+      <c r="D6" s="111" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="111" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="111" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="112">
+        <v>157118.10999999999</v>
+      </c>
+      <c r="H6" s="111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="114" t="s">
+        <v>640</v>
+      </c>
+      <c r="C7" s="114" t="s">
+        <v>641</v>
+      </c>
+      <c r="D7" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="115" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="112">
+        <v>142047.31</v>
+      </c>
+      <c r="H7" s="115">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="136" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="110" t="s">
+        <v>640</v>
+      </c>
+      <c r="C8" s="110" t="s">
+        <v>641</v>
+      </c>
+      <c r="D8" s="111" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="111" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="111" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="112">
+        <v>271349.15000000002</v>
+      </c>
+      <c r="H8" s="113">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="137" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="114" t="s">
+        <v>640</v>
+      </c>
+      <c r="C9" s="114" t="s">
+        <v>641</v>
+      </c>
+      <c r="D9" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="115" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="112">
+        <v>185873.2</v>
+      </c>
+      <c r="H9" s="115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="136" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="110" t="s">
+        <v>640</v>
+      </c>
+      <c r="C10" s="110" t="s">
+        <v>641</v>
+      </c>
+      <c r="D10" s="111" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="111" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="112">
+        <v>162847.57999999999</v>
+      </c>
+      <c r="H10" s="111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="137" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="114" t="s">
+        <v>640</v>
+      </c>
+      <c r="C11" s="114" t="s">
+        <v>641</v>
+      </c>
+      <c r="D11" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="115" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="115" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="112">
+        <v>386681.56</v>
+      </c>
+      <c r="H11" s="115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="110" t="s">
+        <v>640</v>
+      </c>
+      <c r="C12" s="110" t="s">
+        <v>641</v>
+      </c>
+      <c r="D12" s="111" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="111" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="111" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="112">
+        <v>120566.39999999999</v>
+      </c>
+      <c r="H12" s="111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="114" t="s">
+        <v>640</v>
+      </c>
+      <c r="C13" s="114" t="s">
+        <v>641</v>
+      </c>
+      <c r="D13" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="115" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="115" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="112">
+        <v>169883.08</v>
+      </c>
+      <c r="H13" s="115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="110" t="s">
+        <v>640</v>
+      </c>
+      <c r="C14" s="110" t="s">
+        <v>641</v>
+      </c>
+      <c r="D14" s="111" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="111" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="111" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="112">
+        <v>169883.08</v>
+      </c>
+      <c r="H14" s="111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="114" t="s">
+        <v>640</v>
+      </c>
+      <c r="C15" s="114" t="s">
+        <v>642</v>
+      </c>
+      <c r="D15" s="115" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="115">
+        <v>5108</v>
+      </c>
+      <c r="F15" s="115" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="112">
+        <v>16081.5</v>
+      </c>
+      <c r="H15" s="115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="110" t="s">
+        <v>640</v>
+      </c>
+      <c r="C16" s="110" t="s">
+        <v>642</v>
+      </c>
+      <c r="D16" s="111" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="111">
+        <v>5103</v>
+      </c>
+      <c r="F16" s="111" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="112">
+        <v>16081.5</v>
+      </c>
+      <c r="H16" s="111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="114" t="s">
+        <v>640</v>
+      </c>
+      <c r="C17" s="114" t="s">
+        <v>642</v>
+      </c>
+      <c r="D17" s="115" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="115">
+        <v>5106</v>
+      </c>
+      <c r="F17" s="115" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="112">
+        <v>16081.5</v>
+      </c>
+      <c r="H17" s="116">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="136" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="110" t="s">
+        <v>640</v>
+      </c>
+      <c r="C18" s="110" t="s">
+        <v>642</v>
+      </c>
+      <c r="D18" s="111" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="111">
+        <v>85106</v>
+      </c>
+      <c r="F18" s="111" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="112">
+        <v>2180.64</v>
+      </c>
+      <c r="H18" s="111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="137" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="114" t="s">
+        <v>643</v>
+      </c>
+      <c r="C19" s="114"/>
+      <c r="D19" s="115" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="115" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="115" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="112">
+        <v>10047.200000000001</v>
+      </c>
+      <c r="H19" s="115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="136" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="110" t="s">
+        <v>643</v>
+      </c>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="111" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="111" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="112">
+        <v>10047.200000000001</v>
+      </c>
+      <c r="H20" s="111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="137" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="114" t="s">
+        <v>643</v>
+      </c>
+      <c r="C21" s="114"/>
+      <c r="D21" s="115" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="115" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="115" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="112">
+        <v>10047.200000000001</v>
+      </c>
+      <c r="H21" s="115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="136" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="110" t="s">
+        <v>643</v>
+      </c>
+      <c r="C22" s="110"/>
+      <c r="D22" s="111" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="111" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="111" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="112">
+        <v>4918.1000000000004</v>
+      </c>
+      <c r="H22" s="111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="137" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="114" t="s">
+        <v>640</v>
+      </c>
+      <c r="C23" s="114" t="s">
+        <v>641</v>
+      </c>
+      <c r="D23" s="115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="115" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="115" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="112">
+        <v>76455.679999999993</v>
+      </c>
+      <c r="H23" s="116">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="136" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="110" t="s">
+        <v>640</v>
+      </c>
+      <c r="C24" s="110" t="s">
+        <v>641</v>
+      </c>
+      <c r="D24" s="111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="111" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="112">
+        <v>55259.6</v>
+      </c>
+      <c r="H24" s="111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="137" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="114" t="s">
+        <v>640</v>
+      </c>
+      <c r="C25" s="114" t="s">
+        <v>641</v>
+      </c>
+      <c r="D25" s="115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="115" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="115" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="112">
+        <v>55259.6</v>
+      </c>
+      <c r="H25" s="116">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="110" t="s">
+        <v>640</v>
+      </c>
+      <c r="C26" s="110" t="s">
+        <v>641</v>
+      </c>
+      <c r="D26" s="111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="111" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="111" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="112">
+        <v>90424.8</v>
+      </c>
+      <c r="H26" s="111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="114" t="s">
+        <v>640</v>
+      </c>
+      <c r="C27" s="114" t="s">
+        <v>641</v>
+      </c>
+      <c r="D27" s="115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="115" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="112">
+        <v>25118</v>
+      </c>
+      <c r="H27" s="116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="110" t="s">
+        <v>640</v>
+      </c>
+      <c r="C28" s="110" t="s">
+        <v>642</v>
+      </c>
+      <c r="D28" s="111" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="111" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" s="111" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="112">
+        <v>3335.67</v>
+      </c>
+      <c r="H28" s="111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="114" t="s">
+        <v>640</v>
+      </c>
+      <c r="C29" s="114" t="s">
+        <v>642</v>
+      </c>
+      <c r="D29" s="115" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="115" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="115" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="112">
+        <v>3335.67</v>
+      </c>
+      <c r="H29" s="116">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="110" t="s">
+        <v>640</v>
+      </c>
+      <c r="C30" s="110" t="s">
+        <v>642</v>
+      </c>
+      <c r="D30" s="111" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="111" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="111" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" s="112">
+        <v>3335.67</v>
+      </c>
+      <c r="H30" s="111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="114" t="s">
+        <v>640</v>
+      </c>
+      <c r="C31" s="114" t="s">
+        <v>642</v>
+      </c>
+      <c r="D31" s="115" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="115" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" s="115" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="112">
+        <v>3335.67</v>
+      </c>
+      <c r="H31" s="115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="110" t="s">
+        <v>640</v>
+      </c>
+      <c r="C32" s="110" t="s">
+        <v>644</v>
+      </c>
+      <c r="D32" s="111" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="111" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="111" t="s">
+        <v>96</v>
+      </c>
+      <c r="G32" s="112">
+        <v>22606.2</v>
+      </c>
+      <c r="H32" s="111">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="114" t="s">
+        <v>640</v>
+      </c>
+      <c r="C33" s="114" t="s">
+        <v>644</v>
+      </c>
+      <c r="D33" s="115" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="115" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="115" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" s="112">
+        <v>15733.92</v>
+      </c>
+      <c r="H33" s="115">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="110" t="s">
+        <v>640</v>
+      </c>
+      <c r="C34" s="110" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" s="111" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" s="111" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" s="111" t="s">
+        <v>109</v>
+      </c>
+      <c r="G34" s="112">
+        <v>32351.98</v>
+      </c>
+      <c r="H34" s="111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="114" t="s">
+        <v>640</v>
+      </c>
+      <c r="C35" s="114" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="117" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" s="115" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" s="115" t="s">
+        <v>113</v>
+      </c>
+      <c r="G35" s="112">
+        <v>46543.55</v>
+      </c>
+      <c r="H35" s="115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="110" t="s">
+        <v>640</v>
+      </c>
+      <c r="C36" s="110" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="111" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" s="111" t="s">
+        <v>116</v>
+      </c>
+      <c r="F36" s="111" t="s">
+        <v>117</v>
+      </c>
+      <c r="G36" s="112">
+        <v>401888</v>
+      </c>
+      <c r="H36" s="111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="114" t="s">
+        <v>640</v>
+      </c>
+      <c r="C37" s="114" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="115" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="118" t="s">
+        <v>119</v>
+      </c>
+      <c r="F37" s="115" t="s">
+        <v>120</v>
+      </c>
+      <c r="G37" s="112">
+        <v>266250.8</v>
+      </c>
+      <c r="H37" s="115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="110" t="s">
+        <v>640</v>
+      </c>
+      <c r="C38" s="110" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="111" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" s="111" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" s="111" t="s">
+        <v>124</v>
+      </c>
+      <c r="G38" s="112">
+        <v>291167.86</v>
+      </c>
+      <c r="H38" s="111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="114" t="s">
+        <v>640</v>
+      </c>
+      <c r="C39" s="114" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="115" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" s="115" t="s">
+        <v>126</v>
+      </c>
+      <c r="F39" s="115" t="s">
+        <v>127</v>
+      </c>
+      <c r="G39" s="112">
+        <v>24791.47</v>
+      </c>
+      <c r="H39" s="115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="110" t="s">
+        <v>640</v>
+      </c>
+      <c r="C40" s="110" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" s="111" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" s="111" t="s">
+        <v>130</v>
+      </c>
+      <c r="F40" s="111" t="s">
+        <v>117</v>
+      </c>
+      <c r="G40" s="112">
+        <v>528276.75</v>
+      </c>
+      <c r="H40" s="111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="137" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="114" t="s">
+        <v>645</v>
+      </c>
+      <c r="C41" s="114"/>
+      <c r="D41" s="115" t="s">
+        <v>161</v>
+      </c>
+      <c r="E41" s="115" t="s">
+        <v>162</v>
+      </c>
+      <c r="F41" s="115" t="s">
+        <v>154</v>
+      </c>
+      <c r="G41" s="112">
+        <v>828894</v>
+      </c>
+      <c r="H41" s="115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="137" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="110" t="s">
+        <v>640</v>
+      </c>
+      <c r="C42" s="110" t="s">
+        <v>646</v>
+      </c>
+      <c r="D42" s="111" t="s">
+        <v>166</v>
+      </c>
+      <c r="E42" s="111" t="s">
+        <v>167</v>
+      </c>
+      <c r="F42" s="111" t="s">
+        <v>168</v>
+      </c>
+      <c r="G42" s="112">
+        <v>43529.49</v>
+      </c>
+      <c r="H42" s="111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="137" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="114" t="s">
+        <v>640</v>
+      </c>
+      <c r="C43" s="114" t="s">
+        <v>646</v>
+      </c>
+      <c r="D43" s="115" t="s">
+        <v>166</v>
+      </c>
+      <c r="E43" s="115" t="s">
+        <v>170</v>
+      </c>
+      <c r="F43" s="115" t="s">
+        <v>171</v>
+      </c>
+      <c r="G43" s="112">
+        <v>44911.59</v>
+      </c>
+      <c r="H43" s="115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="137" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="110" t="s">
+        <v>640</v>
+      </c>
+      <c r="C44" s="110" t="s">
+        <v>646</v>
+      </c>
+      <c r="D44" s="111" t="s">
+        <v>166</v>
+      </c>
+      <c r="E44" s="111" t="s">
+        <v>173</v>
+      </c>
+      <c r="F44" s="111" t="s">
+        <v>171</v>
+      </c>
+      <c r="G44" s="112">
+        <v>44911.59</v>
+      </c>
+      <c r="H44" s="111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="137" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="114" t="s">
+        <v>640</v>
+      </c>
+      <c r="C45" s="114" t="s">
+        <v>646</v>
+      </c>
+      <c r="D45" s="115" t="s">
+        <v>166</v>
+      </c>
+      <c r="E45" s="115" t="s">
+        <v>174</v>
+      </c>
+      <c r="F45" s="115" t="s">
+        <v>171</v>
+      </c>
+      <c r="G45" s="112">
+        <v>44911.59</v>
+      </c>
+      <c r="H45" s="115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="137" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="110" t="s">
+        <v>640</v>
+      </c>
+      <c r="C46" s="110" t="s">
+        <v>646</v>
+      </c>
+      <c r="D46" s="111" t="s">
+        <v>166</v>
+      </c>
+      <c r="E46" s="111" t="s">
+        <v>175</v>
+      </c>
+      <c r="F46" s="111" t="s">
+        <v>134</v>
+      </c>
+      <c r="G46" s="112">
+        <v>125891.42</v>
+      </c>
+      <c r="H46" s="111">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="114" t="s">
+        <v>640</v>
+      </c>
+      <c r="C47" s="114" t="s">
+        <v>646</v>
+      </c>
+      <c r="D47" s="115" t="s">
+        <v>166</v>
+      </c>
+      <c r="E47" s="115" t="s">
+        <v>176</v>
+      </c>
+      <c r="F47" s="115" t="s">
+        <v>134</v>
+      </c>
+      <c r="G47" s="112">
+        <v>129357.7</v>
+      </c>
+      <c r="H47" s="115">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" s="110" t="s">
+        <v>640</v>
+      </c>
+      <c r="C48" s="110" t="s">
+        <v>646</v>
+      </c>
+      <c r="D48" s="111" t="s">
+        <v>166</v>
+      </c>
+      <c r="E48" s="111" t="s">
+        <v>177</v>
+      </c>
+      <c r="F48" s="111" t="s">
+        <v>134</v>
+      </c>
+      <c r="G48" s="112">
+        <v>130287.07</v>
+      </c>
+      <c r="H48" s="111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="114" t="s">
+        <v>640</v>
+      </c>
+      <c r="C49" s="114" t="s">
+        <v>646</v>
+      </c>
+      <c r="D49" s="115" t="s">
+        <v>166</v>
+      </c>
+      <c r="E49" s="115" t="s">
+        <v>178</v>
+      </c>
+      <c r="F49" s="115" t="s">
+        <v>134</v>
+      </c>
+      <c r="G49" s="112">
+        <v>109514.48</v>
+      </c>
+      <c r="H49" s="115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" s="110" t="s">
+        <v>640</v>
+      </c>
+      <c r="C50" s="110" t="s">
+        <v>646</v>
+      </c>
+      <c r="D50" s="111" t="s">
+        <v>166</v>
+      </c>
+      <c r="E50" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="F50" s="111" t="s">
+        <v>134</v>
+      </c>
+      <c r="G50" s="112">
+        <v>51768.2</v>
+      </c>
+      <c r="H50" s="113">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="114" t="s">
+        <v>640</v>
+      </c>
+      <c r="C51" s="114" t="s">
+        <v>646</v>
+      </c>
+      <c r="D51" s="115" t="s">
+        <v>166</v>
+      </c>
+      <c r="E51" s="115" t="s">
+        <v>180</v>
+      </c>
+      <c r="F51" s="115" t="s">
+        <v>134</v>
+      </c>
+      <c r="G51" s="112">
+        <v>297799.01</v>
+      </c>
+      <c r="H51" s="115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="137" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="110" t="s">
+        <v>640</v>
+      </c>
+      <c r="C52" s="110" t="s">
+        <v>646</v>
+      </c>
+      <c r="D52" s="111" t="s">
+        <v>166</v>
+      </c>
+      <c r="E52" s="111" t="s">
+        <v>181</v>
+      </c>
+      <c r="F52" s="111" t="s">
+        <v>182</v>
+      </c>
+      <c r="G52" s="112">
+        <v>108816.2</v>
+      </c>
+      <c r="H52" s="111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" s="114" t="s">
+        <v>640</v>
+      </c>
+      <c r="C53" s="114" t="s">
+        <v>642</v>
+      </c>
+      <c r="D53" s="115" t="s">
+        <v>216</v>
+      </c>
+      <c r="E53" s="115" t="s">
+        <v>217</v>
+      </c>
+      <c r="F53" s="115" t="s">
+        <v>218</v>
+      </c>
+      <c r="G53" s="112">
+        <v>40304.04</v>
+      </c>
+      <c r="H53" s="115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="110" t="s">
+        <v>640</v>
+      </c>
+      <c r="C54" s="110" t="s">
+        <v>642</v>
+      </c>
+      <c r="D54" s="111" t="s">
+        <v>216</v>
+      </c>
+      <c r="E54" s="111" t="s">
+        <v>219</v>
+      </c>
+      <c r="F54" s="111" t="s">
+        <v>218</v>
+      </c>
+      <c r="G54" s="112">
+        <v>40304.04</v>
+      </c>
+      <c r="H54" s="111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="114" t="s">
+        <v>640</v>
+      </c>
+      <c r="C55" s="114" t="s">
+        <v>642</v>
+      </c>
+      <c r="D55" s="115" t="s">
+        <v>216</v>
+      </c>
+      <c r="E55" s="115" t="s">
+        <v>220</v>
+      </c>
+      <c r="F55" s="115" t="s">
+        <v>218</v>
+      </c>
+      <c r="G55" s="112">
+        <v>40304.04</v>
+      </c>
+      <c r="H55" s="116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" s="110" t="s">
+        <v>640</v>
+      </c>
+      <c r="C56" s="110" t="s">
+        <v>642</v>
+      </c>
+      <c r="D56" s="111" t="s">
+        <v>216</v>
+      </c>
+      <c r="E56" s="111" t="s">
+        <v>222</v>
+      </c>
+      <c r="F56" s="111" t="s">
+        <v>223</v>
+      </c>
+      <c r="G56" s="112">
+        <v>16301.58</v>
+      </c>
+      <c r="H56" s="113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="114" t="s">
+        <v>640</v>
+      </c>
+      <c r="C57" s="114" t="s">
+        <v>642</v>
+      </c>
+      <c r="D57" s="115" t="s">
+        <v>216</v>
+      </c>
+      <c r="E57" s="115" t="s">
+        <v>225</v>
+      </c>
+      <c r="F57" s="115" t="s">
+        <v>223</v>
+      </c>
+      <c r="G57" s="112">
+        <v>16301.58</v>
+      </c>
+      <c r="H57" s="115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" s="110" t="s">
+        <v>640</v>
+      </c>
+      <c r="C58" s="110"/>
+      <c r="D58" s="111" t="s">
+        <v>234</v>
+      </c>
+      <c r="E58" s="111" t="s">
+        <v>235</v>
+      </c>
+      <c r="F58" s="111" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="112">
+        <v>1318290.75</v>
+      </c>
+      <c r="H58" s="111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" s="114" t="s">
+        <v>643</v>
+      </c>
+      <c r="C59" s="114"/>
+      <c r="D59" s="115" t="s">
+        <v>237</v>
+      </c>
+      <c r="E59" s="115" t="s">
+        <v>238</v>
+      </c>
+      <c r="F59" s="115" t="s">
+        <v>65</v>
+      </c>
+      <c r="G59" s="112">
+        <v>24816.58</v>
+      </c>
+      <c r="H59" s="115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" s="110" t="s">
+        <v>643</v>
+      </c>
+      <c r="C60" s="110"/>
+      <c r="D60" s="111" t="s">
+        <v>237</v>
+      </c>
+      <c r="E60" s="111" t="s">
+        <v>240</v>
+      </c>
+      <c r="F60" s="111" t="s">
+        <v>62</v>
+      </c>
+      <c r="G60" s="112">
+        <v>65306.8</v>
+      </c>
+      <c r="H60" s="111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" s="114" t="s">
+        <v>643</v>
+      </c>
+      <c r="C61" s="114"/>
+      <c r="D61" s="115" t="s">
+        <v>237</v>
+      </c>
+      <c r="E61" s="115" t="s">
+        <v>242</v>
+      </c>
+      <c r="F61" s="115" t="s">
+        <v>62</v>
+      </c>
+      <c r="G61" s="112">
+        <v>90424.8</v>
+      </c>
+      <c r="H61" s="115">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B62" s="110" t="s">
+        <v>643</v>
+      </c>
+      <c r="C62" s="110"/>
+      <c r="D62" s="111" t="s">
+        <v>237</v>
+      </c>
+      <c r="E62" s="111" t="s">
+        <v>243</v>
+      </c>
+      <c r="F62" s="111" t="s">
+        <v>244</v>
+      </c>
+      <c r="G62" s="112">
+        <v>75354</v>
+      </c>
+      <c r="H62" s="111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63" s="114" t="s">
+        <v>643</v>
+      </c>
+      <c r="C63" s="114"/>
+      <c r="D63" s="115" t="s">
+        <v>237</v>
+      </c>
+      <c r="E63" s="115" t="s">
+        <v>245</v>
+      </c>
+      <c r="F63" s="115" t="s">
+        <v>65</v>
+      </c>
+      <c r="G63" s="112">
+        <v>24816.58</v>
+      </c>
+      <c r="H63" s="115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64" s="110" t="s">
+        <v>640</v>
+      </c>
+      <c r="C64" s="110" t="s">
+        <v>647</v>
+      </c>
+      <c r="D64" s="111" t="s">
+        <v>247</v>
+      </c>
+      <c r="E64" s="111" t="s">
+        <v>248</v>
+      </c>
+      <c r="F64" s="111" t="s">
+        <v>249</v>
+      </c>
+      <c r="G64" s="112">
+        <v>186124.38</v>
+      </c>
+      <c r="H64" s="113">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B65" s="114" t="s">
+        <v>640</v>
+      </c>
+      <c r="C65" s="114" t="s">
+        <v>647</v>
+      </c>
+      <c r="D65" s="115" t="s">
+        <v>247</v>
+      </c>
+      <c r="E65" s="115" t="s">
+        <v>251</v>
+      </c>
+      <c r="F65" s="115" t="s">
+        <v>249</v>
+      </c>
+      <c r="G65" s="112">
+        <v>166431.87</v>
+      </c>
+      <c r="H65" s="116">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B66" s="110" t="s">
+        <v>640</v>
+      </c>
+      <c r="C66" s="110" t="s">
+        <v>260</v>
+      </c>
+      <c r="D66" s="111" t="s">
+        <v>260</v>
+      </c>
+      <c r="E66" s="111" t="s">
+        <v>261</v>
+      </c>
+      <c r="F66" s="111" t="s">
+        <v>255</v>
+      </c>
+      <c r="G66" s="112">
+        <v>25000</v>
+      </c>
+      <c r="H66" s="113">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" s="114" t="s">
+        <v>640</v>
+      </c>
+      <c r="C67" s="114" t="s">
+        <v>260</v>
+      </c>
+      <c r="D67" s="115" t="s">
+        <v>260</v>
+      </c>
+      <c r="E67" s="115" t="s">
+        <v>262</v>
+      </c>
+      <c r="F67" s="115" t="s">
+        <v>255</v>
+      </c>
+      <c r="G67" s="112">
+        <v>18000</v>
+      </c>
+      <c r="H67" s="115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68" s="110" t="s">
+        <v>640</v>
+      </c>
+      <c r="C68" s="110" t="s">
+        <v>260</v>
+      </c>
+      <c r="D68" s="111" t="s">
+        <v>260</v>
+      </c>
+      <c r="E68" s="111" t="s">
+        <v>263</v>
+      </c>
+      <c r="F68" s="111" t="s">
+        <v>255</v>
+      </c>
+      <c r="G68" s="112">
+        <v>23000</v>
+      </c>
+      <c r="H68" s="111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" s="114" t="s">
+        <v>640</v>
+      </c>
+      <c r="C69" s="114" t="s">
+        <v>260</v>
+      </c>
+      <c r="D69" s="119" t="s">
+        <v>260</v>
+      </c>
+      <c r="E69" s="119" t="s">
+        <v>264</v>
+      </c>
+      <c r="F69" s="119" t="s">
+        <v>255</v>
+      </c>
+      <c r="G69" s="112">
+        <v>21000</v>
+      </c>
+      <c r="H69" s="119">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70" s="110" t="s">
+        <v>648</v>
+      </c>
+      <c r="C70" s="110"/>
+      <c r="D70" s="111" t="s">
+        <v>649</v>
+      </c>
+      <c r="E70" s="120"/>
+      <c r="F70" s="120"/>
+      <c r="G70" s="112">
+        <v>340000</v>
+      </c>
+      <c r="H70" s="111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="138" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" s="115" t="s">
+        <v>650</v>
+      </c>
+      <c r="C71" s="115" t="s">
+        <v>552</v>
+      </c>
+      <c r="D71" s="121" t="s">
+        <v>651</v>
+      </c>
+      <c r="E71" s="121" t="s">
+        <v>652</v>
+      </c>
+      <c r="F71" s="121" t="s">
+        <v>102</v>
+      </c>
+      <c r="G71" s="112">
+        <v>726000</v>
+      </c>
+      <c r="H71" s="121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="139" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72" s="111" t="s">
+        <v>650</v>
+      </c>
+      <c r="C72" s="111" t="s">
+        <v>552</v>
+      </c>
+      <c r="D72" s="121" t="s">
+        <v>653</v>
+      </c>
+      <c r="E72" s="121" t="s">
+        <v>654</v>
+      </c>
+      <c r="F72" s="121" t="s">
+        <v>102</v>
+      </c>
+      <c r="G72" s="112">
+        <v>726000</v>
+      </c>
+      <c r="H72" s="121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="138" t="s">
+        <v>19</v>
+      </c>
+      <c r="B73" s="115" t="s">
+        <v>650</v>
+      </c>
+      <c r="C73" s="115" t="s">
+        <v>552</v>
+      </c>
+      <c r="D73" s="121" t="s">
+        <v>655</v>
+      </c>
+      <c r="E73" s="121" t="s">
+        <v>656</v>
+      </c>
+      <c r="F73" s="121" t="s">
+        <v>88</v>
+      </c>
+      <c r="G73" s="112">
+        <v>473408.99</v>
+      </c>
+      <c r="H73" s="121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B74" s="122" t="s">
+        <v>640</v>
+      </c>
+      <c r="C74" s="122" t="s">
+        <v>657</v>
+      </c>
+      <c r="D74" s="123" t="s">
+        <v>276</v>
+      </c>
+      <c r="E74" s="123" t="s">
+        <v>277</v>
+      </c>
+      <c r="F74" s="123" t="s">
+        <v>48</v>
+      </c>
+      <c r="G74" s="112">
+        <v>55761.96</v>
+      </c>
+      <c r="H74" s="124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B75" s="125" t="s">
+        <v>640</v>
+      </c>
+      <c r="C75" s="125" t="s">
+        <v>657</v>
+      </c>
+      <c r="D75" s="115" t="s">
+        <v>276</v>
+      </c>
+      <c r="E75" s="115" t="s">
+        <v>278</v>
+      </c>
+      <c r="F75" s="115" t="s">
+        <v>279</v>
+      </c>
+      <c r="G75" s="112">
+        <v>71209.53</v>
+      </c>
+      <c r="H75" s="116">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B76" s="122" t="s">
+        <v>640</v>
+      </c>
+      <c r="C76" s="122" t="s">
+        <v>657</v>
+      </c>
+      <c r="D76" s="111" t="s">
+        <v>276</v>
+      </c>
+      <c r="E76" s="111" t="s">
+        <v>281</v>
+      </c>
+      <c r="F76" s="111" t="s">
+        <v>282</v>
+      </c>
+      <c r="G76" s="112">
+        <v>17582.599999999999</v>
+      </c>
+      <c r="H76" s="111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77" s="125" t="s">
+        <v>640</v>
+      </c>
+      <c r="C77" s="125" t="s">
+        <v>657</v>
+      </c>
+      <c r="D77" s="115" t="s">
+        <v>276</v>
+      </c>
+      <c r="E77" s="115" t="s">
+        <v>284</v>
+      </c>
+      <c r="F77" s="115" t="s">
+        <v>285</v>
+      </c>
+      <c r="G77" s="112">
+        <v>17582.599999999999</v>
+      </c>
+      <c r="H77" s="116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" s="122" t="s">
+        <v>640</v>
+      </c>
+      <c r="C78" s="122" t="s">
+        <v>657</v>
+      </c>
+      <c r="D78" s="111" t="s">
+        <v>276</v>
+      </c>
+      <c r="E78" s="111" t="s">
+        <v>287</v>
+      </c>
+      <c r="F78" s="111" t="s">
+        <v>287</v>
+      </c>
+      <c r="G78" s="112">
+        <v>32323.25</v>
+      </c>
+      <c r="H78" s="111">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B79" s="125" t="s">
+        <v>640</v>
+      </c>
+      <c r="C79" s="125" t="s">
+        <v>657</v>
+      </c>
+      <c r="D79" s="115" t="s">
+        <v>276</v>
+      </c>
+      <c r="E79" s="115" t="s">
+        <v>289</v>
+      </c>
+      <c r="F79" s="115" t="s">
+        <v>48</v>
+      </c>
+      <c r="G79" s="112">
+        <v>28634.52</v>
+      </c>
+      <c r="H79" s="115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B80" s="122" t="s">
+        <v>640</v>
+      </c>
+      <c r="C80" s="122" t="s">
+        <v>657</v>
+      </c>
+      <c r="D80" s="111" t="s">
+        <v>276</v>
+      </c>
+      <c r="E80" s="111" t="s">
+        <v>291</v>
+      </c>
+      <c r="F80" s="111" t="s">
+        <v>292</v>
+      </c>
+      <c r="G80" s="112">
+        <v>3168.38</v>
+      </c>
+      <c r="H80" s="111">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" s="125" t="s">
+        <v>640</v>
+      </c>
+      <c r="C81" s="125" t="s">
+        <v>657</v>
+      </c>
+      <c r="D81" s="115" t="s">
+        <v>294</v>
+      </c>
+      <c r="E81" s="115" t="s">
+        <v>295</v>
+      </c>
+      <c r="F81" s="115" t="s">
+        <v>296</v>
+      </c>
+      <c r="G81" s="112">
+        <v>91322.77</v>
+      </c>
+      <c r="H81" s="115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B82" s="122" t="s">
+        <v>640</v>
+      </c>
+      <c r="C82" s="122" t="s">
+        <v>657</v>
+      </c>
+      <c r="D82" s="111" t="s">
+        <v>294</v>
+      </c>
+      <c r="E82" s="111" t="s">
+        <v>298</v>
+      </c>
+      <c r="F82" s="111" t="s">
+        <v>299</v>
+      </c>
+      <c r="G82" s="112">
+        <v>75354</v>
+      </c>
+      <c r="H82" s="111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="137" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" s="114" t="s">
+        <v>643</v>
+      </c>
+      <c r="C83" s="114"/>
+      <c r="D83" s="115" t="s">
+        <v>308</v>
+      </c>
+      <c r="E83" s="115" t="s">
+        <v>309</v>
+      </c>
+      <c r="F83" s="115" t="s">
+        <v>102</v>
+      </c>
+      <c r="G83" s="112">
+        <v>478073.2</v>
+      </c>
+      <c r="H83" s="115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B84" s="110" t="s">
+        <v>650</v>
+      </c>
+      <c r="C84" s="110"/>
+      <c r="D84" s="111" t="s">
+        <v>313</v>
+      </c>
+      <c r="E84" s="111" t="s">
+        <v>314</v>
+      </c>
+      <c r="F84" s="111" t="s">
+        <v>315</v>
+      </c>
+      <c r="G84" s="112">
+        <v>172495.35</v>
+      </c>
+      <c r="H84" s="111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="137" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" s="114" t="s">
+        <v>640</v>
+      </c>
+      <c r="C85" s="114" t="s">
+        <v>658</v>
+      </c>
+      <c r="D85" s="115" t="s">
+        <v>320</v>
+      </c>
+      <c r="E85" s="115" t="s">
+        <v>321</v>
+      </c>
+      <c r="F85" s="115" t="s">
+        <v>51</v>
+      </c>
+      <c r="G85" s="112">
+        <v>4867.87</v>
+      </c>
+      <c r="H85" s="115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="137" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86" s="110" t="s">
+        <v>640</v>
+      </c>
+      <c r="C86" s="110" t="s">
+        <v>658</v>
+      </c>
+      <c r="D86" s="111" t="s">
+        <v>320</v>
+      </c>
+      <c r="E86" s="111" t="s">
+        <v>323</v>
+      </c>
+      <c r="F86" s="111" t="s">
+        <v>51</v>
+      </c>
+      <c r="G86" s="112">
+        <v>40000</v>
+      </c>
+      <c r="H86" s="111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="137" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87" s="114" t="s">
+        <v>640</v>
+      </c>
+      <c r="C87" s="114" t="s">
+        <v>658</v>
+      </c>
+      <c r="D87" s="115" t="s">
+        <v>320</v>
+      </c>
+      <c r="E87" s="115" t="s">
+        <v>325</v>
+      </c>
+      <c r="F87" s="115" t="s">
+        <v>51</v>
+      </c>
+      <c r="G87" s="112">
+        <v>16462.34</v>
+      </c>
+      <c r="H87" s="115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B88" s="110" t="s">
+        <v>640</v>
+      </c>
+      <c r="C88" s="110" t="s">
+        <v>658</v>
+      </c>
+      <c r="D88" s="126" t="s">
+        <v>327</v>
+      </c>
+      <c r="E88" s="126" t="s">
+        <v>328</v>
+      </c>
+      <c r="F88" s="126" t="s">
+        <v>51</v>
+      </c>
+      <c r="G88" s="112">
+        <v>39478.21</v>
+      </c>
+      <c r="H88" s="126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B89" s="114" t="s">
+        <v>650</v>
+      </c>
+      <c r="C89" s="114" t="s">
+        <v>659</v>
+      </c>
+      <c r="D89" s="115" t="s">
+        <v>330</v>
+      </c>
+      <c r="E89" s="115">
+        <v>7150</v>
+      </c>
+      <c r="F89" s="115" t="s">
+        <v>331</v>
+      </c>
+      <c r="G89" s="115"/>
+      <c r="H89" s="115"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="139" t="s">
+        <v>19</v>
+      </c>
+      <c r="B90" s="110" t="s">
+        <v>650</v>
+      </c>
+      <c r="C90" s="110" t="s">
+        <v>659</v>
+      </c>
+      <c r="D90" s="111" t="s">
+        <v>341</v>
+      </c>
+      <c r="E90" s="111" t="s">
+        <v>342</v>
+      </c>
+      <c r="F90" s="111" t="s">
+        <v>331</v>
+      </c>
+      <c r="G90" s="112">
+        <v>1004720</v>
+      </c>
+      <c r="H90" s="111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B91" s="114" t="s">
+        <v>643</v>
+      </c>
+      <c r="C91" s="114"/>
+      <c r="D91" s="115" t="s">
+        <v>362</v>
+      </c>
+      <c r="E91" s="115" t="s">
+        <v>363</v>
+      </c>
+      <c r="F91" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="G91" s="112">
+        <v>114759.12</v>
+      </c>
+      <c r="H91" s="115">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="140" t="s">
+        <v>19</v>
+      </c>
+      <c r="B92" s="110" t="s">
+        <v>643</v>
+      </c>
+      <c r="C92" s="127"/>
+      <c r="D92" s="126" t="s">
+        <v>362</v>
+      </c>
+      <c r="E92" s="126" t="s">
+        <v>365</v>
+      </c>
+      <c r="F92" s="126" t="s">
+        <v>88</v>
+      </c>
+      <c r="G92" s="112">
+        <v>173093.16</v>
+      </c>
+      <c r="H92" s="126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="138" t="s">
+        <v>19</v>
+      </c>
+      <c r="B93" s="128" t="s">
+        <v>650</v>
+      </c>
+      <c r="C93" s="128" t="s">
+        <v>659</v>
+      </c>
+      <c r="D93" s="129" t="s">
+        <v>366</v>
+      </c>
+      <c r="E93" s="129">
+        <v>7160</v>
+      </c>
+      <c r="F93" s="129" t="s">
+        <v>331</v>
+      </c>
+      <c r="G93" s="112">
+        <v>1511435.46</v>
+      </c>
+      <c r="H93" s="119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="137" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" s="122" t="s">
+        <v>648</v>
+      </c>
+      <c r="C94" s="122"/>
+      <c r="D94" s="123" t="s">
+        <v>373</v>
+      </c>
+      <c r="E94" s="123" t="s">
+        <v>374</v>
+      </c>
+      <c r="F94" s="123" t="s">
+        <v>375</v>
+      </c>
+      <c r="G94" s="112">
+        <v>405212.12</v>
+      </c>
+      <c r="H94" s="123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="137" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95" s="114" t="s">
+        <v>643</v>
+      </c>
+      <c r="C95" s="114"/>
+      <c r="D95" s="115" t="s">
+        <v>396</v>
+      </c>
+      <c r="E95" s="115" t="s">
+        <v>397</v>
+      </c>
+      <c r="F95" s="115" t="s">
+        <v>398</v>
+      </c>
+      <c r="G95" s="112">
+        <v>421982.4</v>
+      </c>
+      <c r="H95" s="115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="137" t="s">
+        <v>10</v>
+      </c>
+      <c r="B96" s="110" t="s">
+        <v>643</v>
+      </c>
+      <c r="C96" s="110"/>
+      <c r="D96" s="111" t="s">
+        <v>399</v>
+      </c>
+      <c r="E96" s="111" t="s">
+        <v>400</v>
+      </c>
+      <c r="F96" s="111" t="s">
+        <v>398</v>
+      </c>
+      <c r="G96" s="112">
+        <v>421982.4</v>
+      </c>
+      <c r="H96" s="111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="137" t="s">
+        <v>10</v>
+      </c>
+      <c r="B97" s="114" t="s">
+        <v>643</v>
+      </c>
+      <c r="C97" s="114"/>
+      <c r="D97" s="115" t="s">
+        <v>401</v>
+      </c>
+      <c r="E97" s="115" t="s">
+        <v>402</v>
+      </c>
+      <c r="F97" s="115" t="s">
+        <v>398</v>
+      </c>
+      <c r="G97" s="112">
+        <v>421982.4</v>
+      </c>
+      <c r="H97" s="115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B98" s="110" t="s">
+        <v>640</v>
+      </c>
+      <c r="C98" s="110"/>
+      <c r="D98" s="111" t="s">
+        <v>408</v>
+      </c>
+      <c r="E98" s="111" t="s">
+        <v>409</v>
+      </c>
+      <c r="F98" s="111" t="s">
+        <v>134</v>
+      </c>
+      <c r="G98" s="112">
+        <v>277503.65999999997</v>
+      </c>
+      <c r="H98" s="113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="137" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" s="114" t="s">
+        <v>640</v>
+      </c>
+      <c r="C99" s="114" t="s">
+        <v>658</v>
+      </c>
+      <c r="D99" s="115" t="s">
+        <v>411</v>
+      </c>
+      <c r="E99" s="115" t="s">
+        <v>412</v>
+      </c>
+      <c r="F99" s="115" t="s">
+        <v>413</v>
+      </c>
+      <c r="G99" s="112">
+        <v>64076.02</v>
+      </c>
+      <c r="H99" s="115">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B100" s="110" t="s">
+        <v>640</v>
+      </c>
+      <c r="C100" s="110" t="s">
+        <v>660</v>
+      </c>
+      <c r="D100" s="111" t="s">
+        <v>415</v>
+      </c>
+      <c r="E100" s="111" t="s">
+        <v>416</v>
+      </c>
+      <c r="F100" s="111" t="s">
+        <v>134</v>
+      </c>
+      <c r="G100" s="112">
+        <v>28785.23</v>
+      </c>
+      <c r="H100" s="113">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B101" s="114" t="s">
+        <v>640</v>
+      </c>
+      <c r="C101" s="114" t="s">
+        <v>660</v>
+      </c>
+      <c r="D101" s="115" t="s">
+        <v>417</v>
+      </c>
+      <c r="E101" s="115" t="s">
+        <v>418</v>
+      </c>
+      <c r="F101" s="115" t="s">
+        <v>419</v>
+      </c>
+      <c r="G101" s="112">
+        <v>37702.120000000003</v>
+      </c>
+      <c r="H101" s="115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B102" s="110" t="s">
+        <v>640</v>
+      </c>
+      <c r="C102" s="110" t="s">
+        <v>660</v>
+      </c>
+      <c r="D102" s="111" t="s">
+        <v>417</v>
+      </c>
+      <c r="E102" s="111" t="s">
+        <v>420</v>
+      </c>
+      <c r="F102" s="111" t="s">
+        <v>421</v>
+      </c>
+      <c r="G102" s="112">
+        <v>20596.759999999998</v>
+      </c>
+      <c r="H102" s="111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B103" s="114" t="s">
+        <v>640</v>
+      </c>
+      <c r="C103" s="114" t="s">
+        <v>660</v>
+      </c>
+      <c r="D103" s="115" t="s">
+        <v>417</v>
+      </c>
+      <c r="E103" s="115" t="s">
+        <v>422</v>
+      </c>
+      <c r="F103" s="115" t="s">
+        <v>134</v>
+      </c>
+      <c r="G103" s="112">
+        <v>30568.61</v>
+      </c>
+      <c r="H103" s="115">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B104" s="110" t="s">
+        <v>640</v>
+      </c>
+      <c r="C104" s="110" t="s">
+        <v>660</v>
+      </c>
+      <c r="D104" s="111" t="s">
+        <v>417</v>
+      </c>
+      <c r="E104" s="111" t="s">
+        <v>423</v>
+      </c>
+      <c r="F104" s="111" t="s">
+        <v>424</v>
+      </c>
+      <c r="G104" s="112">
+        <v>31573.33</v>
+      </c>
+      <c r="H104" s="111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B105" s="114" t="s">
+        <v>640</v>
+      </c>
+      <c r="C105" s="114" t="s">
+        <v>660</v>
+      </c>
+      <c r="D105" s="115" t="s">
+        <v>433</v>
+      </c>
+      <c r="E105" s="115" t="s">
+        <v>434</v>
+      </c>
+      <c r="F105" s="115" t="s">
+        <v>134</v>
+      </c>
+      <c r="G105" s="112">
+        <v>26876.26</v>
+      </c>
+      <c r="H105" s="116">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B106" s="110" t="s">
+        <v>640</v>
+      </c>
+      <c r="C106" s="110" t="s">
+        <v>660</v>
+      </c>
+      <c r="D106" s="111" t="s">
+        <v>435</v>
+      </c>
+      <c r="E106" s="111" t="s">
+        <v>436</v>
+      </c>
+      <c r="F106" s="111" t="s">
+        <v>134</v>
+      </c>
+      <c r="G106" s="112">
+        <v>12857.2</v>
+      </c>
+      <c r="H106" s="113">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B107" s="114" t="s">
+        <v>640</v>
+      </c>
+      <c r="C107" s="114" t="s">
+        <v>660</v>
+      </c>
+      <c r="D107" s="115" t="s">
+        <v>443</v>
+      </c>
+      <c r="E107" s="115" t="s">
+        <v>444</v>
+      </c>
+      <c r="F107" s="115" t="s">
+        <v>134</v>
+      </c>
+      <c r="G107" s="112">
+        <v>18361.259999999998</v>
+      </c>
+      <c r="H107" s="115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B108" s="110" t="s">
+        <v>640</v>
+      </c>
+      <c r="C108" s="110" t="s">
+        <v>660</v>
+      </c>
+      <c r="D108" s="111" t="s">
+        <v>443</v>
+      </c>
+      <c r="E108" s="111" t="s">
+        <v>445</v>
+      </c>
+      <c r="F108" s="111" t="s">
+        <v>134</v>
+      </c>
+      <c r="G108" s="112">
+        <v>22624.69</v>
+      </c>
+      <c r="H108" s="111">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B109" s="114" t="s">
+        <v>640</v>
+      </c>
+      <c r="C109" s="114" t="s">
+        <v>660</v>
+      </c>
+      <c r="D109" s="115" t="s">
+        <v>443</v>
+      </c>
+      <c r="E109" s="115" t="s">
+        <v>446</v>
+      </c>
+      <c r="F109" s="115" t="s">
+        <v>134</v>
+      </c>
+      <c r="G109" s="112">
+        <v>4094.23</v>
+      </c>
+      <c r="H109" s="115">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="137" t="s">
+        <v>10</v>
+      </c>
+      <c r="B110" s="110" t="s">
+        <v>650</v>
+      </c>
+      <c r="C110" s="110"/>
+      <c r="D110" s="111" t="s">
+        <v>466</v>
+      </c>
+      <c r="E110" s="111" t="s">
+        <v>467</v>
+      </c>
+      <c r="F110" s="111" t="s">
+        <v>279</v>
+      </c>
+      <c r="G110" s="112">
+        <v>197939.89</v>
+      </c>
+      <c r="H110" s="111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="137" t="s">
+        <v>10</v>
+      </c>
+      <c r="B111" s="114" t="s">
+        <v>650</v>
+      </c>
+      <c r="C111" s="115"/>
+      <c r="D111" s="119" t="s">
+        <v>466</v>
+      </c>
+      <c r="E111" s="115">
+        <v>4125</v>
+      </c>
+      <c r="F111" s="115" t="s">
+        <v>279</v>
+      </c>
+      <c r="G111" s="112">
+        <v>242388.7</v>
+      </c>
+      <c r="H111" s="115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="137" t="s">
+        <v>10</v>
+      </c>
+      <c r="B112" s="110" t="s">
+        <v>650</v>
+      </c>
+      <c r="C112" s="130"/>
+      <c r="D112" s="111" t="s">
+        <v>466</v>
+      </c>
+      <c r="E112" s="111" t="s">
+        <v>473</v>
+      </c>
+      <c r="F112" s="111" t="s">
+        <v>279</v>
+      </c>
+      <c r="G112" s="112">
+        <v>153496.1</v>
+      </c>
+      <c r="H112" s="111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="137" t="s">
+        <v>10</v>
+      </c>
+      <c r="B113" s="131" t="s">
+        <v>650</v>
+      </c>
+      <c r="C113" s="131"/>
+      <c r="D113" s="119" t="s">
+        <v>490</v>
+      </c>
+      <c r="E113" s="119" t="s">
+        <v>491</v>
+      </c>
+      <c r="F113" s="119" t="s">
+        <v>492</v>
+      </c>
+      <c r="G113" s="112">
+        <v>406911.6</v>
+      </c>
+      <c r="H113" s="119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" s="137" t="s">
+        <v>10</v>
+      </c>
+      <c r="B114" s="127" t="s">
+        <v>650</v>
+      </c>
+      <c r="C114" s="111"/>
+      <c r="D114" s="111" t="s">
+        <v>490</v>
+      </c>
+      <c r="E114" s="111" t="s">
+        <v>493</v>
+      </c>
+      <c r="F114" s="111" t="s">
+        <v>494</v>
+      </c>
+      <c r="G114" s="112">
+        <v>353463.41</v>
+      </c>
+      <c r="H114" s="126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="137" t="s">
+        <v>10</v>
+      </c>
+      <c r="B115" s="131" t="s">
+        <v>650</v>
+      </c>
+      <c r="C115" s="125"/>
+      <c r="D115" s="132" t="s">
+        <v>661</v>
+      </c>
+      <c r="E115" s="132" t="s">
+        <v>498</v>
+      </c>
+      <c r="F115" s="132" t="s">
+        <v>494</v>
+      </c>
+      <c r="G115" s="112">
+        <v>340780.93</v>
+      </c>
+      <c r="H115" s="132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="137" t="s">
+        <v>10</v>
+      </c>
+      <c r="B116" s="127" t="s">
+        <v>650</v>
+      </c>
+      <c r="C116" s="110"/>
+      <c r="D116" s="111" t="s">
+        <v>662</v>
+      </c>
+      <c r="E116" s="111" t="s">
+        <v>500</v>
+      </c>
+      <c r="F116" s="111" t="s">
+        <v>501</v>
+      </c>
+      <c r="G116" s="112">
+        <v>261980.74</v>
+      </c>
+      <c r="H116" s="111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="137" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" s="114" t="s">
+        <v>645</v>
+      </c>
+      <c r="C117" s="114" t="s">
+        <v>663</v>
+      </c>
+      <c r="D117" s="115" t="s">
+        <v>514</v>
+      </c>
+      <c r="E117" s="115" t="s">
+        <v>156</v>
+      </c>
+      <c r="F117" s="115" t="s">
+        <v>154</v>
+      </c>
+      <c r="G117" s="112">
+        <v>20596.759999999998</v>
+      </c>
+      <c r="H117" s="115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B118" s="110" t="s">
+        <v>640</v>
+      </c>
+      <c r="C118" s="110" t="s">
+        <v>642</v>
+      </c>
+      <c r="D118" s="111" t="s">
+        <v>516</v>
+      </c>
+      <c r="E118" s="111" t="s">
+        <v>517</v>
+      </c>
+      <c r="F118" s="111" t="s">
+        <v>518</v>
+      </c>
+      <c r="G118" s="112">
+        <v>9484.56</v>
+      </c>
+      <c r="H118" s="113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B119" s="114" t="s">
+        <v>640</v>
+      </c>
+      <c r="C119" s="114" t="s">
+        <v>642</v>
+      </c>
+      <c r="D119" s="115" t="s">
+        <v>520</v>
+      </c>
+      <c r="E119" s="115" t="s">
+        <v>521</v>
+      </c>
+      <c r="F119" s="115" t="s">
+        <v>57</v>
+      </c>
+      <c r="G119" s="112">
+        <v>10980</v>
+      </c>
+      <c r="H119" s="116">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B120" s="110" t="s">
+        <v>640</v>
+      </c>
+      <c r="C120" s="110" t="s">
+        <v>642</v>
+      </c>
+      <c r="D120" s="111" t="s">
+        <v>520</v>
+      </c>
+      <c r="E120" s="111" t="s">
+        <v>523</v>
+      </c>
+      <c r="F120" s="111" t="s">
+        <v>524</v>
+      </c>
+      <c r="G120" s="112">
+        <v>925.45</v>
+      </c>
+      <c r="H120" s="111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B121" s="114" t="s">
+        <v>648</v>
+      </c>
+      <c r="C121" s="114"/>
+      <c r="D121" s="115" t="s">
+        <v>562</v>
+      </c>
+      <c r="E121" s="115" t="s">
+        <v>108</v>
+      </c>
+      <c r="F121" s="115" t="s">
+        <v>563</v>
+      </c>
+      <c r="G121" s="112">
+        <v>5000</v>
+      </c>
+      <c r="H121" s="115">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B122" s="110" t="s">
+        <v>648</v>
+      </c>
+      <c r="C122" s="110"/>
+      <c r="D122" s="111" t="s">
+        <v>564</v>
+      </c>
+      <c r="E122" s="111" t="s">
+        <v>108</v>
+      </c>
+      <c r="F122" s="111" t="s">
+        <v>565</v>
+      </c>
+      <c r="G122" s="112">
+        <v>1718.57</v>
+      </c>
+      <c r="H122" s="111">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" s="137" t="s">
+        <v>10</v>
+      </c>
+      <c r="B123" s="114" t="s">
+        <v>648</v>
+      </c>
+      <c r="C123" s="114"/>
+      <c r="D123" s="115" t="s">
+        <v>566</v>
+      </c>
+      <c r="E123" s="115" t="s">
+        <v>108</v>
+      </c>
+      <c r="F123" s="115" t="s">
+        <v>664</v>
+      </c>
+      <c r="G123" s="112">
+        <v>90000</v>
+      </c>
+      <c r="H123" s="115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B124" s="110" t="s">
+        <v>645</v>
+      </c>
+      <c r="C124" s="110"/>
+      <c r="D124" s="111" t="s">
+        <v>568</v>
+      </c>
+      <c r="E124" s="111" t="s">
+        <v>108</v>
+      </c>
+      <c r="F124" s="111" t="s">
+        <v>569</v>
+      </c>
+      <c r="G124" s="112">
+        <v>50000</v>
+      </c>
+      <c r="H124" s="111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B125" s="114" t="s">
+        <v>645</v>
+      </c>
+      <c r="C125" s="114"/>
+      <c r="D125" s="115" t="s">
+        <v>570</v>
+      </c>
+      <c r="E125" s="115" t="s">
+        <v>108</v>
+      </c>
+      <c r="F125" s="115" t="s">
+        <v>569</v>
+      </c>
+      <c r="G125" s="112">
+        <v>50000</v>
+      </c>
+      <c r="H125" s="115">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B126" s="110" t="s">
+        <v>645</v>
+      </c>
+      <c r="C126" s="110"/>
+      <c r="D126" s="111" t="s">
+        <v>571</v>
+      </c>
+      <c r="E126" s="111" t="s">
+        <v>108</v>
+      </c>
+      <c r="F126" s="111" t="s">
+        <v>569</v>
+      </c>
+      <c r="G126" s="112">
+        <v>35000</v>
+      </c>
+      <c r="H126" s="111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B127" s="114" t="s">
+        <v>645</v>
+      </c>
+      <c r="C127" s="114"/>
+      <c r="D127" s="115" t="s">
+        <v>572</v>
+      </c>
+      <c r="E127" s="115" t="s">
+        <v>108</v>
+      </c>
+      <c r="F127" s="115" t="s">
+        <v>573</v>
+      </c>
+      <c r="G127" s="112">
+        <v>581012.5</v>
+      </c>
+      <c r="H127" s="115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B128" s="110" t="s">
+        <v>645</v>
+      </c>
+      <c r="C128" s="110"/>
+      <c r="D128" s="111" t="s">
+        <v>574</v>
+      </c>
+      <c r="E128" s="111" t="s">
+        <v>108</v>
+      </c>
+      <c r="F128" s="111" t="s">
+        <v>201</v>
+      </c>
+      <c r="G128" s="112">
+        <v>524000</v>
+      </c>
+      <c r="H128" s="111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B129" s="114" t="s">
+        <v>645</v>
+      </c>
+      <c r="C129" s="114"/>
+      <c r="D129" s="115" t="s">
+        <v>576</v>
+      </c>
+      <c r="E129" s="115" t="s">
+        <v>108</v>
+      </c>
+      <c r="F129" s="115" t="s">
+        <v>577</v>
+      </c>
+      <c r="G129" s="112">
+        <v>100000</v>
+      </c>
+      <c r="H129" s="115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B130" s="110" t="s">
+        <v>645</v>
+      </c>
+      <c r="C130" s="110" t="s">
+        <v>578</v>
+      </c>
+      <c r="D130" s="111" t="s">
+        <v>578</v>
+      </c>
+      <c r="E130" s="111" t="s">
+        <v>108</v>
+      </c>
+      <c r="F130" s="111" t="s">
+        <v>579</v>
+      </c>
+      <c r="G130" s="112">
+        <v>250000</v>
+      </c>
+      <c r="H130" s="111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B131" s="114" t="s">
+        <v>645</v>
+      </c>
+      <c r="C131" s="114" t="s">
+        <v>578</v>
+      </c>
+      <c r="D131" s="115" t="s">
+        <v>578</v>
+      </c>
+      <c r="E131" s="115" t="s">
+        <v>108</v>
+      </c>
+      <c r="F131" s="115" t="s">
+        <v>569</v>
+      </c>
+      <c r="G131" s="112">
+        <v>160000</v>
+      </c>
+      <c r="H131" s="115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" s="140" t="s">
+        <v>19</v>
+      </c>
+      <c r="B132" s="127" t="s">
+        <v>665</v>
+      </c>
+      <c r="C132" s="127" t="s">
+        <v>666</v>
+      </c>
+      <c r="D132" s="126" t="s">
+        <v>580</v>
+      </c>
+      <c r="E132" s="126" t="s">
+        <v>581</v>
+      </c>
+      <c r="F132" s="126" t="s">
+        <v>582</v>
+      </c>
+      <c r="G132" s="112">
+        <v>350000</v>
+      </c>
+      <c r="H132" s="126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" s="141" t="s">
+        <v>19</v>
+      </c>
+      <c r="B133" s="131" t="s">
+        <v>665</v>
+      </c>
+      <c r="C133" s="131" t="s">
+        <v>666</v>
+      </c>
+      <c r="D133" s="115" t="s">
+        <v>583</v>
+      </c>
+      <c r="E133" s="115" t="s">
+        <v>584</v>
+      </c>
+      <c r="F133" s="115" t="s">
+        <v>585</v>
+      </c>
+      <c r="G133" s="112">
+        <v>350000</v>
+      </c>
+      <c r="H133" s="119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" s="140" t="s">
+        <v>19</v>
+      </c>
+      <c r="B134" s="127" t="s">
+        <v>665</v>
+      </c>
+      <c r="C134" s="127" t="s">
+        <v>666</v>
+      </c>
+      <c r="D134" s="111" t="s">
+        <v>586</v>
+      </c>
+      <c r="E134" s="111" t="s">
+        <v>587</v>
+      </c>
+      <c r="F134" s="111" t="s">
+        <v>588</v>
+      </c>
+      <c r="G134" s="112">
+        <v>350000</v>
+      </c>
+      <c r="H134" s="126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" s="141" t="s">
+        <v>19</v>
+      </c>
+      <c r="B135" s="131" t="s">
+        <v>665</v>
+      </c>
+      <c r="C135" s="131" t="s">
+        <v>666</v>
+      </c>
+      <c r="D135" s="115" t="s">
+        <v>589</v>
+      </c>
+      <c r="E135" s="115" t="s">
+        <v>590</v>
+      </c>
+      <c r="F135" s="115" t="s">
+        <v>591</v>
+      </c>
+      <c r="G135" s="112">
+        <v>200000</v>
+      </c>
+      <c r="H135" s="119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136" s="140" t="s">
+        <v>19</v>
+      </c>
+      <c r="B136" s="127" t="s">
+        <v>665</v>
+      </c>
+      <c r="C136" s="127" t="s">
+        <v>666</v>
+      </c>
+      <c r="D136" s="111" t="s">
+        <v>595</v>
+      </c>
+      <c r="E136" s="111" t="s">
+        <v>596</v>
+      </c>
+      <c r="F136" s="111" t="s">
+        <v>585</v>
+      </c>
+      <c r="G136" s="112">
+        <v>200000</v>
+      </c>
+      <c r="H136" s="126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" s="141" t="s">
+        <v>19</v>
+      </c>
+      <c r="B137" s="131" t="s">
+        <v>665</v>
+      </c>
+      <c r="C137" s="131" t="s">
+        <v>666</v>
+      </c>
+      <c r="D137" s="115" t="s">
+        <v>597</v>
+      </c>
+      <c r="E137" s="115" t="s">
+        <v>598</v>
+      </c>
+      <c r="F137" s="115" t="s">
+        <v>585</v>
+      </c>
+      <c r="G137" s="112">
+        <v>70471.06</v>
+      </c>
+      <c r="H137" s="119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" s="140" t="s">
+        <v>19</v>
+      </c>
+      <c r="B138" s="127" t="s">
+        <v>665</v>
+      </c>
+      <c r="C138" s="127" t="s">
+        <v>666</v>
+      </c>
+      <c r="D138" s="111" t="s">
+        <v>599</v>
+      </c>
+      <c r="E138" s="111" t="s">
+        <v>584</v>
+      </c>
+      <c r="F138" s="111" t="s">
+        <v>600</v>
+      </c>
+      <c r="G138" s="112">
+        <v>135000</v>
+      </c>
+      <c r="H138" s="126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" s="141" t="s">
+        <v>19</v>
+      </c>
+      <c r="B139" s="131" t="s">
+        <v>665</v>
+      </c>
+      <c r="C139" s="131" t="s">
+        <v>666</v>
+      </c>
+      <c r="D139" s="115" t="s">
+        <v>601</v>
+      </c>
+      <c r="E139" s="115" t="s">
+        <v>602</v>
+      </c>
+      <c r="F139" s="115" t="s">
+        <v>600</v>
+      </c>
+      <c r="G139" s="112">
+        <v>120000</v>
+      </c>
+      <c r="H139" s="119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140" s="140" t="s">
+        <v>19</v>
+      </c>
+      <c r="B140" s="127" t="s">
+        <v>665</v>
+      </c>
+      <c r="C140" s="127" t="s">
+        <v>666</v>
+      </c>
+      <c r="D140" s="111" t="s">
+        <v>603</v>
+      </c>
+      <c r="E140" s="111" t="s">
+        <v>604</v>
+      </c>
+      <c r="F140" s="111" t="s">
+        <v>605</v>
+      </c>
+      <c r="G140" s="112">
+        <v>275000</v>
+      </c>
+      <c r="H140" s="126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141" s="141" t="s">
+        <v>19</v>
+      </c>
+      <c r="B141" s="131" t="s">
+        <v>665</v>
+      </c>
+      <c r="C141" s="131" t="s">
+        <v>666</v>
+      </c>
+      <c r="D141" s="115" t="s">
+        <v>606</v>
+      </c>
+      <c r="E141" s="115" t="s">
+        <v>607</v>
+      </c>
+      <c r="F141" s="115" t="s">
+        <v>600</v>
+      </c>
+      <c r="G141" s="112">
+        <v>115000</v>
+      </c>
+      <c r="H141" s="119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142" s="140" t="s">
+        <v>19</v>
+      </c>
+      <c r="B142" s="127" t="s">
+        <v>665</v>
+      </c>
+      <c r="C142" s="127" t="s">
+        <v>666</v>
+      </c>
+      <c r="D142" s="111" t="s">
+        <v>608</v>
+      </c>
+      <c r="E142" s="111" t="s">
+        <v>587</v>
+      </c>
+      <c r="F142" s="111" t="s">
+        <v>609</v>
+      </c>
+      <c r="G142" s="112">
+        <v>350000</v>
+      </c>
+      <c r="H142" s="126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B143" s="131" t="s">
+        <v>665</v>
+      </c>
+      <c r="C143" s="131" t="s">
+        <v>666</v>
+      </c>
+      <c r="D143" s="115" t="s">
+        <v>610</v>
+      </c>
+      <c r="E143" s="115" t="s">
+        <v>587</v>
+      </c>
+      <c r="F143" s="115" t="s">
+        <v>667</v>
+      </c>
+      <c r="G143" s="112">
+        <v>450000</v>
+      </c>
+      <c r="H143" s="119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B144" s="127" t="s">
+        <v>665</v>
+      </c>
+      <c r="C144" s="127" t="s">
+        <v>666</v>
+      </c>
+      <c r="D144" s="111" t="s">
+        <v>614</v>
+      </c>
+      <c r="E144" s="111" t="s">
+        <v>668</v>
+      </c>
+      <c r="F144" s="111" t="s">
+        <v>667</v>
+      </c>
+      <c r="G144" s="112">
+        <v>250000</v>
+      </c>
+      <c r="H144" s="126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B145" s="131" t="s">
+        <v>665</v>
+      </c>
+      <c r="C145" s="131" t="s">
+        <v>666</v>
+      </c>
+      <c r="D145" s="115" t="s">
+        <v>615</v>
+      </c>
+      <c r="E145" s="115" t="s">
+        <v>669</v>
+      </c>
+      <c r="F145" s="115" t="s">
+        <v>667</v>
+      </c>
+      <c r="G145" s="112">
+        <v>250000</v>
+      </c>
+      <c r="H145" s="119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B146" s="127" t="s">
+        <v>665</v>
+      </c>
+      <c r="C146" s="127" t="s">
+        <v>666</v>
+      </c>
+      <c r="D146" s="111" t="s">
+        <v>616</v>
+      </c>
+      <c r="E146" s="111" t="s">
+        <v>670</v>
+      </c>
+      <c r="F146" s="111" t="s">
+        <v>667</v>
+      </c>
+      <c r="G146" s="112">
+        <v>250000</v>
+      </c>
+      <c r="H146" s="126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B147" s="131" t="s">
+        <v>665</v>
+      </c>
+      <c r="C147" s="114"/>
+      <c r="D147" s="115" t="s">
+        <v>617</v>
+      </c>
+      <c r="E147" s="115" t="s">
+        <v>618</v>
+      </c>
+      <c r="F147" s="115" t="s">
+        <v>619</v>
+      </c>
+      <c r="G147" s="112">
+        <v>180000</v>
+      </c>
+      <c r="H147" s="119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B148" s="127" t="s">
+        <v>665</v>
+      </c>
+      <c r="C148" s="110"/>
+      <c r="D148" s="111" t="s">
+        <v>620</v>
+      </c>
+      <c r="E148" s="111" t="s">
+        <v>621</v>
+      </c>
+      <c r="F148" s="111" t="s">
+        <v>622</v>
+      </c>
+      <c r="G148" s="112">
+        <v>195000</v>
+      </c>
+      <c r="H148" s="126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B149" s="131" t="s">
+        <v>665</v>
+      </c>
+      <c r="C149" s="114"/>
+      <c r="D149" s="115" t="s">
+        <v>623</v>
+      </c>
+      <c r="E149" s="115" t="s">
+        <v>624</v>
+      </c>
+      <c r="F149" s="115" t="s">
+        <v>625</v>
+      </c>
+      <c r="G149" s="112">
+        <v>187000</v>
+      </c>
+      <c r="H149" s="119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B150" s="127" t="s">
+        <v>665</v>
+      </c>
+      <c r="C150" s="110"/>
+      <c r="D150" s="111" t="s">
+        <v>626</v>
+      </c>
+      <c r="E150" s="111" t="s">
+        <v>627</v>
+      </c>
+      <c r="F150" s="111" t="s">
+        <v>591</v>
+      </c>
+      <c r="G150" s="112">
+        <v>250000</v>
+      </c>
+      <c r="H150" s="126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B151" s="131" t="s">
+        <v>665</v>
+      </c>
+      <c r="C151" s="114"/>
+      <c r="D151" s="115" t="s">
+        <v>628</v>
+      </c>
+      <c r="E151" s="115" t="s">
+        <v>629</v>
+      </c>
+      <c r="F151" s="115" t="s">
+        <v>612</v>
+      </c>
+      <c r="G151" s="112">
+        <v>185000</v>
+      </c>
+      <c r="H151" s="119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B152" s="127" t="s">
+        <v>665</v>
+      </c>
+      <c r="C152" s="110"/>
+      <c r="D152" s="111" t="s">
+        <v>630</v>
+      </c>
+      <c r="E152" s="111" t="s">
+        <v>631</v>
+      </c>
+      <c r="F152" s="111" t="s">
+        <v>619</v>
+      </c>
+      <c r="G152" s="112">
+        <v>125000</v>
+      </c>
+      <c r="H152" s="126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B153" s="131" t="s">
+        <v>665</v>
+      </c>
+      <c r="C153" s="114"/>
+      <c r="D153" s="115" t="s">
+        <v>632</v>
+      </c>
+      <c r="E153" s="115" t="s">
+        <v>633</v>
+      </c>
+      <c r="F153" s="115" t="s">
+        <v>582</v>
+      </c>
+      <c r="G153" s="112">
+        <v>70000</v>
+      </c>
+      <c r="H153" s="119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B154" s="127" t="s">
+        <v>665</v>
+      </c>
+      <c r="C154" s="110"/>
+      <c r="D154" s="111" t="s">
+        <v>634</v>
+      </c>
+      <c r="E154" s="111" t="s">
+        <v>635</v>
+      </c>
+      <c r="F154" s="111" t="s">
+        <v>622</v>
+      </c>
+      <c r="G154" s="112">
+        <v>75000</v>
+      </c>
+      <c r="H154" s="126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B155" s="131" t="s">
+        <v>665</v>
+      </c>
+      <c r="C155" s="131"/>
+      <c r="D155" s="119" t="s">
+        <v>636</v>
+      </c>
+      <c r="E155" s="119" t="s">
+        <v>637</v>
+      </c>
+      <c r="F155" s="119" t="s">
+        <v>622</v>
+      </c>
+      <c r="G155" s="112">
+        <v>72300</v>
+      </c>
+      <c r="H155" s="119">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H155" xr:uid="{A4110CD6-7245-495B-812C-AC530ED546E9}"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100573EFC3A4C3AAE438661E4D66B03B591" ma:contentTypeVersion="2" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="f8593c335997d055b37540639c4767b0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5fcf6e91-9d2c-4fbe-b73e-6e1cc1240b3e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7e7aaf2703ff573c3ffd5b2af60e7b89" ns2:_="">
     <xsd:import namespace="5fcf6e91-9d2c-4fbe-b73e-6e1cc1240b3e"/>
@@ -12656,15 +16935,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A39A6148-E43A-4965-9F4A-36C6D678ED00}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A72F3A-2E1B-4504-BDC9-0E7BD16E0A51}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -12673,7 +16953,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E087F51-19FF-4963-A285-7904E9E27340}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12689,4 +16969,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A39A6148-E43A-4965-9F4A-36C6D678ED00}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/PrecificarEquipamentos_Duda.xlsx
+++ b/PrecificarEquipamentos_Duda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://oceanpact-my.sharepoint.com/personal/william_silva_oceanpact_com/Documents/Documentos/GitHub/Inventario_PowerBI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{08B2B931-0A51-492F-A6BB-AF55FDA98408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CE58286-6CE9-426C-AF4E-57CEDA88B7A3}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{08B2B931-0A51-492F-A6BB-AF55FDA98408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C5C6070-9C3A-4321-862A-B19AD5478358}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3591,20 +3591,20 @@
     <v>5</v>
     <v>5.5297000000000001</v>
     <v>4.6896000000000004</v>
-    <v>5.0369999999999999</v>
-    <v>4.9965999999999999</v>
+    <v>5.0035999999999996</v>
+    <v>4.9865000000000004</v>
     <v>USD</v>
-    <v>5.0355999999999996</v>
-    <v>45072.68818287037</v>
+    <v>4.9939</v>
+    <v>45075.528981481482</v>
     <v>BRL</v>
     <v>US Dollar/Brazilian Real FX Spot Rate</v>
-    <v>5.0369999999999999</v>
-    <v>4.9965999999999999</v>
+    <v>4.9939</v>
+    <v>4.9989999999999997</v>
     <v>USDBRL</v>
     <v>Par de Moedas</v>
     <v>USD/BRL</v>
-    <v>-3.9E-2</v>
-    <v>-7.7449999999999993E-3</v>
+    <v>5.1000000000000004E-3</v>
+    <v>1.021E-3</v>
   </rv>
   <rv s="1">
     <v>0</v>
@@ -3624,20 +3624,20 @@
     <v>5</v>
     <v>5.8277000000000001</v>
     <v>4.9504000000000001</v>
-    <v>5.4179000000000004</v>
-    <v>5.3536999999999999</v>
+    <v>5.3648999999999996</v>
+    <v>5.343</v>
     <v>EUR</v>
-    <v>5.3986999999999998</v>
-    <v>45072.68818287037</v>
+    <v>5.3555000000000001</v>
+    <v>45075.528981481482</v>
     <v>BRL</v>
     <v>Euro/Brazilian Real FX Cross Rate</v>
-    <v>5.3977000000000004</v>
-    <v>5.3539000000000003</v>
+    <v>5.3555000000000001</v>
+    <v>5.3529</v>
     <v>EURBRL</v>
     <v>Par de Moedas</v>
     <v>EUR/BRL</v>
-    <v>-4.48E-2</v>
-    <v>-8.2979999999999998E-3</v>
+    <v>-2.5999999999999999E-3</v>
+    <v>-4.8550000000000004E-4</v>
   </rv>
   <rv s="1">
     <v>2</v>
@@ -4202,8 +4202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -4282,11 +4282,11 @@
       </c>
       <c r="H2" s="21">
         <f>G2*M2</f>
-        <v>206709.342</v>
+        <v>206808.62999999998</v>
       </c>
       <c r="I2" s="21">
         <f>H2*J2</f>
-        <v>413418.68400000001</v>
+        <v>413617.25999999995</v>
       </c>
       <c r="J2" s="10">
         <v>2</v>
@@ -4299,7 +4299,7 @@
       </c>
       <c r="M2" s="2" cm="1">
         <f t="array" ref="M2">_FV(L2,"Preço",TRUE)</f>
-        <v>4.9965999999999999</v>
+        <v>4.9989999999999997</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>17</v>
@@ -4329,11 +4329,11 @@
       </c>
       <c r="H3" s="21">
         <f>G3*M2</f>
-        <v>269890.74940799997</v>
+        <v>270020.38511999999</v>
       </c>
       <c r="I3" s="21">
         <f t="shared" ref="I3:I66" si="0">H3*J3</f>
-        <v>539781.49881599995</v>
+        <v>540040.77023999998</v>
       </c>
       <c r="J3" s="10">
         <v>2</v>
@@ -4370,11 +4370,11 @@
       </c>
       <c r="H4" s="21">
         <f>M$2*G4</f>
-        <v>791626.32779999997</v>
+        <v>792006.56699999992</v>
       </c>
       <c r="I4" s="21">
         <f t="shared" si="0"/>
-        <v>1583252.6555999999</v>
+        <v>1584013.1339999998</v>
       </c>
       <c r="J4" s="10">
         <v>2</v>
@@ -4408,11 +4408,11 @@
       </c>
       <c r="H5" s="21">
         <f>M2*G5</f>
-        <v>131290.66159999999</v>
+        <v>131353.72399999999</v>
       </c>
       <c r="I5" s="21">
         <f t="shared" si="0"/>
-        <v>1444197.2775999999</v>
+        <v>1444890.9639999999</v>
       </c>
       <c r="J5" s="10">
         <v>11</v>
@@ -4453,11 +4453,11 @@
       </c>
       <c r="H6" s="21">
         <f>M2*G6</f>
-        <v>156273.66159999999</v>
+        <v>156348.72399999999</v>
       </c>
       <c r="I6" s="21">
         <f t="shared" si="0"/>
-        <v>156273.66159999999</v>
+        <v>156348.72399999999</v>
       </c>
       <c r="J6" s="9">
         <v>1</v>
@@ -4494,11 +4494,11 @@
       </c>
       <c r="H7" s="21">
         <f>M2*G7</f>
-        <v>141283.8616</v>
+        <v>141351.72399999999</v>
       </c>
       <c r="I7" s="21">
         <f t="shared" si="0"/>
-        <v>988987.03120000008</v>
+        <v>989462.06799999997</v>
       </c>
       <c r="J7" s="9">
         <v>7</v>
@@ -4535,11 +4535,11 @@
       </c>
       <c r="H8" s="21">
         <f>M2*G8</f>
-        <v>269890.74940799997</v>
+        <v>270020.38511999999</v>
       </c>
       <c r="I8" s="21">
         <f t="shared" si="0"/>
-        <v>9985957.728095999</v>
+        <v>9990754.2494399995</v>
       </c>
       <c r="J8" s="10">
         <v>37</v>
@@ -4576,11 +4576,11 @@
       </c>
       <c r="H9" s="21">
         <f>M2*G9</f>
-        <v>184874.2</v>
+        <v>184963</v>
       </c>
       <c r="I9" s="21">
         <f t="shared" si="0"/>
-        <v>554622.60000000009</v>
+        <v>554889</v>
       </c>
       <c r="J9" s="9">
         <v>3</v>
@@ -4617,11 +4617,11 @@
       </c>
       <c r="H10" s="21">
         <f>M2*G10</f>
-        <v>161972.333866</v>
+        <v>162050.13348999998</v>
       </c>
       <c r="I10" s="21">
         <f t="shared" si="0"/>
-        <v>323944.667732</v>
+        <v>324100.26697999996</v>
       </c>
       <c r="J10" s="9">
         <v>2</v>
@@ -4658,11 +4658,11 @@
       </c>
       <c r="H11" s="21">
         <f>M2*G11</f>
-        <v>384603.29180000001</v>
+        <v>384788.027</v>
       </c>
       <c r="I11" s="21">
         <f t="shared" si="0"/>
-        <v>1153809.8754</v>
+        <v>1154364.081</v>
       </c>
       <c r="J11" s="9">
         <v>3</v>
@@ -4699,11 +4699,11 @@
       </c>
       <c r="H12" s="21">
         <f>M2*G12</f>
-        <v>119918.39999999999</v>
+        <v>119975.99999999999</v>
       </c>
       <c r="I12" s="21">
         <f t="shared" si="0"/>
-        <v>479673.59999999998</v>
+        <v>479903.99999999994</v>
       </c>
       <c r="J12" s="9">
         <v>4</v>
@@ -4740,11 +4740,11 @@
       </c>
       <c r="H13" s="21">
         <f>M2*G13</f>
-        <v>168970.02220000001</v>
+        <v>169051.18299999999</v>
       </c>
       <c r="I13" s="21">
         <f t="shared" si="0"/>
-        <v>168970.02220000001</v>
+        <v>169051.18299999999</v>
       </c>
       <c r="J13" s="9">
         <v>1</v>
@@ -4782,11 +4782,11 @@
       </c>
       <c r="H14" s="21">
         <f>M2*G14</f>
-        <v>168970.02220000001</v>
+        <v>169051.18299999999</v>
       </c>
       <c r="I14" s="21">
         <f t="shared" si="0"/>
-        <v>168970.02220000001</v>
+        <v>169051.18299999999</v>
       </c>
       <c r="J14" s="9">
         <v>1</v>
@@ -4820,11 +4820,11 @@
       </c>
       <c r="H15" s="21">
         <f>M2*G15</f>
-        <v>1178.2482460000001</v>
+        <v>1178.8141899999998</v>
       </c>
       <c r="I15" s="21">
         <f t="shared" si="0"/>
-        <v>4712.9929840000004</v>
+        <v>4715.2567599999993</v>
       </c>
       <c r="J15" s="9">
         <v>4</v>
@@ -4855,11 +4855,11 @@
       </c>
       <c r="H16" s="21">
         <f>M2*G16</f>
-        <v>34726.370000000003</v>
+        <v>34743.049999999996</v>
       </c>
       <c r="I16" s="21">
         <f t="shared" si="0"/>
-        <v>104179.11000000002</v>
+        <v>104229.15</v>
       </c>
       <c r="J16" s="9">
         <v>3</v>
@@ -4890,11 +4890,11 @@
       </c>
       <c r="H17" s="21">
         <f>M2*G17</f>
-        <v>25607.575000000001</v>
+        <v>25619.875</v>
       </c>
       <c r="I17" s="21">
         <f t="shared" si="0"/>
-        <v>102430.3</v>
+        <v>102479.5</v>
       </c>
       <c r="J17" s="9">
         <v>4</v>
@@ -4925,11 +4925,11 @@
       </c>
       <c r="H18" s="21">
         <f>M2*G18</f>
-        <v>34726.370000000003</v>
+        <v>34743.049999999996</v>
       </c>
       <c r="I18" s="21">
         <f t="shared" si="0"/>
-        <v>34726.370000000003</v>
+        <v>34743.049999999996</v>
       </c>
       <c r="J18" s="9">
         <v>1</v>
@@ -4966,11 +4966,11 @@
       </c>
       <c r="H19" s="21">
         <f>M2*G19</f>
-        <v>15995.065954</v>
+        <v>16002.748809999999</v>
       </c>
       <c r="I19" s="21">
         <f t="shared" si="0"/>
-        <v>15995.065954</v>
+        <v>16002.748809999999</v>
       </c>
       <c r="J19" s="9">
         <v>1</v>
@@ -5007,11 +5007,11 @@
       </c>
       <c r="H20" s="21">
         <f>M2*G20</f>
-        <v>15995.065954</v>
+        <v>16002.748809999999</v>
       </c>
       <c r="I20" s="21">
         <f t="shared" si="0"/>
-        <v>15995.065954</v>
+        <v>16002.748809999999</v>
       </c>
       <c r="J20" s="9">
         <v>1</v>
@@ -5048,11 +5048,11 @@
       </c>
       <c r="H21" s="21">
         <f>M2*G21</f>
-        <v>15995.065954</v>
+        <v>16002.748809999999</v>
       </c>
       <c r="I21" s="21">
         <f t="shared" si="0"/>
-        <v>255921.055264</v>
+        <v>256043.98095999999</v>
       </c>
       <c r="J21" s="10">
         <v>16</v>
@@ -5089,11 +5089,11 @@
       </c>
       <c r="H22" s="21">
         <f>M2*G22</f>
-        <v>2168.9241280000001</v>
+        <v>2169.9659199999996</v>
       </c>
       <c r="I22" s="21">
         <f t="shared" si="0"/>
-        <v>2168.9241280000001</v>
+        <v>2169.9659199999996</v>
       </c>
       <c r="J22" s="9">
         <v>1</v>
@@ -5130,11 +5130,11 @@
       </c>
       <c r="H23" s="21">
         <f>M2*G23</f>
-        <v>9993.2000000000007</v>
+        <v>9998</v>
       </c>
       <c r="I23" s="21">
         <f t="shared" si="0"/>
-        <v>29979.600000000002</v>
+        <v>29994</v>
       </c>
       <c r="J23" s="9">
         <v>3</v>
@@ -5171,11 +5171,11 @@
       </c>
       <c r="H24" s="21">
         <f>M2*G24</f>
-        <v>9993.2000000000007</v>
+        <v>9998</v>
       </c>
       <c r="I24" s="21">
         <f t="shared" si="0"/>
-        <v>49966</v>
+        <v>49990</v>
       </c>
       <c r="J24" s="9">
         <v>5</v>
@@ -5212,11 +5212,11 @@
       </c>
       <c r="H25" s="21">
         <f>M2*G25</f>
-        <v>9993.2000000000007</v>
+        <v>9998</v>
       </c>
       <c r="I25" s="21">
         <f t="shared" si="0"/>
-        <v>19986.400000000001</v>
+        <v>19996</v>
       </c>
       <c r="J25" s="9">
         <v>2</v>
@@ -5253,11 +5253,11 @@
       </c>
       <c r="H26" s="21">
         <f>M2*G26</f>
-        <v>4891.6714000000002</v>
+        <v>4894.0209999999997</v>
       </c>
       <c r="I26" s="21">
         <f t="shared" si="0"/>
-        <v>9783.3428000000004</v>
+        <v>9788.0419999999995</v>
       </c>
       <c r="J26" s="9">
         <v>2</v>
@@ -5294,11 +5294,11 @@
       </c>
       <c r="H27" s="21">
         <f>M2*G27</f>
-        <v>76044.754379999998</v>
+        <v>76081.280699999988</v>
       </c>
       <c r="I27" s="21">
         <f t="shared" si="0"/>
-        <v>1596939.84198</v>
+        <v>1597706.8946999998</v>
       </c>
       <c r="J27" s="10">
         <v>21</v>
@@ -5335,11 +5335,11 @@
       </c>
       <c r="H28" s="21">
         <f>M2*G28</f>
-        <v>54962.6</v>
+        <v>54988.999999999993</v>
       </c>
       <c r="I28" s="21">
         <f t="shared" si="0"/>
-        <v>164887.79999999999</v>
+        <v>164966.99999999997</v>
       </c>
       <c r="J28" s="9">
         <v>3</v>
@@ -5377,11 +5377,11 @@
       </c>
       <c r="H29" s="21">
         <f>M2*G29</f>
-        <v>54962.6</v>
+        <v>54988.999999999993</v>
       </c>
       <c r="I29" s="21">
         <f t="shared" si="0"/>
-        <v>659551.19999999995</v>
+        <v>659867.99999999988</v>
       </c>
       <c r="J29" s="10">
         <v>12</v>
@@ -5419,11 +5419,11 @@
       </c>
       <c r="H30" s="21">
         <f>M$2*G30</f>
-        <v>89938.8</v>
+        <v>89982</v>
       </c>
       <c r="I30" s="21">
         <f t="shared" si="0"/>
-        <v>89938.8</v>
+        <v>89982</v>
       </c>
       <c r="J30" s="9">
         <v>1</v>
@@ -5459,11 +5459,11 @@
       </c>
       <c r="H31" s="21">
         <f>M2*G31</f>
-        <v>24983</v>
+        <v>24995</v>
       </c>
       <c r="I31" s="21">
         <f t="shared" si="0"/>
-        <v>99932</v>
+        <v>99980</v>
       </c>
       <c r="J31" s="10">
         <v>4</v>
@@ -5499,11 +5499,11 @@
       </c>
       <c r="H32" s="21">
         <f>M2*G32</f>
-        <v>3317.7424000000001</v>
+        <v>3319.3359999999998</v>
       </c>
       <c r="I32" s="21">
         <f t="shared" si="0"/>
-        <v>16588.712</v>
+        <v>16596.68</v>
       </c>
       <c r="J32" s="9">
         <v>5</v>
@@ -5540,11 +5540,11 @@
       </c>
       <c r="H33" s="21">
         <f>M2*G33</f>
-        <v>3317.7424000000001</v>
+        <v>3319.3359999999998</v>
       </c>
       <c r="I33" s="21">
         <f t="shared" si="0"/>
-        <v>122756.4688</v>
+        <v>122815.43199999999</v>
       </c>
       <c r="J33" s="10">
         <v>37</v>
@@ -5581,11 +5581,11 @@
       </c>
       <c r="H34" s="21">
         <f>M2*G34</f>
-        <v>3317.7424000000001</v>
+        <v>3319.3359999999998</v>
       </c>
       <c r="I34" s="21">
         <f t="shared" si="0"/>
-        <v>9953.2272000000012</v>
+        <v>9958.0079999999998</v>
       </c>
       <c r="J34" s="9">
         <v>3</v>
@@ -5622,11 +5622,11 @@
       </c>
       <c r="H35" s="21">
         <f>M2*G35</f>
-        <v>3317.7424000000001</v>
+        <v>3319.3359999999998</v>
       </c>
       <c r="I35" s="21">
         <f t="shared" si="0"/>
-        <v>6635.4848000000002</v>
+        <v>6638.6719999999996</v>
       </c>
       <c r="J35" s="9">
         <v>2</v>
@@ -5663,11 +5663,11 @@
       </c>
       <c r="H36" s="21">
         <f>M2*G36</f>
-        <v>25242.823199999999</v>
+        <v>25254.947999999997</v>
       </c>
       <c r="I36" s="21">
         <f t="shared" si="0"/>
-        <v>25242.823199999999</v>
+        <v>25254.947999999997</v>
       </c>
       <c r="J36" s="9">
         <v>1</v>
@@ -5704,11 +5704,11 @@
       </c>
       <c r="H37" s="21">
         <f>M2*G37</f>
-        <v>62457.5</v>
+        <v>62487.499999999993</v>
       </c>
       <c r="I37" s="21">
         <f t="shared" si="0"/>
-        <v>312287.5</v>
+        <v>312437.49999999994</v>
       </c>
       <c r="J37" s="9">
         <v>5</v>
@@ -5745,11 +5745,11 @@
       </c>
       <c r="H38" s="21">
         <f>M2*G38</f>
-        <v>25242.823199999999</v>
+        <v>25254.947999999997</v>
       </c>
       <c r="I38" s="21">
         <f t="shared" si="0"/>
-        <v>454370.81759999995</v>
+        <v>454589.06399999995</v>
       </c>
       <c r="J38" s="9">
         <v>18</v>
@@ -5786,11 +5786,11 @@
       </c>
       <c r="H39" s="21">
         <f>M2*G39</f>
-        <v>25242.823199999999</v>
+        <v>25254.947999999997</v>
       </c>
       <c r="I39" s="21">
         <f t="shared" si="0"/>
-        <v>25242.823199999999</v>
+        <v>25254.947999999997</v>
       </c>
       <c r="J39" s="9">
         <v>1</v>
@@ -5827,11 +5827,11 @@
       </c>
       <c r="H40" s="21">
         <f>M2*G40</f>
-        <v>17488.099999999999</v>
+        <v>17496.5</v>
       </c>
       <c r="I40" s="21">
         <f t="shared" si="0"/>
-        <v>139904.79999999999</v>
+        <v>139972</v>
       </c>
       <c r="J40" s="9">
         <v>8</v>
@@ -5868,11 +5868,11 @@
       </c>
       <c r="H41" s="21">
         <f>M2*G41</f>
-        <v>22484.7</v>
+        <v>22495.5</v>
       </c>
       <c r="I41" s="21">
         <f t="shared" si="0"/>
-        <v>427209.3</v>
+        <v>427414.5</v>
       </c>
       <c r="J41" s="9">
         <v>19</v>
@@ -5909,11 +5909,11 @@
       </c>
       <c r="H42" s="21">
         <f>M2*G42</f>
-        <v>31556.826755999999</v>
+        <v>31571.984339999995</v>
       </c>
       <c r="I42" s="21">
         <f t="shared" si="0"/>
-        <v>189340.960536</v>
+        <v>189431.90603999997</v>
       </c>
       <c r="J42" s="9">
         <v>6</v>
@@ -5950,11 +5950,11 @@
       </c>
       <c r="H43" s="21">
         <f>M2*G43</f>
-        <v>15649.351199999999</v>
+        <v>15656.867999999999</v>
       </c>
       <c r="I43" s="21">
         <f t="shared" si="0"/>
-        <v>156493.51199999999</v>
+        <v>156568.68</v>
       </c>
       <c r="J43" s="9">
         <v>10</v>
@@ -5991,11 +5991,11 @@
       </c>
       <c r="H44" s="21">
         <f>M2*G44</f>
-        <v>32178.103999999999</v>
+        <v>32193.559999999998</v>
       </c>
       <c r="I44" s="21">
         <f t="shared" si="0"/>
-        <v>64356.207999999999</v>
+        <v>64387.119999999995</v>
       </c>
       <c r="J44" s="9">
         <v>2</v>
@@ -6032,11 +6032,11 @@
       </c>
       <c r="H45" s="21">
         <f>M2*G45</f>
-        <v>46293.399067999999</v>
+        <v>46315.635019999994</v>
       </c>
       <c r="I45" s="21">
         <f t="shared" si="0"/>
-        <v>46293.399067999999</v>
+        <v>46315.635019999994</v>
       </c>
       <c r="J45" s="9">
         <v>1</v>
@@ -6073,11 +6073,11 @@
       </c>
       <c r="H46" s="21">
         <f>M$2*G46</f>
-        <v>399728</v>
+        <v>399920</v>
       </c>
       <c r="I46" s="21">
         <f t="shared" si="0"/>
-        <v>399728</v>
+        <v>399920</v>
       </c>
       <c r="J46" s="9">
         <v>1</v>
@@ -6111,11 +6111,11 @@
       </c>
       <c r="H47" s="21">
         <f>M$2*G47</f>
-        <v>264819.8</v>
+        <v>264947</v>
       </c>
       <c r="I47" s="21">
         <f t="shared" si="0"/>
-        <v>264819.8</v>
+        <v>264947</v>
       </c>
       <c r="J47" s="9">
         <v>1</v>
@@ -6149,11 +6149,11 @@
       </c>
       <c r="H48" s="21">
         <f>M2*G48</f>
-        <v>289602.93599999999</v>
+        <v>289742.03999999998</v>
       </c>
       <c r="I48" s="21">
         <f t="shared" si="0"/>
-        <v>1158411.7439999999</v>
+        <v>1158968.1599999999</v>
       </c>
       <c r="J48" s="9">
         <v>4</v>
@@ -6190,11 +6190,11 @@
       </c>
       <c r="H49" s="21">
         <f>M2*G49</f>
-        <v>24658.221000000001</v>
+        <v>24670.064999999999</v>
       </c>
       <c r="I49" s="21">
         <f t="shared" si="0"/>
-        <v>24658.221000000001</v>
+        <v>24670.064999999999</v>
       </c>
       <c r="J49" s="9">
         <v>1</v>
@@ -6231,11 +6231,11 @@
       </c>
       <c r="H50" s="21">
         <f>M2*G50</f>
-        <v>525437.45940000005</v>
+        <v>525689.84100000001</v>
       </c>
       <c r="I50" s="21">
         <f t="shared" si="0"/>
-        <v>525437.45940000005</v>
+        <v>525689.84100000001</v>
       </c>
       <c r="J50" s="9">
         <v>1</v>
@@ -6266,11 +6266,11 @@
       </c>
       <c r="H51" s="21">
         <f>M2*G51</f>
-        <v>11242.35</v>
+        <v>11247.75</v>
       </c>
       <c r="I51" s="21">
         <f t="shared" si="0"/>
-        <v>179877.6</v>
+        <v>179964</v>
       </c>
       <c r="J51" s="9">
         <v>16</v>
@@ -6301,11 +6301,11 @@
       </c>
       <c r="H52" s="21">
         <f>M2*G52</f>
-        <v>16763.593000000001</v>
+        <v>16771.645</v>
       </c>
       <c r="I52" s="21">
         <f t="shared" si="0"/>
-        <v>268217.48800000001</v>
+        <v>268346.32</v>
       </c>
       <c r="J52" s="9">
         <v>16</v>
@@ -6336,11 +6336,11 @@
       </c>
       <c r="H53" s="21">
         <f>M2*G53</f>
-        <v>14889.868</v>
+        <v>14897.019999999999</v>
       </c>
       <c r="I53" s="21">
         <f t="shared" si="0"/>
-        <v>14889.868</v>
+        <v>14897.019999999999</v>
       </c>
       <c r="J53" s="9">
         <v>1</v>
@@ -6371,11 +6371,11 @@
       </c>
       <c r="H54" s="21">
         <f>M2*G54</f>
-        <v>2734.6891459999997</v>
+        <v>2736.0026899999993</v>
       </c>
       <c r="I54" s="21">
         <f t="shared" si="0"/>
-        <v>2734.6891459999997</v>
+        <v>2736.0026899999993</v>
       </c>
       <c r="J54" s="9">
         <v>1</v>
@@ -6406,11 +6406,11 @@
       </c>
       <c r="H55" s="21">
         <f>M2*G55</f>
-        <v>4777.2992260000001</v>
+        <v>4779.5938900000001</v>
       </c>
       <c r="I55" s="21">
         <f t="shared" si="0"/>
-        <v>4777.2992260000001</v>
+        <v>4779.5938900000001</v>
       </c>
       <c r="J55" s="9">
         <v>1</v>
@@ -6441,11 +6441,11 @@
       </c>
       <c r="H56" s="21">
         <f>M2*G56</f>
-        <v>7494.6501699999999</v>
+        <v>7498.2500499999996</v>
       </c>
       <c r="I56" s="21">
         <f t="shared" si="0"/>
-        <v>22483.950509999999</v>
+        <v>22494.75015</v>
       </c>
       <c r="J56" s="9">
         <v>3</v>
@@ -6476,11 +6476,11 @@
       </c>
       <c r="H57" s="21">
         <f>M2*G57</f>
-        <v>2803.5922599999999</v>
+        <v>2804.9389000000001</v>
       </c>
       <c r="I57" s="21">
         <f t="shared" si="0"/>
-        <v>5607.1845199999998</v>
+        <v>5609.8778000000002</v>
       </c>
       <c r="J57" s="9">
         <v>2</v>
@@ -6511,11 +6511,11 @@
       </c>
       <c r="H58" s="21">
         <f>M2*G58</f>
-        <v>4033.605282</v>
+        <v>4035.5427299999997</v>
       </c>
       <c r="I58" s="21">
         <f t="shared" si="0"/>
-        <v>12100.815846</v>
+        <v>12106.628189999999</v>
       </c>
       <c r="J58" s="9">
         <v>3</v>
@@ -6546,11 +6546,11 @@
       </c>
       <c r="H59" s="21">
         <f>M2*G59</f>
-        <v>2383.3782000000001</v>
+        <v>2384.5229999999997</v>
       </c>
       <c r="I59" s="21">
         <f t="shared" si="0"/>
-        <v>4766.7564000000002</v>
+        <v>4769.0459999999994</v>
       </c>
       <c r="J59" s="9">
         <v>2</v>
@@ -6581,11 +6581,11 @@
       </c>
       <c r="H60" s="21">
         <f>M2*G60</f>
-        <v>30253.263782000002</v>
+        <v>30267.79523</v>
       </c>
       <c r="I60" s="21">
         <f t="shared" si="0"/>
-        <v>151266.31891</v>
+        <v>151338.97615</v>
       </c>
       <c r="J60" s="9">
         <v>5</v>
@@ -6616,11 +6616,11 @@
       </c>
       <c r="H61" s="21">
         <f>M2*G61</f>
-        <v>30253.263782000002</v>
+        <v>30267.79523</v>
       </c>
       <c r="I61" s="21">
         <f t="shared" si="0"/>
-        <v>453798.95673000003</v>
+        <v>454016.92845000001</v>
       </c>
       <c r="J61" s="9">
         <v>15</v>
@@ -6651,11 +6651,11 @@
       </c>
       <c r="H62" s="21">
         <f>M2*G62</f>
-        <v>98772.788799999995</v>
+        <v>98820.231999999989</v>
       </c>
       <c r="I62" s="21">
         <f t="shared" si="0"/>
-        <v>790182.31039999996</v>
+        <v>790561.85599999991</v>
       </c>
       <c r="J62" s="9">
         <v>8</v>
@@ -6690,11 +6690,11 @@
       </c>
       <c r="H63" s="21">
         <f>M2*G63</f>
-        <v>824439</v>
+        <v>824835</v>
       </c>
       <c r="I63" s="21">
         <f t="shared" si="0"/>
-        <v>824439</v>
+        <v>824835</v>
       </c>
       <c r="J63" s="9">
         <v>1</v>
@@ -6762,11 +6762,11 @@
       </c>
       <c r="H65" s="21">
         <f>M2*G65</f>
-        <v>43295.538999999997</v>
+        <v>43316.334999999999</v>
       </c>
       <c r="I65" s="21">
         <f t="shared" si="0"/>
-        <v>129886.617</v>
+        <v>129949.005</v>
       </c>
       <c r="J65" s="9">
         <v>3</v>
@@ -6801,11 +6801,11 @@
       </c>
       <c r="H66" s="21">
         <f>M2*G66</f>
-        <v>44670.203592000005</v>
+        <v>44691.659879999999</v>
       </c>
       <c r="I66" s="21">
         <f t="shared" si="0"/>
-        <v>44670.203592000005</v>
+        <v>44691.659879999999</v>
       </c>
       <c r="J66" s="9">
         <v>1</v>
@@ -6840,11 +6840,11 @@
       </c>
       <c r="H67" s="21">
         <f>M2*G67</f>
-        <v>44670.203592000005</v>
+        <v>44691.659879999999</v>
       </c>
       <c r="I67" s="21">
         <f t="shared" ref="I67:I130" si="1">H67*J67</f>
-        <v>89340.407184000011</v>
+        <v>89383.319759999998</v>
       </c>
       <c r="J67" s="9">
         <v>2</v>
@@ -6879,11 +6879,11 @@
       </c>
       <c r="H68" s="21">
         <f>M2*G68</f>
-        <v>44670.203592000005</v>
+        <v>44691.659879999999</v>
       </c>
       <c r="I68" s="21">
         <f t="shared" si="1"/>
-        <v>44670.203592000005</v>
+        <v>44691.659879999999</v>
       </c>
       <c r="J68" s="9">
         <v>1</v>
@@ -6918,11 +6918,11 @@
       </c>
       <c r="H69" s="21">
         <f>M2*G69</f>
-        <v>125214.796</v>
+        <v>125274.93999999999</v>
       </c>
       <c r="I69" s="21">
         <f t="shared" si="1"/>
-        <v>1001718.368</v>
+        <v>1002199.5199999999</v>
       </c>
       <c r="J69" s="9">
         <v>8</v>
@@ -6959,11 +6959,11 @@
       </c>
       <c r="H70" s="21">
         <f>M2*G70</f>
-        <v>128662.45</v>
+        <v>128724.24999999999</v>
       </c>
       <c r="I70" s="21">
         <f t="shared" si="1"/>
-        <v>643312.25</v>
+        <v>643621.24999999988</v>
       </c>
       <c r="J70" s="9">
         <v>5</v>
@@ -7000,11 +7000,11 @@
       </c>
       <c r="H71" s="21">
         <f>M2*G71</f>
-        <v>129586.821</v>
+        <v>129649.06499999999</v>
       </c>
       <c r="I71" s="21">
         <f t="shared" si="1"/>
-        <v>129586.821</v>
+        <v>129649.06499999999</v>
       </c>
       <c r="J71" s="9">
         <v>1</v>
@@ -7041,11 +7041,11 @@
       </c>
       <c r="H72" s="21">
         <f>M2*G72</f>
-        <v>108925.88</v>
+        <v>108978.2</v>
       </c>
       <c r="I72" s="21">
         <f t="shared" si="1"/>
-        <v>108925.88</v>
+        <v>108978.2</v>
       </c>
       <c r="J72" s="9">
         <v>1</v>
@@ -7082,11 +7082,11 @@
       </c>
       <c r="H73" s="21">
         <f>M2*G73</f>
-        <v>51489.962999999996</v>
+        <v>51514.695</v>
       </c>
       <c r="I73" s="21">
         <f t="shared" si="1"/>
-        <v>3295357.6319999998</v>
+        <v>3296940.48</v>
       </c>
       <c r="J73" s="10">
         <v>64</v>
@@ -7123,11 +7123,11 @@
       </c>
       <c r="H74" s="21">
         <f>M2*G74</f>
-        <v>296198.44799999997</v>
+        <v>296340.71999999997</v>
       </c>
       <c r="I74" s="21">
         <f t="shared" si="1"/>
-        <v>592396.89599999995</v>
+        <v>592681.43999999994</v>
       </c>
       <c r="J74" s="9">
         <v>2</v>
@@ -7162,11 +7162,11 @@
       </c>
       <c r="H75" s="21">
         <f>M2*G75</f>
-        <v>108231.3526</v>
+        <v>108283.33899999999</v>
       </c>
       <c r="I75" s="21">
         <f t="shared" si="1"/>
-        <v>108231.3526</v>
+        <v>108283.33899999999</v>
       </c>
       <c r="J75" s="9">
         <v>1</v>
@@ -7197,11 +7197,11 @@
       </c>
       <c r="H76" s="21">
         <f>M2*G76</f>
-        <v>501.35884400000003</v>
+        <v>501.59965999999997</v>
       </c>
       <c r="I76" s="21">
         <f t="shared" si="1"/>
-        <v>4512.2295960000001</v>
+        <v>4514.3969399999996</v>
       </c>
       <c r="J76" s="9">
         <v>9</v>
@@ -7265,11 +7265,11 @@
       </c>
       <c r="H78" s="21">
         <f>M2*G78</f>
-        <v>127686.414156</v>
+        <v>127747.74533999999</v>
       </c>
       <c r="I78" s="21">
         <f t="shared" si="1"/>
-        <v>383059.24246799998</v>
+        <v>383243.23601999995</v>
       </c>
       <c r="J78" s="9">
         <v>3</v>
@@ -7300,11 +7300,11 @@
       </c>
       <c r="H79" s="21">
         <f>M2*G79</f>
-        <v>8356.4637380000004</v>
+        <v>8360.4775699999991</v>
       </c>
       <c r="I79" s="21">
         <f t="shared" si="1"/>
-        <v>8356.4637380000004</v>
+        <v>8360.4775699999991</v>
       </c>
       <c r="J79" s="9">
         <v>1</v>
@@ -7335,11 +7335,11 @@
       </c>
       <c r="H80" s="21">
         <f>M2*G80</f>
-        <v>42221.27</v>
+        <v>42241.549999999996</v>
       </c>
       <c r="I80" s="21">
         <f t="shared" si="1"/>
-        <v>42221.27</v>
+        <v>42241.549999999996</v>
       </c>
       <c r="J80" s="9">
         <v>1</v>
@@ -7370,11 +7370,11 @@
       </c>
       <c r="H81" s="21">
         <f>M2*G81</f>
-        <v>42221.27</v>
+        <v>42241.549999999996</v>
       </c>
       <c r="I81" s="21">
         <f t="shared" si="1"/>
-        <v>126663.81</v>
+        <v>126724.65</v>
       </c>
       <c r="J81" s="9">
         <v>3</v>
@@ -7405,11 +7405,11 @@
       </c>
       <c r="H82" s="21">
         <f>M2*G82</f>
-        <v>1419.4840939999999</v>
+        <v>1420.1659099999997</v>
       </c>
       <c r="I82" s="21">
         <f t="shared" si="1"/>
-        <v>2838.9681879999998</v>
+        <v>2840.3318199999994</v>
       </c>
       <c r="J82" s="9">
         <v>2</v>
@@ -7440,11 +7440,11 @@
       </c>
       <c r="H83" s="21">
         <f>M2*G83</f>
-        <v>1114.191834</v>
+        <v>1114.7270100000001</v>
       </c>
       <c r="I83" s="21">
         <f t="shared" si="1"/>
-        <v>1114.191834</v>
+        <v>1114.7270100000001</v>
       </c>
       <c r="J83" s="9">
         <v>1</v>
@@ -7475,11 +7475,11 @@
       </c>
       <c r="H84" s="21">
         <f>M2*G84</f>
-        <v>1295.768278</v>
+        <v>1296.3906699999998</v>
       </c>
       <c r="I84" s="21">
         <f t="shared" si="1"/>
-        <v>2591.536556</v>
+        <v>2592.7813399999995</v>
       </c>
       <c r="J84" s="9">
         <v>2</v>
@@ -7510,11 +7510,11 @@
       </c>
       <c r="H85" s="21">
         <f>M2*G85</f>
-        <v>606.63720599999999</v>
+        <v>606.92858999999999</v>
       </c>
       <c r="I85" s="21">
         <f t="shared" si="1"/>
-        <v>1819.9116180000001</v>
+        <v>1820.78577</v>
       </c>
       <c r="J85" s="9">
         <v>3</v>
@@ -7551,11 +7551,11 @@
       </c>
       <c r="H86" s="21">
         <f>M2*G86</f>
-        <v>40087.422004</v>
+        <v>40106.677059999995</v>
       </c>
       <c r="I86" s="21">
         <f t="shared" si="1"/>
-        <v>40087.422004</v>
+        <v>40106.677059999995</v>
       </c>
       <c r="J86" s="9">
         <v>1</v>
@@ -7592,11 +7592,11 @@
       </c>
       <c r="H87" s="21">
         <f>M2*G87</f>
-        <v>40087.422004</v>
+        <v>40106.677059999995</v>
       </c>
       <c r="I87" s="21">
         <f t="shared" si="1"/>
-        <v>40087.422004</v>
+        <v>40106.677059999995</v>
       </c>
       <c r="J87" s="9">
         <v>1</v>
@@ -7633,11 +7633,11 @@
       </c>
       <c r="H88" s="21">
         <f>M2*G88</f>
-        <v>40087.422004</v>
+        <v>40106.677059999995</v>
       </c>
       <c r="I88" s="21">
         <f t="shared" si="1"/>
-        <v>120262.26601200001</v>
+        <v>120320.03117999999</v>
       </c>
       <c r="J88" s="10">
         <v>3</v>
@@ -7674,11 +7674,11 @@
       </c>
       <c r="H89" s="21">
         <f>M2*G89</f>
-        <v>16213.967000000001</v>
+        <v>16221.754999999999</v>
       </c>
       <c r="I89" s="21">
         <f t="shared" si="1"/>
-        <v>48641.900999999998</v>
+        <v>48665.264999999999</v>
       </c>
       <c r="J89" s="10">
         <v>3</v>
@@ -7715,11 +7715,11 @@
       </c>
       <c r="H90" s="21">
         <f>M2*G90</f>
-        <v>16213.967000000001</v>
+        <v>16221.754999999999</v>
       </c>
       <c r="I90" s="21">
         <f t="shared" si="1"/>
-        <v>16213.967000000001</v>
+        <v>16221.754999999999</v>
       </c>
       <c r="J90" s="9">
         <v>1</v>
@@ -7750,11 +7750,11 @@
       </c>
       <c r="H91" s="21">
         <f>M2*G91</f>
-        <v>69952.399999999994</v>
+        <v>69986</v>
       </c>
       <c r="I91" s="21">
         <f t="shared" si="1"/>
-        <v>69952.399999999994</v>
+        <v>69986</v>
       </c>
       <c r="J91" s="9">
         <v>1</v>
@@ -7785,11 +7785,11 @@
       </c>
       <c r="H92" s="21">
         <f>M2*G92</f>
-        <v>8744.0499999999993</v>
+        <v>8748.25</v>
       </c>
       <c r="I92" s="21">
         <f t="shared" si="1"/>
-        <v>244833.39999999997</v>
+        <v>244951</v>
       </c>
       <c r="J92" s="9">
         <v>28</v>
@@ -7826,11 +7826,11 @@
       </c>
       <c r="H93" s="21">
         <f>M2*G93</f>
-        <v>1311205.4235980001</v>
+        <v>1311835.2304700001</v>
       </c>
       <c r="I93" s="21">
         <f t="shared" si="1"/>
-        <v>3933616.2707940005</v>
+        <v>3935505.6914100004</v>
       </c>
       <c r="J93" s="9">
         <v>3</v>
@@ -7867,11 +7867,11 @@
       </c>
       <c r="H94" s="21">
         <f>M2*G94</f>
-        <v>24683.203999999998</v>
+        <v>24695.059999999998</v>
       </c>
       <c r="I94" s="21">
         <f t="shared" si="1"/>
-        <v>24683.203999999998</v>
+        <v>24695.059999999998</v>
       </c>
       <c r="J94" s="9">
         <v>1</v>
@@ -7908,11 +7908,11 @@
       </c>
       <c r="H95" s="21">
         <f>M2*G95</f>
-        <v>64955.799999999996</v>
+        <v>64986.999999999993</v>
       </c>
       <c r="I95" s="21">
         <f t="shared" si="1"/>
-        <v>64955.799999999996</v>
+        <v>64986.999999999993</v>
       </c>
       <c r="J95" s="9">
         <v>1</v>
@@ -7949,11 +7949,11 @@
       </c>
       <c r="H96" s="21">
         <f>M$2*G96</f>
-        <v>89938.8</v>
+        <v>89982</v>
       </c>
       <c r="I96" s="21">
         <f t="shared" si="1"/>
-        <v>539632.80000000005</v>
+        <v>539892</v>
       </c>
       <c r="J96" s="9">
         <v>6</v>
@@ -7990,11 +7990,11 @@
       </c>
       <c r="H97" s="21">
         <f>M$2*G97</f>
-        <v>74949</v>
+        <v>74985</v>
       </c>
       <c r="I97" s="21">
         <f t="shared" si="1"/>
-        <v>74949</v>
+        <v>74985</v>
       </c>
       <c r="J97" s="9">
         <v>1</v>
@@ -8026,11 +8026,11 @@
       </c>
       <c r="H98" s="21">
         <f>M2*G98</f>
-        <v>24683.203999999998</v>
+        <v>24695.059999999998</v>
       </c>
       <c r="I98" s="21">
         <f t="shared" si="1"/>
-        <v>98732.815999999992</v>
+        <v>98780.239999999991</v>
       </c>
       <c r="J98" s="9">
         <v>4</v>
@@ -8067,11 +8067,11 @@
       </c>
       <c r="H99" s="21">
         <f>M2*G99</f>
-        <v>185124.03</v>
+        <v>185212.94999999998</v>
       </c>
       <c r="I99" s="21">
         <f t="shared" si="1"/>
-        <v>2406612.39</v>
+        <v>2407768.3499999996</v>
       </c>
       <c r="J99" s="10">
         <v>13</v>
@@ -8108,11 +8108,11 @@
       </c>
       <c r="H100" s="21">
         <f>M2*G100</f>
-        <v>165537.35800000001</v>
+        <v>165616.87</v>
       </c>
       <c r="I100" s="21">
         <f t="shared" si="1"/>
-        <v>1489836.2220000001</v>
+        <v>1490551.83</v>
       </c>
       <c r="J100" s="10">
         <v>9</v>
@@ -8143,11 +8143,11 @@
       </c>
       <c r="H101" s="21">
         <f>M2*G101</f>
-        <v>39972.800000000003</v>
+        <v>39992</v>
       </c>
       <c r="I101" s="21">
         <f t="shared" si="1"/>
-        <v>39972.800000000003</v>
+        <v>39992</v>
       </c>
       <c r="J101" s="9">
         <v>1</v>
@@ -8178,11 +8178,11 @@
       </c>
       <c r="H102" s="21">
         <f>M2*G102</f>
-        <v>89189.31</v>
+        <v>89232.15</v>
       </c>
       <c r="I102" s="21">
         <f t="shared" si="1"/>
-        <v>89189.31</v>
+        <v>89232.15</v>
       </c>
       <c r="J102" s="9">
         <v>1</v>
@@ -8462,11 +8462,11 @@
       </c>
       <c r="H110" s="21">
         <f>M$2*G110</f>
-        <v>470864.59419999999</v>
+        <v>471090.76299999998</v>
       </c>
       <c r="I110" s="21">
         <f t="shared" si="1"/>
-        <v>941729.18839999998</v>
+        <v>942181.52599999995</v>
       </c>
       <c r="J110" s="38">
         <v>2</v>
@@ -8498,11 +8498,11 @@
       </c>
       <c r="H111" s="21">
         <f>M$2*G111</f>
-        <v>849422</v>
+        <v>849830</v>
       </c>
       <c r="I111" s="21">
         <f t="shared" si="1"/>
-        <v>849422</v>
+        <v>849830</v>
       </c>
       <c r="J111" s="31">
         <v>1</v>
@@ -8534,11 +8534,11 @@
       </c>
       <c r="H112" s="21">
         <f>M2*G112</f>
-        <v>55462.26</v>
+        <v>55488.899999999994</v>
       </c>
       <c r="I112" s="21">
         <f t="shared" si="1"/>
-        <v>166386.78</v>
+        <v>166466.69999999998</v>
       </c>
       <c r="J112" s="34">
         <v>3</v>
@@ -8575,11 +8575,11 @@
       </c>
       <c r="H113" s="21">
         <f>M2*G113</f>
-        <v>70826.804999999993</v>
+        <v>70860.824999999997</v>
       </c>
       <c r="I113" s="21">
         <f t="shared" si="1"/>
-        <v>1629016.5149999999</v>
+        <v>1629798.9749999999</v>
       </c>
       <c r="J113" s="10">
         <v>23</v>
@@ -8616,11 +8616,11 @@
       </c>
       <c r="H114" s="21">
         <f>M2*G114</f>
-        <v>17488.099999999999</v>
+        <v>17496.5</v>
       </c>
       <c r="I114" s="21">
         <f t="shared" si="1"/>
-        <v>69952.399999999994</v>
+        <v>69986</v>
       </c>
       <c r="J114" s="9">
         <v>4</v>
@@ -8657,11 +8657,11 @@
       </c>
       <c r="H115" s="21">
         <f>M2*G115</f>
-        <v>17488.099999999999</v>
+        <v>17496.5</v>
       </c>
       <c r="I115" s="21">
         <f t="shared" si="1"/>
-        <v>34976.199999999997</v>
+        <v>34993</v>
       </c>
       <c r="J115" s="10">
         <v>2</v>
@@ -8698,11 +8698,11 @@
       </c>
       <c r="H116" s="21">
         <f>M2*G116</f>
-        <v>32149.523448</v>
+        <v>32164.965719999997</v>
       </c>
       <c r="I116" s="21">
         <f t="shared" si="1"/>
-        <v>192897.14068800001</v>
+        <v>192989.79431999999</v>
       </c>
       <c r="J116" s="9">
         <v>6</v>
@@ -8739,11 +8739,11 @@
       </c>
       <c r="H117" s="21">
         <f>M2*G117</f>
-        <v>28480.62</v>
+        <v>28494.3</v>
       </c>
       <c r="I117" s="21">
         <f t="shared" si="1"/>
-        <v>56961.24</v>
+        <v>56988.6</v>
       </c>
       <c r="J117" s="9">
         <v>2</v>
@@ -8780,11 +8780,11 @@
       </c>
       <c r="H118" s="21">
         <f>M2*G118</f>
-        <v>3151.3556200000003</v>
+        <v>3152.8692999999998</v>
       </c>
       <c r="I118" s="21">
         <f t="shared" si="1"/>
-        <v>40967.623060000005</v>
+        <v>40987.300899999995</v>
       </c>
       <c r="J118" s="9">
         <v>13</v>
@@ -8821,11 +8821,11 @@
       </c>
       <c r="H119" s="21">
         <f>M$2*G119</f>
-        <v>90831.942249999993</v>
+        <v>90875.571249999994</v>
       </c>
       <c r="I119" s="21">
         <f t="shared" si="1"/>
-        <v>90831.942249999993</v>
+        <v>90875.571249999994</v>
       </c>
       <c r="J119" s="9">
         <v>1</v>
@@ -8859,11 +8859,11 @@
       </c>
       <c r="H120" s="21">
         <f>M$2*G120</f>
-        <v>74949</v>
+        <v>74985</v>
       </c>
       <c r="I120" s="21">
         <f t="shared" si="1"/>
-        <v>74949</v>
+        <v>74985</v>
       </c>
       <c r="J120" s="9">
         <v>1</v>
@@ -8891,11 +8891,11 @@
       </c>
       <c r="H121" s="21">
         <f>M2*G121</f>
-        <v>5636.3646639999997</v>
+        <v>5639.0719599999993</v>
       </c>
       <c r="I121" s="21">
         <f t="shared" si="1"/>
-        <v>11272.729327999999</v>
+        <v>11278.143919999999</v>
       </c>
       <c r="J121" s="9">
         <v>2</v>
@@ -8926,11 +8926,11 @@
       </c>
       <c r="H122" s="21">
         <f>M2*G122</f>
-        <v>334147.625</v>
+        <v>334308.125</v>
       </c>
       <c r="I122" s="21">
         <f t="shared" si="1"/>
-        <v>668295.25</v>
+        <v>668616.25</v>
       </c>
       <c r="J122" s="9">
         <v>2</v>
@@ -8965,11 +8965,11 @@
       </c>
       <c r="H123" s="21">
         <f>M2*G123</f>
-        <v>475503.73743600002</v>
+        <v>475732.13454</v>
       </c>
       <c r="I123" s="21">
         <f t="shared" si="1"/>
-        <v>475503.73743600002</v>
+        <v>475732.13454</v>
       </c>
       <c r="J123" s="9">
         <v>1</v>
@@ -9039,11 +9039,11 @@
       </c>
       <c r="H125" s="21">
         <f>M2*G125</f>
-        <v>171568.2542</v>
+        <v>171650.663</v>
       </c>
       <c r="I125" s="21">
         <f t="shared" si="1"/>
-        <v>171568.2542</v>
+        <v>171650.663</v>
       </c>
       <c r="J125" s="9">
         <v>1</v>
@@ -9078,11 +9078,11 @@
       </c>
       <c r="H126" s="21">
         <f>M2*G126</f>
-        <v>4841.7053999999998</v>
+        <v>4844.0309999999999</v>
       </c>
       <c r="I126" s="21">
         <f t="shared" si="1"/>
-        <v>9683.4107999999997</v>
+        <v>9688.0619999999999</v>
       </c>
       <c r="J126" s="9">
         <v>2</v>
@@ -9153,11 +9153,11 @@
       </c>
       <c r="H128" s="21">
         <f>M2*G128</f>
-        <v>16373.858200000001</v>
+        <v>16381.722999999998</v>
       </c>
       <c r="I128" s="21">
         <f t="shared" si="1"/>
-        <v>16373.858200000001</v>
+        <v>16381.722999999998</v>
       </c>
       <c r="J128" s="9">
         <v>1</v>
@@ -9194,11 +9194,11 @@
       </c>
       <c r="H129" s="21">
         <f>M2*G129</f>
-        <v>39266.030930000001</v>
+        <v>39284.891449999996</v>
       </c>
       <c r="I129" s="21">
         <f t="shared" si="1"/>
-        <v>117798.09279</v>
+        <v>117854.67434999999</v>
       </c>
       <c r="J129" s="15">
         <v>3</v>
@@ -9266,11 +9266,11 @@
       </c>
       <c r="H131" s="21">
         <f>M2*G131</f>
-        <v>999320</v>
+        <v>999799.99999999988</v>
       </c>
       <c r="I131" s="21">
         <f t="shared" ref="I131:I194" si="2">H131*J131</f>
-        <v>999320</v>
+        <v>999799.99999999988</v>
       </c>
       <c r="J131" s="47">
         <v>1</v>
@@ -9301,11 +9301,11 @@
       </c>
       <c r="H132" s="21">
         <f>M2*G132</f>
-        <v>3822.0492379999996</v>
+        <v>3823.8850699999994</v>
       </c>
       <c r="I132" s="21">
         <f t="shared" si="2"/>
-        <v>15288.196951999998</v>
+        <v>15295.540279999997</v>
       </c>
       <c r="J132" s="27">
         <v>4</v>
@@ -9336,11 +9336,11 @@
       </c>
       <c r="H133" s="21">
         <f>M2*G133</f>
-        <v>233.44115199999999</v>
+        <v>233.55327999999997</v>
       </c>
       <c r="I133" s="21">
         <f t="shared" si="2"/>
-        <v>466.88230399999998</v>
+        <v>467.10655999999994</v>
       </c>
       <c r="J133" s="9">
         <v>2</v>
@@ -9371,11 +9371,11 @@
       </c>
       <c r="H134" s="21">
         <f>M2*G134</f>
-        <v>125444.089974</v>
+        <v>125504.34410999999</v>
       </c>
       <c r="I134" s="21">
         <f t="shared" si="2"/>
-        <v>376332.26992200001</v>
+        <v>376513.03232999996</v>
       </c>
       <c r="J134" s="9">
         <v>3</v>
@@ -9406,11 +9406,11 @@
       </c>
       <c r="H135" s="21">
         <f>M2*G135</f>
-        <v>2638.2048</v>
+        <v>2639.4719999999998</v>
       </c>
       <c r="I135" s="21">
         <f t="shared" si="2"/>
-        <v>5276.4096</v>
+        <v>5278.9439999999995</v>
       </c>
       <c r="J135" s="9">
         <v>2</v>
@@ -9447,11 +9447,11 @@
       </c>
       <c r="H136" s="21">
         <f>M2*G136</f>
-        <v>114142.33039999999</v>
+        <v>114197.15599999999</v>
       </c>
       <c r="I136" s="21">
         <f t="shared" si="2"/>
-        <v>570711.652</v>
+        <v>570985.77999999991</v>
       </c>
       <c r="J136" s="9">
         <v>5</v>
@@ -9488,11 +9488,11 @@
       </c>
       <c r="H137" s="21">
         <f>M2*G137</f>
-        <v>172162.84959999999</v>
+        <v>172245.54399999999</v>
       </c>
       <c r="I137" s="21">
         <f t="shared" si="2"/>
-        <v>172162.84959999999</v>
+        <v>172245.54399999999</v>
       </c>
       <c r="J137" s="15">
         <v>1</v>
@@ -9529,11 +9529,11 @@
       </c>
       <c r="H138" s="21">
         <f>M2*G138</f>
-        <v>1503312.0522</v>
+        <v>1504034.1329999999</v>
       </c>
       <c r="I138" s="21">
         <f t="shared" si="2"/>
-        <v>1503312.0522</v>
+        <v>1504034.1329999999</v>
       </c>
       <c r="J138" s="58">
         <v>1</v>
@@ -9568,11 +9568,11 @@
       </c>
       <c r="H139" s="21">
         <f>M2*G139</f>
-        <v>403034.25021999999</v>
+        <v>403227.83829999994</v>
       </c>
       <c r="I139" s="21">
         <f t="shared" si="2"/>
-        <v>806068.50043999997</v>
+        <v>806455.67659999989</v>
       </c>
       <c r="J139" s="27">
         <v>2</v>
@@ -9603,11 +9603,11 @@
       </c>
       <c r="H140" s="21">
         <f>M2*G140</f>
-        <v>9183.7507999999998</v>
+        <v>9188.1620000000003</v>
       </c>
       <c r="I140" s="21">
         <f t="shared" si="2"/>
-        <v>18367.5016</v>
+        <v>18376.324000000001</v>
       </c>
       <c r="J140" s="9">
         <v>2</v>
@@ -9638,11 +9638,11 @@
       </c>
       <c r="H141" s="21">
         <f>M2*G141</f>
-        <v>26257.132999999998</v>
+        <v>26269.744999999999</v>
       </c>
       <c r="I141" s="21">
         <f t="shared" si="2"/>
-        <v>26257.132999999998</v>
+        <v>26269.744999999999</v>
       </c>
       <c r="J141" s="9">
         <v>1</v>
@@ -9673,11 +9673,11 @@
       </c>
       <c r="H142" s="21">
         <f>M2*G142</f>
-        <v>824.43899999999996</v>
+        <v>824.83499999999992</v>
       </c>
       <c r="I142" s="21">
         <f t="shared" si="2"/>
-        <v>2473.317</v>
+        <v>2474.5049999999997</v>
       </c>
       <c r="J142" s="9">
         <v>3</v>
@@ -9741,11 +9741,11 @@
       </c>
       <c r="H144" s="21">
         <f>M2*G144</f>
-        <v>2648.1979999999999</v>
+        <v>2649.47</v>
       </c>
       <c r="I144" s="21">
         <f t="shared" si="2"/>
-        <v>2648.1979999999999</v>
+        <v>2649.47</v>
       </c>
       <c r="J144" s="9">
         <v>1</v>
@@ -9776,11 +9776,11 @@
       </c>
       <c r="H145" s="21">
         <f>M2*G145</f>
-        <v>205859.91999999998</v>
+        <v>205958.8</v>
       </c>
       <c r="I145" s="21">
         <f t="shared" si="2"/>
-        <v>205859.91999999998</v>
+        <v>205958.8</v>
       </c>
       <c r="J145" s="9">
         <v>1</v>
@@ -9817,11 +9817,11 @@
       </c>
       <c r="H146" s="21">
         <f>M$2*G146</f>
-        <v>419714.39999999997</v>
+        <v>419916</v>
       </c>
       <c r="I146" s="21">
         <f t="shared" si="2"/>
-        <v>419714.39999999997</v>
+        <v>419916</v>
       </c>
       <c r="J146" s="9">
         <v>1</v>
@@ -9853,11 +9853,11 @@
       </c>
       <c r="H147" s="21">
         <f>M$2*G147</f>
-        <v>419714.39999999997</v>
+        <v>419916</v>
       </c>
       <c r="I147" s="21">
         <f t="shared" si="2"/>
-        <v>419714.39999999997</v>
+        <v>419916</v>
       </c>
       <c r="J147" s="9">
         <v>1</v>
@@ -9889,11 +9889,11 @@
       </c>
       <c r="H148" s="21">
         <f>M$2*G148</f>
-        <v>419714.39999999997</v>
+        <v>419916</v>
       </c>
       <c r="I148" s="21">
         <f t="shared" si="2"/>
-        <v>419714.39999999997</v>
+        <v>419916</v>
       </c>
       <c r="J148" s="9">
         <v>1</v>
@@ -9924,11 +9924,11 @@
       </c>
       <c r="H149" s="21">
         <f>M2*G149</f>
-        <v>12441.534</v>
+        <v>12447.509999999998</v>
       </c>
       <c r="I149" s="21">
         <f t="shared" si="2"/>
-        <v>24883.067999999999</v>
+        <v>24895.019999999997</v>
       </c>
       <c r="J149" s="9">
         <v>2</v>
@@ -9965,11 +9965,11 @@
       </c>
       <c r="H150" s="21">
         <f>M2*G150</f>
-        <v>276012.18400000001</v>
+        <v>276144.76</v>
       </c>
       <c r="I150" s="21">
         <f t="shared" si="2"/>
-        <v>1104048.736</v>
+        <v>1104579.04</v>
       </c>
       <c r="J150" s="10">
         <v>4</v>
@@ -10004,11 +10004,11 @@
       </c>
       <c r="H151" s="21">
         <f>M2*G151</f>
-        <v>63731.633000000002</v>
+        <v>63762.244999999995</v>
       </c>
       <c r="I151" s="21">
         <f t="shared" si="2"/>
-        <v>382389.79800000001</v>
+        <v>382573.47</v>
       </c>
       <c r="J151" s="9">
         <v>6</v>
@@ -10045,11 +10045,11 @@
       </c>
       <c r="H152" s="21">
         <f>M2*G152</f>
-        <v>28630.518</v>
+        <v>28644.269999999997</v>
       </c>
       <c r="I152" s="21">
         <f t="shared" si="2"/>
-        <v>200413.62599999999</v>
+        <v>200509.88999999998</v>
       </c>
       <c r="J152" s="10">
         <v>7</v>
@@ -10086,11 +10086,11 @@
       </c>
       <c r="H153" s="21">
         <f>M2*G153</f>
-        <v>37499.483</v>
+        <v>37517.494999999995</v>
       </c>
       <c r="I153" s="21">
         <f t="shared" si="2"/>
-        <v>112498.44899999999</v>
+        <v>112552.48499999999</v>
       </c>
       <c r="J153" s="9">
         <v>3</v>
@@ -10125,11 +10125,11 @@
       </c>
       <c r="H154" s="21">
         <f>M2*G154</f>
-        <v>20486.060000000001</v>
+        <v>20495.899999999998</v>
       </c>
       <c r="I154" s="21">
         <f t="shared" si="2"/>
-        <v>40972.120000000003</v>
+        <v>40991.799999999996</v>
       </c>
       <c r="J154" s="9">
         <v>2</v>
@@ -10166,11 +10166,11 @@
       </c>
       <c r="H155" s="21">
         <f>M2*G155</f>
-        <v>30404.310999999998</v>
+        <v>30418.914999999997</v>
       </c>
       <c r="I155" s="21">
         <f t="shared" si="2"/>
-        <v>243234.48799999998</v>
+        <v>243351.31999999998</v>
       </c>
       <c r="J155" s="9">
         <v>8</v>
@@ -10207,11 +10207,11 @@
       </c>
       <c r="H156" s="21">
         <f>M2*G156</f>
-        <v>31403.631000000001</v>
+        <v>31418.714999999997</v>
       </c>
       <c r="I156" s="21">
         <f t="shared" si="2"/>
-        <v>62807.262000000002</v>
+        <v>62837.429999999993</v>
       </c>
       <c r="J156" s="9">
         <v>2</v>
@@ -10242,11 +10242,11 @@
       </c>
       <c r="H157" s="21">
         <f>M2*G157</f>
-        <v>8943.9140000000007</v>
+        <v>8948.2099999999991</v>
       </c>
       <c r="I157" s="21">
         <f t="shared" si="2"/>
-        <v>17887.828000000001</v>
+        <v>17896.419999999998</v>
       </c>
       <c r="J157" s="9">
         <v>2</v>
@@ -10277,11 +10277,11 @@
       </c>
       <c r="H158" s="21">
         <f>M2*G158</f>
-        <v>20336.162</v>
+        <v>20345.93</v>
       </c>
       <c r="I158" s="21">
         <f t="shared" si="2"/>
-        <v>40672.324000000001</v>
+        <v>40691.86</v>
       </c>
       <c r="J158" s="9">
         <v>2</v>
@@ -10351,11 +10351,11 @@
       </c>
       <c r="H160" s="21">
         <f>M2*G160</f>
-        <v>26731.81</v>
+        <v>26744.649999999998</v>
       </c>
       <c r="I160" s="21">
         <f t="shared" si="2"/>
-        <v>320781.72000000003</v>
+        <v>320935.8</v>
       </c>
       <c r="J160" s="10">
         <v>12</v>
@@ -10392,11 +10392,11 @@
       </c>
       <c r="H161" s="21">
         <f>M2*G161</f>
-        <v>12788.098176000001</v>
+        <v>12794.24064</v>
       </c>
       <c r="I161" s="21">
         <f t="shared" si="2"/>
-        <v>166245.27628800002</v>
+        <v>166325.12831999999</v>
       </c>
       <c r="J161" s="10">
         <v>13</v>
@@ -10427,11 +10427,11 @@
       </c>
       <c r="H162" s="21">
         <f>M2*G162</f>
-        <v>1698.8440000000001</v>
+        <v>1699.6599999999999</v>
       </c>
       <c r="I162" s="21">
         <f t="shared" si="2"/>
-        <v>3397.6880000000001</v>
+        <v>3399.3199999999997</v>
       </c>
       <c r="J162" s="9">
         <v>2</v>
@@ -10462,11 +10462,11 @@
       </c>
       <c r="H163" s="21">
         <f>M2*G163</f>
-        <v>13970.693464</v>
+        <v>13977.40396</v>
       </c>
       <c r="I163" s="21">
         <f t="shared" si="2"/>
-        <v>69853.467319999996</v>
+        <v>69887.019799999995</v>
       </c>
       <c r="J163" s="9">
         <v>5</v>
@@ -10503,11 +10503,11 @@
       </c>
       <c r="H164" s="21">
         <f>M2*G164</f>
-        <v>18262.573</v>
+        <v>18271.344999999998</v>
       </c>
       <c r="I164" s="21">
         <f t="shared" si="2"/>
-        <v>73050.292000000001</v>
+        <v>73085.37999999999</v>
       </c>
       <c r="J164" s="9">
         <v>4</v>
@@ -10544,11 +10544,11 @@
       </c>
       <c r="H165" s="21">
         <f>M2*G165</f>
-        <v>22503.087488000001</v>
+        <v>22513.89632</v>
       </c>
       <c r="I165" s="21">
         <f t="shared" si="2"/>
-        <v>157521.61241600002</v>
+        <v>157597.27424</v>
       </c>
       <c r="J165" s="9">
         <v>7</v>
@@ -10585,11 +10585,11 @@
       </c>
       <c r="H166" s="21">
         <f>M2*G166</f>
-        <v>4072.2289999999998</v>
+        <v>4074.1849999999999</v>
       </c>
       <c r="I166" s="21">
         <f t="shared" si="2"/>
-        <v>97733.495999999999</v>
+        <v>97780.44</v>
       </c>
       <c r="J166" s="9">
         <v>24</v>
@@ -10620,11 +10620,11 @@
       </c>
       <c r="H167" s="21">
         <f>M2*G167</f>
-        <v>14945.929851999999</v>
+        <v>14953.108779999999</v>
       </c>
       <c r="I167" s="21">
         <f t="shared" si="2"/>
-        <v>29891.859703999999</v>
+        <v>29906.217559999997</v>
       </c>
       <c r="J167" s="9">
         <v>2</v>
@@ -10655,11 +10655,11 @@
       </c>
       <c r="H168" s="21">
         <f>M2*G168</f>
-        <v>12091.771999999999</v>
+        <v>12097.58</v>
       </c>
       <c r="I168" s="21">
         <f t="shared" si="2"/>
-        <v>48367.087999999996</v>
+        <v>48390.32</v>
       </c>
       <c r="J168" s="9">
         <v>4</v>
@@ -10690,11 +10690,11 @@
       </c>
       <c r="H169" s="21">
         <f>M2*G169</f>
-        <v>18637.317999999999</v>
+        <v>18646.27</v>
       </c>
       <c r="I169" s="21">
         <f t="shared" si="2"/>
-        <v>37274.635999999999</v>
+        <v>37292.54</v>
       </c>
       <c r="J169" s="9">
         <v>2</v>
@@ -10725,11 +10725,11 @@
       </c>
       <c r="H170" s="21">
         <f>M2*G170</f>
-        <v>36924.873999999996</v>
+        <v>36942.61</v>
       </c>
       <c r="I170" s="21">
         <f t="shared" si="2"/>
-        <v>258474.11799999996</v>
+        <v>258598.27000000002</v>
       </c>
       <c r="J170" s="9">
         <v>7</v>
@@ -10830,11 +10830,11 @@
       </c>
       <c r="H173" s="21">
         <f>M2*G173</f>
-        <v>37499.483</v>
+        <v>37517.494999999995</v>
       </c>
       <c r="I173" s="21">
         <f t="shared" si="2"/>
-        <v>112498.44899999999</v>
+        <v>112552.48499999999</v>
       </c>
       <c r="J173" s="9">
         <v>3</v>
@@ -10865,11 +10865,11 @@
       </c>
       <c r="H174" s="21">
         <f>M2*G174</f>
-        <v>47592.614999999998</v>
+        <v>47615.474999999999</v>
       </c>
       <c r="I174" s="21">
         <f t="shared" si="2"/>
-        <v>47592.614999999998</v>
+        <v>47615.474999999999</v>
       </c>
       <c r="J174" s="9">
         <v>1</v>
@@ -10906,11 +10906,11 @@
       </c>
       <c r="H175" s="21">
         <f>M2*G175</f>
-        <v>196876.03320000001</v>
+        <v>196970.598</v>
       </c>
       <c r="I175" s="21">
         <f t="shared" si="2"/>
-        <v>196876.03320000001</v>
+        <v>196970.598</v>
       </c>
       <c r="J175" s="9">
         <v>1</v>
@@ -10947,11 +10947,11 @@
       </c>
       <c r="H176" s="21">
         <f>M2*G176</f>
-        <v>241085.94999999998</v>
+        <v>241201.74999999997</v>
       </c>
       <c r="I176" s="21">
         <f t="shared" si="2"/>
-        <v>241085.94999999998</v>
+        <v>241201.74999999997</v>
       </c>
       <c r="J176" s="47">
         <v>1</v>
@@ -11067,11 +11067,11 @@
       </c>
       <c r="H180" s="21">
         <f>M2*G180</f>
-        <v>152671.11300000001</v>
+        <v>152744.44499999998</v>
       </c>
       <c r="I180" s="21">
         <f t="shared" si="2"/>
-        <v>458013.33900000004</v>
+        <v>458233.33499999996</v>
       </c>
       <c r="J180" s="44">
         <v>3</v>
@@ -11102,11 +11102,11 @@
       </c>
       <c r="H181" s="21">
         <f>M2*G181</f>
-        <v>3797.4160000000002</v>
+        <v>3799.24</v>
       </c>
       <c r="I181" s="21">
         <f t="shared" si="2"/>
-        <v>11392.248</v>
+        <v>11397.72</v>
       </c>
       <c r="J181" s="27">
         <v>3</v>
@@ -11139,11 +11139,11 @@
       </c>
       <c r="H182" s="21">
         <f>M2*G182</f>
-        <v>6370.665</v>
+        <v>6373.7249999999995</v>
       </c>
       <c r="I182" s="21">
         <f t="shared" si="2"/>
-        <v>82818.645000000004</v>
+        <v>82858.424999999988</v>
       </c>
       <c r="J182" s="9">
         <v>13</v>
@@ -11207,11 +11207,11 @@
       </c>
       <c r="H184" s="21">
         <f>M2*G184</f>
-        <v>32477.899999999998</v>
+        <v>32493.499999999996</v>
       </c>
       <c r="I184" s="21">
         <f t="shared" si="2"/>
-        <v>97433.7</v>
+        <v>97480.499999999985</v>
       </c>
       <c r="J184" s="9">
         <v>3</v>
@@ -11248,11 +11248,11 @@
       </c>
       <c r="H185" s="21">
         <f>M2*G185</f>
-        <v>404724.6</v>
+        <v>404919</v>
       </c>
       <c r="I185" s="21">
         <f t="shared" si="2"/>
-        <v>404724.6</v>
+        <v>404919</v>
       </c>
       <c r="J185" s="15">
         <v>1</v>
@@ -11289,11 +11289,11 @@
       </c>
       <c r="H186" s="21">
         <f>M2*G186</f>
-        <v>351563.67402799998</v>
+        <v>351732.53941999999</v>
       </c>
       <c r="I186" s="21">
         <f t="shared" si="2"/>
-        <v>351563.67402799998</v>
+        <v>351732.53941999999</v>
       </c>
       <c r="J186" s="51">
         <v>1</v>
@@ -11384,11 +11384,11 @@
       </c>
       <c r="H189" s="21">
         <f>M2*G189</f>
-        <v>338949.35759999999</v>
+        <v>339112.16399999999</v>
       </c>
       <c r="I189" s="21">
         <f t="shared" si="2"/>
-        <v>338949.35759999999</v>
+        <v>339112.16399999999</v>
       </c>
       <c r="J189" s="27">
         <v>1</v>
@@ -11425,11 +11425,11 @@
       </c>
       <c r="H190" s="21">
         <f>M2*G190</f>
-        <v>260572.69</v>
+        <v>260697.84999999998</v>
       </c>
       <c r="I190" s="21">
         <f t="shared" si="2"/>
-        <v>260572.69</v>
+        <v>260697.84999999998</v>
       </c>
       <c r="J190" s="9">
         <v>1</v>
@@ -11460,11 +11460,11 @@
       </c>
       <c r="H191" s="21">
         <f>M2*G191</f>
-        <v>5071.549</v>
+        <v>5073.9849999999997</v>
       </c>
       <c r="I191" s="21">
         <f t="shared" si="2"/>
-        <v>10143.098</v>
+        <v>10147.969999999999</v>
       </c>
       <c r="J191" s="9">
         <v>2</v>
@@ -11495,11 +11495,11 @@
       </c>
       <c r="H192" s="21">
         <f>M2*G192</f>
-        <v>5071.549</v>
+        <v>5073.9849999999997</v>
       </c>
       <c r="I192" s="21">
         <f t="shared" si="2"/>
-        <v>15214.647000000001</v>
+        <v>15221.954999999998</v>
       </c>
       <c r="J192" s="9">
         <v>3</v>
@@ -11536,11 +11536,11 @@
       </c>
       <c r="H193" s="21">
         <f>M2*G193</f>
-        <v>20486.060000000001</v>
+        <v>20495.899999999998</v>
       </c>
       <c r="I193" s="21">
         <f t="shared" si="2"/>
-        <v>61458.180000000008</v>
+        <v>61487.7</v>
       </c>
       <c r="J193" s="9">
         <v>3</v>
@@ -11577,11 +11577,11 @@
       </c>
       <c r="H194" s="21">
         <f>M2*G194</f>
-        <v>9433.5807999999997</v>
+        <v>9438.1119999999992</v>
       </c>
       <c r="I194" s="21">
         <f t="shared" si="2"/>
-        <v>28300.742399999999</v>
+        <v>28314.335999999996</v>
       </c>
       <c r="J194" s="10">
         <v>3</v>
@@ -11656,11 +11656,11 @@
       </c>
       <c r="H196" s="21">
         <f>M2*G196</f>
-        <v>920.47365200000002</v>
+        <v>920.91577999999993</v>
       </c>
       <c r="I196" s="21">
         <f t="shared" si="3"/>
-        <v>1840.947304</v>
+        <v>1841.8315599999999</v>
       </c>
       <c r="J196" s="9">
         <v>2</v>
@@ -11693,11 +11693,11 @@
       </c>
       <c r="H197" s="21">
         <f>M2*G197</f>
-        <v>30479.26</v>
+        <v>30493.899999999998</v>
       </c>
       <c r="I197" s="21">
         <f t="shared" si="3"/>
-        <v>152396.29999999999</v>
+        <v>152469.5</v>
       </c>
       <c r="J197" s="9">
         <v>5</v>
@@ -11728,11 +11728,11 @@
       </c>
       <c r="H198" s="21">
         <f>M2*G198</f>
-        <v>49341.425000000003</v>
+        <v>49365.125</v>
       </c>
       <c r="I198" s="21">
         <f t="shared" si="3"/>
-        <v>148024.27500000002</v>
+        <v>148095.375</v>
       </c>
       <c r="J198" s="9">
         <v>3</v>
@@ -11765,11 +11765,11 @@
       </c>
       <c r="H199" s="21">
         <f>M2*G199</f>
-        <v>138755.33217000001</v>
+        <v>138821.98004999998</v>
       </c>
       <c r="I199" s="21">
         <f t="shared" si="3"/>
-        <v>138755.33217000001</v>
+        <v>138821.98004999998</v>
       </c>
       <c r="J199" s="9">
         <v>1</v>
@@ -11802,11 +11802,11 @@
       </c>
       <c r="H200" s="21">
         <f>M2*G200</f>
-        <v>174881</v>
+        <v>174965</v>
       </c>
       <c r="I200" s="21">
         <f t="shared" si="3"/>
-        <v>174881</v>
+        <v>174965</v>
       </c>
       <c r="J200" s="9">
         <v>1</v>
@@ -11837,11 +11837,11 @@
       </c>
       <c r="H201" s="21">
         <f>M2*G201</f>
-        <v>85954.061465999985</v>
+        <v>85995.347489999986</v>
       </c>
       <c r="I201" s="21">
         <f t="shared" si="3"/>
-        <v>257862.18439799995</v>
+        <v>257986.04246999996</v>
       </c>
       <c r="J201" s="9">
         <v>3</v>
@@ -11874,11 +11874,11 @@
       </c>
       <c r="H202" s="21">
         <f>M2*G202</f>
-        <v>124915</v>
+        <v>124974.99999999999</v>
       </c>
       <c r="I202" s="21">
         <f t="shared" si="3"/>
-        <v>624575</v>
+        <v>624874.99999999988</v>
       </c>
       <c r="J202" s="9">
         <v>5</v>
@@ -11909,11 +11909,11 @@
       </c>
       <c r="H203" s="21">
         <f>M2*G203</f>
-        <v>5399.0761299999995</v>
+        <v>5401.6694499999994</v>
       </c>
       <c r="I203" s="21">
         <f t="shared" si="3"/>
-        <v>37793.532909999994</v>
+        <v>37811.686149999994</v>
       </c>
       <c r="J203" s="9">
         <v>7</v>
@@ -11946,11 +11946,11 @@
       </c>
       <c r="H204" s="21">
         <f>M$2*G204</f>
-        <v>640.81394999999998</v>
+        <v>641.12174999999991</v>
       </c>
       <c r="I204" s="21">
         <f t="shared" si="3"/>
-        <v>12816.278999999999</v>
+        <v>12822.434999999998</v>
       </c>
       <c r="J204" s="9">
         <v>20</v>
@@ -11983,11 +11983,11 @@
       </c>
       <c r="H205" s="21">
         <f>M2*G205</f>
-        <v>624.57500000000005</v>
+        <v>624.875</v>
       </c>
       <c r="I205" s="21">
         <f t="shared" si="3"/>
-        <v>24358.425000000003</v>
+        <v>24370.125</v>
       </c>
       <c r="J205" s="9">
         <v>39</v>
@@ -12635,11 +12635,11 @@
       </c>
       <c r="H224" s="21">
         <f>G224*M$2</f>
-        <v>70092.304799999998</v>
+        <v>70125.971999999994</v>
       </c>
       <c r="I224" s="21">
         <f t="shared" si="3"/>
-        <v>70092.304799999998</v>
+        <v>70125.971999999994</v>
       </c>
       <c r="J224" s="15">
         <v>1</v>
@@ -13515,12 +13515,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13656,15 +13653,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A39A6148-E43A-4965-9F4A-36C6D678ED00}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A72F3A-2E1B-4504-BDC9-0E7BD16E0A51}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13688,10 +13689,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A72F3A-2E1B-4504-BDC9-0E7BD16E0A51}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A39A6148-E43A-4965-9F4A-36C6D678ED00}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/PrecificarEquipamentos_Duda.xlsx
+++ b/PrecificarEquipamentos_Duda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://oceanpact-my.sharepoint.com/personal/william_silva_oceanpact_com/Documents/Documentos/GitHub/Inventario_PowerBI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{08B2B931-0A51-492F-A6BB-AF55FDA98408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C5C6070-9C3A-4321-862A-B19AD5478358}"/>
+  <xr:revisionPtr revIDLastSave="2550" documentId="8_{72529B7D-A18F-4E0A-9CAE-0F418ECF5B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F291A892-8BC3-41F5-A57B-FD138E5AFBA4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="630">
   <si>
     <t>FIRME?</t>
   </si>
@@ -1734,6 +1734,9 @@
     <t>Sensores de bancada</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Hanna</t>
   </si>
   <si>
@@ -1780,6 +1783,9 @@
   </si>
   <si>
     <t>DROP CÂMERA</t>
+  </si>
+  <si>
+    <t>DTS6000</t>
   </si>
   <si>
     <t>SEATRONICS</t>
@@ -2098,7 +2104,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2223,6 +2229,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFA6A6A6"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2703,7 +2715,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2893,23 +2905,8 @@
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2921,6 +2918,15 @@
     <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3591,20 +3597,20 @@
     <v>5</v>
     <v>5.5297000000000001</v>
     <v>4.6896000000000004</v>
-    <v>5.0035999999999996</v>
-    <v>4.9865000000000004</v>
+    <v>5.0151000000000003</v>
+    <v>4.9741</v>
     <v>USD</v>
     <v>4.9939</v>
-    <v>45075.528981481482</v>
+    <v>45075.767384259256</v>
     <v>BRL</v>
     <v>US Dollar/Brazilian Real FX Spot Rate</v>
     <v>4.9939</v>
-    <v>4.9989999999999997</v>
+    <v>5.0037000000000003</v>
     <v>USDBRL</v>
     <v>Par de Moedas</v>
     <v>USD/BRL</v>
-    <v>5.1000000000000004E-3</v>
-    <v>1.021E-3</v>
+    <v>9.7999999999999997E-3</v>
+    <v>1.9620000000000002E-3</v>
   </rv>
   <rv s="1">
     <v>0</v>
@@ -3624,20 +3630,20 @@
     <v>5</v>
     <v>5.8277000000000001</v>
     <v>4.9504000000000001</v>
-    <v>5.3648999999999996</v>
-    <v>5.343</v>
+    <v>5.3722000000000003</v>
+    <v>5.3288000000000002</v>
     <v>EUR</v>
     <v>5.3555000000000001</v>
-    <v>45075.528981481482</v>
+    <v>45075.767384259256</v>
     <v>BRL</v>
     <v>Euro/Brazilian Real FX Cross Rate</v>
     <v>5.3555000000000001</v>
-    <v>5.3529</v>
+    <v>5.3594999999999997</v>
     <v>EURBRL</v>
     <v>Par de Moedas</v>
     <v>EUR/BRL</v>
-    <v>-2.5999999999999999E-3</v>
-    <v>-4.8550000000000004E-4</v>
+    <v>4.0000000000000001E-3</v>
+    <v>7.469000000000001E-4</v>
   </rv>
   <rv s="1">
     <v>2</v>
@@ -4202,8 +4208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N245"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -4251,7 +4257,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="K1" s="19" t="s">
         <v>9</v>
@@ -4282,11 +4288,11 @@
       </c>
       <c r="H2" s="21">
         <f>G2*M2</f>
-        <v>206808.62999999998</v>
+        <v>207003.06900000002</v>
       </c>
       <c r="I2" s="21">
         <f>H2*J2</f>
-        <v>413617.25999999995</v>
+        <v>414006.13800000004</v>
       </c>
       <c r="J2" s="10">
         <v>2</v>
@@ -4299,7 +4305,7 @@
       </c>
       <c r="M2" s="2" cm="1">
         <f t="array" ref="M2">_FV(L2,"Preço",TRUE)</f>
-        <v>4.9989999999999997</v>
+        <v>5.0037000000000003</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>17</v>
@@ -4329,11 +4335,11 @@
       </c>
       <c r="H3" s="21">
         <f>G3*M2</f>
-        <v>270020.38511999999</v>
+        <v>270274.25505600002</v>
       </c>
       <c r="I3" s="21">
         <f t="shared" ref="I3:I66" si="0">H3*J3</f>
-        <v>540040.77023999998</v>
+        <v>540548.51011200005</v>
       </c>
       <c r="J3" s="10">
         <v>2</v>
@@ -4370,16 +4376,16 @@
       </c>
       <c r="H4" s="21">
         <f>M$2*G4</f>
-        <v>792006.56699999992</v>
+        <v>792751.20209999999</v>
       </c>
       <c r="I4" s="21">
         <f t="shared" si="0"/>
-        <v>1584013.1339999998</v>
+        <v>1585502.4042</v>
       </c>
       <c r="J4" s="10">
         <v>2</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="67" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4408,11 +4414,11 @@
       </c>
       <c r="H5" s="21">
         <f>M2*G5</f>
-        <v>131353.72399999999</v>
+        <v>131477.2212</v>
       </c>
       <c r="I5" s="21">
         <f t="shared" si="0"/>
-        <v>1444890.9639999999</v>
+        <v>1446249.4332000001</v>
       </c>
       <c r="J5" s="10">
         <v>11</v>
@@ -4453,11 +4459,11 @@
       </c>
       <c r="H6" s="21">
         <f>M2*G6</f>
-        <v>156348.72399999999</v>
+        <v>156495.7212</v>
       </c>
       <c r="I6" s="21">
         <f t="shared" si="0"/>
-        <v>156348.72399999999</v>
+        <v>156495.7212</v>
       </c>
       <c r="J6" s="9">
         <v>1</v>
@@ -4494,11 +4500,11 @@
       </c>
       <c r="H7" s="21">
         <f>M2*G7</f>
-        <v>141351.72399999999</v>
+        <v>141484.62119999999</v>
       </c>
       <c r="I7" s="21">
         <f t="shared" si="0"/>
-        <v>989462.06799999997</v>
+        <v>990392.34840000002</v>
       </c>
       <c r="J7" s="9">
         <v>7</v>
@@ -4535,11 +4541,11 @@
       </c>
       <c r="H8" s="21">
         <f>M2*G8</f>
-        <v>270020.38511999999</v>
+        <v>270274.25505600002</v>
       </c>
       <c r="I8" s="21">
         <f t="shared" si="0"/>
-        <v>9990754.2494399995</v>
+        <v>10000147.437072001</v>
       </c>
       <c r="J8" s="10">
         <v>37</v>
@@ -4576,11 +4582,11 @@
       </c>
       <c r="H9" s="21">
         <f>M2*G9</f>
-        <v>184963</v>
+        <v>185136.90000000002</v>
       </c>
       <c r="I9" s="21">
         <f t="shared" si="0"/>
-        <v>554889</v>
+        <v>555410.70000000007</v>
       </c>
       <c r="J9" s="9">
         <v>3</v>
@@ -4617,11 +4623,11 @@
       </c>
       <c r="H10" s="21">
         <f>M2*G10</f>
-        <v>162050.13348999998</v>
+        <v>162202.491087</v>
       </c>
       <c r="I10" s="21">
         <f t="shared" si="0"/>
-        <v>324100.26697999996</v>
+        <v>324404.982174</v>
       </c>
       <c r="J10" s="9">
         <v>2</v>
@@ -4658,11 +4664,11 @@
       </c>
       <c r="H11" s="21">
         <f>M2*G11</f>
-        <v>384788.027</v>
+        <v>385149.80009999999</v>
       </c>
       <c r="I11" s="21">
         <f t="shared" si="0"/>
-        <v>1154364.081</v>
+        <v>1155449.4002999999</v>
       </c>
       <c r="J11" s="9">
         <v>3</v>
@@ -4699,11 +4705,11 @@
       </c>
       <c r="H12" s="21">
         <f>M2*G12</f>
-        <v>119975.99999999999</v>
+        <v>120088.8</v>
       </c>
       <c r="I12" s="21">
         <f t="shared" si="0"/>
-        <v>479903.99999999994</v>
+        <v>480355.2</v>
       </c>
       <c r="J12" s="9">
         <v>4</v>
@@ -4740,11 +4746,11 @@
       </c>
       <c r="H13" s="21">
         <f>M2*G13</f>
-        <v>169051.18299999999</v>
+        <v>169210.12290000002</v>
       </c>
       <c r="I13" s="21">
         <f t="shared" si="0"/>
-        <v>169051.18299999999</v>
+        <v>169210.12290000002</v>
       </c>
       <c r="J13" s="9">
         <v>1</v>
@@ -4752,11 +4758,11 @@
       <c r="K13" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="L13" s="81" t="s">
+      <c r="L13" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="79"/>
     </row>
     <row r="14" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
@@ -4782,11 +4788,11 @@
       </c>
       <c r="H14" s="21">
         <f>M2*G14</f>
-        <v>169051.18299999999</v>
+        <v>169210.12290000002</v>
       </c>
       <c r="I14" s="21">
         <f t="shared" si="0"/>
-        <v>169051.18299999999</v>
+        <v>169210.12290000002</v>
       </c>
       <c r="J14" s="9">
         <v>1</v>
@@ -4794,11 +4800,11 @@
       <c r="K14" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="L14" s="81" t="s">
+      <c r="L14" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="M14" s="81"/>
-      <c r="N14" s="81"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="79"/>
     </row>
     <row r="15" spans="1:14" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
@@ -4820,11 +4826,11 @@
       </c>
       <c r="H15" s="21">
         <f>M2*G15</f>
-        <v>1178.8141899999998</v>
+        <v>1179.922497</v>
       </c>
       <c r="I15" s="21">
         <f t="shared" si="0"/>
-        <v>4715.2567599999993</v>
+        <v>4719.6899880000001</v>
       </c>
       <c r="J15" s="9">
         <v>4</v>
@@ -4855,11 +4861,11 @@
       </c>
       <c r="H16" s="21">
         <f>M2*G16</f>
-        <v>34743.049999999996</v>
+        <v>34775.715000000004</v>
       </c>
       <c r="I16" s="21">
         <f t="shared" si="0"/>
-        <v>104229.15</v>
+        <v>104327.14500000002</v>
       </c>
       <c r="J16" s="9">
         <v>3</v>
@@ -4890,11 +4896,11 @@
       </c>
       <c r="H17" s="21">
         <f>M2*G17</f>
-        <v>25619.875</v>
+        <v>25643.962500000001</v>
       </c>
       <c r="I17" s="21">
         <f t="shared" si="0"/>
-        <v>102479.5</v>
+        <v>102575.85</v>
       </c>
       <c r="J17" s="9">
         <v>4</v>
@@ -4925,11 +4931,11 @@
       </c>
       <c r="H18" s="21">
         <f>M2*G18</f>
-        <v>34743.049999999996</v>
+        <v>34775.715000000004</v>
       </c>
       <c r="I18" s="21">
         <f t="shared" si="0"/>
-        <v>34743.049999999996</v>
+        <v>34775.715000000004</v>
       </c>
       <c r="J18" s="9">
         <v>1</v>
@@ -4966,11 +4972,11 @@
       </c>
       <c r="H19" s="21">
         <f>M2*G19</f>
-        <v>16002.748809999999</v>
+        <v>16017.794403000002</v>
       </c>
       <c r="I19" s="21">
         <f t="shared" si="0"/>
-        <v>16002.748809999999</v>
+        <v>16017.794403000002</v>
       </c>
       <c r="J19" s="9">
         <v>1</v>
@@ -5007,11 +5013,11 @@
       </c>
       <c r="H20" s="21">
         <f>M2*G20</f>
-        <v>16002.748809999999</v>
+        <v>16017.794403000002</v>
       </c>
       <c r="I20" s="21">
         <f t="shared" si="0"/>
-        <v>16002.748809999999</v>
+        <v>16017.794403000002</v>
       </c>
       <c r="J20" s="9">
         <v>1</v>
@@ -5048,11 +5054,11 @@
       </c>
       <c r="H21" s="21">
         <f>M2*G21</f>
-        <v>16002.748809999999</v>
+        <v>16017.794403000002</v>
       </c>
       <c r="I21" s="21">
         <f t="shared" si="0"/>
-        <v>256043.98095999999</v>
+        <v>256284.71044800003</v>
       </c>
       <c r="J21" s="10">
         <v>16</v>
@@ -5089,11 +5095,11 @@
       </c>
       <c r="H22" s="21">
         <f>M2*G22</f>
-        <v>2169.9659199999996</v>
+        <v>2172.0060960000001</v>
       </c>
       <c r="I22" s="21">
         <f t="shared" si="0"/>
-        <v>2169.9659199999996</v>
+        <v>2172.0060960000001</v>
       </c>
       <c r="J22" s="9">
         <v>1</v>
@@ -5130,11 +5136,11 @@
       </c>
       <c r="H23" s="21">
         <f>M2*G23</f>
-        <v>9998</v>
+        <v>10007.4</v>
       </c>
       <c r="I23" s="21">
         <f t="shared" si="0"/>
-        <v>29994</v>
+        <v>30022.199999999997</v>
       </c>
       <c r="J23" s="9">
         <v>3</v>
@@ -5171,11 +5177,11 @@
       </c>
       <c r="H24" s="21">
         <f>M2*G24</f>
-        <v>9998</v>
+        <v>10007.4</v>
       </c>
       <c r="I24" s="21">
         <f t="shared" si="0"/>
-        <v>49990</v>
+        <v>50037</v>
       </c>
       <c r="J24" s="9">
         <v>5</v>
@@ -5212,11 +5218,11 @@
       </c>
       <c r="H25" s="21">
         <f>M2*G25</f>
-        <v>9998</v>
+        <v>10007.4</v>
       </c>
       <c r="I25" s="21">
         <f t="shared" si="0"/>
-        <v>19996</v>
+        <v>20014.8</v>
       </c>
       <c r="J25" s="9">
         <v>2</v>
@@ -5253,11 +5259,11 @@
       </c>
       <c r="H26" s="21">
         <f>M2*G26</f>
-        <v>4894.0209999999997</v>
+        <v>4898.6223</v>
       </c>
       <c r="I26" s="21">
         <f t="shared" si="0"/>
-        <v>9788.0419999999995</v>
+        <v>9797.2446</v>
       </c>
       <c r="J26" s="9">
         <v>2</v>
@@ -5294,11 +5300,11 @@
       </c>
       <c r="H27" s="21">
         <f>M2*G27</f>
-        <v>76081.280699999988</v>
+        <v>76152.811409999995</v>
       </c>
       <c r="I27" s="21">
         <f t="shared" si="0"/>
-        <v>1597706.8946999998</v>
+        <v>1599209.0396099999</v>
       </c>
       <c r="J27" s="10">
         <v>21</v>
@@ -5335,11 +5341,11 @@
       </c>
       <c r="H28" s="21">
         <f>M2*G28</f>
-        <v>54988.999999999993</v>
+        <v>55040.700000000004</v>
       </c>
       <c r="I28" s="21">
         <f t="shared" si="0"/>
-        <v>164966.99999999997</v>
+        <v>165122.1</v>
       </c>
       <c r="J28" s="9">
         <v>3</v>
@@ -5347,11 +5353,11 @@
       <c r="K28" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="L28" s="81" t="s">
+      <c r="L28" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="M28" s="81"/>
-      <c r="N28" s="81"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79"/>
     </row>
     <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
@@ -5377,11 +5383,11 @@
       </c>
       <c r="H29" s="21">
         <f>M2*G29</f>
-        <v>54988.999999999993</v>
+        <v>55040.700000000004</v>
       </c>
       <c r="I29" s="21">
         <f t="shared" si="0"/>
-        <v>659867.99999999988</v>
+        <v>660488.4</v>
       </c>
       <c r="J29" s="10">
         <v>12</v>
@@ -5389,11 +5395,11 @@
       <c r="K29" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L29" s="81" t="s">
+      <c r="L29" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="M29" s="81"/>
-      <c r="N29" s="81"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
     </row>
     <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
@@ -5419,11 +5425,11 @@
       </c>
       <c r="H30" s="21">
         <f>M$2*G30</f>
-        <v>89982</v>
+        <v>90066.6</v>
       </c>
       <c r="I30" s="21">
         <f t="shared" si="0"/>
-        <v>89982</v>
+        <v>90066.6</v>
       </c>
       <c r="J30" s="9">
         <v>1</v>
@@ -5459,21 +5465,21 @@
       </c>
       <c r="H31" s="21">
         <f>M2*G31</f>
-        <v>24995</v>
+        <v>25018.5</v>
       </c>
       <c r="I31" s="21">
         <f t="shared" si="0"/>
-        <v>99980</v>
+        <v>100074</v>
       </c>
       <c r="J31" s="10">
         <v>4</v>
       </c>
       <c r="K31" s="62"/>
-      <c r="L31" s="81" t="s">
+      <c r="L31" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="M31" s="81"/>
-      <c r="N31" s="81"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="79"/>
     </row>
     <row r="32" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
@@ -5499,11 +5505,11 @@
       </c>
       <c r="H32" s="21">
         <f>M2*G32</f>
-        <v>3319.3359999999998</v>
+        <v>3322.4568000000004</v>
       </c>
       <c r="I32" s="21">
         <f t="shared" si="0"/>
-        <v>16596.68</v>
+        <v>16612.284000000003</v>
       </c>
       <c r="J32" s="9">
         <v>5</v>
@@ -5540,11 +5546,11 @@
       </c>
       <c r="H33" s="21">
         <f>M2*G33</f>
-        <v>3319.3359999999998</v>
+        <v>3322.4568000000004</v>
       </c>
       <c r="I33" s="21">
         <f t="shared" si="0"/>
-        <v>122815.43199999999</v>
+        <v>122930.90160000001</v>
       </c>
       <c r="J33" s="10">
         <v>37</v>
@@ -5581,11 +5587,11 @@
       </c>
       <c r="H34" s="21">
         <f>M2*G34</f>
-        <v>3319.3359999999998</v>
+        <v>3322.4568000000004</v>
       </c>
       <c r="I34" s="21">
         <f t="shared" si="0"/>
-        <v>9958.0079999999998</v>
+        <v>9967.3704000000016</v>
       </c>
       <c r="J34" s="9">
         <v>3</v>
@@ -5622,11 +5628,11 @@
       </c>
       <c r="H35" s="21">
         <f>M2*G35</f>
-        <v>3319.3359999999998</v>
+        <v>3322.4568000000004</v>
       </c>
       <c r="I35" s="21">
         <f t="shared" si="0"/>
-        <v>6638.6719999999996</v>
+        <v>6644.9136000000008</v>
       </c>
       <c r="J35" s="9">
         <v>2</v>
@@ -5663,11 +5669,11 @@
       </c>
       <c r="H36" s="21">
         <f>M2*G36</f>
-        <v>25254.947999999997</v>
+        <v>25278.6924</v>
       </c>
       <c r="I36" s="21">
         <f t="shared" si="0"/>
-        <v>25254.947999999997</v>
+        <v>25278.6924</v>
       </c>
       <c r="J36" s="9">
         <v>1</v>
@@ -5704,11 +5710,11 @@
       </c>
       <c r="H37" s="21">
         <f>M2*G37</f>
-        <v>62487.499999999993</v>
+        <v>62546.25</v>
       </c>
       <c r="I37" s="21">
         <f t="shared" si="0"/>
-        <v>312437.49999999994</v>
+        <v>312731.25</v>
       </c>
       <c r="J37" s="9">
         <v>5</v>
@@ -5745,11 +5751,11 @@
       </c>
       <c r="H38" s="21">
         <f>M2*G38</f>
-        <v>25254.947999999997</v>
+        <v>25278.6924</v>
       </c>
       <c r="I38" s="21">
         <f t="shared" si="0"/>
-        <v>454589.06399999995</v>
+        <v>455016.4632</v>
       </c>
       <c r="J38" s="9">
         <v>18</v>
@@ -5786,11 +5792,11 @@
       </c>
       <c r="H39" s="21">
         <f>M2*G39</f>
-        <v>25254.947999999997</v>
+        <v>25278.6924</v>
       </c>
       <c r="I39" s="21">
         <f t="shared" si="0"/>
-        <v>25254.947999999997</v>
+        <v>25278.6924</v>
       </c>
       <c r="J39" s="9">
         <v>1</v>
@@ -5827,11 +5833,11 @@
       </c>
       <c r="H40" s="21">
         <f>M2*G40</f>
-        <v>17496.5</v>
+        <v>17512.95</v>
       </c>
       <c r="I40" s="21">
         <f t="shared" si="0"/>
-        <v>139972</v>
+        <v>140103.6</v>
       </c>
       <c r="J40" s="9">
         <v>8</v>
@@ -5868,11 +5874,11 @@
       </c>
       <c r="H41" s="21">
         <f>M2*G41</f>
-        <v>22495.5</v>
+        <v>22516.65</v>
       </c>
       <c r="I41" s="21">
         <f t="shared" si="0"/>
-        <v>427414.5</v>
+        <v>427816.35000000003</v>
       </c>
       <c r="J41" s="9">
         <v>19</v>
@@ -5909,11 +5915,11 @@
       </c>
       <c r="H42" s="21">
         <f>M2*G42</f>
-        <v>31571.984339999995</v>
+        <v>31601.667942</v>
       </c>
       <c r="I42" s="21">
         <f t="shared" si="0"/>
-        <v>189431.90603999997</v>
+        <v>189610.007652</v>
       </c>
       <c r="J42" s="9">
         <v>6</v>
@@ -5950,11 +5956,11 @@
       </c>
       <c r="H43" s="21">
         <f>M2*G43</f>
-        <v>15656.867999999999</v>
+        <v>15671.588400000001</v>
       </c>
       <c r="I43" s="21">
         <f t="shared" si="0"/>
-        <v>156568.68</v>
+        <v>156715.88400000002</v>
       </c>
       <c r="J43" s="9">
         <v>10</v>
@@ -5991,11 +5997,11 @@
       </c>
       <c r="H44" s="21">
         <f>M2*G44</f>
-        <v>32193.559999999998</v>
+        <v>32223.828000000001</v>
       </c>
       <c r="I44" s="21">
         <f t="shared" si="0"/>
-        <v>64387.119999999995</v>
+        <v>64447.656000000003</v>
       </c>
       <c r="J44" s="9">
         <v>2</v>
@@ -6032,11 +6038,11 @@
       </c>
       <c r="H45" s="21">
         <f>M2*G45</f>
-        <v>46315.635019999994</v>
+        <v>46359.180425999999</v>
       </c>
       <c r="I45" s="21">
         <f t="shared" si="0"/>
-        <v>46315.635019999994</v>
+        <v>46359.180425999999</v>
       </c>
       <c r="J45" s="9">
         <v>1</v>
@@ -6073,11 +6079,11 @@
       </c>
       <c r="H46" s="21">
         <f>M$2*G46</f>
-        <v>399920</v>
+        <v>400296</v>
       </c>
       <c r="I46" s="21">
         <f t="shared" si="0"/>
-        <v>399920</v>
+        <v>400296</v>
       </c>
       <c r="J46" s="9">
         <v>1</v>
@@ -6111,11 +6117,11 @@
       </c>
       <c r="H47" s="21">
         <f>M$2*G47</f>
-        <v>264947</v>
+        <v>265196.10000000003</v>
       </c>
       <c r="I47" s="21">
         <f t="shared" si="0"/>
-        <v>264947</v>
+        <v>265196.10000000003</v>
       </c>
       <c r="J47" s="9">
         <v>1</v>
@@ -6149,11 +6155,11 @@
       </c>
       <c r="H48" s="21">
         <f>M2*G48</f>
-        <v>289742.03999999998</v>
+        <v>290014.45199999999</v>
       </c>
       <c r="I48" s="21">
         <f t="shared" si="0"/>
-        <v>1158968.1599999999</v>
+        <v>1160057.808</v>
       </c>
       <c r="J48" s="9">
         <v>4</v>
@@ -6190,11 +6196,11 @@
       </c>
       <c r="H49" s="21">
         <f>M2*G49</f>
-        <v>24670.064999999999</v>
+        <v>24693.2595</v>
       </c>
       <c r="I49" s="21">
         <f t="shared" si="0"/>
-        <v>24670.064999999999</v>
+        <v>24693.2595</v>
       </c>
       <c r="J49" s="9">
         <v>1</v>
@@ -6231,11 +6237,11 @@
       </c>
       <c r="H50" s="21">
         <f>M2*G50</f>
-        <v>525689.84100000001</v>
+        <v>526184.08830000006</v>
       </c>
       <c r="I50" s="21">
         <f t="shared" si="0"/>
-        <v>525689.84100000001</v>
+        <v>526184.08830000006</v>
       </c>
       <c r="J50" s="9">
         <v>1</v>
@@ -6266,11 +6272,11 @@
       </c>
       <c r="H51" s="21">
         <f>M2*G51</f>
-        <v>11247.75</v>
+        <v>11258.325000000001</v>
       </c>
       <c r="I51" s="21">
         <f t="shared" si="0"/>
-        <v>179964</v>
+        <v>180133.2</v>
       </c>
       <c r="J51" s="9">
         <v>16</v>
@@ -6301,11 +6307,11 @@
       </c>
       <c r="H52" s="21">
         <f>M2*G52</f>
-        <v>16771.645</v>
+        <v>16787.413500000002</v>
       </c>
       <c r="I52" s="21">
         <f t="shared" si="0"/>
-        <v>268346.32</v>
+        <v>268598.61600000004</v>
       </c>
       <c r="J52" s="9">
         <v>16</v>
@@ -6336,11 +6342,11 @@
       </c>
       <c r="H53" s="21">
         <f>M2*G53</f>
-        <v>14897.019999999999</v>
+        <v>14911.026000000002</v>
       </c>
       <c r="I53" s="21">
         <f t="shared" si="0"/>
-        <v>14897.019999999999</v>
+        <v>14911.026000000002</v>
       </c>
       <c r="J53" s="9">
         <v>1</v>
@@ -6371,11 +6377,11 @@
       </c>
       <c r="H54" s="21">
         <f>M2*G54</f>
-        <v>2736.0026899999993</v>
+        <v>2738.5750469999998</v>
       </c>
       <c r="I54" s="21">
         <f t="shared" si="0"/>
-        <v>2736.0026899999993</v>
+        <v>2738.5750469999998</v>
       </c>
       <c r="J54" s="9">
         <v>1</v>
@@ -6406,11 +6412,11 @@
       </c>
       <c r="H55" s="21">
         <f>M2*G55</f>
-        <v>4779.5938900000001</v>
+        <v>4784.0876070000004</v>
       </c>
       <c r="I55" s="21">
         <f t="shared" si="0"/>
-        <v>4779.5938900000001</v>
+        <v>4784.0876070000004</v>
       </c>
       <c r="J55" s="9">
         <v>1</v>
@@ -6441,11 +6447,11 @@
       </c>
       <c r="H56" s="21">
         <f>M2*G56</f>
-        <v>7498.2500499999996</v>
+        <v>7505.2998150000003</v>
       </c>
       <c r="I56" s="21">
         <f t="shared" si="0"/>
-        <v>22494.75015</v>
+        <v>22515.899445000003</v>
       </c>
       <c r="J56" s="9">
         <v>3</v>
@@ -6476,11 +6482,11 @@
       </c>
       <c r="H57" s="21">
         <f>M2*G57</f>
-        <v>2804.9389000000001</v>
+        <v>2807.5760700000001</v>
       </c>
       <c r="I57" s="21">
         <f t="shared" si="0"/>
-        <v>5609.8778000000002</v>
+        <v>5615.1521400000001</v>
       </c>
       <c r="J57" s="9">
         <v>2</v>
@@ -6511,11 +6517,11 @@
       </c>
       <c r="H58" s="21">
         <f>M2*G58</f>
-        <v>4035.5427299999997</v>
+        <v>4039.3368989999999</v>
       </c>
       <c r="I58" s="21">
         <f t="shared" si="0"/>
-        <v>12106.628189999999</v>
+        <v>12118.010697</v>
       </c>
       <c r="J58" s="9">
         <v>3</v>
@@ -6546,11 +6552,11 @@
       </c>
       <c r="H59" s="21">
         <f>M2*G59</f>
-        <v>2384.5229999999997</v>
+        <v>2386.7649000000001</v>
       </c>
       <c r="I59" s="21">
         <f t="shared" si="0"/>
-        <v>4769.0459999999994</v>
+        <v>4773.5298000000003</v>
       </c>
       <c r="J59" s="9">
         <v>2</v>
@@ -6581,11 +6587,11 @@
       </c>
       <c r="H60" s="21">
         <f>M2*G60</f>
-        <v>30267.79523</v>
+        <v>30296.252649000005</v>
       </c>
       <c r="I60" s="21">
         <f t="shared" si="0"/>
-        <v>151338.97615</v>
+        <v>151481.26324500004</v>
       </c>
       <c r="J60" s="9">
         <v>5</v>
@@ -6616,11 +6622,11 @@
       </c>
       <c r="H61" s="21">
         <f>M2*G61</f>
-        <v>30267.79523</v>
+        <v>30296.252649000005</v>
       </c>
       <c r="I61" s="21">
         <f t="shared" si="0"/>
-        <v>454016.92845000001</v>
+        <v>454443.78973500006</v>
       </c>
       <c r="J61" s="9">
         <v>15</v>
@@ -6651,11 +6657,11 @@
       </c>
       <c r="H62" s="21">
         <f>M2*G62</f>
-        <v>98820.231999999989</v>
+        <v>98913.141600000003</v>
       </c>
       <c r="I62" s="21">
         <f t="shared" si="0"/>
-        <v>790561.85599999991</v>
+        <v>791305.13280000002</v>
       </c>
       <c r="J62" s="9">
         <v>8</v>
@@ -6690,11 +6696,11 @@
       </c>
       <c r="H63" s="21">
         <f>M2*G63</f>
-        <v>824835</v>
+        <v>825610.5</v>
       </c>
       <c r="I63" s="21">
         <f t="shared" si="0"/>
-        <v>824835</v>
+        <v>825610.5</v>
       </c>
       <c r="J63" s="9">
         <v>1</v>
@@ -6762,11 +6768,11 @@
       </c>
       <c r="H65" s="21">
         <f>M2*G65</f>
-        <v>43316.334999999999</v>
+        <v>43357.0605</v>
       </c>
       <c r="I65" s="21">
         <f t="shared" si="0"/>
-        <v>129949.005</v>
+        <v>130071.18150000001</v>
       </c>
       <c r="J65" s="9">
         <v>3</v>
@@ -6801,11 +6807,11 @@
       </c>
       <c r="H66" s="21">
         <f>M2*G66</f>
-        <v>44691.659879999999</v>
+        <v>44733.678444000005</v>
       </c>
       <c r="I66" s="21">
         <f t="shared" si="0"/>
-        <v>44691.659879999999</v>
+        <v>44733.678444000005</v>
       </c>
       <c r="J66" s="9">
         <v>1</v>
@@ -6840,11 +6846,11 @@
       </c>
       <c r="H67" s="21">
         <f>M2*G67</f>
-        <v>44691.659879999999</v>
+        <v>44733.678444000005</v>
       </c>
       <c r="I67" s="21">
         <f t="shared" ref="I67:I130" si="1">H67*J67</f>
-        <v>89383.319759999998</v>
+        <v>89467.356888000009</v>
       </c>
       <c r="J67" s="9">
         <v>2</v>
@@ -6879,11 +6885,11 @@
       </c>
       <c r="H68" s="21">
         <f>M2*G68</f>
-        <v>44691.659879999999</v>
+        <v>44733.678444000005</v>
       </c>
       <c r="I68" s="21">
         <f t="shared" si="1"/>
-        <v>44691.659879999999</v>
+        <v>44733.678444000005</v>
       </c>
       <c r="J68" s="9">
         <v>1</v>
@@ -6918,11 +6924,11 @@
       </c>
       <c r="H69" s="21">
         <f>M2*G69</f>
-        <v>125274.93999999999</v>
+        <v>125392.72200000001</v>
       </c>
       <c r="I69" s="21">
         <f t="shared" si="1"/>
-        <v>1002199.5199999999</v>
+        <v>1003141.7760000001</v>
       </c>
       <c r="J69" s="9">
         <v>8</v>
@@ -6959,11 +6965,11 @@
       </c>
       <c r="H70" s="21">
         <f>M2*G70</f>
-        <v>128724.24999999999</v>
+        <v>128845.27500000001</v>
       </c>
       <c r="I70" s="21">
         <f t="shared" si="1"/>
-        <v>643621.24999999988</v>
+        <v>644226.375</v>
       </c>
       <c r="J70" s="9">
         <v>5</v>
@@ -7000,11 +7006,11 @@
       </c>
       <c r="H71" s="21">
         <f>M2*G71</f>
-        <v>129649.06499999999</v>
+        <v>129770.95950000001</v>
       </c>
       <c r="I71" s="21">
         <f t="shared" si="1"/>
-        <v>129649.06499999999</v>
+        <v>129770.95950000001</v>
       </c>
       <c r="J71" s="9">
         <v>1</v>
@@ -7041,11 +7047,11 @@
       </c>
       <c r="H72" s="21">
         <f>M2*G72</f>
-        <v>108978.2</v>
+        <v>109080.66</v>
       </c>
       <c r="I72" s="21">
         <f t="shared" si="1"/>
-        <v>108978.2</v>
+        <v>109080.66</v>
       </c>
       <c r="J72" s="9">
         <v>1</v>
@@ -7082,11 +7088,11 @@
       </c>
       <c r="H73" s="21">
         <f>M2*G73</f>
-        <v>51514.695</v>
+        <v>51563.128500000006</v>
       </c>
       <c r="I73" s="21">
         <f t="shared" si="1"/>
-        <v>3296940.48</v>
+        <v>3300040.2240000004</v>
       </c>
       <c r="J73" s="10">
         <v>64</v>
@@ -7123,11 +7129,11 @@
       </c>
       <c r="H74" s="21">
         <f>M2*G74</f>
-        <v>296340.71999999997</v>
+        <v>296619.33600000001</v>
       </c>
       <c r="I74" s="21">
         <f t="shared" si="1"/>
-        <v>592681.43999999994</v>
+        <v>593238.67200000002</v>
       </c>
       <c r="J74" s="9">
         <v>2</v>
@@ -7162,11 +7168,11 @@
       </c>
       <c r="H75" s="21">
         <f>M2*G75</f>
-        <v>108283.33899999999</v>
+        <v>108385.14570000001</v>
       </c>
       <c r="I75" s="21">
         <f t="shared" si="1"/>
-        <v>108283.33899999999</v>
+        <v>108385.14570000001</v>
       </c>
       <c r="J75" s="9">
         <v>1</v>
@@ -7197,11 +7203,11 @@
       </c>
       <c r="H76" s="21">
         <f>M2*G76</f>
-        <v>501.59965999999997</v>
+        <v>502.07125800000006</v>
       </c>
       <c r="I76" s="21">
         <f t="shared" si="1"/>
-        <v>4514.3969399999996</v>
+        <v>4518.6413220000004</v>
       </c>
       <c r="J76" s="9">
         <v>9</v>
@@ -7265,11 +7271,11 @@
       </c>
       <c r="H78" s="21">
         <f>M2*G78</f>
-        <v>127747.74533999999</v>
+        <v>127867.85224200001</v>
       </c>
       <c r="I78" s="21">
         <f t="shared" si="1"/>
-        <v>383243.23601999995</v>
+        <v>383603.55672600004</v>
       </c>
       <c r="J78" s="9">
         <v>3</v>
@@ -7300,11 +7306,11 @@
       </c>
       <c r="H79" s="21">
         <f>M2*G79</f>
-        <v>8360.4775699999991</v>
+        <v>8368.3379910000003</v>
       </c>
       <c r="I79" s="21">
         <f t="shared" si="1"/>
-        <v>8360.4775699999991</v>
+        <v>8368.3379910000003</v>
       </c>
       <c r="J79" s="9">
         <v>1</v>
@@ -7335,11 +7341,11 @@
       </c>
       <c r="H80" s="21">
         <f>M2*G80</f>
-        <v>42241.549999999996</v>
+        <v>42281.264999999999</v>
       </c>
       <c r="I80" s="21">
         <f t="shared" si="1"/>
-        <v>42241.549999999996</v>
+        <v>42281.264999999999</v>
       </c>
       <c r="J80" s="9">
         <v>1</v>
@@ -7370,11 +7376,11 @@
       </c>
       <c r="H81" s="21">
         <f>M2*G81</f>
-        <v>42241.549999999996</v>
+        <v>42281.264999999999</v>
       </c>
       <c r="I81" s="21">
         <f t="shared" si="1"/>
-        <v>126724.65</v>
+        <v>126843.795</v>
       </c>
       <c r="J81" s="9">
         <v>3</v>
@@ -7405,11 +7411,11 @@
       </c>
       <c r="H82" s="21">
         <f>M2*G82</f>
-        <v>1420.1659099999997</v>
+        <v>1421.501133</v>
       </c>
       <c r="I82" s="21">
         <f t="shared" si="1"/>
-        <v>2840.3318199999994</v>
+        <v>2843.002266</v>
       </c>
       <c r="J82" s="9">
         <v>2</v>
@@ -7440,11 +7446,11 @@
       </c>
       <c r="H83" s="21">
         <f>M2*G83</f>
-        <v>1114.7270100000001</v>
+        <v>1115.775063</v>
       </c>
       <c r="I83" s="21">
         <f t="shared" si="1"/>
-        <v>1114.7270100000001</v>
+        <v>1115.775063</v>
       </c>
       <c r="J83" s="9">
         <v>1</v>
@@ -7475,11 +7481,11 @@
       </c>
       <c r="H84" s="21">
         <f>M2*G84</f>
-        <v>1296.3906699999998</v>
+        <v>1297.6095210000001</v>
       </c>
       <c r="I84" s="21">
         <f t="shared" si="1"/>
-        <v>2592.7813399999995</v>
+        <v>2595.2190420000002</v>
       </c>
       <c r="J84" s="9">
         <v>2</v>
@@ -7510,11 +7516,11 @@
       </c>
       <c r="H85" s="21">
         <f>M2*G85</f>
-        <v>606.92858999999999</v>
+        <v>607.49921700000004</v>
       </c>
       <c r="I85" s="21">
         <f t="shared" si="1"/>
-        <v>1820.78577</v>
+        <v>1822.4976510000001</v>
       </c>
       <c r="J85" s="9">
         <v>3</v>
@@ -7551,11 +7557,11 @@
       </c>
       <c r="H86" s="21">
         <f>M2*G86</f>
-        <v>40106.677059999995</v>
+        <v>40144.384877999997</v>
       </c>
       <c r="I86" s="21">
         <f t="shared" si="1"/>
-        <v>40106.677059999995</v>
+        <v>40144.384877999997</v>
       </c>
       <c r="J86" s="9">
         <v>1</v>
@@ -7592,11 +7598,11 @@
       </c>
       <c r="H87" s="21">
         <f>M2*G87</f>
-        <v>40106.677059999995</v>
+        <v>40144.384877999997</v>
       </c>
       <c r="I87" s="21">
         <f t="shared" si="1"/>
-        <v>40106.677059999995</v>
+        <v>40144.384877999997</v>
       </c>
       <c r="J87" s="9">
         <v>1</v>
@@ -7633,11 +7639,11 @@
       </c>
       <c r="H88" s="21">
         <f>M2*G88</f>
-        <v>40106.677059999995</v>
+        <v>40144.384877999997</v>
       </c>
       <c r="I88" s="21">
         <f t="shared" si="1"/>
-        <v>120320.03117999999</v>
+        <v>120433.15463399999</v>
       </c>
       <c r="J88" s="10">
         <v>3</v>
@@ -7674,11 +7680,11 @@
       </c>
       <c r="H89" s="21">
         <f>M2*G89</f>
-        <v>16221.754999999999</v>
+        <v>16237.006500000001</v>
       </c>
       <c r="I89" s="21">
         <f t="shared" si="1"/>
-        <v>48665.264999999999</v>
+        <v>48711.019500000002</v>
       </c>
       <c r="J89" s="10">
         <v>3</v>
@@ -7715,11 +7721,11 @@
       </c>
       <c r="H90" s="21">
         <f>M2*G90</f>
-        <v>16221.754999999999</v>
+        <v>16237.006500000001</v>
       </c>
       <c r="I90" s="21">
         <f t="shared" si="1"/>
-        <v>16221.754999999999</v>
+        <v>16237.006500000001</v>
       </c>
       <c r="J90" s="9">
         <v>1</v>
@@ -7750,11 +7756,11 @@
       </c>
       <c r="H91" s="21">
         <f>M2*G91</f>
-        <v>69986</v>
+        <v>70051.8</v>
       </c>
       <c r="I91" s="21">
         <f t="shared" si="1"/>
-        <v>69986</v>
+        <v>70051.8</v>
       </c>
       <c r="J91" s="9">
         <v>1</v>
@@ -7785,11 +7791,11 @@
       </c>
       <c r="H92" s="21">
         <f>M2*G92</f>
-        <v>8748.25</v>
+        <v>8756.4750000000004</v>
       </c>
       <c r="I92" s="21">
         <f t="shared" si="1"/>
-        <v>244951</v>
+        <v>245181.30000000002</v>
       </c>
       <c r="J92" s="9">
         <v>28</v>
@@ -7826,11 +7832,11 @@
       </c>
       <c r="H93" s="21">
         <f>M2*G93</f>
-        <v>1311835.2304700001</v>
+        <v>1313068.6022610003</v>
       </c>
       <c r="I93" s="21">
         <f t="shared" si="1"/>
-        <v>3935505.6914100004</v>
+        <v>3939205.8067830009</v>
       </c>
       <c r="J93" s="9">
         <v>3</v>
@@ -7867,11 +7873,11 @@
       </c>
       <c r="H94" s="21">
         <f>M2*G94</f>
-        <v>24695.059999999998</v>
+        <v>24718.278000000002</v>
       </c>
       <c r="I94" s="21">
         <f t="shared" si="1"/>
-        <v>24695.059999999998</v>
+        <v>24718.278000000002</v>
       </c>
       <c r="J94" s="9">
         <v>1</v>
@@ -7908,11 +7914,11 @@
       </c>
       <c r="H95" s="21">
         <f>M2*G95</f>
-        <v>64986.999999999993</v>
+        <v>65048.100000000006</v>
       </c>
       <c r="I95" s="21">
         <f t="shared" si="1"/>
-        <v>64986.999999999993</v>
+        <v>65048.100000000006</v>
       </c>
       <c r="J95" s="9">
         <v>1</v>
@@ -7949,11 +7955,11 @@
       </c>
       <c r="H96" s="21">
         <f>M$2*G96</f>
-        <v>89982</v>
+        <v>90066.6</v>
       </c>
       <c r="I96" s="21">
         <f t="shared" si="1"/>
-        <v>539892</v>
+        <v>540399.60000000009</v>
       </c>
       <c r="J96" s="9">
         <v>6</v>
@@ -7990,11 +7996,11 @@
       </c>
       <c r="H97" s="21">
         <f>M$2*G97</f>
-        <v>74985</v>
+        <v>75055.5</v>
       </c>
       <c r="I97" s="21">
         <f t="shared" si="1"/>
-        <v>74985</v>
+        <v>75055.5</v>
       </c>
       <c r="J97" s="9">
         <v>1</v>
@@ -8026,11 +8032,11 @@
       </c>
       <c r="H98" s="21">
         <f>M2*G98</f>
-        <v>24695.059999999998</v>
+        <v>24718.278000000002</v>
       </c>
       <c r="I98" s="21">
         <f t="shared" si="1"/>
-        <v>98780.239999999991</v>
+        <v>98873.112000000008</v>
       </c>
       <c r="J98" s="9">
         <v>4</v>
@@ -8067,11 +8073,11 @@
       </c>
       <c r="H99" s="21">
         <f>M2*G99</f>
-        <v>185212.94999999998</v>
+        <v>185387.08500000002</v>
       </c>
       <c r="I99" s="21">
         <f t="shared" si="1"/>
-        <v>2407768.3499999996</v>
+        <v>2410032.1050000004</v>
       </c>
       <c r="J99" s="10">
         <v>13</v>
@@ -8108,11 +8114,11 @@
       </c>
       <c r="H100" s="21">
         <f>M2*G100</f>
-        <v>165616.87</v>
+        <v>165772.58100000001</v>
       </c>
       <c r="I100" s="21">
         <f t="shared" si="1"/>
-        <v>1490551.83</v>
+        <v>1491953.2290000001</v>
       </c>
       <c r="J100" s="10">
         <v>9</v>
@@ -8143,11 +8149,11 @@
       </c>
       <c r="H101" s="21">
         <f>M2*G101</f>
-        <v>39992</v>
+        <v>40029.599999999999</v>
       </c>
       <c r="I101" s="21">
         <f t="shared" si="1"/>
-        <v>39992</v>
+        <v>40029.599999999999</v>
       </c>
       <c r="J101" s="9">
         <v>1</v>
@@ -8178,11 +8184,11 @@
       </c>
       <c r="H102" s="21">
         <f>M2*G102</f>
-        <v>89232.15</v>
+        <v>89316.044999999998</v>
       </c>
       <c r="I102" s="21">
         <f t="shared" si="1"/>
-        <v>89232.15</v>
+        <v>89316.044999999998</v>
       </c>
       <c r="J102" s="9">
         <v>1</v>
@@ -8346,22 +8352,24 @@
       <c r="B107" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C107" s="8"/>
+      <c r="C107" s="8" t="s">
+        <v>266</v>
+      </c>
       <c r="D107" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="E107" s="73"/>
-      <c r="F107" s="73"/>
+      <c r="E107" s="68"/>
+      <c r="F107" s="68"/>
       <c r="G107" s="20"/>
       <c r="H107" s="21">
         <v>340000</v>
       </c>
       <c r="I107" s="21">
         <f t="shared" si="1"/>
-        <v>340000</v>
+        <v>680000</v>
       </c>
       <c r="J107" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K107" s="11" t="s">
         <v>273</v>
@@ -8462,11 +8470,11 @@
       </c>
       <c r="H110" s="21">
         <f>M$2*G110</f>
-        <v>471090.76299999998</v>
+        <v>471533.67690000002</v>
       </c>
       <c r="I110" s="21">
         <f t="shared" si="1"/>
-        <v>942181.52599999995</v>
+        <v>943067.35380000004</v>
       </c>
       <c r="J110" s="38">
         <v>2</v>
@@ -8498,11 +8506,11 @@
       </c>
       <c r="H111" s="21">
         <f>M$2*G111</f>
-        <v>849830</v>
+        <v>850629</v>
       </c>
       <c r="I111" s="21">
         <f t="shared" si="1"/>
-        <v>849830</v>
+        <v>850629</v>
       </c>
       <c r="J111" s="31">
         <v>1</v>
@@ -8534,11 +8542,11 @@
       </c>
       <c r="H112" s="21">
         <f>M2*G112</f>
-        <v>55488.899999999994</v>
+        <v>55541.07</v>
       </c>
       <c r="I112" s="21">
         <f t="shared" si="1"/>
-        <v>166466.69999999998</v>
+        <v>166623.21</v>
       </c>
       <c r="J112" s="34">
         <v>3</v>
@@ -8575,11 +8583,11 @@
       </c>
       <c r="H113" s="21">
         <f>M2*G113</f>
-        <v>70860.824999999997</v>
+        <v>70927.447500000009</v>
       </c>
       <c r="I113" s="21">
         <f t="shared" si="1"/>
-        <v>1629798.9749999999</v>
+        <v>1631331.2925000002</v>
       </c>
       <c r="J113" s="10">
         <v>23</v>
@@ -8616,11 +8624,11 @@
       </c>
       <c r="H114" s="21">
         <f>M2*G114</f>
-        <v>17496.5</v>
+        <v>17512.95</v>
       </c>
       <c r="I114" s="21">
         <f t="shared" si="1"/>
-        <v>69986</v>
+        <v>70051.8</v>
       </c>
       <c r="J114" s="9">
         <v>4</v>
@@ -8657,11 +8665,11 @@
       </c>
       <c r="H115" s="21">
         <f>M2*G115</f>
-        <v>17496.5</v>
+        <v>17512.95</v>
       </c>
       <c r="I115" s="21">
         <f t="shared" si="1"/>
-        <v>34993</v>
+        <v>35025.9</v>
       </c>
       <c r="J115" s="10">
         <v>2</v>
@@ -8698,11 +8706,11 @@
       </c>
       <c r="H116" s="21">
         <f>M2*G116</f>
-        <v>32164.965719999997</v>
+        <v>32195.206836000001</v>
       </c>
       <c r="I116" s="21">
         <f t="shared" si="1"/>
-        <v>192989.79431999999</v>
+        <v>193171.24101600001</v>
       </c>
       <c r="J116" s="9">
         <v>6</v>
@@ -8739,11 +8747,11 @@
       </c>
       <c r="H117" s="21">
         <f>M2*G117</f>
-        <v>28494.3</v>
+        <v>28521.09</v>
       </c>
       <c r="I117" s="21">
         <f t="shared" si="1"/>
-        <v>56988.6</v>
+        <v>57042.18</v>
       </c>
       <c r="J117" s="9">
         <v>2</v>
@@ -8780,11 +8788,11 @@
       </c>
       <c r="H118" s="21">
         <f>M2*G118</f>
-        <v>3152.8692999999998</v>
+        <v>3155.8335900000002</v>
       </c>
       <c r="I118" s="21">
         <f t="shared" si="1"/>
-        <v>40987.300899999995</v>
+        <v>41025.836670000004</v>
       </c>
       <c r="J118" s="9">
         <v>13</v>
@@ -8821,11 +8829,11 @@
       </c>
       <c r="H119" s="21">
         <f>M$2*G119</f>
-        <v>90875.571249999994</v>
+        <v>90961.011375000002</v>
       </c>
       <c r="I119" s="21">
         <f t="shared" si="1"/>
-        <v>90875.571249999994</v>
+        <v>90961.011375000002</v>
       </c>
       <c r="J119" s="9">
         <v>1</v>
@@ -8859,11 +8867,11 @@
       </c>
       <c r="H120" s="21">
         <f>M$2*G120</f>
-        <v>74985</v>
+        <v>75055.5</v>
       </c>
       <c r="I120" s="21">
         <f t="shared" si="1"/>
-        <v>74985</v>
+        <v>75055.5</v>
       </c>
       <c r="J120" s="9">
         <v>1</v>
@@ -8891,11 +8899,11 @@
       </c>
       <c r="H121" s="21">
         <f>M2*G121</f>
-        <v>5639.0719599999993</v>
+        <v>5644.373748</v>
       </c>
       <c r="I121" s="21">
         <f t="shared" si="1"/>
-        <v>11278.143919999999</v>
+        <v>11288.747496</v>
       </c>
       <c r="J121" s="9">
         <v>2</v>
@@ -8926,11 +8934,11 @@
       </c>
       <c r="H122" s="21">
         <f>M2*G122</f>
-        <v>334308.125</v>
+        <v>334622.4375</v>
       </c>
       <c r="I122" s="21">
         <f t="shared" si="1"/>
-        <v>668616.25</v>
+        <v>669244.875</v>
       </c>
       <c r="J122" s="9">
         <v>2</v>
@@ -8965,11 +8973,11 @@
       </c>
       <c r="H123" s="21">
         <f>M2*G123</f>
-        <v>475732.13454</v>
+        <v>476179.41220200004</v>
       </c>
       <c r="I123" s="21">
         <f t="shared" si="1"/>
-        <v>475732.13454</v>
+        <v>476179.41220200004</v>
       </c>
       <c r="J123" s="9">
         <v>1</v>
@@ -9039,11 +9047,11 @@
       </c>
       <c r="H125" s="21">
         <f>M2*G125</f>
-        <v>171650.663</v>
+        <v>171812.04690000002</v>
       </c>
       <c r="I125" s="21">
         <f t="shared" si="1"/>
-        <v>171650.663</v>
+        <v>171812.04690000002</v>
       </c>
       <c r="J125" s="9">
         <v>1</v>
@@ -9078,11 +9086,11 @@
       </c>
       <c r="H126" s="21">
         <f>M2*G126</f>
-        <v>4844.0309999999999</v>
+        <v>4848.5853000000006</v>
       </c>
       <c r="I126" s="21">
         <f t="shared" si="1"/>
-        <v>9688.0619999999999</v>
+        <v>9697.1706000000013</v>
       </c>
       <c r="J126" s="9">
         <v>2</v>
@@ -9153,11 +9161,11 @@
       </c>
       <c r="H128" s="21">
         <f>M2*G128</f>
-        <v>16381.722999999998</v>
+        <v>16397.124900000003</v>
       </c>
       <c r="I128" s="21">
         <f t="shared" si="1"/>
-        <v>16381.722999999998</v>
+        <v>16397.124900000003</v>
       </c>
       <c r="J128" s="9">
         <v>1</v>
@@ -9194,11 +9202,11 @@
       </c>
       <c r="H129" s="21">
         <f>M2*G129</f>
-        <v>39284.891449999996</v>
+        <v>39321.826635000005</v>
       </c>
       <c r="I129" s="21">
         <f t="shared" si="1"/>
-        <v>117854.67434999999</v>
+        <v>117965.47990500001</v>
       </c>
       <c r="J129" s="15">
         <v>3</v>
@@ -9230,15 +9238,20 @@
       <c r="F130" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="G130" s="70">
+      <c r="G130" s="20">
         <v>1000000</v>
       </c>
-      <c r="H130" s="71"/>
+      <c r="H130" s="21">
+        <f>M3*G130</f>
+        <v>5010000</v>
+      </c>
       <c r="I130" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J130" s="9"/>
+        <v>5010000</v>
+      </c>
+      <c r="J130" s="9">
+        <v>1</v>
+      </c>
       <c r="K130" s="11"/>
       <c r="L130" s="1"/>
     </row>
@@ -9266,11 +9279,11 @@
       </c>
       <c r="H131" s="21">
         <f>M2*G131</f>
-        <v>999799.99999999988</v>
+        <v>1000740</v>
       </c>
       <c r="I131" s="21">
         <f t="shared" ref="I131:I194" si="2">H131*J131</f>
-        <v>999799.99999999988</v>
+        <v>1000740</v>
       </c>
       <c r="J131" s="47">
         <v>1</v>
@@ -9301,11 +9314,11 @@
       </c>
       <c r="H132" s="21">
         <f>M2*G132</f>
-        <v>3823.8850699999994</v>
+        <v>3827.4802409999998</v>
       </c>
       <c r="I132" s="21">
         <f t="shared" si="2"/>
-        <v>15295.540279999997</v>
+        <v>15309.920963999999</v>
       </c>
       <c r="J132" s="27">
         <v>4</v>
@@ -9336,11 +9349,11 @@
       </c>
       <c r="H133" s="21">
         <f>M2*G133</f>
-        <v>233.55327999999997</v>
+        <v>233.772864</v>
       </c>
       <c r="I133" s="21">
         <f t="shared" si="2"/>
-        <v>467.10655999999994</v>
+        <v>467.545728</v>
       </c>
       <c r="J133" s="9">
         <v>2</v>
@@ -9371,11 +9384,11 @@
       </c>
       <c r="H134" s="21">
         <f>M2*G134</f>
-        <v>125504.34410999999</v>
+        <v>125622.341793</v>
       </c>
       <c r="I134" s="21">
         <f t="shared" si="2"/>
-        <v>376513.03232999996</v>
+        <v>376867.025379</v>
       </c>
       <c r="J134" s="9">
         <v>3</v>
@@ -9406,11 +9419,11 @@
       </c>
       <c r="H135" s="21">
         <f>M2*G135</f>
-        <v>2639.4719999999998</v>
+        <v>2641.9536000000003</v>
       </c>
       <c r="I135" s="21">
         <f t="shared" si="2"/>
-        <v>5278.9439999999995</v>
+        <v>5283.9072000000006</v>
       </c>
       <c r="J135" s="9">
         <v>2</v>
@@ -9447,11 +9460,11 @@
       </c>
       <c r="H136" s="21">
         <f>M2*G136</f>
-        <v>114197.15599999999</v>
+        <v>114304.52280000001</v>
       </c>
       <c r="I136" s="21">
         <f t="shared" si="2"/>
-        <v>570985.77999999991</v>
+        <v>571522.61400000006</v>
       </c>
       <c r="J136" s="9">
         <v>5</v>
@@ -9488,11 +9501,11 @@
       </c>
       <c r="H137" s="21">
         <f>M2*G137</f>
-        <v>172245.54399999999</v>
+        <v>172407.4872</v>
       </c>
       <c r="I137" s="21">
         <f t="shared" si="2"/>
-        <v>172245.54399999999</v>
+        <v>172407.4872</v>
       </c>
       <c r="J137" s="15">
         <v>1</v>
@@ -9509,19 +9522,19 @@
       <c r="A138" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B138" s="72" t="s">
+      <c r="B138" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="C138" s="72" t="s">
+      <c r="C138" s="76" t="s">
         <v>337</v>
       </c>
-      <c r="D138" s="67" t="s">
+      <c r="D138" s="77" t="s">
         <v>362</v>
       </c>
-      <c r="E138" s="68">
+      <c r="E138" s="78">
         <v>7160</v>
       </c>
-      <c r="F138" s="68" t="s">
+      <c r="F138" s="78" t="s">
         <v>339</v>
       </c>
       <c r="G138" s="20">
@@ -9529,11 +9542,11 @@
       </c>
       <c r="H138" s="21">
         <f>M2*G138</f>
-        <v>1504034.1329999999</v>
+        <v>1505448.2079</v>
       </c>
       <c r="I138" s="21">
         <f t="shared" si="2"/>
-        <v>1504034.1329999999</v>
+        <v>1505448.2079</v>
       </c>
       <c r="J138" s="58">
         <v>1</v>
@@ -9568,11 +9581,11 @@
       </c>
       <c r="H139" s="21">
         <f>M2*G139</f>
-        <v>403227.83829999994</v>
+        <v>403606.94829000003</v>
       </c>
       <c r="I139" s="21">
         <f t="shared" si="2"/>
-        <v>806455.67659999989</v>
+        <v>807213.89658000006</v>
       </c>
       <c r="J139" s="27">
         <v>2</v>
@@ -9603,11 +9616,11 @@
       </c>
       <c r="H140" s="21">
         <f>M2*G140</f>
-        <v>9188.1620000000003</v>
+        <v>9196.8006000000005</v>
       </c>
       <c r="I140" s="21">
         <f t="shared" si="2"/>
-        <v>18376.324000000001</v>
+        <v>18393.601200000001</v>
       </c>
       <c r="J140" s="9">
         <v>2</v>
@@ -9638,11 +9651,11 @@
       </c>
       <c r="H141" s="21">
         <f>M2*G141</f>
-        <v>26269.744999999999</v>
+        <v>26294.443500000001</v>
       </c>
       <c r="I141" s="21">
         <f t="shared" si="2"/>
-        <v>26269.744999999999</v>
+        <v>26294.443500000001</v>
       </c>
       <c r="J141" s="9">
         <v>1</v>
@@ -9673,11 +9686,11 @@
       </c>
       <c r="H142" s="21">
         <f>M2*G142</f>
-        <v>824.83499999999992</v>
+        <v>825.6105</v>
       </c>
       <c r="I142" s="21">
         <f t="shared" si="2"/>
-        <v>2474.5049999999997</v>
+        <v>2476.8315000000002</v>
       </c>
       <c r="J142" s="9">
         <v>3</v>
@@ -9741,11 +9754,11 @@
       </c>
       <c r="H144" s="21">
         <f>M2*G144</f>
-        <v>2649.47</v>
+        <v>2651.9610000000002</v>
       </c>
       <c r="I144" s="21">
         <f t="shared" si="2"/>
-        <v>2649.47</v>
+        <v>2651.9610000000002</v>
       </c>
       <c r="J144" s="9">
         <v>1</v>
@@ -9776,11 +9789,11 @@
       </c>
       <c r="H145" s="21">
         <f>M2*G145</f>
-        <v>205958.8</v>
+        <v>206152.44</v>
       </c>
       <c r="I145" s="21">
         <f t="shared" si="2"/>
-        <v>205958.8</v>
+        <v>206152.44</v>
       </c>
       <c r="J145" s="9">
         <v>1</v>
@@ -9817,11 +9830,11 @@
       </c>
       <c r="H146" s="21">
         <f>M$2*G146</f>
-        <v>419916</v>
+        <v>420310.80000000005</v>
       </c>
       <c r="I146" s="21">
         <f t="shared" si="2"/>
-        <v>419916</v>
+        <v>420310.80000000005</v>
       </c>
       <c r="J146" s="9">
         <v>1</v>
@@ -9853,11 +9866,11 @@
       </c>
       <c r="H147" s="21">
         <f>M$2*G147</f>
-        <v>419916</v>
+        <v>420310.80000000005</v>
       </c>
       <c r="I147" s="21">
         <f t="shared" si="2"/>
-        <v>419916</v>
+        <v>420310.80000000005</v>
       </c>
       <c r="J147" s="9">
         <v>1</v>
@@ -9889,11 +9902,11 @@
       </c>
       <c r="H148" s="21">
         <f>M$2*G148</f>
-        <v>419916</v>
+        <v>420310.80000000005</v>
       </c>
       <c r="I148" s="21">
         <f t="shared" si="2"/>
-        <v>419916</v>
+        <v>420310.80000000005</v>
       </c>
       <c r="J148" s="9">
         <v>1</v>
@@ -9924,11 +9937,11 @@
       </c>
       <c r="H149" s="21">
         <f>M2*G149</f>
-        <v>12447.509999999998</v>
+        <v>12459.213</v>
       </c>
       <c r="I149" s="21">
         <f t="shared" si="2"/>
-        <v>24895.019999999997</v>
+        <v>24918.425999999999</v>
       </c>
       <c r="J149" s="9">
         <v>2</v>
@@ -9965,11 +9978,11 @@
       </c>
       <c r="H150" s="21">
         <f>M2*G150</f>
-        <v>276144.76</v>
+        <v>276404.38800000004</v>
       </c>
       <c r="I150" s="21">
         <f t="shared" si="2"/>
-        <v>1104579.04</v>
+        <v>1105617.5520000001</v>
       </c>
       <c r="J150" s="10">
         <v>4</v>
@@ -10004,11 +10017,11 @@
       </c>
       <c r="H151" s="21">
         <f>M2*G151</f>
-        <v>63762.244999999995</v>
+        <v>63822.193500000001</v>
       </c>
       <c r="I151" s="21">
         <f t="shared" si="2"/>
-        <v>382573.47</v>
+        <v>382933.16100000002</v>
       </c>
       <c r="J151" s="9">
         <v>6</v>
@@ -10045,11 +10058,11 @@
       </c>
       <c r="H152" s="21">
         <f>M2*G152</f>
-        <v>28644.269999999997</v>
+        <v>28671.201000000001</v>
       </c>
       <c r="I152" s="21">
         <f t="shared" si="2"/>
-        <v>200509.88999999998</v>
+        <v>200698.40700000001</v>
       </c>
       <c r="J152" s="10">
         <v>7</v>
@@ -10086,11 +10099,11 @@
       </c>
       <c r="H153" s="21">
         <f>M2*G153</f>
-        <v>37517.494999999995</v>
+        <v>37552.768499999998</v>
       </c>
       <c r="I153" s="21">
         <f t="shared" si="2"/>
-        <v>112552.48499999999</v>
+        <v>112658.30549999999</v>
       </c>
       <c r="J153" s="9">
         <v>3</v>
@@ -10125,11 +10138,11 @@
       </c>
       <c r="H154" s="21">
         <f>M2*G154</f>
-        <v>20495.899999999998</v>
+        <v>20515.170000000002</v>
       </c>
       <c r="I154" s="21">
         <f t="shared" si="2"/>
-        <v>40991.799999999996</v>
+        <v>41030.340000000004</v>
       </c>
       <c r="J154" s="9">
         <v>2</v>
@@ -10166,11 +10179,11 @@
       </c>
       <c r="H155" s="21">
         <f>M2*G155</f>
-        <v>30418.914999999997</v>
+        <v>30447.514500000001</v>
       </c>
       <c r="I155" s="21">
         <f t="shared" si="2"/>
-        <v>243351.31999999998</v>
+        <v>243580.11600000001</v>
       </c>
       <c r="J155" s="9">
         <v>8</v>
@@ -10207,11 +10220,11 @@
       </c>
       <c r="H156" s="21">
         <f>M2*G156</f>
-        <v>31418.714999999997</v>
+        <v>31448.254500000003</v>
       </c>
       <c r="I156" s="21">
         <f t="shared" si="2"/>
-        <v>62837.429999999993</v>
+        <v>62896.509000000005</v>
       </c>
       <c r="J156" s="9">
         <v>2</v>
@@ -10242,11 +10255,11 @@
       </c>
       <c r="H157" s="21">
         <f>M2*G157</f>
-        <v>8948.2099999999991</v>
+        <v>8956.6229999999996</v>
       </c>
       <c r="I157" s="21">
         <f t="shared" si="2"/>
-        <v>17896.419999999998</v>
+        <v>17913.245999999999</v>
       </c>
       <c r="J157" s="9">
         <v>2</v>
@@ -10277,11 +10290,11 @@
       </c>
       <c r="H158" s="21">
         <f>M2*G158</f>
-        <v>20345.93</v>
+        <v>20365.059000000001</v>
       </c>
       <c r="I158" s="21">
         <f t="shared" si="2"/>
-        <v>40691.86</v>
+        <v>40730.118000000002</v>
       </c>
       <c r="J158" s="9">
         <v>2</v>
@@ -10351,11 +10364,11 @@
       </c>
       <c r="H160" s="21">
         <f>M2*G160</f>
-        <v>26744.649999999998</v>
+        <v>26769.795000000002</v>
       </c>
       <c r="I160" s="21">
         <f t="shared" si="2"/>
-        <v>320935.8</v>
+        <v>321237.54000000004</v>
       </c>
       <c r="J160" s="10">
         <v>12</v>
@@ -10392,11 +10405,11 @@
       </c>
       <c r="H161" s="21">
         <f>M2*G161</f>
-        <v>12794.24064</v>
+        <v>12806.269632000001</v>
       </c>
       <c r="I161" s="21">
         <f t="shared" si="2"/>
-        <v>166325.12831999999</v>
+        <v>166481.50521600002</v>
       </c>
       <c r="J161" s="10">
         <v>13</v>
@@ -10427,11 +10440,11 @@
       </c>
       <c r="H162" s="21">
         <f>M2*G162</f>
-        <v>1699.6599999999999</v>
+        <v>1701.258</v>
       </c>
       <c r="I162" s="21">
         <f t="shared" si="2"/>
-        <v>3399.3199999999997</v>
+        <v>3402.5160000000001</v>
       </c>
       <c r="J162" s="9">
         <v>2</v>
@@ -10462,11 +10475,11 @@
       </c>
       <c r="H163" s="21">
         <f>M2*G163</f>
-        <v>13977.40396</v>
+        <v>13990.545348</v>
       </c>
       <c r="I163" s="21">
         <f t="shared" si="2"/>
-        <v>69887.019799999995</v>
+        <v>69952.726739999998</v>
       </c>
       <c r="J163" s="9">
         <v>5</v>
@@ -10503,11 +10516,11 @@
       </c>
       <c r="H164" s="21">
         <f>M2*G164</f>
-        <v>18271.344999999998</v>
+        <v>18288.523499999999</v>
       </c>
       <c r="I164" s="21">
         <f t="shared" si="2"/>
-        <v>73085.37999999999</v>
+        <v>73154.093999999997</v>
       </c>
       <c r="J164" s="9">
         <v>4</v>
@@ -10544,11 +10557,11 @@
       </c>
       <c r="H165" s="21">
         <f>M2*G165</f>
-        <v>22513.89632</v>
+        <v>22535.063616000003</v>
       </c>
       <c r="I165" s="21">
         <f t="shared" si="2"/>
-        <v>157597.27424</v>
+        <v>157745.44531200003</v>
       </c>
       <c r="J165" s="9">
         <v>7</v>
@@ -10585,11 +10598,11 @@
       </c>
       <c r="H166" s="21">
         <f>M2*G166</f>
-        <v>4074.1849999999999</v>
+        <v>4078.0155000000004</v>
       </c>
       <c r="I166" s="21">
         <f t="shared" si="2"/>
-        <v>97780.44</v>
+        <v>97872.372000000003</v>
       </c>
       <c r="J166" s="9">
         <v>24</v>
@@ -10620,11 +10633,11 @@
       </c>
       <c r="H167" s="21">
         <f>M2*G167</f>
-        <v>14953.108779999999</v>
+        <v>14967.167514000001</v>
       </c>
       <c r="I167" s="21">
         <f t="shared" si="2"/>
-        <v>29906.217559999997</v>
+        <v>29934.335028000001</v>
       </c>
       <c r="J167" s="9">
         <v>2</v>
@@ -10655,11 +10668,11 @@
       </c>
       <c r="H168" s="21">
         <f>M2*G168</f>
-        <v>12097.58</v>
+        <v>12108.954</v>
       </c>
       <c r="I168" s="21">
         <f t="shared" si="2"/>
-        <v>48390.32</v>
+        <v>48435.815999999999</v>
       </c>
       <c r="J168" s="9">
         <v>4</v>
@@ -10690,11 +10703,11 @@
       </c>
       <c r="H169" s="21">
         <f>M2*G169</f>
-        <v>18646.27</v>
+        <v>18663.800999999999</v>
       </c>
       <c r="I169" s="21">
         <f t="shared" si="2"/>
-        <v>37292.54</v>
+        <v>37327.601999999999</v>
       </c>
       <c r="J169" s="9">
         <v>2</v>
@@ -10725,11 +10738,11 @@
       </c>
       <c r="H170" s="21">
         <f>M2*G170</f>
-        <v>36942.61</v>
+        <v>36977.343000000001</v>
       </c>
       <c r="I170" s="21">
         <f t="shared" si="2"/>
-        <v>258598.27000000002</v>
+        <v>258841.40100000001</v>
       </c>
       <c r="J170" s="9">
         <v>7</v>
@@ -10830,11 +10843,11 @@
       </c>
       <c r="H173" s="21">
         <f>M2*G173</f>
-        <v>37517.494999999995</v>
+        <v>37552.768499999998</v>
       </c>
       <c r="I173" s="21">
         <f t="shared" si="2"/>
-        <v>112552.48499999999</v>
+        <v>112658.30549999999</v>
       </c>
       <c r="J173" s="9">
         <v>3</v>
@@ -10865,11 +10878,11 @@
       </c>
       <c r="H174" s="21">
         <f>M2*G174</f>
-        <v>47615.474999999999</v>
+        <v>47660.2425</v>
       </c>
       <c r="I174" s="21">
         <f t="shared" si="2"/>
-        <v>47615.474999999999</v>
+        <v>47660.2425</v>
       </c>
       <c r="J174" s="9">
         <v>1</v>
@@ -10906,11 +10919,11 @@
       </c>
       <c r="H175" s="21">
         <f>M2*G175</f>
-        <v>196970.598</v>
+        <v>197155.7874</v>
       </c>
       <c r="I175" s="21">
         <f t="shared" si="2"/>
-        <v>196970.598</v>
+        <v>197155.7874</v>
       </c>
       <c r="J175" s="9">
         <v>1</v>
@@ -10947,11 +10960,11 @@
       </c>
       <c r="H176" s="21">
         <f>M2*G176</f>
-        <v>241201.74999999997</v>
+        <v>241428.52500000002</v>
       </c>
       <c r="I176" s="21">
         <f t="shared" si="2"/>
-        <v>241201.74999999997</v>
+        <v>241428.52500000002</v>
       </c>
       <c r="J176" s="47">
         <v>1</v>
@@ -11067,11 +11080,11 @@
       </c>
       <c r="H180" s="21">
         <f>M2*G180</f>
-        <v>152744.44499999998</v>
+        <v>152888.05350000001</v>
       </c>
       <c r="I180" s="21">
         <f t="shared" si="2"/>
-        <v>458233.33499999996</v>
+        <v>458664.1605</v>
       </c>
       <c r="J180" s="44">
         <v>3</v>
@@ -11102,11 +11115,11 @@
       </c>
       <c r="H181" s="21">
         <f>M2*G181</f>
-        <v>3799.24</v>
+        <v>3802.8120000000004</v>
       </c>
       <c r="I181" s="21">
         <f t="shared" si="2"/>
-        <v>11397.72</v>
+        <v>11408.436000000002</v>
       </c>
       <c r="J181" s="27">
         <v>3</v>
@@ -11139,11 +11152,11 @@
       </c>
       <c r="H182" s="21">
         <f>M2*G182</f>
-        <v>6373.7249999999995</v>
+        <v>6379.7175000000007</v>
       </c>
       <c r="I182" s="21">
         <f t="shared" si="2"/>
-        <v>82858.424999999988</v>
+        <v>82936.327500000014</v>
       </c>
       <c r="J182" s="9">
         <v>13</v>
@@ -11207,11 +11220,11 @@
       </c>
       <c r="H184" s="21">
         <f>M2*G184</f>
-        <v>32493.499999999996</v>
+        <v>32524.050000000003</v>
       </c>
       <c r="I184" s="21">
         <f t="shared" si="2"/>
-        <v>97480.499999999985</v>
+        <v>97572.150000000009</v>
       </c>
       <c r="J184" s="9">
         <v>3</v>
@@ -11248,11 +11261,11 @@
       </c>
       <c r="H185" s="21">
         <f>M2*G185</f>
-        <v>404919</v>
+        <v>405299.7</v>
       </c>
       <c r="I185" s="21">
         <f t="shared" si="2"/>
-        <v>404919</v>
+        <v>405299.7</v>
       </c>
       <c r="J185" s="15">
         <v>1</v>
@@ -11289,11 +11302,11 @@
       </c>
       <c r="H186" s="21">
         <f>M2*G186</f>
-        <v>351732.53941999999</v>
+        <v>352063.234146</v>
       </c>
       <c r="I186" s="21">
         <f t="shared" si="2"/>
-        <v>351732.53941999999</v>
+        <v>352063.234146</v>
       </c>
       <c r="J186" s="51">
         <v>1</v>
@@ -11384,11 +11397,11 @@
       </c>
       <c r="H189" s="21">
         <f>M2*G189</f>
-        <v>339112.16399999999</v>
+        <v>339430.99320000003</v>
       </c>
       <c r="I189" s="21">
         <f t="shared" si="2"/>
-        <v>339112.16399999999</v>
+        <v>339430.99320000003</v>
       </c>
       <c r="J189" s="27">
         <v>1</v>
@@ -11425,11 +11438,11 @@
       </c>
       <c r="H190" s="21">
         <f>M2*G190</f>
-        <v>260697.84999999998</v>
+        <v>260942.95500000002</v>
       </c>
       <c r="I190" s="21">
         <f t="shared" si="2"/>
-        <v>260697.84999999998</v>
+        <v>260942.95500000002</v>
       </c>
       <c r="J190" s="9">
         <v>1</v>
@@ -11460,11 +11473,11 @@
       </c>
       <c r="H191" s="21">
         <f>M2*G191</f>
-        <v>5073.9849999999997</v>
+        <v>5078.7555000000002</v>
       </c>
       <c r="I191" s="21">
         <f t="shared" si="2"/>
-        <v>10147.969999999999</v>
+        <v>10157.511</v>
       </c>
       <c r="J191" s="9">
         <v>2</v>
@@ -11495,11 +11508,11 @@
       </c>
       <c r="H192" s="21">
         <f>M2*G192</f>
-        <v>5073.9849999999997</v>
+        <v>5078.7555000000002</v>
       </c>
       <c r="I192" s="21">
         <f t="shared" si="2"/>
-        <v>15221.954999999998</v>
+        <v>15236.266500000002</v>
       </c>
       <c r="J192" s="9">
         <v>3</v>
@@ -11514,7 +11527,7 @@
     </row>
     <row r="193" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A193" s="8" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B193" s="8" t="s">
         <v>166</v>
@@ -11536,11 +11549,11 @@
       </c>
       <c r="H193" s="21">
         <f>M2*G193</f>
-        <v>20495.899999999998</v>
+        <v>20515.170000000002</v>
       </c>
       <c r="I193" s="21">
         <f t="shared" si="2"/>
-        <v>61487.7</v>
+        <v>61545.510000000009</v>
       </c>
       <c r="J193" s="9">
         <v>3</v>
@@ -11577,11 +11590,11 @@
       </c>
       <c r="H194" s="21">
         <f>M2*G194</f>
-        <v>9438.1119999999992</v>
+        <v>9446.9856</v>
       </c>
       <c r="I194" s="21">
         <f t="shared" si="2"/>
-        <v>28314.335999999996</v>
+        <v>28340.9568</v>
       </c>
       <c r="J194" s="10">
         <v>3</v>
@@ -11656,11 +11669,11 @@
       </c>
       <c r="H196" s="21">
         <f>M2*G196</f>
-        <v>920.91577999999993</v>
+        <v>921.78161399999999</v>
       </c>
       <c r="I196" s="21">
         <f t="shared" si="3"/>
-        <v>1841.8315599999999</v>
+        <v>1843.563228</v>
       </c>
       <c r="J196" s="9">
         <v>2</v>
@@ -11693,11 +11706,11 @@
       </c>
       <c r="H197" s="21">
         <f>M2*G197</f>
-        <v>30493.899999999998</v>
+        <v>30522.570000000003</v>
       </c>
       <c r="I197" s="21">
         <f t="shared" si="3"/>
-        <v>152469.5</v>
+        <v>152612.85</v>
       </c>
       <c r="J197" s="9">
         <v>5</v>
@@ -11728,11 +11741,11 @@
       </c>
       <c r="H198" s="21">
         <f>M2*G198</f>
-        <v>49365.125</v>
+        <v>49411.537500000006</v>
       </c>
       <c r="I198" s="21">
         <f t="shared" si="3"/>
-        <v>148095.375</v>
+        <v>148234.61250000002</v>
       </c>
       <c r="J198" s="9">
         <v>3</v>
@@ -11765,11 +11778,11 @@
       </c>
       <c r="H199" s="21">
         <f>M2*G199</f>
-        <v>138821.98004999998</v>
+        <v>138952.498815</v>
       </c>
       <c r="I199" s="21">
         <f t="shared" si="3"/>
-        <v>138821.98004999998</v>
+        <v>138952.498815</v>
       </c>
       <c r="J199" s="9">
         <v>1</v>
@@ -11802,11 +11815,11 @@
       </c>
       <c r="H200" s="21">
         <f>M2*G200</f>
-        <v>174965</v>
+        <v>175129.5</v>
       </c>
       <c r="I200" s="21">
         <f t="shared" si="3"/>
-        <v>174965</v>
+        <v>175129.5</v>
       </c>
       <c r="J200" s="9">
         <v>1</v>
@@ -11837,11 +11850,11 @@
       </c>
       <c r="H201" s="21">
         <f>M2*G201</f>
-        <v>85995.347489999986</v>
+        <v>86076.199286999996</v>
       </c>
       <c r="I201" s="21">
         <f t="shared" si="3"/>
-        <v>257986.04246999996</v>
+        <v>258228.59786099999</v>
       </c>
       <c r="J201" s="9">
         <v>3</v>
@@ -11874,11 +11887,11 @@
       </c>
       <c r="H202" s="21">
         <f>M2*G202</f>
-        <v>124974.99999999999</v>
+        <v>125092.5</v>
       </c>
       <c r="I202" s="21">
         <f t="shared" si="3"/>
-        <v>624874.99999999988</v>
+        <v>625462.5</v>
       </c>
       <c r="J202" s="9">
         <v>5</v>
@@ -11909,11 +11922,11 @@
       </c>
       <c r="H203" s="21">
         <f>M2*G203</f>
-        <v>5401.6694499999994</v>
+        <v>5406.7480349999996</v>
       </c>
       <c r="I203" s="21">
         <f t="shared" si="3"/>
-        <v>37811.686149999994</v>
+        <v>37847.236245</v>
       </c>
       <c r="J203" s="9">
         <v>7</v>
@@ -11946,11 +11959,11 @@
       </c>
       <c r="H204" s="21">
         <f>M$2*G204</f>
-        <v>641.12174999999991</v>
+        <v>641.72452500000009</v>
       </c>
       <c r="I204" s="21">
         <f t="shared" si="3"/>
-        <v>12822.434999999998</v>
+        <v>12834.490500000002</v>
       </c>
       <c r="J204" s="9">
         <v>20</v>
@@ -11983,11 +11996,11 @@
       </c>
       <c r="H205" s="21">
         <f>M2*G205</f>
-        <v>624.875</v>
+        <v>625.46249999999998</v>
       </c>
       <c r="I205" s="21">
         <f t="shared" si="3"/>
-        <v>24370.125</v>
+        <v>24393.037499999999</v>
       </c>
       <c r="J205" s="9">
         <v>39</v>
@@ -12077,10 +12090,10 @@
         <v>540</v>
       </c>
       <c r="E208" s="9" t="s">
-        <v>114</v>
+        <v>541</v>
       </c>
       <c r="F208" s="9" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G208" s="20"/>
       <c r="H208" s="21">
@@ -12107,13 +12120,13 @@
         <v>364</v>
       </c>
       <c r="D209" s="9" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E209" s="9" t="s">
-        <v>114</v>
+        <v>541</v>
       </c>
       <c r="F209" s="9" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G209" s="20"/>
       <c r="H209" s="21">
@@ -12140,13 +12153,13 @@
         <v>364</v>
       </c>
       <c r="D210" s="9" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E210" s="9" t="s">
-        <v>114</v>
+        <v>541</v>
       </c>
       <c r="F210" s="9" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G210" s="20"/>
       <c r="H210" s="21">
@@ -12170,16 +12183,16 @@
         <v>166</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D211" s="9" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E211" s="9" t="s">
-        <v>114</v>
+        <v>541</v>
       </c>
       <c r="F211" s="9" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G211" s="20"/>
       <c r="H211" s="21">
@@ -12193,7 +12206,7 @@
         <v>5</v>
       </c>
       <c r="K211" s="11" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L211" s="1"/>
     </row>
@@ -12205,16 +12218,16 @@
         <v>166</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D212" s="9" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E212" s="9" t="s">
-        <v>114</v>
+        <v>541</v>
       </c>
       <c r="F212" s="9" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G212" s="20"/>
       <c r="H212" s="21">
@@ -12228,7 +12241,7 @@
         <v>5</v>
       </c>
       <c r="K212" s="11" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L212" s="1"/>
     </row>
@@ -12240,16 +12253,16 @@
         <v>166</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D213" s="9" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E213" s="9" t="s">
-        <v>114</v>
+        <v>541</v>
       </c>
       <c r="F213" s="9" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G213" s="20"/>
       <c r="H213" s="21">
@@ -12263,7 +12276,7 @@
         <v>5</v>
       </c>
       <c r="K213" s="11" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L213" s="1"/>
     </row>
@@ -12275,16 +12288,16 @@
         <v>166</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D214" s="9" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E214" s="9" t="s">
-        <v>114</v>
+        <v>541</v>
       </c>
       <c r="F214" s="9" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G214" s="20"/>
       <c r="H214" s="21">
@@ -12298,7 +12311,7 @@
         <v>1</v>
       </c>
       <c r="K214" s="11" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="L214" s="1"/>
     </row>
@@ -12310,16 +12323,16 @@
         <v>166</v>
       </c>
       <c r="C215" s="8" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D215" s="9" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E215" s="9" t="s">
-        <v>114</v>
+        <v>558</v>
       </c>
       <c r="F215" s="9" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="G215" s="20"/>
       <c r="H215" s="21">
@@ -12343,16 +12356,16 @@
         <v>166</v>
       </c>
       <c r="C216" s="8" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D216" s="9" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="E216" s="9" t="s">
-        <v>114</v>
+        <v>541</v>
       </c>
       <c r="F216" s="9" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="G216" s="20"/>
       <c r="H216" s="21">
@@ -12366,7 +12379,7 @@
         <v>1</v>
       </c>
       <c r="K216" s="11" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L216" s="1"/>
     </row>
@@ -12378,16 +12391,16 @@
         <v>166</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D217" s="9" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="E217" s="9" t="s">
-        <v>114</v>
+        <v>541</v>
       </c>
       <c r="F217" s="9" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="G217" s="20"/>
       <c r="H217" s="21">
@@ -12411,16 +12424,16 @@
         <v>166</v>
       </c>
       <c r="C218" s="8" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D218" s="9" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="E218" s="9" t="s">
-        <v>114</v>
+        <v>541</v>
       </c>
       <c r="F218" s="9" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G218" s="20"/>
       <c r="H218" s="21">
@@ -12441,19 +12454,19 @@
         <v>10</v>
       </c>
       <c r="B219" s="14" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C219" s="14" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D219" s="15" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="E219" s="15" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F219" s="15" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="G219" s="20"/>
       <c r="H219" s="21">
@@ -12467,7 +12480,7 @@
         <v>1</v>
       </c>
       <c r="K219" s="11" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L219" s="1"/>
     </row>
@@ -12476,19 +12489,19 @@
         <v>10</v>
       </c>
       <c r="B220" s="14" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C220" s="14" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D220" s="9" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="E220" s="9" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="F220" s="9" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="G220" s="20"/>
       <c r="H220" s="21">
@@ -12502,7 +12515,7 @@
         <v>1</v>
       </c>
       <c r="K220" s="11" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L220" s="1"/>
     </row>
@@ -12511,19 +12524,19 @@
         <v>10</v>
       </c>
       <c r="B221" s="14" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C221" s="14" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D221" s="9" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="E221" s="9" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="F221" s="9" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="G221" s="20"/>
       <c r="H221" s="21">
@@ -12537,7 +12550,7 @@
         <v>1</v>
       </c>
       <c r="K221" s="11" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L221" s="1"/>
     </row>
@@ -12546,19 +12559,19 @@
         <v>10</v>
       </c>
       <c r="B222" s="14" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C222" s="14" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D222" s="9" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E222" s="9" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="F222" s="9" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="G222" s="20"/>
       <c r="H222" s="21">
@@ -12572,7 +12585,7 @@
         <v>1</v>
       </c>
       <c r="K222" s="11" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L222" s="1"/>
     </row>
@@ -12581,19 +12594,19 @@
         <v>10</v>
       </c>
       <c r="B223" s="14" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C223" s="14" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D223" s="9" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="E223" s="9" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="F223" s="9" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="G223" s="20"/>
       <c r="H223" s="21">
@@ -12607,7 +12620,7 @@
         <v>1</v>
       </c>
       <c r="K223" s="11" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L223" s="1"/>
     </row>
@@ -12616,36 +12629,36 @@
         <v>10</v>
       </c>
       <c r="B224" s="14" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C224" s="14" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D224" s="9" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E224" s="9" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F224" s="9" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="G224" s="20">
         <v>14028</v>
       </c>
       <c r="H224" s="21">
         <f>G224*M$2</f>
-        <v>70125.971999999994</v>
+        <v>70191.903600000005</v>
       </c>
       <c r="I224" s="21">
         <f t="shared" si="3"/>
-        <v>70125.971999999994</v>
+        <v>70191.903600000005</v>
       </c>
       <c r="J224" s="15">
         <v>1</v>
       </c>
       <c r="K224" s="11" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L224" s="1"/>
     </row>
@@ -12654,19 +12667,19 @@
         <v>10</v>
       </c>
       <c r="B225" s="14" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C225" s="14" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D225" s="9" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="E225" s="9" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="F225" s="9" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="G225" s="20"/>
       <c r="H225" s="21">
@@ -12680,7 +12693,7 @@
         <v>1</v>
       </c>
       <c r="K225" s="11" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L225" s="1"/>
     </row>
@@ -12689,19 +12702,19 @@
         <v>10</v>
       </c>
       <c r="B226" s="14" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C226" s="14" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D226" s="9" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="E226" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="F226" s="9" t="s">
         <v>583</v>
-      </c>
-      <c r="F226" s="9" t="s">
-        <v>581</v>
       </c>
       <c r="G226" s="20"/>
       <c r="H226" s="21">
@@ -12715,7 +12728,7 @@
         <v>1</v>
       </c>
       <c r="K226" s="11" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L226" s="1"/>
     </row>
@@ -12724,19 +12737,19 @@
         <v>10</v>
       </c>
       <c r="B227" s="14" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C227" s="14" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D227" s="9" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="E227" s="9" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="F227" s="9" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="G227" s="20"/>
       <c r="H227" s="21">
@@ -12750,7 +12763,7 @@
         <v>1</v>
       </c>
       <c r="K227" s="11" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L227" s="1"/>
     </row>
@@ -12759,19 +12772,19 @@
         <v>10</v>
       </c>
       <c r="B228" s="14" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C228" s="14" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D228" s="9" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E228" s="9" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="F228" s="9" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="G228" s="20"/>
       <c r="H228" s="21">
@@ -12785,7 +12798,7 @@
         <v>1</v>
       </c>
       <c r="K228" s="11" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L228" s="1"/>
     </row>
@@ -12794,19 +12807,19 @@
         <v>10</v>
       </c>
       <c r="B229" s="14" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C229" s="14" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D229" s="9" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="E229" s="9" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="F229" s="9" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="G229" s="20"/>
       <c r="H229" s="21">
@@ -12820,7 +12833,7 @@
         <v>1</v>
       </c>
       <c r="K229" s="11" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L229" s="1"/>
     </row>
@@ -12829,19 +12842,19 @@
         <v>10</v>
       </c>
       <c r="B230" s="14" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C230" s="14" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="E230" s="9" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="F230" s="9" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="G230" s="20"/>
       <c r="H230" s="21">
@@ -12855,7 +12868,7 @@
         <v>1</v>
       </c>
       <c r="K230" s="11" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L230" s="1"/>
     </row>
@@ -12864,19 +12877,19 @@
         <v>10</v>
       </c>
       <c r="B231" s="14" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C231" s="14" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D231" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="E231" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="F231" s="9" t="s">
         <v>594</v>
-      </c>
-      <c r="F231" s="9" t="s">
-        <v>592</v>
       </c>
       <c r="G231" s="20"/>
       <c r="H231" s="21">
@@ -12890,7 +12903,7 @@
         <v>1</v>
       </c>
       <c r="K231" s="11" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L231" s="1"/>
     </row>
@@ -12899,19 +12912,19 @@
         <v>10</v>
       </c>
       <c r="B232" s="14" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C232" s="14" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D232" s="9" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="E232" s="9" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="F232" s="9" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="G232" s="20"/>
       <c r="H232" s="21">
@@ -12925,7 +12938,7 @@
         <v>1</v>
       </c>
       <c r="K232" s="11" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L232" s="1"/>
     </row>
@@ -12934,19 +12947,19 @@
         <v>10</v>
       </c>
       <c r="B233" s="14" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C233" s="14" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D233" s="9" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="E233" s="9" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="F233" s="9" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="G233" s="20"/>
       <c r="H233" s="21">
@@ -12960,7 +12973,7 @@
         <v>1</v>
       </c>
       <c r="K233" s="11" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L233" s="1"/>
     </row>
@@ -12969,19 +12982,19 @@
         <v>10</v>
       </c>
       <c r="B234" s="14" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C234" s="8" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D234" s="9" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E234" s="9" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="F234" s="9" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="G234" s="20"/>
       <c r="H234" s="21">
@@ -12995,7 +13008,7 @@
         <v>1</v>
       </c>
       <c r="K234" s="16" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L234" s="1"/>
     </row>
@@ -13004,19 +13017,19 @@
         <v>10</v>
       </c>
       <c r="B235" s="14" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C235" s="8" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D235" s="9" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E235" s="9" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="F235" s="9" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="G235" s="20"/>
       <c r="H235" s="21">
@@ -13030,7 +13043,7 @@
         <v>1</v>
       </c>
       <c r="K235" s="16" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L235" s="1"/>
     </row>
@@ -13039,19 +13052,19 @@
         <v>10</v>
       </c>
       <c r="B236" s="14" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C236" s="8" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D236" s="9" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="E236" s="9" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="F236" s="9" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="G236" s="20"/>
       <c r="H236" s="21">
@@ -13065,7 +13078,7 @@
         <v>1</v>
       </c>
       <c r="K236" s="16" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L236" s="1"/>
     </row>
@@ -13074,19 +13087,19 @@
         <v>10</v>
       </c>
       <c r="B237" s="14" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C237" s="8" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D237" s="9" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="E237" s="9" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="F237" s="9" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="G237" s="20"/>
       <c r="H237" s="21">
@@ -13100,7 +13113,7 @@
         <v>1</v>
       </c>
       <c r="K237" s="16" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L237" s="1"/>
     </row>
@@ -13109,19 +13122,19 @@
         <v>10</v>
       </c>
       <c r="B238" s="14" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C238" s="8" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D238" s="9" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="E238" s="9" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="F238" s="9" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="G238" s="20"/>
       <c r="H238" s="21">
@@ -13135,7 +13148,7 @@
         <v>1</v>
       </c>
       <c r="K238" s="16" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L238" s="1"/>
     </row>
@@ -13144,19 +13157,19 @@
         <v>10</v>
       </c>
       <c r="B239" s="14" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C239" s="8" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D239" s="9" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="E239" s="9" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="F239" s="9" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="G239" s="20"/>
       <c r="H239" s="21">
@@ -13170,7 +13183,7 @@
         <v>1</v>
       </c>
       <c r="K239" s="16" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L239" s="1"/>
     </row>
@@ -13179,19 +13192,19 @@
         <v>10</v>
       </c>
       <c r="B240" s="14" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C240" s="8" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D240" s="9" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="E240" s="9" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="F240" s="9" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="G240" s="20"/>
       <c r="H240" s="21">
@@ -13205,7 +13218,7 @@
         <v>1</v>
       </c>
       <c r="K240" s="16" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L240" s="1"/>
     </row>
@@ -13214,19 +13227,19 @@
         <v>10</v>
       </c>
       <c r="B241" s="14" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C241" s="8" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D241" s="9" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E241" s="9" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="F241" s="9" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="G241" s="20"/>
       <c r="H241" s="21">
@@ -13240,7 +13253,7 @@
         <v>1</v>
       </c>
       <c r="K241" s="16" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L241" s="1"/>
     </row>
@@ -13249,19 +13262,19 @@
         <v>10</v>
       </c>
       <c r="B242" s="14" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C242" s="8" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D242" s="15" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="E242" s="15" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="F242" s="15" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="G242" s="20"/>
       <c r="H242" s="21">
@@ -13275,7 +13288,7 @@
         <v>1</v>
       </c>
       <c r="K242" s="16" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L242" s="1"/>
     </row>
@@ -13283,8 +13296,8 @@
       <c r="J243"/>
     </row>
     <row r="245" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H245" s="74"/>
-      <c r="I245" s="74"/>
+      <c r="H245" s="69"/>
+      <c r="I245" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -13351,7 +13364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB366458-9823-422D-997C-D5CD3D2B5B92}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="72" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -13364,18 +13377,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="66" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="66" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="72" t="s">
         <v>238</v>
       </c>
     </row>
@@ -13383,7 +13396,7 @@
       <c r="A3" t="s">
         <v>166</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="72" t="s">
         <v>252</v>
       </c>
     </row>
@@ -13391,7 +13404,7 @@
       <c r="A4" t="s">
         <v>271</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="72" t="s">
         <v>266</v>
       </c>
     </row>
@@ -13399,7 +13412,7 @@
       <c r="A5" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="72" t="s">
         <v>12</v>
       </c>
     </row>
@@ -13407,106 +13420,106 @@
       <c r="A6" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="72" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>562</v>
-      </c>
-      <c r="C7" s="77" t="s">
+        <v>564</v>
+      </c>
+      <c r="C7" s="72" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="72" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="72" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="72" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C11" s="77" t="s">
-        <v>624</v>
+      <c r="C11" s="72" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C12" s="77" t="s">
-        <v>625</v>
+      <c r="C12" s="72" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C13" s="76" t="s">
-        <v>552</v>
+      <c r="C13" s="71" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C14" s="76" t="s">
-        <v>546</v>
+      <c r="C14" s="71" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C15" s="76" t="s">
+      <c r="C15" s="71" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="70" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" s="75" t="s">
+      <c r="C17" s="70" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18" s="78" t="s">
+      <c r="C18" s="73" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="73" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C20" s="78" t="s">
+      <c r="C20" s="73" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C21" s="78" t="s">
+      <c r="C21" s="73" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="73" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="74" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C24" s="80" t="s">
-        <v>599</v>
+      <c r="C24" s="75" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C25" s="80" t="s">
-        <v>626</v>
+      <c r="C25" s="75" t="s">
+        <v>628</v>
       </c>
     </row>
   </sheetData>

--- a/PrecificarEquipamentos_Duda.xlsx
+++ b/PrecificarEquipamentos_Duda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://oceanpact-my.sharepoint.com/personal/william_silva_oceanpact_com/Documents/Documentos/GitHub/Inventario_PowerBI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{D93647BB-14B7-4627-8468-A5BF37930212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C3A676E-9011-4A54-A22E-44AE88240845}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{D93647BB-14B7-4627-8468-A5BF37930212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4472C458-3602-4B78-B8D7-4EAE5FEDC9A0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3639,16 +3639,16 @@
     <v>5.0373000000000001</v>
     <v>USD</v>
     <v>5.0357000000000003</v>
-    <v>45077.726331018515</v>
+    <v>45077.733136574076</v>
     <v>BRL</v>
     <v>US Dollar/Brazilian Real FX Spot Rate</v>
     <v>5.0357000000000003</v>
-    <v>5.0900999999999996</v>
+    <v>5.0827</v>
     <v>USDBRL</v>
     <v>Par de Moedas</v>
     <v>USD/BRL</v>
-    <v>5.4399999999999997E-2</v>
-    <v>1.0803E-2</v>
+    <v>4.7E-2</v>
+    <v>9.333000000000001E-3</v>
   </rv>
   <rv s="1">
     <v>0</v>
@@ -3672,16 +3672,16 @@
     <v>5.3693</v>
     <v>EUR</v>
     <v>5.4047999999999998</v>
-    <v>45077.726331018515</v>
+    <v>45077.733159722222</v>
     <v>BRL</v>
     <v>Euro/Brazilian Real FX Cross Rate</v>
     <v>5.4053000000000004</v>
-    <v>5.4179000000000004</v>
+    <v>5.4135</v>
     <v>EURBRL</v>
     <v>Par de Moedas</v>
     <v>EUR/BRL</v>
-    <v>1.3100000000000001E-2</v>
-    <v>2.4239999999999999E-3</v>
+    <v>8.6999999999999994E-3</v>
+    <v>1.6100000000000001E-3</v>
   </rv>
   <rv s="1">
     <v>2</v>
@@ -4242,8 +4242,8 @@
   <dimension ref="A1:N249"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E259" sqref="E259"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4321,11 +4321,11 @@
       </c>
       <c r="H2" s="20">
         <f>G2*M2</f>
-        <v>210577.43699999998</v>
+        <v>210271.299</v>
       </c>
       <c r="I2" s="20">
         <f>H2*J2</f>
-        <v>421154.87399999995</v>
+        <v>420542.598</v>
       </c>
       <c r="J2" s="10">
         <v>2</v>
@@ -4338,7 +4338,7 @@
       </c>
       <c r="M2" s="2" cm="1">
         <f t="array" ref="M2">_FV(L2,"Preço",TRUE)</f>
-        <v>5.0900999999999996</v>
+        <v>5.0827</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>18</v>
@@ -4368,11 +4368,11 @@
       </c>
       <c r="H3" s="20">
         <f>G3*M2</f>
-        <v>274941.14068799996</v>
+        <v>274541.43057600001</v>
       </c>
       <c r="I3" s="20">
         <f t="shared" ref="I3:I70" si="0">H3*J3</f>
-        <v>549882.28137599991</v>
+        <v>549082.86115200003</v>
       </c>
       <c r="J3" s="10">
         <v>2</v>
@@ -4409,11 +4409,11 @@
       </c>
       <c r="H4" s="20">
         <f>M$2*G4</f>
-        <v>806439.81329999992</v>
+        <v>805267.40910000005</v>
       </c>
       <c r="I4" s="20">
         <f t="shared" si="0"/>
-        <v>1612879.6265999998</v>
+        <v>1610534.8182000001</v>
       </c>
       <c r="J4" s="10">
         <v>2</v>
@@ -4447,11 +4447,11 @@
       </c>
       <c r="H5" s="20">
         <f>M2*G5</f>
-        <v>133747.4676</v>
+        <v>133553.0252</v>
       </c>
       <c r="I5" s="20">
         <f t="shared" si="0"/>
-        <v>1471222.1436000001</v>
+        <v>1469083.2772000001</v>
       </c>
       <c r="J5" s="10">
         <v>11</v>
@@ -4492,11 +4492,11 @@
       </c>
       <c r="H6" s="20">
         <f>M2*G6</f>
-        <v>159197.96759999997</v>
+        <v>158966.5252</v>
       </c>
       <c r="I6" s="20">
         <f t="shared" si="0"/>
-        <v>159197.96759999997</v>
+        <v>158966.5252</v>
       </c>
       <c r="J6" s="9">
         <v>1</v>
@@ -4533,11 +4533,11 @@
       </c>
       <c r="H7" s="20">
         <f>M2*G7</f>
-        <v>143927.66759999999</v>
+        <v>143718.4252</v>
       </c>
       <c r="I7" s="20">
         <f t="shared" si="0"/>
-        <v>1007493.6731999998</v>
+        <v>1006028.9764</v>
       </c>
       <c r="J7" s="9">
         <v>7</v>
@@ -4574,11 +4574,11 @@
       </c>
       <c r="H8" s="20">
         <f>M2*G8</f>
-        <v>274941.14068799996</v>
+        <v>274541.43057600001</v>
       </c>
       <c r="I8" s="20">
         <f t="shared" si="0"/>
-        <v>10172822.205455998</v>
+        <v>10158032.931312</v>
       </c>
       <c r="J8" s="10">
         <v>37</v>
@@ -4615,11 +4615,11 @@
       </c>
       <c r="H9" s="20">
         <f>M2*G9</f>
-        <v>188333.69999999998</v>
+        <v>188059.9</v>
       </c>
       <c r="I9" s="20">
         <f t="shared" si="0"/>
-        <v>565001.1</v>
+        <v>564179.69999999995</v>
       </c>
       <c r="J9" s="9">
         <v>3</v>
@@ -4656,11 +4656,11 @@
       </c>
       <c r="H10" s="20">
         <f>M2*G10</f>
-        <v>165003.27755099998</v>
+        <v>164763.39537699998</v>
       </c>
       <c r="I10" s="20">
         <f t="shared" si="0"/>
-        <v>330006.55510199995</v>
+        <v>329526.79075399996</v>
       </c>
       <c r="J10" s="9">
         <v>2</v>
@@ -4697,11 +4697,11 @@
       </c>
       <c r="H11" s="20">
         <f>M2*G11</f>
-        <v>391800.26729999995</v>
+        <v>391230.66710000002</v>
       </c>
       <c r="I11" s="20">
         <f t="shared" si="0"/>
-        <v>1175400.8018999998</v>
+        <v>1173692.0013000001</v>
       </c>
       <c r="J11" s="9">
         <v>3</v>
@@ -4738,11 +4738,11 @@
       </c>
       <c r="H12" s="20">
         <f>M2*G12</f>
-        <v>122162.4</v>
+        <v>121984.8</v>
       </c>
       <c r="I12" s="20">
         <f t="shared" si="0"/>
-        <v>488649.6</v>
+        <v>487939.2</v>
       </c>
       <c r="J12" s="9">
         <v>4</v>
@@ -4779,11 +4779,11 @@
       </c>
       <c r="H13" s="20">
         <f>M2*G13</f>
-        <v>172131.9117</v>
+        <v>171881.66589999999</v>
       </c>
       <c r="I13" s="20">
         <f t="shared" si="0"/>
-        <v>172131.9117</v>
+        <v>171881.66589999999</v>
       </c>
       <c r="J13" s="9">
         <v>1</v>
@@ -4821,11 +4821,11 @@
       </c>
       <c r="H14" s="20">
         <f>M2*G14</f>
-        <v>172131.9117</v>
+        <v>171881.66589999999</v>
       </c>
       <c r="I14" s="20">
         <f t="shared" si="0"/>
-        <v>172131.9117</v>
+        <v>171881.66589999999</v>
       </c>
       <c r="J14" s="9">
         <v>1</v>
@@ -4859,11 +4859,11 @@
       </c>
       <c r="H15" s="20">
         <f>M2*G15</f>
-        <v>1200.2964809999999</v>
+        <v>1198.551487</v>
       </c>
       <c r="I15" s="20">
         <f t="shared" si="0"/>
-        <v>4801.1859239999994</v>
+        <v>4794.2059479999998</v>
       </c>
       <c r="J15" s="9">
         <v>4</v>
@@ -4894,11 +4894,11 @@
       </c>
       <c r="H16" s="20">
         <f>M2*G16</f>
-        <v>35376.195</v>
+        <v>35324.764999999999</v>
       </c>
       <c r="I16" s="20">
         <f t="shared" si="0"/>
-        <v>106128.58499999999</v>
+        <v>105974.295</v>
       </c>
       <c r="J16" s="9">
         <v>3</v>
@@ -4929,11 +4929,11 @@
       </c>
       <c r="H17" s="20">
         <f>M2*G17</f>
-        <v>26086.762499999997</v>
+        <v>26048.837500000001</v>
       </c>
       <c r="I17" s="20">
         <f t="shared" si="0"/>
-        <v>104347.04999999999</v>
+        <v>104195.35</v>
       </c>
       <c r="J17" s="9">
         <v>4</v>
@@ -4964,11 +4964,11 @@
       </c>
       <c r="H18" s="20">
         <f>M2*G18</f>
-        <v>35376.195</v>
+        <v>35324.764999999999</v>
       </c>
       <c r="I18" s="20">
         <f t="shared" si="0"/>
-        <v>35376.195</v>
+        <v>35324.764999999999</v>
       </c>
       <c r="J18" s="9">
         <v>1</v>
@@ -5005,11 +5005,11 @@
       </c>
       <c r="H19" s="20">
         <f>M2*G19</f>
-        <v>16294.377219</v>
+        <v>16270.688413</v>
       </c>
       <c r="I19" s="20">
         <f t="shared" si="0"/>
-        <v>16294.377219</v>
+        <v>16270.688413</v>
       </c>
       <c r="J19" s="9">
         <v>1</v>
@@ -5046,11 +5046,11 @@
       </c>
       <c r="H20" s="20">
         <f>M2*G20</f>
-        <v>16294.377219</v>
+        <v>16270.688413</v>
       </c>
       <c r="I20" s="20">
         <f t="shared" si="0"/>
-        <v>16294.377219</v>
+        <v>16270.688413</v>
       </c>
       <c r="J20" s="9">
         <v>1</v>
@@ -5087,11 +5087,11 @@
       </c>
       <c r="H21" s="20">
         <f>M2*G21</f>
-        <v>16294.377219</v>
+        <v>16270.688413</v>
       </c>
       <c r="I21" s="20">
         <f t="shared" si="0"/>
-        <v>260710.035504</v>
+        <v>260331.014608</v>
       </c>
       <c r="J21" s="10">
         <v>16</v>
@@ -5128,11 +5128,11 @@
       </c>
       <c r="H22" s="20">
         <f>M2*G22</f>
-        <v>2209.5106079999996</v>
+        <v>2206.2984160000001</v>
       </c>
       <c r="I22" s="20">
         <f t="shared" si="0"/>
-        <v>2209.5106079999996</v>
+        <v>2206.2984160000001</v>
       </c>
       <c r="J22" s="9">
         <v>1</v>
@@ -5169,11 +5169,11 @@
       </c>
       <c r="H23" s="20">
         <f>M2*G23</f>
-        <v>10180.199999999999</v>
+        <v>10165.4</v>
       </c>
       <c r="I23" s="20">
         <f t="shared" si="0"/>
-        <v>30540.6</v>
+        <v>30496.199999999997</v>
       </c>
       <c r="J23" s="9">
         <v>3</v>
@@ -5210,11 +5210,11 @@
       </c>
       <c r="H24" s="20">
         <f>M2*G24</f>
-        <v>10180.199999999999</v>
+        <v>10165.4</v>
       </c>
       <c r="I24" s="20">
         <f t="shared" si="0"/>
-        <v>50900.999999999993</v>
+        <v>50827</v>
       </c>
       <c r="J24" s="9">
         <v>5</v>
@@ -5251,11 +5251,11 @@
       </c>
       <c r="H25" s="20">
         <f>M2*G25</f>
-        <v>10180.199999999999</v>
+        <v>10165.4</v>
       </c>
       <c r="I25" s="20">
         <f t="shared" si="0"/>
-        <v>20360.399999999998</v>
+        <v>20330.8</v>
       </c>
       <c r="J25" s="9">
         <v>2</v>
@@ -5292,11 +5292,11 @@
       </c>
       <c r="H26" s="20">
         <f>M2*G26</f>
-        <v>4983.2078999999994</v>
+        <v>4975.9633000000003</v>
       </c>
       <c r="I26" s="20">
         <f t="shared" si="0"/>
-        <v>9966.4157999999989</v>
+        <v>9951.9266000000007</v>
       </c>
       <c r="J26" s="9">
         <v>2</v>
@@ -5333,11 +5333,11 @@
       </c>
       <c r="H27" s="20">
         <f>M2*G27</f>
-        <v>77467.758929999996</v>
+        <v>77355.136109999992</v>
       </c>
       <c r="I27" s="20">
         <f t="shared" si="0"/>
-        <v>1626822.93753</v>
+        <v>1624457.8583099998</v>
       </c>
       <c r="J27" s="10">
         <v>21</v>
@@ -5374,11 +5374,11 @@
       </c>
       <c r="H28" s="20">
         <f>M2*G28</f>
-        <v>55991.1</v>
+        <v>55909.7</v>
       </c>
       <c r="I28" s="20">
         <f t="shared" si="0"/>
-        <v>167973.3</v>
+        <v>167729.09999999998</v>
       </c>
       <c r="J28" s="9">
         <v>3</v>
@@ -5416,11 +5416,11 @@
       </c>
       <c r="H29" s="20">
         <f>M2*G29</f>
-        <v>55991.1</v>
+        <v>55909.7</v>
       </c>
       <c r="I29" s="20">
         <f t="shared" si="0"/>
-        <v>671893.2</v>
+        <v>670916.39999999991</v>
       </c>
       <c r="J29" s="10">
         <v>12</v>
@@ -5458,11 +5458,11 @@
       </c>
       <c r="H30" s="20">
         <f>M$2*G30</f>
-        <v>91621.799999999988</v>
+        <v>91488.6</v>
       </c>
       <c r="I30" s="20">
         <f t="shared" si="0"/>
-        <v>91621.799999999988</v>
+        <v>91488.6</v>
       </c>
       <c r="J30" s="9">
         <v>1</v>
@@ -5498,11 +5498,11 @@
       </c>
       <c r="H31" s="20">
         <f>M2*G31</f>
-        <v>25450.499999999996</v>
+        <v>25413.5</v>
       </c>
       <c r="I31" s="20">
         <f t="shared" si="0"/>
-        <v>101801.99999999999</v>
+        <v>101654</v>
       </c>
       <c r="J31" s="10">
         <v>4</v>
@@ -5538,11 +5538,11 @@
       </c>
       <c r="H32" s="20">
         <f>M2*G32</f>
-        <v>3379.8263999999999</v>
+        <v>3374.9128000000001</v>
       </c>
       <c r="I32" s="20">
         <f t="shared" si="0"/>
-        <v>16899.131999999998</v>
+        <v>16874.563999999998</v>
       </c>
       <c r="J32" s="9">
         <v>5</v>
@@ -5579,11 +5579,11 @@
       </c>
       <c r="H33" s="20">
         <f>M2*G33</f>
-        <v>3379.8263999999999</v>
+        <v>3374.9128000000001</v>
       </c>
       <c r="I33" s="20">
         <f t="shared" si="0"/>
-        <v>125053.5768</v>
+        <v>124871.7736</v>
       </c>
       <c r="J33" s="10">
         <v>37</v>
@@ -5620,11 +5620,11 @@
       </c>
       <c r="H34" s="20">
         <f>M2*G34</f>
-        <v>3379.8263999999999</v>
+        <v>3374.9128000000001</v>
       </c>
       <c r="I34" s="20">
         <f t="shared" si="0"/>
-        <v>10139.4792</v>
+        <v>10124.7384</v>
       </c>
       <c r="J34" s="9">
         <v>3</v>
@@ -5661,11 +5661,11 @@
       </c>
       <c r="H35" s="20">
         <f>M2*G35</f>
-        <v>3379.8263999999999</v>
+        <v>3374.9128000000001</v>
       </c>
       <c r="I35" s="20">
         <f t="shared" si="0"/>
-        <v>6759.6527999999998</v>
+        <v>6749.8256000000001</v>
       </c>
       <c r="J35" s="9">
         <v>2</v>
@@ -5702,11 +5702,11 @@
       </c>
       <c r="H36" s="20">
         <f>M2*G36</f>
-        <v>25715.1852</v>
+        <v>25677.8004</v>
       </c>
       <c r="I36" s="20">
         <f t="shared" si="0"/>
-        <v>25715.1852</v>
+        <v>25677.8004</v>
       </c>
       <c r="J36" s="9">
         <v>1</v>
@@ -5743,11 +5743,11 @@
       </c>
       <c r="H37" s="20">
         <f>M2*G37</f>
-        <v>63626.249999999993</v>
+        <v>63533.75</v>
       </c>
       <c r="I37" s="20">
         <f t="shared" si="0"/>
-        <v>318131.24999999994</v>
+        <v>317668.75</v>
       </c>
       <c r="J37" s="9">
         <v>5</v>
@@ -5784,11 +5784,11 @@
       </c>
       <c r="H38" s="20">
         <f>M2*G38</f>
-        <v>25715.1852</v>
+        <v>25677.8004</v>
       </c>
       <c r="I38" s="20">
         <f t="shared" si="0"/>
-        <v>462873.33360000001</v>
+        <v>462200.40720000002</v>
       </c>
       <c r="J38" s="9">
         <v>18</v>
@@ -5825,11 +5825,11 @@
       </c>
       <c r="H39" s="20">
         <f>M2*G39</f>
-        <v>25715.1852</v>
+        <v>25677.8004</v>
       </c>
       <c r="I39" s="20">
         <f t="shared" si="0"/>
-        <v>25715.1852</v>
+        <v>25677.8004</v>
       </c>
       <c r="J39" s="9">
         <v>1</v>
@@ -5866,11 +5866,11 @@
       </c>
       <c r="H40" s="20">
         <f>M2*G40</f>
-        <v>17815.349999999999</v>
+        <v>17789.45</v>
       </c>
       <c r="I40" s="20">
         <f t="shared" si="0"/>
-        <v>142522.79999999999</v>
+        <v>142315.6</v>
       </c>
       <c r="J40" s="9">
         <v>8</v>
@@ -5907,11 +5907,11 @@
       </c>
       <c r="H41" s="20">
         <f>M2*G41</f>
-        <v>22905.449999999997</v>
+        <v>22872.15</v>
       </c>
       <c r="I41" s="20">
         <f t="shared" si="0"/>
-        <v>435203.54999999993</v>
+        <v>434570.85000000003</v>
       </c>
       <c r="J41" s="9">
         <v>19</v>
@@ -5948,11 +5948,11 @@
       </c>
       <c r="H42" s="20">
         <f>M2*G42</f>
-        <v>32147.340965999996</v>
+        <v>32100.605081999998</v>
       </c>
       <c r="I42" s="20">
         <f t="shared" si="0"/>
-        <v>192884.04579599999</v>
+        <v>192603.630492</v>
       </c>
       <c r="J42" s="9">
         <v>6</v>
@@ -5989,11 +5989,11 @@
       </c>
       <c r="H43" s="20">
         <f>M2*G43</f>
-        <v>15942.1932</v>
+        <v>15919.0164</v>
       </c>
       <c r="I43" s="20">
         <f t="shared" si="0"/>
-        <v>159421.932</v>
+        <v>159190.16399999999</v>
       </c>
       <c r="J43" s="9">
         <v>10</v>
@@ -6030,11 +6030,11 @@
       </c>
       <c r="H44" s="20">
         <f>M$2*G44</f>
-        <v>32780.243999999999</v>
+        <v>32732.588</v>
       </c>
       <c r="I44" s="20">
         <f t="shared" si="0"/>
-        <v>32780.243999999999</v>
+        <v>32732.588</v>
       </c>
       <c r="J44" s="9">
         <v>1</v>
@@ -6071,11 +6071,11 @@
       </c>
       <c r="H45" s="20">
         <f t="shared" ref="H45:H46" si="1">M$2*G45</f>
-        <v>32780.243999999999</v>
+        <v>32732.588</v>
       </c>
       <c r="I45" s="20">
         <f t="shared" si="0"/>
-        <v>229461.70799999998</v>
+        <v>229128.11600000001</v>
       </c>
       <c r="J45" s="9">
         <v>7</v>
@@ -6107,11 +6107,11 @@
       </c>
       <c r="H46" s="20">
         <f t="shared" si="1"/>
-        <v>32780.243999999999</v>
+        <v>32732.588</v>
       </c>
       <c r="I46" s="20">
         <f t="shared" si="0"/>
-        <v>262241.95199999999</v>
+        <v>261860.704</v>
       </c>
       <c r="J46" s="9">
         <v>8</v>
@@ -6143,11 +6143,11 @@
       </c>
       <c r="H47" s="20">
         <f>M2*G47</f>
-        <v>47159.674697999995</v>
+        <v>47091.113846</v>
       </c>
       <c r="I47" s="20">
         <f t="shared" si="0"/>
-        <v>47159.674697999995</v>
+        <v>47091.113846</v>
       </c>
       <c r="J47" s="9">
         <v>1</v>
@@ -6184,11 +6184,11 @@
       </c>
       <c r="H48" s="20">
         <f>M$2*G48</f>
-        <v>407207.99999999994</v>
+        <v>406616</v>
       </c>
       <c r="I48" s="20">
         <f t="shared" si="0"/>
-        <v>407207.99999999994</v>
+        <v>406616</v>
       </c>
       <c r="J48" s="9">
         <v>1</v>
@@ -6222,11 +6222,11 @@
       </c>
       <c r="H49" s="20">
         <f>M$2*G49</f>
-        <v>269775.3</v>
+        <v>269383.09999999998</v>
       </c>
       <c r="I49" s="20">
         <f t="shared" si="0"/>
-        <v>269775.3</v>
+        <v>269383.09999999998</v>
       </c>
       <c r="J49" s="9">
         <v>1</v>
@@ -6260,11 +6260,11 @@
       </c>
       <c r="H50" s="20">
         <f t="shared" ref="H50:H52" si="2">M$2*G50</f>
-        <v>295022.196</v>
+        <v>294593.29200000002</v>
       </c>
       <c r="I50" s="20">
         <f t="shared" si="0"/>
-        <v>1770133.176</v>
+        <v>1767559.7520000001</v>
       </c>
       <c r="J50" s="9">
         <v>6</v>
@@ -6299,11 +6299,11 @@
       </c>
       <c r="H51" s="20">
         <f t="shared" si="2"/>
-        <v>35630.699999999997</v>
+        <v>35578.9</v>
       </c>
       <c r="I51" s="20">
         <f t="shared" si="0"/>
-        <v>213784.19999999998</v>
+        <v>213473.40000000002</v>
       </c>
       <c r="J51" s="9">
         <v>6</v>
@@ -6335,11 +6335,11 @@
       </c>
       <c r="H52" s="20">
         <f t="shared" si="2"/>
-        <v>32067.629999999997</v>
+        <v>32021.01</v>
       </c>
       <c r="I52" s="20">
         <f t="shared" si="0"/>
-        <v>32067.629999999997</v>
+        <v>32021.01</v>
       </c>
       <c r="J52" s="9">
         <v>1</v>
@@ -6370,11 +6370,11 @@
       </c>
       <c r="H53" s="20">
         <f>M$2*G53</f>
-        <v>39336.292799999996</v>
+        <v>39279.105600000003</v>
       </c>
       <c r="I53" s="20">
         <f t="shared" si="0"/>
-        <v>314690.34239999996</v>
+        <v>314232.84480000002</v>
       </c>
       <c r="J53" s="9">
         <v>8</v>
@@ -6407,11 +6407,11 @@
       </c>
       <c r="H54" s="20">
         <f>M$2*G54</f>
-        <v>39336.292799999996</v>
+        <v>39279.105600000003</v>
       </c>
       <c r="I54" s="20">
         <f t="shared" si="0"/>
-        <v>78672.585599999991</v>
+        <v>78558.211200000005</v>
       </c>
       <c r="J54" s="9">
         <v>2</v>
@@ -6442,11 +6442,11 @@
       </c>
       <c r="H55" s="20">
         <f>M2*G55</f>
-        <v>11452.724999999999</v>
+        <v>11436.075000000001</v>
       </c>
       <c r="I55" s="20">
         <f t="shared" si="0"/>
-        <v>183243.59999999998</v>
+        <v>182977.2</v>
       </c>
       <c r="J55" s="9">
         <v>16</v>
@@ -6477,11 +6477,11 @@
       </c>
       <c r="H56" s="20">
         <f>M2*G56</f>
-        <v>17077.285499999998</v>
+        <v>17052.458500000001</v>
       </c>
       <c r="I56" s="20">
         <f t="shared" si="0"/>
-        <v>273236.56799999997</v>
+        <v>272839.33600000001</v>
       </c>
       <c r="J56" s="9">
         <v>16</v>
@@ -6512,11 +6512,11 @@
       </c>
       <c r="H57" s="20">
         <f>M2*G57</f>
-        <v>15168.498</v>
+        <v>15146.446</v>
       </c>
       <c r="I57" s="20">
         <f t="shared" si="0"/>
-        <v>15168.498</v>
+        <v>15146.446</v>
       </c>
       <c r="J57" s="9">
         <v>1</v>
@@ -6547,11 +6547,11 @@
       </c>
       <c r="H58" s="20">
         <f>M2*G58</f>
-        <v>2785.8626309999995</v>
+        <v>2781.8125369999998</v>
       </c>
       <c r="I58" s="20">
         <f t="shared" si="0"/>
-        <v>2785.8626309999995</v>
+        <v>2781.8125369999998</v>
       </c>
       <c r="J58" s="9">
         <v>1</v>
@@ -6582,11 +6582,11 @@
       </c>
       <c r="H59" s="20">
         <f>M2*G59</f>
-        <v>4866.6955109999999</v>
+        <v>4859.6202970000004</v>
       </c>
       <c r="I59" s="20">
         <f t="shared" si="0"/>
-        <v>4866.6955109999999</v>
+        <v>4859.6202970000004</v>
       </c>
       <c r="J59" s="9">
         <v>1</v>
@@ -6617,11 +6617,11 @@
       </c>
       <c r="H60" s="20">
         <f>M2*G60</f>
-        <v>7634.8954949999998</v>
+        <v>7623.795865</v>
       </c>
       <c r="I60" s="20">
         <f t="shared" si="0"/>
-        <v>22904.686484999998</v>
+        <v>22871.387595</v>
       </c>
       <c r="J60" s="9">
         <v>3</v>
@@ -6652,11 +6652,11 @@
       </c>
       <c r="H61" s="20">
         <f>M2*G61</f>
-        <v>2856.0551099999998</v>
+        <v>2851.9029700000001</v>
       </c>
       <c r="I61" s="20">
         <f t="shared" si="0"/>
-        <v>5712.1102199999996</v>
+        <v>5703.8059400000002</v>
       </c>
       <c r="J61" s="9">
         <v>2</v>
@@ -6687,11 +6687,11 @@
       </c>
       <c r="H62" s="20">
         <f>M2*G62</f>
-        <v>4109.0850269999992</v>
+        <v>4103.1112290000001</v>
       </c>
       <c r="I62" s="20">
         <f t="shared" si="0"/>
-        <v>12327.255080999998</v>
+        <v>12309.333687</v>
       </c>
       <c r="J62" s="9">
         <v>3</v>
@@ -6722,11 +6722,11 @@
       </c>
       <c r="H63" s="20">
         <f>M2*G63</f>
-        <v>2427.9776999999999</v>
+        <v>2424.4479000000001</v>
       </c>
       <c r="I63" s="20">
         <f t="shared" si="0"/>
-        <v>4855.9553999999998</v>
+        <v>4848.8958000000002</v>
       </c>
       <c r="J63" s="9">
         <v>2</v>
@@ -6757,11 +6757,11 @@
       </c>
       <c r="H64" s="20">
         <f>M2*G64</f>
-        <v>30819.384776999999</v>
+        <v>30774.579479000004</v>
       </c>
       <c r="I64" s="20">
         <f t="shared" si="0"/>
-        <v>154096.923885</v>
+        <v>153872.89739500001</v>
       </c>
       <c r="J64" s="9">
         <v>5</v>
@@ -6792,11 +6792,11 @@
       </c>
       <c r="H65" s="20">
         <f>M2*G65</f>
-        <v>30819.384776999999</v>
+        <v>30774.579479000004</v>
       </c>
       <c r="I65" s="20">
         <f t="shared" si="0"/>
-        <v>462290.77165499999</v>
+        <v>461618.69218500005</v>
       </c>
       <c r="J65" s="9">
         <v>15</v>
@@ -6827,11 +6827,11 @@
       </c>
       <c r="H66" s="20">
         <f>M2*G66</f>
-        <v>100621.0968</v>
+        <v>100474.81359999999</v>
       </c>
       <c r="I66" s="20">
         <f t="shared" si="0"/>
-        <v>804968.77439999999</v>
+        <v>803798.50879999995</v>
       </c>
       <c r="J66" s="9">
         <v>8</v>
@@ -6866,11 +6866,11 @@
       </c>
       <c r="H67" s="20">
         <f>M2*G67</f>
-        <v>839866.49999999988</v>
+        <v>838645.5</v>
       </c>
       <c r="I67" s="20">
         <f t="shared" si="0"/>
-        <v>839866.49999999988</v>
+        <v>838645.5</v>
       </c>
       <c r="J67" s="9">
         <v>1</v>
@@ -6938,11 +6938,11 @@
       </c>
       <c r="H69" s="20">
         <f>M2*G69</f>
-        <v>44105.716499999995</v>
+        <v>44041.595500000003</v>
       </c>
       <c r="I69" s="20">
         <f t="shared" si="0"/>
-        <v>132317.1495</v>
+        <v>132124.78650000002</v>
       </c>
       <c r="J69" s="9">
         <v>3</v>
@@ -6977,11 +6977,11 @@
       </c>
       <c r="H70" s="20">
         <f>M2*G70</f>
-        <v>45506.104811999998</v>
+        <v>45439.947924000007</v>
       </c>
       <c r="I70" s="20">
         <f t="shared" si="0"/>
-        <v>45506.104811999998</v>
+        <v>45439.947924000007</v>
       </c>
       <c r="J70" s="9">
         <v>1</v>
@@ -7016,11 +7016,11 @@
       </c>
       <c r="H71" s="20">
         <f>M2*G71</f>
-        <v>45506.104811999998</v>
+        <v>45439.947924000007</v>
       </c>
       <c r="I71" s="20">
         <f t="shared" ref="I71:I134" si="3">H71*J71</f>
-        <v>91012.209623999996</v>
+        <v>90879.895848000015</v>
       </c>
       <c r="J71" s="9">
         <v>2</v>
@@ -7055,11 +7055,11 @@
       </c>
       <c r="H72" s="20">
         <f>M2*G72</f>
-        <v>45506.104811999998</v>
+        <v>45439.947924000007</v>
       </c>
       <c r="I72" s="20">
         <f t="shared" si="3"/>
-        <v>45506.104811999998</v>
+        <v>45439.947924000007</v>
       </c>
       <c r="J72" s="9">
         <v>1</v>
@@ -7094,11 +7094,11 @@
       </c>
       <c r="H73" s="20">
         <f>M2*G73</f>
-        <v>127557.90599999999</v>
+        <v>127372.462</v>
       </c>
       <c r="I73" s="20">
         <f t="shared" si="3"/>
-        <v>1020463.2479999999</v>
+        <v>1018979.696</v>
       </c>
       <c r="J73" s="9">
         <v>8</v>
@@ -7135,11 +7135,11 @@
       </c>
       <c r="H74" s="20">
         <f>M2*G74</f>
-        <v>131070.075</v>
+        <v>130879.52499999999</v>
       </c>
       <c r="I74" s="20">
         <f t="shared" si="3"/>
-        <v>655350.375</v>
+        <v>654397.625</v>
       </c>
       <c r="J74" s="9">
         <v>5</v>
@@ -7176,11 +7176,11 @@
       </c>
       <c r="H75" s="20">
         <f>M2*G75</f>
-        <v>132011.74349999998</v>
+        <v>131819.82449999999</v>
       </c>
       <c r="I75" s="20">
         <f t="shared" si="3"/>
-        <v>132011.74349999998</v>
+        <v>131819.82449999999</v>
       </c>
       <c r="J75" s="9">
         <v>1</v>
@@ -7217,11 +7217,11 @@
       </c>
       <c r="H76" s="20">
         <f>M2*G76</f>
-        <v>110964.18</v>
+        <v>110802.86</v>
       </c>
       <c r="I76" s="20">
         <f t="shared" si="3"/>
-        <v>110964.18</v>
+        <v>110802.86</v>
       </c>
       <c r="J76" s="9">
         <v>1</v>
@@ -7258,11 +7258,11 @@
       </c>
       <c r="H77" s="20">
         <f>M2*G77</f>
-        <v>52453.480499999998</v>
+        <v>52377.2235</v>
       </c>
       <c r="I77" s="20">
         <f t="shared" si="3"/>
-        <v>3357022.7519999999</v>
+        <v>3352142.304</v>
       </c>
       <c r="J77" s="10">
         <v>64</v>
@@ -7299,11 +7299,11 @@
       </c>
       <c r="H78" s="20">
         <f>M2*G78</f>
-        <v>301741.12799999997</v>
+        <v>301302.45600000001</v>
       </c>
       <c r="I78" s="20">
         <f t="shared" si="3"/>
-        <v>603482.25599999994</v>
+        <v>602604.91200000001</v>
       </c>
       <c r="J78" s="9">
         <v>2</v>
@@ -7338,11 +7338,11 @@
       </c>
       <c r="H79" s="20">
         <f>M2*G79</f>
-        <v>110256.65609999999</v>
+        <v>110096.36470000001</v>
       </c>
       <c r="I79" s="20">
         <f t="shared" si="3"/>
-        <v>110256.65609999999</v>
+        <v>110096.36470000001</v>
       </c>
       <c r="J79" s="9">
         <v>1</v>
@@ -7373,11 +7373,11 @@
       </c>
       <c r="H80" s="20">
         <f>M2*G80</f>
-        <v>510.740634</v>
+        <v>509.99811800000003</v>
       </c>
       <c r="I80" s="20">
         <f t="shared" si="3"/>
-        <v>4596.6657059999998</v>
+        <v>4589.9830620000002</v>
       </c>
       <c r="J80" s="9">
         <v>9</v>
@@ -7441,11 +7441,11 @@
       </c>
       <c r="H82" s="20">
         <f>M2*G82</f>
-        <v>130075.77486599999</v>
+        <v>129886.670382</v>
       </c>
       <c r="I82" s="20">
         <f t="shared" si="3"/>
-        <v>390227.32459799998</v>
+        <v>389660.011146</v>
       </c>
       <c r="J82" s="9">
         <v>3</v>
@@ -7476,11 +7476,11 @@
       </c>
       <c r="H83" s="20">
         <f>M2*G83</f>
-        <v>8512.835943</v>
+        <v>8500.4599610000005</v>
       </c>
       <c r="I83" s="20">
         <f t="shared" si="3"/>
-        <v>8512.835943</v>
+        <v>8500.4599610000005</v>
       </c>
       <c r="J83" s="9">
         <v>1</v>
@@ -7511,11 +7511,11 @@
       </c>
       <c r="H84" s="20">
         <f>M2*G84</f>
-        <v>43011.344999999994</v>
+        <v>42948.815000000002</v>
       </c>
       <c r="I84" s="20">
         <f t="shared" si="3"/>
-        <v>43011.344999999994</v>
+        <v>42948.815000000002</v>
       </c>
       <c r="J84" s="9">
         <v>1</v>
@@ -7546,11 +7546,11 @@
       </c>
       <c r="H85" s="20">
         <f>M2*G85</f>
-        <v>43011.344999999994</v>
+        <v>42948.815000000002</v>
       </c>
       <c r="I85" s="20">
         <f t="shared" si="3"/>
-        <v>129034.03499999997</v>
+        <v>128846.44500000001</v>
       </c>
       <c r="J85" s="9">
         <v>3</v>
@@ -7581,11 +7581,11 @@
       </c>
       <c r="H86" s="20">
         <f>M2*G86</f>
-        <v>1446.0465089999998</v>
+        <v>1443.9442429999999</v>
       </c>
       <c r="I86" s="20">
         <f t="shared" si="3"/>
-        <v>2892.0930179999996</v>
+        <v>2887.8884859999998</v>
       </c>
       <c r="J86" s="9">
         <v>2</v>
@@ -7616,11 +7616,11 @@
       </c>
       <c r="H87" s="20">
         <f>M2*G87</f>
-        <v>1135.041399</v>
+        <v>1133.391273</v>
       </c>
       <c r="I87" s="20">
         <f t="shared" si="3"/>
-        <v>1135.041399</v>
+        <v>1133.391273</v>
       </c>
       <c r="J87" s="9">
         <v>1</v>
@@ -7651,11 +7651,11 @@
       </c>
       <c r="H88" s="20">
         <f>M2*G88</f>
-        <v>1320.0156329999998</v>
+        <v>1318.096591</v>
       </c>
       <c r="I88" s="20">
         <f t="shared" si="3"/>
-        <v>2640.0312659999995</v>
+        <v>2636.193182</v>
       </c>
       <c r="J88" s="9">
         <v>2</v>
@@ -7686,11 +7686,11 @@
       </c>
       <c r="H89" s="20">
         <f>M2*G89</f>
-        <v>617.98904099999993</v>
+        <v>617.09060699999998</v>
       </c>
       <c r="I89" s="20">
         <f t="shared" si="3"/>
-        <v>1853.9671229999999</v>
+        <v>1851.2718209999998</v>
       </c>
       <c r="J89" s="9">
         <v>3</v>
@@ -7727,11 +7727,11 @@
       </c>
       <c r="H90" s="20">
         <f>M2*G90</f>
-        <v>40837.566893999996</v>
+        <v>40778.197137999996</v>
       </c>
       <c r="I90" s="20">
         <f t="shared" si="3"/>
-        <v>40837.566893999996</v>
+        <v>40778.197137999996</v>
       </c>
       <c r="J90" s="9">
         <v>1</v>
@@ -7768,11 +7768,11 @@
       </c>
       <c r="H91" s="20">
         <f>M2*G91</f>
-        <v>40837.566893999996</v>
+        <v>40778.197137999996</v>
       </c>
       <c r="I91" s="20">
         <f t="shared" si="3"/>
-        <v>40837.566893999996</v>
+        <v>40778.197137999996</v>
       </c>
       <c r="J91" s="9">
         <v>1</v>
@@ -7809,11 +7809,11 @@
       </c>
       <c r="H92" s="20">
         <f>M2*G92</f>
-        <v>40837.566893999996</v>
+        <v>40778.197137999996</v>
       </c>
       <c r="I92" s="20">
         <f t="shared" si="3"/>
-        <v>122512.700682</v>
+        <v>122334.59141399999</v>
       </c>
       <c r="J92" s="10">
         <v>3</v>
@@ -7850,11 +7850,11 @@
       </c>
       <c r="H93" s="20">
         <f>M2*G93</f>
-        <v>16517.374499999998</v>
+        <v>16493.361499999999</v>
       </c>
       <c r="I93" s="20">
         <f t="shared" si="3"/>
-        <v>49552.123499999994</v>
+        <v>49480.084499999997</v>
       </c>
       <c r="J93" s="10">
         <v>3</v>
@@ -7891,11 +7891,11 @@
       </c>
       <c r="H94" s="20">
         <f>M2*G94</f>
-        <v>16517.374499999998</v>
+        <v>16493.361499999999</v>
       </c>
       <c r="I94" s="20">
         <f t="shared" si="3"/>
-        <v>16517.374499999998</v>
+        <v>16493.361499999999</v>
       </c>
       <c r="J94" s="9">
         <v>1</v>
@@ -7926,11 +7926,11 @@
       </c>
       <c r="H95" s="20">
         <f>M2*G95</f>
-        <v>71261.399999999994</v>
+        <v>71157.8</v>
       </c>
       <c r="I95" s="20">
         <f t="shared" si="3"/>
-        <v>71261.399999999994</v>
+        <v>71157.8</v>
       </c>
       <c r="J95" s="9">
         <v>1</v>
@@ -7961,11 +7961,11 @@
       </c>
       <c r="H96" s="20">
         <f>M2*G96</f>
-        <v>8907.6749999999993</v>
+        <v>8894.7250000000004</v>
       </c>
       <c r="I96" s="20">
         <f t="shared" si="3"/>
-        <v>249414.89999999997</v>
+        <v>249052.30000000002</v>
       </c>
       <c r="J96" s="9">
         <v>28</v>
@@ -8002,11 +8002,11 @@
       </c>
       <c r="H97" s="20">
         <f>M2*G97</f>
-        <v>1335741.6496530001</v>
+        <v>1333799.7451310002</v>
       </c>
       <c r="I97" s="20">
         <f t="shared" si="3"/>
-        <v>4007224.9489590004</v>
+        <v>4001399.2353930008</v>
       </c>
       <c r="J97" s="9">
         <v>3</v>
@@ -8043,11 +8043,11 @@
       </c>
       <c r="H98" s="20">
         <f>M2*G98</f>
-        <v>25145.093999999997</v>
+        <v>25108.538</v>
       </c>
       <c r="I98" s="20">
         <f t="shared" si="3"/>
-        <v>25145.093999999997</v>
+        <v>25108.538</v>
       </c>
       <c r="J98" s="9">
         <v>1</v>
@@ -8084,11 +8084,11 @@
       </c>
       <c r="H99" s="20">
         <f>M2*G99</f>
-        <v>66171.299999999988</v>
+        <v>66075.100000000006</v>
       </c>
       <c r="I99" s="20">
         <f t="shared" si="3"/>
-        <v>66171.299999999988</v>
+        <v>66075.100000000006</v>
       </c>
       <c r="J99" s="9">
         <v>1</v>
@@ -8125,11 +8125,11 @@
       </c>
       <c r="H100" s="20">
         <f>M$2*G100</f>
-        <v>91621.799999999988</v>
+        <v>91488.6</v>
       </c>
       <c r="I100" s="20">
         <f t="shared" si="3"/>
-        <v>549730.79999999993</v>
+        <v>548931.60000000009</v>
       </c>
       <c r="J100" s="9">
         <v>6</v>
@@ -8166,11 +8166,11 @@
       </c>
       <c r="H101" s="20">
         <f>M$2*G101</f>
-        <v>76351.5</v>
+        <v>76240.5</v>
       </c>
       <c r="I101" s="20">
         <f t="shared" si="3"/>
-        <v>76351.5</v>
+        <v>76240.5</v>
       </c>
       <c r="J101" s="9">
         <v>1</v>
@@ -8202,11 +8202,11 @@
       </c>
       <c r="H102" s="20">
         <f>M2*G102</f>
-        <v>25145.093999999997</v>
+        <v>25108.538</v>
       </c>
       <c r="I102" s="20">
         <f t="shared" si="3"/>
-        <v>100580.37599999999</v>
+        <v>100434.152</v>
       </c>
       <c r="J102" s="9">
         <v>4</v>
@@ -8243,11 +8243,11 @@
       </c>
       <c r="H103" s="20">
         <f>M2*G103</f>
-        <v>188588.20499999999</v>
+        <v>188314.035</v>
       </c>
       <c r="I103" s="20">
         <f t="shared" si="3"/>
-        <v>2451646.665</v>
+        <v>2448082.4550000001</v>
       </c>
       <c r="J103" s="10">
         <v>13</v>
@@ -8284,11 +8284,11 @@
       </c>
       <c r="H104" s="20">
         <f>M2*G104</f>
-        <v>168635.01299999998</v>
+        <v>168389.851</v>
       </c>
       <c r="I104" s="20">
         <f t="shared" si="3"/>
-        <v>1517715.1169999999</v>
+        <v>1515508.659</v>
       </c>
       <c r="J104" s="10">
         <v>9</v>
@@ -8319,11 +8319,11 @@
       </c>
       <c r="H105" s="20">
         <f>M2*G105</f>
-        <v>40720.799999999996</v>
+        <v>40661.599999999999</v>
       </c>
       <c r="I105" s="20">
         <f t="shared" si="3"/>
-        <v>40720.799999999996</v>
+        <v>40661.599999999999</v>
       </c>
       <c r="J105" s="9">
         <v>1</v>
@@ -8354,11 +8354,11 @@
       </c>
       <c r="H106" s="20">
         <f>M2*G106</f>
-        <v>90858.284999999989</v>
+        <v>90726.195000000007</v>
       </c>
       <c r="I106" s="20">
         <f t="shared" si="3"/>
-        <v>90858.284999999989</v>
+        <v>90726.195000000007</v>
       </c>
       <c r="J106" s="9">
         <v>1</v>
@@ -8640,11 +8640,11 @@
       </c>
       <c r="H114" s="20">
         <f>M$2*G114</f>
-        <v>479675.75369999994</v>
+        <v>478978.39990000002</v>
       </c>
       <c r="I114" s="20">
         <f t="shared" si="3"/>
-        <v>959351.50739999989</v>
+        <v>957956.79980000004</v>
       </c>
       <c r="J114" s="37">
         <v>2</v>
@@ -8676,11 +8676,11 @@
       </c>
       <c r="H115" s="20">
         <f>M$2*G115</f>
-        <v>865316.99999999988</v>
+        <v>864059</v>
       </c>
       <c r="I115" s="20">
         <f t="shared" si="3"/>
-        <v>865316.99999999988</v>
+        <v>864059</v>
       </c>
       <c r="J115" s="30">
         <v>1</v>
@@ -8712,11 +8712,11 @@
       </c>
       <c r="H116" s="20">
         <f>M2*G116</f>
-        <v>56500.109999999993</v>
+        <v>56417.97</v>
       </c>
       <c r="I116" s="20">
         <f t="shared" si="3"/>
-        <v>169500.33</v>
+        <v>169253.91</v>
       </c>
       <c r="J116" s="33">
         <v>3</v>
@@ -8753,11 +8753,11 @@
       </c>
       <c r="H117" s="20">
         <f>M2*G117</f>
-        <v>72152.167499999996</v>
+        <v>72047.272500000006</v>
       </c>
       <c r="I117" s="20">
         <f t="shared" si="3"/>
-        <v>1659499.8524999998</v>
+        <v>1657087.2675000001</v>
       </c>
       <c r="J117" s="10">
         <v>23</v>
@@ -8794,11 +8794,11 @@
       </c>
       <c r="H118" s="20">
         <f>M2*G118</f>
-        <v>17815.349999999999</v>
+        <v>17789.45</v>
       </c>
       <c r="I118" s="20">
         <f t="shared" si="3"/>
-        <v>71261.399999999994</v>
+        <v>71157.8</v>
       </c>
       <c r="J118" s="9">
         <v>4</v>
@@ -8835,11 +8835,11 @@
       </c>
       <c r="H119" s="20">
         <f>M2*G119</f>
-        <v>17815.349999999999</v>
+        <v>17789.45</v>
       </c>
       <c r="I119" s="20">
         <f t="shared" si="3"/>
-        <v>35630.699999999997</v>
+        <v>35578.9</v>
       </c>
       <c r="J119" s="10">
         <v>2</v>
@@ -8876,11 +8876,11 @@
       </c>
       <c r="H120" s="20">
         <f>M2*G120</f>
-        <v>32751.128627999995</v>
+        <v>32703.514955999999</v>
       </c>
       <c r="I120" s="20">
         <f t="shared" si="3"/>
-        <v>196506.77176799998</v>
+        <v>196221.08973599999</v>
       </c>
       <c r="J120" s="9">
         <v>6</v>
@@ -8917,11 +8917,11 @@
       </c>
       <c r="H121" s="20">
         <f>M2*G121</f>
-        <v>29013.569999999996</v>
+        <v>28971.39</v>
       </c>
       <c r="I121" s="20">
         <f t="shared" si="3"/>
-        <v>58027.139999999992</v>
+        <v>57942.78</v>
       </c>
       <c r="J121" s="9">
         <v>2</v>
@@ -8958,11 +8958,11 @@
       </c>
       <c r="H122" s="20">
         <f>M2*G122</f>
-        <v>3210.3260700000001</v>
+        <v>3205.6588900000002</v>
       </c>
       <c r="I122" s="20">
         <f t="shared" si="3"/>
-        <v>41734.23891</v>
+        <v>41673.565569999999</v>
       </c>
       <c r="J122" s="9">
         <v>13</v>
@@ -8999,11 +8999,11 @@
       </c>
       <c r="H123" s="20">
         <f>M$2*G123</f>
-        <v>92531.655374999988</v>
+        <v>92397.132624999998</v>
       </c>
       <c r="I123" s="20">
         <f t="shared" si="3"/>
-        <v>92531.655374999988</v>
+        <v>92397.132624999998</v>
       </c>
       <c r="J123" s="9">
         <v>1</v>
@@ -9037,11 +9037,11 @@
       </c>
       <c r="H124" s="20">
         <f>M$2*G124</f>
-        <v>76351.5</v>
+        <v>76240.5</v>
       </c>
       <c r="I124" s="20">
         <f t="shared" si="3"/>
-        <v>76351.5</v>
+        <v>76240.5</v>
       </c>
       <c r="J124" s="9">
         <v>1</v>
@@ -9069,11 +9069,11 @@
       </c>
       <c r="H125" s="20">
         <f>M2*G125</f>
-        <v>5741.8364039999997</v>
+        <v>5733.4889079999994</v>
       </c>
       <c r="I125" s="20">
         <f t="shared" si="3"/>
-        <v>11483.672807999999</v>
+        <v>11466.977815999999</v>
       </c>
       <c r="J125" s="9">
         <v>2</v>
@@ -9104,11 +9104,11 @@
       </c>
       <c r="H126" s="20">
         <f>M2*G126</f>
-        <v>340400.4375</v>
+        <v>339905.5625</v>
       </c>
       <c r="I126" s="20">
         <f t="shared" si="3"/>
-        <v>680800.875</v>
+        <v>679811.125</v>
       </c>
       <c r="J126" s="9">
         <v>2</v>
@@ -9143,11 +9143,11 @@
       </c>
       <c r="H127" s="20">
         <f>M2*G127</f>
-        <v>484401.70794599998</v>
+        <v>483697.48354200006</v>
       </c>
       <c r="I127" s="20">
         <f t="shared" si="3"/>
-        <v>484401.70794599998</v>
+        <v>483697.48354200006</v>
       </c>
       <c r="J127" s="9">
         <v>1</v>
@@ -9217,11 +9217,11 @@
       </c>
       <c r="H129" s="20">
         <f>M2*G129</f>
-        <v>174778.76369999998</v>
+        <v>174524.66990000001</v>
       </c>
       <c r="I129" s="20">
         <f t="shared" si="3"/>
-        <v>174778.76369999998</v>
+        <v>174524.66990000001</v>
       </c>
       <c r="J129" s="9">
         <v>1</v>
@@ -9256,11 +9256,11 @@
       </c>
       <c r="H130" s="20">
         <f>M2*G130</f>
-        <v>4932.3068999999996</v>
+        <v>4925.1363000000001</v>
       </c>
       <c r="I130" s="20">
         <f t="shared" si="3"/>
-        <v>9864.6137999999992</v>
+        <v>9850.2726000000002</v>
       </c>
       <c r="J130" s="9">
         <v>2</v>
@@ -9331,11 +9331,11 @@
       </c>
       <c r="H132" s="20">
         <f>M2*G132</f>
-        <v>16680.257699999998</v>
+        <v>16656.007900000001</v>
       </c>
       <c r="I132" s="20">
         <f t="shared" si="3"/>
-        <v>16680.257699999998</v>
+        <v>16656.007900000001</v>
       </c>
       <c r="J132" s="9">
         <v>1</v>
@@ -9372,11 +9372,11 @@
       </c>
       <c r="H133" s="20">
         <f>M2*G133</f>
-        <v>40000.805354999997</v>
+        <v>39942.652085000002</v>
       </c>
       <c r="I133" s="20">
         <f t="shared" si="3"/>
-        <v>120002.416065</v>
+        <v>119827.956255</v>
       </c>
       <c r="J133" s="14">
         <v>3</v>
@@ -9449,11 +9449,11 @@
       </c>
       <c r="H135" s="20">
         <f>M2*G135</f>
-        <v>1018019.9999999999</v>
+        <v>1016540</v>
       </c>
       <c r="I135" s="20">
         <f t="shared" ref="I135:I198" si="4">H135*J135</f>
-        <v>1018019.9999999999</v>
+        <v>1016540</v>
       </c>
       <c r="J135" s="46">
         <v>1</v>
@@ -9484,11 +9484,11 @@
       </c>
       <c r="H136" s="20">
         <f>M2*G136</f>
-        <v>3893.5701929999996</v>
+        <v>3887.9097109999998</v>
       </c>
       <c r="I136" s="20">
         <f t="shared" si="4"/>
-        <v>15574.280771999998</v>
+        <v>15551.638843999999</v>
       </c>
       <c r="J136" s="26">
         <v>4</v>
@@ -9519,11 +9519,11 @@
       </c>
       <c r="H137" s="20">
         <f>M2*G137</f>
-        <v>237.80947199999997</v>
+        <v>237.46374399999999</v>
       </c>
       <c r="I137" s="20">
         <f t="shared" si="4"/>
-        <v>475.61894399999994</v>
+        <v>474.92748799999998</v>
       </c>
       <c r="J137" s="9">
         <v>2</v>
@@ -9554,11 +9554,11 @@
       </c>
       <c r="H138" s="20">
         <f>M2*G138</f>
-        <v>127791.49068899998</v>
+        <v>127605.70710299999</v>
       </c>
       <c r="I138" s="20">
         <f t="shared" si="4"/>
-        <v>383374.47206699994</v>
+        <v>382817.12130899995</v>
       </c>
       <c r="J138" s="9">
         <v>3</v>
@@ -9589,11 +9589,11 @@
       </c>
       <c r="H139" s="20">
         <f>M2*G139</f>
-        <v>2687.5727999999999</v>
+        <v>2683.6655999999998</v>
       </c>
       <c r="I139" s="20">
         <f t="shared" si="4"/>
-        <v>5375.1455999999998</v>
+        <v>5367.3311999999996</v>
       </c>
       <c r="J139" s="9">
         <v>2</v>
@@ -9630,11 +9630,11 @@
       </c>
       <c r="H140" s="20">
         <f>M2*G140</f>
-        <v>116278.2444</v>
+        <v>116109.1988</v>
       </c>
       <c r="I140" s="20">
         <f t="shared" si="4"/>
-        <v>581391.22199999995</v>
+        <v>580545.99399999995</v>
       </c>
       <c r="J140" s="9">
         <v>5</v>
@@ -9671,11 +9671,11 @@
       </c>
       <c r="H141" s="20">
         <f>M2*G141</f>
-        <v>175384.48559999999</v>
+        <v>175129.51120000001</v>
       </c>
       <c r="I141" s="20">
         <f t="shared" si="4"/>
-        <v>175384.48559999999</v>
+        <v>175129.51120000001</v>
       </c>
       <c r="J141" s="14">
         <v>1</v>
@@ -9712,11 +9712,11 @@
       </c>
       <c r="H142" s="20">
         <f>M2*G142</f>
-        <v>1531443.1166999999</v>
+        <v>1529216.7009000001</v>
       </c>
       <c r="I142" s="20">
         <f t="shared" si="4"/>
-        <v>1531443.1166999999</v>
+        <v>1529216.7009000001</v>
       </c>
       <c r="J142" s="57">
         <v>1</v>
@@ -9751,11 +9751,11 @@
       </c>
       <c r="H143" s="20">
         <f>M2*G143</f>
-        <v>410576.11916999996</v>
+        <v>409979.22258999996</v>
       </c>
       <c r="I143" s="20">
         <f t="shared" si="4"/>
-        <v>821152.23833999992</v>
+        <v>819958.44517999992</v>
       </c>
       <c r="J143" s="26">
         <v>2</v>
@@ -9786,11 +9786,11 @@
       </c>
       <c r="H144" s="20">
         <f>M2*G144</f>
-        <v>9355.603799999999</v>
+        <v>9342.0025999999998</v>
       </c>
       <c r="I144" s="20">
         <f t="shared" si="4"/>
-        <v>18711.207599999998</v>
+        <v>18684.0052</v>
       </c>
       <c r="J144" s="9">
         <v>2</v>
@@ -9821,11 +9821,11 @@
       </c>
       <c r="H145" s="20">
         <f>M2*G145</f>
-        <v>26748.475499999997</v>
+        <v>26709.588500000002</v>
       </c>
       <c r="I145" s="20">
         <f t="shared" si="4"/>
-        <v>26748.475499999997</v>
+        <v>26709.588500000002</v>
       </c>
       <c r="J145" s="9">
         <v>1</v>
@@ -9856,11 +9856,11 @@
       </c>
       <c r="H146" s="20">
         <f>M2*G146</f>
-        <v>839.86649999999997</v>
+        <v>838.64549999999997</v>
       </c>
       <c r="I146" s="20">
         <f t="shared" si="4"/>
-        <v>2519.5994999999998</v>
+        <v>2515.9364999999998</v>
       </c>
       <c r="J146" s="9">
         <v>3</v>
@@ -9924,11 +9924,11 @@
       </c>
       <c r="H148" s="20">
         <f>M2*G148</f>
-        <v>2697.7529999999997</v>
+        <v>2693.8310000000001</v>
       </c>
       <c r="I148" s="20">
         <f t="shared" si="4"/>
-        <v>2697.7529999999997</v>
+        <v>2693.8310000000001</v>
       </c>
       <c r="J148" s="9">
         <v>1</v>
@@ -9959,11 +9959,11 @@
       </c>
       <c r="H149" s="20">
         <f>M2*G149</f>
-        <v>209712.12</v>
+        <v>209407.24</v>
       </c>
       <c r="I149" s="20">
         <f t="shared" si="4"/>
-        <v>209712.12</v>
+        <v>209407.24</v>
       </c>
       <c r="J149" s="9">
         <v>1</v>
@@ -10000,11 +10000,11 @@
       </c>
       <c r="H150" s="20">
         <f>M$2*G150</f>
-        <v>427568.39999999997</v>
+        <v>426946.8</v>
       </c>
       <c r="I150" s="20">
         <f t="shared" si="4"/>
-        <v>427568.39999999997</v>
+        <v>426946.8</v>
       </c>
       <c r="J150" s="9">
         <v>1</v>
@@ -10036,11 +10036,11 @@
       </c>
       <c r="H151" s="20">
         <f>M$2*G151</f>
-        <v>427568.39999999997</v>
+        <v>426946.8</v>
       </c>
       <c r="I151" s="20">
         <f t="shared" si="4"/>
-        <v>427568.39999999997</v>
+        <v>426946.8</v>
       </c>
       <c r="J151" s="9">
         <v>1</v>
@@ -10072,11 +10072,11 @@
       </c>
       <c r="H152" s="20">
         <f>M$2*G152</f>
-        <v>427568.39999999997</v>
+        <v>426946.8</v>
       </c>
       <c r="I152" s="20">
         <f t="shared" si="4"/>
-        <v>427568.39999999997</v>
+        <v>426946.8</v>
       </c>
       <c r="J152" s="9">
         <v>1</v>
@@ -10107,11 +10107,11 @@
       </c>
       <c r="H153" s="20">
         <f>M2*G153</f>
-        <v>12674.348999999998</v>
+        <v>12655.923000000001</v>
       </c>
       <c r="I153" s="20">
         <f t="shared" si="4"/>
-        <v>25348.697999999997</v>
+        <v>25311.846000000001</v>
       </c>
       <c r="J153" s="9">
         <v>2</v>
@@ -10148,11 +10148,11 @@
       </c>
       <c r="H154" s="20">
         <f>M2*G154</f>
-        <v>281177.12399999995</v>
+        <v>280768.348</v>
       </c>
       <c r="I154" s="20">
         <f t="shared" si="4"/>
-        <v>1124708.4959999998</v>
+        <v>1123073.392</v>
       </c>
       <c r="J154" s="10">
         <v>4</v>
@@ -10187,11 +10187,11 @@
       </c>
       <c r="H155" s="20">
         <f>M2*G155</f>
-        <v>64924.225499999993</v>
+        <v>64829.838499999998</v>
       </c>
       <c r="I155" s="20">
         <f t="shared" si="4"/>
-        <v>389545.35299999994</v>
+        <v>388979.03099999996</v>
       </c>
       <c r="J155" s="9">
         <v>6</v>
@@ -10228,11 +10228,11 @@
       </c>
       <c r="H156" s="20">
         <f>M2*G156</f>
-        <v>29166.272999999997</v>
+        <v>29123.870999999999</v>
       </c>
       <c r="I156" s="20">
         <f t="shared" si="4"/>
-        <v>204163.91099999999</v>
+        <v>203867.09700000001</v>
       </c>
       <c r="J156" s="10">
         <v>7</v>
@@ -10269,11 +10269,11 @@
       </c>
       <c r="H157" s="20">
         <f>M2*G157</f>
-        <v>38201.200499999999</v>
+        <v>38145.663500000002</v>
       </c>
       <c r="I157" s="20">
         <f t="shared" si="4"/>
-        <v>114603.60149999999</v>
+        <v>114436.99050000001</v>
       </c>
       <c r="J157" s="9">
         <v>3</v>
@@ -10308,11 +10308,11 @@
       </c>
       <c r="H158" s="20">
         <f>M2*G158</f>
-        <v>20869.41</v>
+        <v>20839.07</v>
       </c>
       <c r="I158" s="20">
         <f t="shared" si="4"/>
-        <v>41738.82</v>
+        <v>41678.14</v>
       </c>
       <c r="J158" s="9">
         <v>2</v>
@@ -10349,11 +10349,11 @@
       </c>
       <c r="H159" s="20">
         <f>M2*G159</f>
-        <v>30973.258499999996</v>
+        <v>30928.229500000001</v>
       </c>
       <c r="I159" s="20">
         <f t="shared" si="4"/>
-        <v>247786.06799999997</v>
+        <v>247425.83600000001</v>
       </c>
       <c r="J159" s="9">
         <v>8</v>
@@ -10390,11 +10390,11 @@
       </c>
       <c r="H160" s="20">
         <f>M2*G160</f>
-        <v>31991.278499999997</v>
+        <v>31944.769499999999</v>
       </c>
       <c r="I160" s="20">
         <f t="shared" si="4"/>
-        <v>63982.556999999993</v>
+        <v>63889.538999999997</v>
       </c>
       <c r="J160" s="9">
         <v>2</v>
@@ -10425,11 +10425,11 @@
       </c>
       <c r="H161" s="20">
         <f>M2*G161</f>
-        <v>9111.2789999999986</v>
+        <v>9098.0329999999994</v>
       </c>
       <c r="I161" s="20">
         <f t="shared" si="4"/>
-        <v>18222.557999999997</v>
+        <v>18196.065999999999</v>
       </c>
       <c r="J161" s="9">
         <v>2</v>
@@ -10460,11 +10460,11 @@
       </c>
       <c r="H162" s="20">
         <f>M2*G162</f>
-        <v>20716.706999999999</v>
+        <v>20686.589</v>
       </c>
       <c r="I162" s="20">
         <f t="shared" si="4"/>
-        <v>41433.413999999997</v>
+        <v>41373.178</v>
       </c>
       <c r="J162" s="9">
         <v>2</v>
@@ -10534,11 +10534,11 @@
       </c>
       <c r="H164" s="20">
         <f>M2*G164</f>
-        <v>27232.034999999996</v>
+        <v>27192.445</v>
       </c>
       <c r="I164" s="20">
         <f t="shared" si="4"/>
-        <v>326784.41999999993</v>
+        <v>326309.33999999997</v>
       </c>
       <c r="J164" s="10">
         <v>12</v>
@@ -10575,11 +10575,11 @@
       </c>
       <c r="H165" s="20">
         <f>M2*G165</f>
-        <v>13027.398336</v>
+        <v>13008.459072000001</v>
       </c>
       <c r="I165" s="20">
         <f t="shared" si="4"/>
-        <v>169356.17836799999</v>
+        <v>169109.96793600003</v>
       </c>
       <c r="J165" s="10">
         <v>13</v>
@@ -10610,11 +10610,11 @@
       </c>
       <c r="H166" s="20">
         <f>M2*G166</f>
-        <v>1730.6339999999998</v>
+        <v>1728.1179999999999</v>
       </c>
       <c r="I166" s="20">
         <f t="shared" si="4"/>
-        <v>3461.2679999999996</v>
+        <v>3456.2359999999999</v>
       </c>
       <c r="J166" s="9">
         <v>2</v>
@@ -10645,11 +10645,11 @@
       </c>
       <c r="H167" s="20">
         <f>M2*G167</f>
-        <v>14232.123204</v>
+        <v>14211.432508</v>
       </c>
       <c r="I167" s="20">
         <f t="shared" si="4"/>
-        <v>71160.616020000001</v>
+        <v>71057.162540000005</v>
       </c>
       <c r="J167" s="9">
         <v>5</v>
@@ -10686,11 +10686,11 @@
       </c>
       <c r="H168" s="20">
         <f>M2*G168</f>
-        <v>18604.315499999997</v>
+        <v>18577.268499999998</v>
       </c>
       <c r="I168" s="20">
         <f t="shared" si="4"/>
-        <v>74417.261999999988</v>
+        <v>74309.073999999993</v>
       </c>
       <c r="J168" s="9">
         <v>4</v>
@@ -10727,11 +10727,11 @@
       </c>
       <c r="H169" s="20">
         <f>M2*G169</f>
-        <v>22924.181568</v>
+        <v>22890.854336</v>
       </c>
       <c r="I169" s="20">
         <f t="shared" si="4"/>
-        <v>160469.270976</v>
+        <v>160235.98035200001</v>
       </c>
       <c r="J169" s="9">
         <v>7</v>
@@ -10768,11 +10768,11 @@
       </c>
       <c r="H170" s="20">
         <f>M2*G170</f>
-        <v>4148.4314999999997</v>
+        <v>4142.4004999999997</v>
       </c>
       <c r="I170" s="20">
         <f t="shared" si="4"/>
-        <v>99562.356</v>
+        <v>99417.611999999994</v>
       </c>
       <c r="J170" s="9">
         <v>24</v>
@@ -10803,11 +10803,11 @@
       </c>
       <c r="H171" s="20">
         <f>M2*G171</f>
-        <v>15225.608921999998</v>
+        <v>15203.473893999999</v>
       </c>
       <c r="I171" s="20">
         <f t="shared" si="4"/>
-        <v>30451.217843999995</v>
+        <v>30406.947787999998</v>
       </c>
       <c r="J171" s="9">
         <v>2</v>
@@ -10838,11 +10838,11 @@
       </c>
       <c r="H172" s="20">
         <f>M2*G172</f>
-        <v>12318.041999999999</v>
+        <v>12300.134</v>
       </c>
       <c r="I172" s="20">
         <f t="shared" si="4"/>
-        <v>49272.167999999998</v>
+        <v>49200.536</v>
       </c>
       <c r="J172" s="9">
         <v>4</v>
@@ -10873,11 +10873,11 @@
       </c>
       <c r="H173" s="20">
         <f>M2*G173</f>
-        <v>18986.073</v>
+        <v>18958.471000000001</v>
       </c>
       <c r="I173" s="20">
         <f t="shared" si="4"/>
-        <v>37972.146000000001</v>
+        <v>37916.942000000003</v>
       </c>
       <c r="J173" s="9">
         <v>2</v>
@@ -10908,11 +10908,11 @@
       </c>
       <c r="H174" s="20">
         <f>M2*G174</f>
-        <v>37615.839</v>
+        <v>37561.152999999998</v>
       </c>
       <c r="I174" s="20">
         <f t="shared" si="4"/>
-        <v>263310.87300000002</v>
+        <v>262928.071</v>
       </c>
       <c r="J174" s="9">
         <v>7</v>
@@ -11013,11 +11013,11 @@
       </c>
       <c r="H177" s="20">
         <f>M2*G177</f>
-        <v>38201.200499999999</v>
+        <v>38145.663500000002</v>
       </c>
       <c r="I177" s="20">
         <f t="shared" si="4"/>
-        <v>114603.60149999999</v>
+        <v>114436.99050000001</v>
       </c>
       <c r="J177" s="9">
         <v>3</v>
@@ -11048,11 +11048,11 @@
       </c>
       <c r="H178" s="20">
         <f>M2*G178</f>
-        <v>48483.202499999999</v>
+        <v>48412.717499999999</v>
       </c>
       <c r="I178" s="20">
         <f t="shared" si="4"/>
-        <v>48483.202499999999</v>
+        <v>48412.717499999999</v>
       </c>
       <c r="J178" s="9">
         <v>1</v>
@@ -11089,11 +11089,11 @@
       </c>
       <c r="H179" s="20">
         <f>M2*G179</f>
-        <v>200560.12019999998</v>
+        <v>200268.5454</v>
       </c>
       <c r="I179" s="20">
         <f t="shared" si="4"/>
-        <v>200560.12019999998</v>
+        <v>200268.5454</v>
       </c>
       <c r="J179" s="9">
         <v>1</v>
@@ -11130,11 +11130,11 @@
       </c>
       <c r="H180" s="20">
         <f>M2*G180</f>
-        <v>245597.32499999998</v>
+        <v>245240.27499999999</v>
       </c>
       <c r="I180" s="20">
         <f t="shared" si="4"/>
-        <v>245597.32499999998</v>
+        <v>245240.27499999999</v>
       </c>
       <c r="J180" s="46">
         <v>1</v>
@@ -11250,11 +11250,11 @@
       </c>
       <c r="H184" s="20">
         <f>M2*G184</f>
-        <v>155528.0055</v>
+        <v>155301.89850000001</v>
       </c>
       <c r="I184" s="20">
         <f t="shared" si="4"/>
-        <v>466584.01650000003</v>
+        <v>465905.69550000003</v>
       </c>
       <c r="J184" s="43">
         <v>3</v>
@@ -11285,11 +11285,11 @@
       </c>
       <c r="H185" s="20">
         <f>M2*G185</f>
-        <v>3868.4759999999997</v>
+        <v>3862.8519999999999</v>
       </c>
       <c r="I185" s="20">
         <f t="shared" si="4"/>
-        <v>11605.428</v>
+        <v>11588.556</v>
       </c>
       <c r="J185" s="26">
         <v>3</v>
@@ -11322,11 +11322,11 @@
       </c>
       <c r="H186" s="20">
         <f>M2*G186</f>
-        <v>6489.8774999999996</v>
+        <v>6480.4425000000001</v>
       </c>
       <c r="I186" s="20">
         <f t="shared" si="4"/>
-        <v>84368.407500000001</v>
+        <v>84245.752500000002</v>
       </c>
       <c r="J186" s="9">
         <v>13</v>
@@ -11390,11 +11390,11 @@
       </c>
       <c r="H188" s="20">
         <f>M2*G188</f>
-        <v>33085.649999999994</v>
+        <v>33037.550000000003</v>
       </c>
       <c r="I188" s="20">
         <f t="shared" si="4"/>
-        <v>99256.949999999983</v>
+        <v>99112.650000000009</v>
       </c>
       <c r="J188" s="9">
         <v>3</v>
@@ -11431,11 +11431,11 @@
       </c>
       <c r="H189" s="20">
         <f>M2*G189</f>
-        <v>412298.1</v>
+        <v>411698.7</v>
       </c>
       <c r="I189" s="20">
         <f t="shared" si="4"/>
-        <v>412298.1</v>
+        <v>411698.7</v>
       </c>
       <c r="J189" s="14">
         <v>1</v>
@@ -11472,11 +11472,11 @@
       </c>
       <c r="H190" s="20">
         <f>M2*G190</f>
-        <v>358142.38825799996</v>
+        <v>357621.719966</v>
       </c>
       <c r="I190" s="20">
         <f t="shared" si="4"/>
-        <v>358142.38825799996</v>
+        <v>357621.719966</v>
       </c>
       <c r="J190" s="50">
         <v>1</v>
@@ -11567,11 +11567,11 @@
       </c>
       <c r="H193" s="20">
         <f>M2*G193</f>
-        <v>345292.02359999996</v>
+        <v>344790.03720000002</v>
       </c>
       <c r="I193" s="20">
         <f t="shared" si="4"/>
-        <v>345292.02359999996</v>
+        <v>344790.03720000002</v>
       </c>
       <c r="J193" s="26">
         <v>1</v>
@@ -11608,11 +11608,11 @@
       </c>
       <c r="H194" s="20">
         <f>M2*G194</f>
-        <v>265448.71499999997</v>
+        <v>265062.80499999999</v>
       </c>
       <c r="I194" s="20">
         <f t="shared" si="4"/>
-        <v>265448.71499999997</v>
+        <v>265062.80499999999</v>
       </c>
       <c r="J194" s="9">
         <v>1</v>
@@ -11643,11 +11643,11 @@
       </c>
       <c r="H195" s="20">
         <f>M2*G195</f>
-        <v>5166.4514999999992</v>
+        <v>5158.9404999999997</v>
       </c>
       <c r="I195" s="20">
         <f t="shared" si="4"/>
-        <v>10332.902999999998</v>
+        <v>10317.880999999999</v>
       </c>
       <c r="J195" s="9">
         <v>2</v>
@@ -11678,11 +11678,11 @@
       </c>
       <c r="H196" s="20">
         <f>M2*G196</f>
-        <v>5166.4514999999992</v>
+        <v>5158.9404999999997</v>
       </c>
       <c r="I196" s="20">
         <f t="shared" si="4"/>
-        <v>15499.354499999998</v>
+        <v>15476.821499999998</v>
       </c>
       <c r="J196" s="9">
         <v>3</v>
@@ -11719,11 +11719,11 @@
       </c>
       <c r="H197" s="20">
         <f>M2*G197</f>
-        <v>20869.41</v>
+        <v>20839.07</v>
       </c>
       <c r="I197" s="20">
         <f t="shared" si="4"/>
-        <v>62608.229999999996</v>
+        <v>62517.21</v>
       </c>
       <c r="J197" s="9">
         <v>3</v>
@@ -11760,11 +11760,11 @@
       </c>
       <c r="H198" s="20">
         <f>M2*G198</f>
-        <v>9610.1088</v>
+        <v>9596.1376</v>
       </c>
       <c r="I198" s="20">
         <f t="shared" si="4"/>
-        <v>28830.326399999998</v>
+        <v>28788.412799999998</v>
       </c>
       <c r="J198" s="10">
         <v>3</v>
@@ -11839,11 +11839,11 @@
       </c>
       <c r="H200" s="20">
         <f>M2*G200</f>
-        <v>937.69822199999987</v>
+        <v>936.33499399999994</v>
       </c>
       <c r="I200" s="20">
         <f t="shared" si="5"/>
-        <v>1875.3964439999997</v>
+        <v>1872.6699879999999</v>
       </c>
       <c r="J200" s="9">
         <v>2</v>
@@ -11876,11 +11876,11 @@
       </c>
       <c r="H201" s="20">
         <f>M2*G201</f>
-        <v>31049.609999999997</v>
+        <v>31004.47</v>
       </c>
       <c r="I201" s="20">
         <f t="shared" si="5"/>
-        <v>155248.04999999999</v>
+        <v>155022.35</v>
       </c>
       <c r="J201" s="9">
         <v>5</v>
@@ -11911,11 +11911,11 @@
       </c>
       <c r="H202" s="20">
         <f>M2*G202</f>
-        <v>50264.737499999996</v>
+        <v>50191.662499999999</v>
       </c>
       <c r="I202" s="20">
         <f t="shared" si="5"/>
-        <v>150794.21249999999</v>
+        <v>150574.98749999999</v>
       </c>
       <c r="J202" s="9">
         <v>3</v>
@@ -11948,11 +11948,11 @@
       </c>
       <c r="H203" s="20">
         <f>M2*G203</f>
-        <v>141351.822495</v>
+        <v>141146.324865</v>
       </c>
       <c r="I203" s="20">
         <f t="shared" si="5"/>
-        <v>141351.822495</v>
+        <v>141146.324865</v>
       </c>
       <c r="J203" s="9">
         <v>1</v>
@@ -11985,11 +11985,11 @@
       </c>
       <c r="H204" s="20">
         <f>M2*G204</f>
-        <v>178153.5</v>
+        <v>177894.5</v>
       </c>
       <c r="I204" s="20">
         <f t="shared" si="5"/>
-        <v>178153.5</v>
+        <v>177894.5</v>
       </c>
       <c r="J204" s="9">
         <v>1</v>
@@ -12020,11 +12020,11 @@
       </c>
       <c r="H205" s="20">
         <f>M2*G205</f>
-        <v>87562.496150999985</v>
+        <v>87435.197576999999</v>
       </c>
       <c r="I205" s="20">
         <f t="shared" si="5"/>
-        <v>262687.48845299997</v>
+        <v>262305.59273099998</v>
       </c>
       <c r="J205" s="9">
         <v>3</v>
@@ -12057,11 +12057,11 @@
       </c>
       <c r="H206" s="20">
         <f>M2*G206</f>
-        <v>127252.49999999999</v>
+        <v>127067.5</v>
       </c>
       <c r="I206" s="20">
         <f t="shared" si="5"/>
-        <v>636262.49999999988</v>
+        <v>635337.5</v>
       </c>
       <c r="J206" s="9">
         <v>5</v>
@@ -12092,11 +12092,11 @@
       </c>
       <c r="H207" s="20">
         <f>M2*G207</f>
-        <v>5500.1075549999996</v>
+        <v>5492.1114849999994</v>
       </c>
       <c r="I207" s="20">
         <f t="shared" si="5"/>
-        <v>38500.752884999994</v>
+        <v>38444.780394999994</v>
       </c>
       <c r="J207" s="9">
         <v>7</v>
@@ -12129,11 +12129,11 @@
       </c>
       <c r="H208" s="20">
         <f>M$2*G208</f>
-        <v>652.80532499999993</v>
+        <v>651.85627499999998</v>
       </c>
       <c r="I208" s="20">
         <f t="shared" si="5"/>
-        <v>13056.106499999998</v>
+        <v>13037.1255</v>
       </c>
       <c r="J208" s="9">
         <v>20</v>
@@ -12166,11 +12166,11 @@
       </c>
       <c r="H209" s="20">
         <f>M2*G209</f>
-        <v>636.26249999999993</v>
+        <v>635.33749999999998</v>
       </c>
       <c r="I209" s="20">
         <f t="shared" si="5"/>
-        <v>24814.237499999996</v>
+        <v>24778.162499999999</v>
       </c>
       <c r="J209" s="9">
         <v>39</v>
@@ -12818,11 +12818,11 @@
       </c>
       <c r="H228" s="20">
         <f>G228*M$2</f>
-        <v>71403.9228</v>
+        <v>71300.115600000005</v>
       </c>
       <c r="I228" s="20">
         <f t="shared" si="5"/>
-        <v>71403.9228</v>
+        <v>71300.115600000005</v>
       </c>
       <c r="J228" s="14">
         <v>1</v>
@@ -13706,6 +13706,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100573EFC3A4C3AAE438661E4D66B03B591" ma:contentTypeVersion="2" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="f8593c335997d055b37540639c4767b0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5fcf6e91-9d2c-4fbe-b73e-6e1cc1240b3e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7e7aaf2703ff573c3ffd5b2af60e7b89" ns2:_="">
     <xsd:import namespace="5fcf6e91-9d2c-4fbe-b73e-6e1cc1240b3e"/>
@@ -13837,22 +13852,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A72F3A-2E1B-4504-BDC9-0E7BD16E0A51}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A39A6148-E43A-4965-9F4A-36C6D678ED00}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E087F51-19FF-4963-A285-7904E9E27340}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13868,21 +13885,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A39A6148-E43A-4965-9F4A-36C6D678ED00}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A72F3A-2E1B-4504-BDC9-0E7BD16E0A51}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>